--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dossier Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28238D-5FC1-4BDF-8621-20D3751CC546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695F2B4-8698-43C0-A2CC-879D6263FFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
@@ -26,8 +26,10 @@
     <sheet name="Exporter Excel Reference" sheetId="11" r:id="rId11"/>
     <sheet name="Exporter Excel Personnalisé" sheetId="12" r:id="rId12"/>
     <sheet name="Autres" sheetId="13" r:id="rId13"/>
-    <sheet name="FR_Properties" sheetId="14" r:id="rId14"/>
-    <sheet name="ES_Properties" sheetId="16" r:id="rId15"/>
+    <sheet name="Changer Configuration" sheetId="17" r:id="rId14"/>
+    <sheet name="FR_Properties" sheetId="14" r:id="rId15"/>
+    <sheet name="ES_Properties" sheetId="16" r:id="rId16"/>
+    <sheet name="Constants" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="556">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -83,12 +85,6 @@
     <t>Langues</t>
   </si>
   <si>
-    <t>Bibliothèque de configurations</t>
-  </si>
-  <si>
-    <t>Charger la configuration</t>
-  </si>
-  <si>
     <t>Création</t>
   </si>
   <si>
@@ -146,9 +142,6 @@
     <t>window.main.analyze.panel.state.load.button</t>
   </si>
   <si>
-    <t>Lancer un analyse en mode Basique</t>
-  </si>
-  <si>
     <t>window.main.analyze.panel.state.nb.text.loaded.label</t>
   </si>
   <si>
@@ -236,12 +229,6 @@
     <t>Lenguas</t>
   </si>
   <si>
-    <t>Biblioteca de configuraciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargar configuración </t>
-  </si>
-  <si>
     <t>Creación</t>
   </si>
   <si>
@@ -272,9 +259,6 @@
     <t xml:space="preserve">Configuración utilizada : </t>
   </si>
   <si>
-    <t>Realizar un análisis en modo básico</t>
-  </si>
-  <si>
     <t>Número de secuencias :</t>
   </si>
   <si>
@@ -1650,6 +1634,87 @@
   </si>
   <si>
     <t>#Mensaje de prevención en caso de supresión</t>
+  </si>
+  <si>
+    <t>#Message pour le changement de la configuration</t>
+  </si>
+  <si>
+    <t>window.change.configuration.list.label</t>
+  </si>
+  <si>
+    <t>window.change.configuration.title</t>
+  </si>
+  <si>
+    <t>Configuration à utiliser :</t>
+  </si>
+  <si>
+    <t>Changement de la configuration</t>
+  </si>
+  <si>
+    <t>Choisir cette configuration et fermer</t>
+  </si>
+  <si>
+    <t>Configuración actual</t>
+  </si>
+  <si>
+    <t>Configuration courante</t>
+  </si>
+  <si>
+    <t>#Mensaje para el cambio de configuración</t>
+  </si>
+  <si>
+    <t>Configuración a utilizar :</t>
+  </si>
+  <si>
+    <t>Cambio de configuración</t>
+  </si>
+  <si>
+    <t>Elija esta configuración y cerrar</t>
+  </si>
+  <si>
+    <t>window.change.configuration.panel.title</t>
+  </si>
+  <si>
+    <t>window.change.configuration.message.panel.title</t>
+  </si>
+  <si>
+    <t>window.change.configuration.message.content</t>
+  </si>
+  <si>
+    <t>window.change.configuration.button.close</t>
+  </si>
+  <si>
+    <t>window.change.configuration.buttons.panel.title</t>
+  </si>
+  <si>
+    <t>window.change.configuration.button.apply.and.close</t>
+  </si>
+  <si>
+    <t>Changer la configuration courante</t>
+  </si>
+  <si>
+    <t>Cambiar la configuración actual</t>
+  </si>
+  <si>
+    <t>Configurations</t>
+  </si>
+  <si>
+    <t>Configuraciones</t>
+  </si>
+  <si>
+    <t>Lancer une analyse</t>
+  </si>
+  <si>
+    <t>Realizar un análisis</t>
+  </si>
+  <si>
+    <t>window.main.analyze.panel.state.current.configuration.label</t>
+  </si>
+  <si>
+    <t>Configuration courante :</t>
+  </si>
+  <si>
+    <t>Configuración actual :</t>
   </si>
 </sst>
 </file>
@@ -11765,6 +11830,1063 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493693</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F70C58-E977-4521-98BB-53F14CAF6210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1800225" y="4257675"/>
+          <a:ext cx="12857143" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7E6BE9-856F-46C2-8961-4821C05F7E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="4248150"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89F6A00-104E-4106-91AF-4185DB45C53B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="4376738"/>
+          <a:ext cx="419100" cy="33337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C269222-88C8-4E5C-9406-1F00BB8ED131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="4457700"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit avec flèche 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE88B79-95D8-44B2-A49F-53CFE0B22FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="4586288"/>
+          <a:ext cx="742950" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED80CAB4-77AA-4E37-B2FB-582201664599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="4876800"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Connecteur droit avec flèche 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D101DC5-A172-4880-A7AF-2BA690832638}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="5005388"/>
+          <a:ext cx="1028700" cy="52387"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDD6FE9-D7F8-4092-9C4D-43A748684A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="5419725"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connecteur droit avec flèche 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C55B4AA-C26D-4D38-85DC-9C53C33BAFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="5548313"/>
+          <a:ext cx="238125" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93906E88-B149-48B4-8073-78A898ABB62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="5972175"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connecteur droit avec flèche 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46BA6CA-49C9-4A70-8F75-92F3829493EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="6100763"/>
+          <a:ext cx="238125" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD023D55-84FF-43B1-BF8C-0520724AB9CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="6324600"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2409825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1685FD10-D371-47A0-B1AF-EA2A5FF1598D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1638300" y="6362700"/>
+          <a:ext cx="5124450" cy="90488"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E262AD-960E-4E84-A851-1BC564CE4885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14935200" y="5495925"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5BE167-C4FD-4029-91EB-B492C0F77D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8296275" y="5624513"/>
+          <a:ext cx="6638925" cy="214312"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ZoneTexte 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E41CF34A-163A-48AD-ADF6-CAFD149DA836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14925675" y="6200775"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1838325</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connecteur droit avec flèche 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCEFC59-26A5-4B04-AC3E-AD25E4CB487E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9572625" y="6329363"/>
+          <a:ext cx="5353050" cy="80962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -21565,8 +22687,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D45" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A1:D45" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D47" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A1:D47" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{581AA08F-F8B9-4EB9-9270-F690B4699028}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{86F9FD87-A94B-4F9B-BA16-3BEE622BE071}" name="Code"/>
@@ -21624,6 +22746,19 @@
     <tableColumn id="2" xr3:uid="{58CBB508-E960-4269-90E7-903193963B86}" name="Code"/>
     <tableColumn id="3" xr3:uid="{49346DD0-BA15-4A2E-A849-256F1D8C7270}" name="Français"/>
     <tableColumn id="4" xr3:uid="{E3A9F98E-F89E-4730-B31C-C7F1BAC7BBAB}" name="Español"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{62CA5DD5-5409-41E0-B4C0-928B281E2936}" name="Tableau1610" displayName="Tableau1610" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{98919DE1-11EE-4CC5-8D60-F5DC69F01A62}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{2BD08D0A-A06E-4823-A29F-229DAC1664B5}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{1106E753-C414-43B7-8028-DF7D2546A2D2}" name="Français"/>
+    <tableColumn id="4" xr3:uid="{52E87CF4-50EE-426B-94A1-8281489E5B8E}" name="Español"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -22030,32 +23165,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -22095,10 +23230,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -22106,13 +23241,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -22120,13 +23255,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -22134,13 +23269,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -22148,13 +23283,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -22162,13 +23297,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -22176,13 +23311,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -22190,13 +23325,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>549</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -22204,13 +23339,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>547</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22218,13 +23353,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -22232,13 +23367,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -22246,13 +23381,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -22260,13 +23395,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -22275,7 +23410,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -22283,13 +23418,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -22297,13 +23432,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -22311,13 +23446,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -22325,13 +23460,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -22339,13 +23474,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -22353,13 +23488,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -22367,13 +23502,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -22381,13 +23516,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>551</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -22395,13 +23530,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -22409,13 +23544,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -22423,13 +23558,13 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -22437,13 +23572,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -22451,13 +23586,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -22465,13 +23600,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -22479,13 +23614,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -22493,13 +23628,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -22507,13 +23642,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -22521,13 +23656,13 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -22535,13 +23670,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -22549,13 +23684,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -22563,13 +23698,13 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -22577,13 +23712,13 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -22591,13 +23726,13 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -22605,13 +23740,27 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>553</v>
+      </c>
+      <c r="C46" t="s">
+        <v>554</v>
+      </c>
+      <c r="D46" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -22640,24 +23789,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -22665,13 +23814,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -22679,13 +23828,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -22693,13 +23842,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -22707,13 +23856,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -22721,13 +23870,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -22735,13 +23884,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -22749,13 +23898,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -22763,13 +23912,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -22777,13 +23926,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -22791,13 +23940,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -22805,13 +23954,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -22819,13 +23968,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -22833,13 +23982,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C15" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D15" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -22868,24 +24017,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -22893,13 +24042,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -22907,13 +24056,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -22921,13 +24070,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -22935,13 +24084,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -22949,7 +24098,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -22965,13 +24114,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D8" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -22979,21 +24128,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23001,13 +24150,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23015,21 +24164,21 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D15" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23037,13 +24186,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -23051,21 +24200,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D19" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23073,13 +24222,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -23087,13 +24236,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -23120,24 +24269,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23145,13 +24294,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -23159,13 +24308,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -23173,13 +24322,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23187,13 +24336,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23201,7 +24350,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -23217,13 +24366,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C8" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D8" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23231,13 +24380,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D9" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23245,13 +24394,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23259,13 +24408,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D11" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23273,13 +24422,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23287,13 +24436,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -23301,13 +24450,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23315,13 +24464,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D15" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -23339,7 +24488,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23349,24 +24498,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -23374,13 +24523,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -23388,21 +24537,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -23410,13 +24559,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23424,13 +24573,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23438,13 +24587,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23452,21 +24601,21 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -23474,7 +24623,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -23490,7 +24639,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -23506,7 +24655,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -23522,13 +24671,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C16" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D16" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -23536,21 +24685,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C17" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D17" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23558,13 +24707,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C20" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D20" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -23572,13 +24721,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -23590,11 +24739,187 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD053BBD-C301-47A2-9ED9-87C64F89D349}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;","Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;","Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;","Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;","Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
-  <dimension ref="A1:A347"/>
+  <dimension ref="A1:A369"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A202" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A202" sqref="A1:A1048576"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A369" sqref="A1:A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23677,13 +25002,13 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('Fenêtre principal'!B14&lt;&gt;"",CONCATENATE('Fenêtre principal'!B14,"=", 'Fenêtre principal'!C14),IF('Fenêtre principal'!C14&lt;&gt;"",'Fenêtre principal'!C14,""))</f>
-        <v>window.menu.level3.title=Bibliothèque de configurations</v>
+        <v>window.menu.level3.title=Configurations</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!C15),IF('Fenêtre principal'!C15&lt;&gt;"",'Fenêtre principal'!C15,""))</f>
-        <v>window.menu.level3.sublevel1.title=Charger la configuration</v>
+        <v>window.menu.level3.sublevel1.title=Changer la configuration courante</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -23767,7 +25092,7 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('Fenêtre principal'!B29&lt;&gt;"",CONCATENATE('Fenêtre principal'!B29,"=", 'Fenêtre principal'!C29),IF('Fenêtre principal'!C29&lt;&gt;"",'Fenêtre principal'!C29,""))</f>
-        <v>window.main.analyze.panel.state.load.button=Lancer un analyse en mode Basique</v>
+        <v>window.main.analyze.panel.state.load.button=Lancer une analyse</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -23869,7 +25194,7 @@
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('Fenêtre principal'!B46&lt;&gt;"",CONCATENATE('Fenêtre principal'!B46,"=", 'Fenêtre principal'!C46),IF('Fenêtre principal'!C46&lt;&gt;"",'Fenêtre principal'!C46,""))</f>
-        <v/>
+        <v>window.main.analyze.panel.state.current.configuration.label=Configuration courante :</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -25627,6 +26952,138 @@
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!C2),IF('Changer Configuration'!C2&lt;&gt;"",'Changer Configuration'!C2,""))</f>
+        <v>#Message pour le changement de la configuration</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!C3),IF('Changer Configuration'!C3&lt;&gt;"",'Changer Configuration'!C3,""))</f>
+        <v>window.change.configuration.title=Configuration courante</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!C4),IF('Changer Configuration'!C4&lt;&gt;"",'Changer Configuration'!C4,""))</f>
+        <v>window.change.configuration.list.label=Configuration à utiliser :</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!C5),IF('Changer Configuration'!C5&lt;&gt;"",'Changer Configuration'!C5,""))</f>
+        <v>window.change.configuration.panel.title=Changement de la configuration</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!C6),IF('Changer Configuration'!C6&lt;&gt;"",'Changer Configuration'!C6,""))</f>
+        <v>window.change.configuration.message.panel.title=Message d'information</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!C8),IF('Changer Configuration'!C8&lt;&gt;"",'Changer Configuration'!C8,""))</f>
+        <v>window.change.configuration.button.apply.and.close=Choisir cette configuration et fermer</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!C9),IF('Changer Configuration'!C9&lt;&gt;"",'Changer Configuration'!C9,""))</f>
+        <v>window.change.configuration.button.close=Fermer</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!C10),IF('Changer Configuration'!C10&lt;&gt;"",'Changer Configuration'!C10,""))</f>
+        <v>window.change.configuration.buttons.panel.title=Actions</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!C11),IF('Changer Configuration'!C11&lt;&gt;"",'Changer Configuration'!C11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!C12),IF('Changer Configuration'!C12&lt;&gt;"",'Changer Configuration'!C12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!C13),IF('Changer Configuration'!C13&lt;&gt;"",'Changer Configuration'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!C14),IF('Changer Configuration'!C14&lt;&gt;"",'Changer Configuration'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!C15),IF('Changer Configuration'!C15&lt;&gt;"",'Changer Configuration'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!C16),IF('Changer Configuration'!C16&lt;&gt;"",'Changer Configuration'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!C17),IF('Changer Configuration'!C17&lt;&gt;"",'Changer Configuration'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!C18),IF('Changer Configuration'!C18&lt;&gt;"",'Changer Configuration'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!C19),IF('Changer Configuration'!C19&lt;&gt;"",'Changer Configuration'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
         <v/>
       </c>
     </row>
@@ -25635,12 +27092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
-  <dimension ref="A1:A347"/>
+  <dimension ref="A1:A369"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showZeros="0" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A343" sqref="A1:A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25723,13 +27180,13 @@
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>IF('Fenêtre principal'!B14&lt;&gt;"",CONCATENATE('Fenêtre principal'!B14,"=", 'Fenêtre principal'!D14),IF('Fenêtre principal'!D14&lt;&gt;"",'Fenêtre principal'!D14,""))</f>
-        <v>window.menu.level3.title=Biblioteca de configuraciones</v>
+        <v>window.menu.level3.title=Configuraciones</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!D15),IF('Fenêtre principal'!D15&lt;&gt;"",'Fenêtre principal'!D15,""))</f>
-        <v xml:space="preserve">window.menu.level3.sublevel1.title=Cargar configuración </v>
+        <v>window.menu.level3.sublevel1.title=Cambiar la configuración actual</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -25813,7 +27270,7 @@
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>IF('Fenêtre principal'!B29&lt;&gt;"",CONCATENATE('Fenêtre principal'!B29,"=", 'Fenêtre principal'!D29),IF('Fenêtre principal'!D29&lt;&gt;"",'Fenêtre principal'!D29,""))</f>
-        <v>window.main.analyze.panel.state.load.button=Realizar un análisis en modo básico</v>
+        <v>window.main.analyze.panel.state.load.button=Realizar un análisis</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -25915,7 +27372,7 @@
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>IF('Fenêtre principal'!B46&lt;&gt;"",CONCATENATE('Fenêtre principal'!B46,"=", 'Fenêtre principal'!D46),IF('Fenêtre principal'!D46&lt;&gt;"",'Fenêtre principal'!D46,""))</f>
-        <v/>
+        <v>window.main.analyze.panel.state.current.configuration.label=Configuración actual :</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
@@ -27727,6 +29184,2376 @@
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
         <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!D2),IF('Changer Configuration'!D2&lt;&gt;"",'Changer Configuration'!D2,""))</f>
+        <v>#Mensaje para el cambio de configuración</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!D3),IF('Changer Configuration'!D3&lt;&gt;"",'Changer Configuration'!D3,""))</f>
+        <v>window.change.configuration.title=Configuración actual</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!D4),IF('Changer Configuration'!D4&lt;&gt;"",'Changer Configuration'!D4,""))</f>
+        <v>window.change.configuration.list.label=Configuración a utilizar :</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!D5),IF('Changer Configuration'!D5&lt;&gt;"",'Changer Configuration'!D5,""))</f>
+        <v>window.change.configuration.panel.title=Cambio de configuración</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!D6),IF('Changer Configuration'!D6&lt;&gt;"",'Changer Configuration'!D6,""))</f>
+        <v>window.change.configuration.message.panel.title=Mensaje informativo</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!D7),IF('Changer Configuration'!D7&lt;&gt;"",'Changer Configuration'!D7,""))</f>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!D8),IF('Changer Configuration'!D8&lt;&gt;"",'Changer Configuration'!D8,""))</f>
+        <v>window.change.configuration.button.apply.and.close=Elija esta configuración y cerrar</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!D9),IF('Changer Configuration'!D9&lt;&gt;"",'Changer Configuration'!D9,""))</f>
+        <v>window.change.configuration.button.close=Cerrar</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!D10),IF('Changer Configuration'!D10&lt;&gt;"",'Changer Configuration'!D10,""))</f>
+        <v>window.change.configuration.buttons.panel.title=Acciones</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!D11),IF('Changer Configuration'!D11&lt;&gt;"",'Changer Configuration'!D11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!D12),IF('Changer Configuration'!D12&lt;&gt;"",'Changer Configuration'!D12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!D13),IF('Changer Configuration'!D13&lt;&gt;"",'Changer Configuration'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!D14),IF('Changer Configuration'!D14&lt;&gt;"",'Changer Configuration'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!D15),IF('Changer Configuration'!D15&lt;&gt;"",'Changer Configuration'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!D16),IF('Changer Configuration'!D16&lt;&gt;"",'Changer Configuration'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!D17),IF('Changer Configuration'!D17&lt;&gt;"",'Changer Configuration'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!D18),IF('Changer Configuration'!D18&lt;&gt;"",'Changer Configuration'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!D19),IF('Changer Configuration'!D19&lt;&gt;"",'Changer Configuration'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
+  <dimension ref="A1:A370"/>
+  <sheetViews>
+    <sheetView topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>IF('Fenêtre principal'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B2),".","_"),"=""", 'Fenêtre principal'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>IF('Fenêtre principal'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B3),".","_"),"=""", 'Fenêtre principal'!B3,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>IF('Fenêtre principal'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B4),".","_"),"=""", 'Fenêtre principal'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>IF('Fenêtre principal'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B5),".","_"),"=""", 'Fenêtre principal'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_PRINCIPAL_TITLE="window.principal.title";</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>IF('Fenêtre principal'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B6),".","_"),"=""", 'Fenêtre principal'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF('Fenêtre principal'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B7),".","_"),"=""", 'Fenêtre principal'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>IF('Fenêtre principal'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B8),".","_"),"=""", 'Fenêtre principal'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_TITLE="window.menu.level1.title";</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>IF('Fenêtre principal'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B9),".","_"),"=""", 'Fenêtre principal'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL1_TITLE="window.menu.level1.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>IF('Fenêtre principal'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B10),".","_"),"=""", 'Fenêtre principal'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL2_TITLE="window.menu.level1.sublevel2.title";</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>IF('Fenêtre principal'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B11),".","_"),"=""", 'Fenêtre principal'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL3_TITLE="window.menu.level1.sublevel3.title";</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>IF('Fenêtre principal'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B12),".","_"),"=""", 'Fenêtre principal'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL4_TITLE="window.menu.level1.sublevel4.title";</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>IF('Fenêtre principal'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B13),".","_"),"=""", 'Fenêtre principal'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL2_TITLE="window.menu.level2.title";</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>IF('Fenêtre principal'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B14),".","_"),"=""", 'Fenêtre principal'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL3_TITLE="window.menu.level3.title";</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B15),".","_"),"=""", 'Fenêtre principal'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL3_SUBLEVEL1_TITLE="window.menu.level3.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>IF('Fenêtre principal'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B16),".","_"),"=""", 'Fenêtre principal'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_TITLE="window.menu.level5.title";</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>IF('Fenêtre principal'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B17),".","_"),"=""", 'Fenêtre principal'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL1_TITLE="window.menu.level5.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B18),".","_"),"=""", 'Fenêtre principal'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL2_TITLE="window.menu.level5.sublevel2.title";</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B19),".","_"),"=""", 'Fenêtre principal'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL3_TITLE="window.menu.level5.sublevel3.title";</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF('Fenêtre principal'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B20),".","_"),"=""", 'Fenêtre principal'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF('Fenêtre principal'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B21),".","_"),"=""", 'Fenêtre principal'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B22),".","_"),"=""", 'Fenêtre principal'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_CONFIGURATION_LIBRARY_PANEL_STATE_LABEL="window.main.configuration.library.panel.state.label";</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF('Fenêtre principal'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B23),".","_"),"=""", 'Fenêtre principal'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_TITLE="window.main.analyze.panel.title";</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF('Fenêtre principal'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B24),".","_"),"=""", 'Fenêtre principal'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LABEL="window.main.analyze.panel.state.label";</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF('Fenêtre principal'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B25),".","_"),"=""", 'Fenêtre principal'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_NONE="window.main.analyze.panel.state.value.none";</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF('Fenêtre principal'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B26),".","_"),"=""", 'Fenêtre principal'!B26,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_SUCCESS="window.main.analyze.panel.state.value.success";</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF('Fenêtre principal'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B27),".","_"),"=""", 'Fenêtre principal'!B27,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_FOLDER_LABEL="window.main.analyze.panel.state.folder.label";</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('Fenêtre principal'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B28),".","_"),"=""", 'Fenêtre principal'!B28,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CONFIGURATION_LABEL="window.main.analyze.panel.state.configuration.label";</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('Fenêtre principal'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B29),".","_"),"=""", 'Fenêtre principal'!B29,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LOAD_BUTTON="window.main.analyze.panel.state.load.button";</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF('Fenêtre principal'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B30),".","_"),"=""", 'Fenêtre principal'!B30,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_NB_TEXT_LOADED_LABEL="window.main.analyze.panel.state.nb.text.loaded.label";</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF('Fenêtre principal'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B31),".","_"),"=""", 'Fenêtre principal'!B31,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_PANEL_TITLE="window.main.line.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF('Fenêtre principal'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B32),".","_"),"=""", 'Fenêtre principal'!B32,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_NB_LABEL="window.main.line.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>IF('Fenêtre principal'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B33),".","_"),"=""", 'Fenêtre principal'!B33,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF('Fenêtre principal'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B34),".","_"),"=""", 'Fenêtre principal'!B34,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_PANEL_TITLE="window.main.text.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF('Fenêtre principal'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B35),".","_"),"=""", 'Fenêtre principal'!B35,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_NB_LABEL="window.main.text.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>IF('Fenêtre principal'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B36),".","_"),"=""", 'Fenêtre principal'!B36,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_FIXED_BUTTON_LABEL="window.main.text.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF('Fenêtre principal'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B37),".","_"),"=""", 'Fenêtre principal'!B37,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_PANEL_TITLE="window.main.blank.line.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF('Fenêtre principal'!B38&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B38),".","_"),"=""", 'Fenêtre principal'!B38,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_NB_LABEL="window.main.blank.line.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B39),".","_"),"=""", 'Fenêtre principal'!B39,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.blank.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B40),".","_"),"=""", 'Fenêtre principal'!B40,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_LABEL="window.main.meta.blank.line.error.label";</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B41),".","_"),"=""", 'Fenêtre principal'!B41,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.meta.blank.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF('Fenêtre principal'!B42&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B42),".","_"),"=""", 'Fenêtre principal'!B42,""";"),"")</f>
+        <v>public static final String WINDOW_YES_LABEL="window.yes.label";</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>IF('Fenêtre principal'!B43&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B43),".","_"),"=""", 'Fenêtre principal'!B43,""";"),"")</f>
+        <v>public static final String WINDOW_NO_LABEL="window.no.label";</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>IF('Fenêtre principal'!B44&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B44),".","_"),"=""", 'Fenêtre principal'!B44,""";"),"")</f>
+        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_PANEL_LABEL="window.move.file.library.panel.label";</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B45),".","_"),"=""", 'Fenêtre principal'!B45,""";"),"")</f>
+        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_BUTTON_LABEL="window.move.file.library.button.label";</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>IF('Fenêtre principal'!B46&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B46),".","_"),"=""", 'Fenêtre principal'!B46,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CURRENT_CONFIGURATION_LABEL="window.main.analyze.panel.state.current.configuration.label";</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B47),".","_"),"=""", 'Fenêtre principal'!B47,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B48),".","_"),"=""", 'Fenêtre principal'!B48,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>IF('Fenêtre principal'!B49&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B49),".","_"),"=""", 'Fenêtre principal'!B49,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>IF('Fenêtre principal'!B50&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B50),".","_"),"=""", 'Fenêtre principal'!B50,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>IF('Fenêtre principal'!B51&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B51),".","_"),"=""", 'Fenêtre principal'!B51,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>IF('Fenêtre principal'!B52&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B52),".","_"),"=""", 'Fenêtre principal'!B52,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>IF('Fenêtre principal'!B53&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B53),".","_"),"=""", 'Fenêtre principal'!B53,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>IF('Fenêtre principal'!B54&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B54),".","_"),"=""", 'Fenêtre principal'!B54,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>IF('Fenêtre principal'!B55&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B55),".","_"),"=""", 'Fenêtre principal'!B55,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF('Fenêtre principal'!B56&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B56),".","_"),"=""", 'Fenêtre principal'!B56,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>IF('Fenêtre principal'!B57&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B57),".","_"),"=""", 'Fenêtre principal'!B57,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>IF('Fenêtre erreur ligne'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B2),".","_"),"=""", 'Fenêtre erreur ligne'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>IF('Fenêtre erreur ligne'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B3),".","_"),"=""", 'Fenêtre erreur ligne'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_TITLE="window.fixed.error.line.title";</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>IF('Fenêtre erreur ligne'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B4),".","_"),"=""", 'Fenêtre erreur ligne'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_TITLE="window.fixed.error.line.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>IF('Fenêtre erreur ligne'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B5),".","_"),"=""", 'Fenêtre erreur ligne'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_ERROR_LABEL="window.fixed.error.line.content.panel.line.error.label";</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B6),".","_"),"=""", 'Fenêtre erreur ligne'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FIXED_LABEL="window.fixed.error.line.content.panel.line.fixed.label";</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>IF('Fenêtre erreur ligne'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B7),".","_"),"=""", 'Fenêtre erreur ligne'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_TITLE="window.fixed.error.line.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>IF('Fenêtre erreur ligne'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B8),".","_"),"=""", 'Fenêtre erreur ligne'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.next.button.label";</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>IF('Fenêtre erreur ligne'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B9),".","_"),"=""", 'Fenêtre erreur ligne'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.quit.button.label";</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>IF('Fenêtre erreur ligne'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B10),".","_"),"=""", 'Fenêtre erreur ligne'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_NUMBER_LABEL="window.fixed.error.line.content.panel.line.number.label";</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B11),".","_"),"=""", 'Fenêtre erreur ligne'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FILE_LABEL="window.fixed.error.line.content.panel.line.file.label";</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B12),".","_"),"=""", 'Fenêtre erreur ligne'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>IF('Correction Edit texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B2),".","_"),"=""", 'Correction Edit texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B3),".","_"),"=""", 'Correction Edit texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_TITLE="window.fixed.text.title";</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B4),".","_"),"=""", 'Correction Edit texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_PANEL_TITLE="window.fixed.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B5),".","_"),"=""", 'Correction Edit texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.fixed.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B6),".","_"),"=""", 'Correction Edit texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_BUTTON_TITLE="window.fixed.text.action.next.button.title";</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B7),".","_"),"=""", 'Correction Edit texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_AND_SAVE_BUTTON_TITLE="window.fixed.text.action.next.and.save.button.title";</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B8),".","_"),"=""", 'Correction Edit texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B9),".","_"),"=""", 'Correction Edit texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B10),".","_"),"=""", 'Correction Edit texte'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_CONTENT_PANEL_TITLE="window.create.text.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B11),".","_"),"=""", 'Correction Edit texte'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_FILE_PANEL_TITLE="window.create.text.file.panel.title";</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B12),".","_"),"=""", 'Correction Edit texte'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_NAME_LABEL="window.create.text.name.label";</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B13),".","_"),"=""", 'Correction Edit texte'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B14),".","_"),"=""", 'Correction Edit texte'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B15),".","_"),"=""", 'Correction Edit texte'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_PANEL_TITLE="window.manage.texts.edit.text.panel.title";</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B16),".","_"),"=""", 'Correction Edit texte'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_PANEL_TITLE="window.manage.texts.edit.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B17),".","_"),"=""", 'Correction Edit texte'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.manage.texts.edit.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B18),".","_"),"=""", 'Correction Edit texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B19),".","_"),"=""", 'Correction Edit texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B20),".","_"),"=""", 'Correction Edit texte'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.edit.text.action.button.save.and.quit.label";</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B21),".","_"),"=""", 'Correction Edit texte'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_QUIT_LABEL="window.manage.texts.edit.text.action.button.quit.label";</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B22),".","_"),"=""", 'Correction Edit texte'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B23),".","_"),"=""", 'Correction Edit texte'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B24),".","_"),"=""", 'Correction Edit texte'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B25),".","_"),"=""", 'Correction Edit texte'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B26),".","_"),"=""", 'Correction Edit texte'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B2),".","_"),"=""", 'Fenêtre spécifique'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B3),".","_"),"=""", 'Fenêtre spécifique'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_SPECIFIC_TITLE="window.fixed.specific.title";</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B4),".","_"),"=""", 'Fenêtre spécifique'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B5),".","_"),"=""", 'Fenêtre spécifique'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B6),".","_"),"=""", 'Fenêtre spécifique'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_EDIT_SPECIFIC_TITLE="window.edit.specific.title";</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B7),".","_"),"=""", 'Fenêtre spécifique'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B8),".","_"),"=""", 'Fenêtre spécifique'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B9),".","_"),"=""", 'Fenêtre spécifique'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_TITLE="window.create.specific.title";</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B10),".","_"),"=""", 'Fenêtre spécifique'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_TITLE="window.create.specific.context.panel.title";</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B11),".","_"),"=""", 'Fenêtre spécifique'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_FILE_LABEL="window.create.specific.context.panel.file.label";</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B12),".","_"),"=""", 'Fenêtre spécifique'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_DETAILS_PANEL_TITLE="window.create.specific.details.panel.title";</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B13),".","_"),"=""", 'Fenêtre spécifique'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_PREVIOUS_LABEL="window.create.specific.action.panel.button.previous.label";</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B14),".","_"),"=""", 'Fenêtre spécifique'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_NEXT_LABEL="window.create.specific.action.panel.button.next.label";</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B15),".","_"),"=""", 'Fenêtre spécifique'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_TITLE="window.create.specific.create.panel.title";</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B16),".","_"),"=""", 'Fenêtre spécifique'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_MODIFY_LABEL="window.create.specific.create.panel.action.modify.label";</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B17),".","_"),"=""", 'Fenêtre spécifique'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_ADD_LABEL="window.create.specific.create.panel.action.add.label";</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B18),".","_"),"=""", 'Fenêtre spécifique'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_DELETE_LABEL="window.create.specific.create.panel.action.delete.label";</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B19),".","_"),"=""", 'Fenêtre spécifique'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_FINISH_LABEL="window.create.specific.action.panel.button.finish.label";</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B20),".","_"),"=""", 'Fenêtre spécifique'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B21),".","_"),"=""", 'Fenêtre spécifique'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B22),".","_"),"=""", 'Fenêtre spécifique'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TITLE="window.specific.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B23),".","_"),"=""", 'Fenêtre spécifique'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TEXT="window.specific.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B24),".","_"),"=""", 'Fenêtre spécifique'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TITLE="window.specific.warning.panel.title";</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B25),".","_"),"=""", 'Fenêtre spécifique'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TEXT="window.specific.warning.panel.text";</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B26),".","_"),"=""", 'Fenêtre spécifique'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B27),".","_"),"=""", 'Fenêtre spécifique'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B28),".","_"),"=""", 'Fenêtre spécifique'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B29),".","_"),"=""", 'Fenêtre spécifique'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B30),".","_"),"=""", 'Fenêtre spécifique'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B31),".","_"),"=""", 'Fenêtre spécifique'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B32),".","_"),"=""", 'Fenêtre spécifique'!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B33),".","_"),"=""", 'Fenêtre spécifique'!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B34),".","_"),"=""", 'Fenêtre spécifique'!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B35),".","_"),"=""", 'Fenêtre spécifique'!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B36),".","_"),"=""", 'Fenêtre spécifique'!B36,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B37),".","_"),"=""", 'Fenêtre spécifique'!B37,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B2),".","_"),"=""", 'Fenêtre Chargement document'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B3),".","_"),"=""", 'Fenêtre Chargement document'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC="window.type.configuration.DIDACTIC";</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B4),".","_"),"=""", 'Fenêtre Chargement document'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC_EXPERT="window.type.configuration.DIDACTIC_EXPERT";</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B5),".","_"),"=""", 'Fenêtre Chargement document'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TITLE="window.load.texts.title";</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B6),".","_"),"=""", 'Fenêtre Chargement document'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_PANEL_TITLE="window.load.texts.type.configuration.panel.title";</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B7),".","_"),"=""", 'Fenêtre Chargement document'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_LABEL="window.load.texts.type.configuration.label";</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B8),".","_"),"=""", 'Fenêtre Chargement document'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_EXPERT_LABEL="window.load.texts.type.configuration.expert.label";</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B9),".","_"),"=""", 'Fenêtre Chargement document'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_PANEL_TITLE="window.load.texts.folder.panel.title";</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B10),".","_"),"=""", 'Fenêtre Chargement document'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LABEL="window.load.texts.folder.label";</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B11),".","_"),"=""", 'Fenêtre Chargement document'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_LABEL="window.load.texts.folder.button.label";</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B12),".","_"),"=""", 'Fenêtre Chargement document'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.button.folder.choose.title";</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B13),".","_"),"=""", 'Fenêtre Chargement document'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_START_BUTTON_LABEL="window.load.texts.start.button.label";</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B14),".","_"),"=""", 'Fenêtre Chargement document'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B15),".","_"),"=""", 'Fenêtre Chargement document'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B16),".","_"),"=""", 'Fenêtre Chargement document'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B17),".","_"),"=""", 'Fenêtre Chargement document'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B18),".","_"),"=""", 'Fenêtre Chargement document'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B19),".","_"),"=""", 'Fenêtre Chargement document'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B20),".","_"),"=""", 'Fenêtre Chargement document'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B21),".","_"),"=""", 'Fenêtre Chargement document'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B22),".","_"),"=""", 'Fenêtre Chargement document'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B23),".","_"),"=""", 'Fenêtre Chargement document'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B24),".","_"),"=""", 'Fenêtre Chargement document'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B2),".","_"),"=""", 'Choix bibliotheque texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B3),".","_"),"=""", 'Choix bibliotheque texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LIBRARY_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.library.button.folder.choose.title";</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B4),".","_"),"=""", 'Choix bibliotheque texte'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B5),".","_"),"=""", 'Choix bibliotheque texte'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B6),".","_"),"=""", 'Choix bibliotheque texte'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B7),".","_"),"=""", 'Choix bibliotheque texte'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B8),".","_"),"=""", 'Choix bibliotheque texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B9),".","_"),"=""", 'Choix bibliotheque texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B10),".","_"),"=""", 'Choix bibliotheque texte'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B11),".","_"),"=""", 'Choix bibliotheque texte'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B12),".","_"),"=""", 'Choix bibliotheque texte'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B2),".","_"),"=""", 'Fenetre Corpus'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B3),".","_"),"=""", 'Fenetre Corpus'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_TITLE="window.create.corpus.title";</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B4),".","_"),"=""", 'Fenetre Corpus'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_FILE_PANEL_TITLE="window.create.corpus.file.panel.title";</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B5),".","_"),"=""", 'Fenetre Corpus'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_NAME_LABEL="window.create.corpus.name.label";</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B6),".","_"),"=""", 'Fenetre Corpus'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_CONTENT_PANEL_TITLE="window.create.corpus.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B7),".","_"),"=""", 'Fenetre Corpus'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_PANEL_TITLE="window.create.corpus.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B8),".","_"),"=""", 'Fenetre Corpus'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_CREATE_TEXT_BUTTON_TITLE="window.create.corpus.action.create.text.button.title";</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B9),".","_"),"=""", 'Fenetre Corpus'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_TITLE="window.fixed.error.meta.blank.line.panel.title";</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B10),".","_"),"=""", 'Fenetre Corpus'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.quit.button.label";</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B11),".","_"),"=""", 'Fenetre Corpus'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.next.button.label";</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B12),".","_"),"=""", 'Fenetre Corpus'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_CORPUS_TITLE="window.manage.corpus.title";</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B13),".","_"),"=""", 'Fenetre Corpus'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_ADD_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.add.text.action.button.save.and.quit.label";</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B14),".","_"),"=""", 'Fenetre Corpus'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B15),".","_"),"=""", 'Fenetre Corpus'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B16),".","_"),"=""", 'Fenetre Corpus'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B17),".","_"),"=""", 'Fenetre Corpus'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B18),".","_"),"=""", 'Fenetre Corpus'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B19),".","_"),"=""", 'Fenetre Corpus'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B20),".","_"),"=""", 'Fenetre Corpus'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B2),".","_"),"=""", 'Fenetre Creation texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B3),".","_"),"=""", 'Fenetre Creation texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_TITLE="window.create.text.title";</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B4),".","_"),"=""", 'Fenetre Creation texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_PANEL_TITLE="window.create.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B5),".","_"),"=""", 'Fenetre Creation texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_AND_QUIT_TEXT_BUTTON_TITLE="window.create.text.action.create.and.quit.text.button.title";</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B6),".","_"),"=""", 'Fenetre Creation texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_TEXT_AND_ADD_TEXT_BUTTON_TITLE="window.create.text.action.create.text.and.add.text.button.title";</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B7),".","_"),"=""", 'Fenetre Creation texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.create.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B8),".","_"),"=""", 'Fenetre Creation texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B9),".","_"),"=""", 'Fenetre Creation texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B10),".","_"),"=""", 'Fenetre Creation texte'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B11),".","_"),"=""", 'Fenetre Creation texte'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B12),".","_"),"=""", 'Fenetre Creation texte'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B13),".","_"),"=""", 'Fenetre Creation texte'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B14),".","_"),"=""", 'Fenetre Creation texte'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B15),".","_"),"=""", 'Fenetre Creation texte'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B16),".","_"),"=""", 'Fenetre Creation texte'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B17),".","_"),"=""", 'Fenetre Creation texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B18),".","_"),"=""", 'Fenetre Creation texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B19),".","_"),"=""", 'Fenetre Creation texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B20),".","_"),"=""", 'Fenetre Creation texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B21),".","_"),"=""", 'Fenetre Creation texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B2),".","_"),"=""", 'Fenetre Gerer les textes'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B3),".","_"),"=""", 'Fenetre Gerer les textes'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_PANEL_LABEL="window.display.texts.panel.label";</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B4),".","_"),"=""", 'Fenetre Gerer les textes'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_CORPUS_EDIT_BUTTON_LABEL="window.display.corpus.edit.button.label";</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B5),".","_"),"=""", 'Fenetre Gerer les textes'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_EDIT_BUTTON_LABEL="window.display.texts.edit.button.label";</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B6),".","_"),"=""", 'Fenetre Gerer les textes'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_DELETE_BUTTON_LABEL="window.display.texts.delete.button.label";</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B7),".","_"),"=""", 'Fenetre Gerer les textes'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_PREVIOUS_BUTTON_LABEL="window.display.texts.previous.button.label";</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B8),".","_"),"=""", 'Fenetre Gerer les textes'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_NEXT_BUTTON_LABEL="window.display.texts.next.button.label";</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B9),".","_"),"=""", 'Fenetre Gerer les textes'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_CURRENT_POSITION_LABEL="window.display.texts.current.position.label";</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B10),".","_"),"=""", 'Fenetre Gerer les textes'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_NB_TEXTS_BY_PAGE_LABEL="window.display.texts.nb.texts.by.page.label";</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B11),".","_"),"=""", 'Fenetre Gerer les textes'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_CORPUS_LABEL="window.display.texts.corpus.label";</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B12),".","_"),"=""", 'Fenetre Gerer les textes'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_TITLE="window.manage.texts.title";</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B13),".","_"),"=""", 'Fenetre Gerer les textes'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_PANEL_TITLE="window.manage.texts.generate.excel.panel.title";</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B14),".","_"),"=""", 'Fenetre Gerer les textes'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_CLASSICAL_BUTTON_LABEL="window.manage.texts.generate.excel.classical.button.label";</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B15),".","_"),"=""", 'Fenetre Gerer les textes'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_SPECIFIC_BUTTON_LABEL="window.manage.texts.generate.excel.specific.button.label";</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B16),".","_"),"=""", 'Fenetre Gerer les textes'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_FILTERS_BUTTON_LABEL="window.manage.texts.filters.button.label";</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B17),".","_"),"=""", 'Fenetre Gerer les textes'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_TITLE="window.manage.texts.information.title";</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B18),".","_"),"=""", 'Fenetre Gerer les textes'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_LABEL="window.manage.texts.information.label";</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B20),".","_"),"=""", 'Fenetre Gerer les textes'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B21),".","_"),"=""", 'Fenetre Gerer les textes'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B22),".","_"),"=""", 'Fenetre Gerer les textes'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B23),".","_"),"=""", 'Fenetre Gerer les textes'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B24),".","_"),"=""", 'Fenetre Gerer les textes'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B25),".","_"),"=""", 'Fenetre Gerer les textes'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B26),".","_"),"=""", 'Fenetre Gerer les textes'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B27),".","_"),"=""", 'Fenetre Gerer les textes'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B2),".","_"),"=""", 'Fenetre filtre texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B3),".","_"),"=""", 'Fenetre filtre texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILTER_TYPE_CONTAINS="window.filter.type.CONTAINS";</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B4),".","_"),"=""", 'Fenetre filtre texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FILTER_TYPE_EQUAL="window.filter.type.EQUAL";</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B5),".","_"),"=""", 'Fenetre filtre texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_GLOBAL_PANEL_TITLE="window.manage.filters.global.panel.title";</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B6),".","_"),"=""", 'Fenetre filtre texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_PANEL_TITLE="window.manage.filters.panel.title";</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B7),".","_"),"=""", 'Fenetre filtre texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_TYPE_FILTER_LABEL="window.manage.filters.type.filter.label";</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B8),".","_"),"=""", 'Fenetre filtre texte'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_VALUE_FILTER_LABEL="window.manage.filters.value.filter.label";</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B9),".","_"),"=""", 'Fenetre filtre texte'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ADD_FILTER_BUTTON_LABEL="window.manage.filters.add.filter.button.label";</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B10),".","_"),"=""", 'Fenetre filtre texte'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_PANEL_TITLE="window.manage.filters.corpus.panel.title";</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B11),".","_"),"=""", 'Fenetre filtre texte'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_VALUE_LABEL="window.manage.filters.corpus.value.label";</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B12),".","_"),"=""", 'Fenetre filtre texte'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_PANEL_TITLE="window.manage.filters.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B13),".","_"),"=""", 'Fenetre filtre texte'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_APPLY_BUTTON_LABEL="window.manage.filters.action.apply.button.label";</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B14),".","_"),"=""", 'Fenetre filtre texte'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_ALL_LABEL="window.manage.filters.corpus.all.label";</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B15),".","_"),"=""", 'Fenetre filtre texte'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_DELETE_FILTER_BUTTON_LABEL="window.manage.filters.delete.filter.button.label";</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B16),".","_"),"=""", 'Fenetre filtre texte'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B17),".","_"),"=""", 'Fenetre filtre texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B18),".","_"),"=""", 'Fenetre filtre texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B19),".","_"),"=""", 'Fenetre filtre texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B20),".","_"),"=""", 'Fenetre filtre texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B21),".","_"),"=""", 'Fenetre filtre texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B22),".","_"),"=""", 'Fenetre filtre texte'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B23),".","_"),"=""", 'Fenetre filtre texte'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B24),".","_"),"=""", 'Fenetre filtre texte'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B25),".","_"),"=""", 'Fenetre filtre texte'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B2),".","_"),"=""", 'Exporter Excel Reference'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B3),".","_"),"=""", 'Exporter Excel Reference'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_CLASSICAL_PANEL_TITLE="window.file.picker.classical.panel.title";</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B4),".","_"),"=""", 'Exporter Excel Reference'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_PANEL_TITLE="window.save.excel.classical.panel.title";</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B5),".","_"),"=""", 'Exporter Excel Reference'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TITLE="window.save.excel.classical.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B6),".","_"),"=""", 'Exporter Excel Reference'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.classical.information.panel.text.nothing";</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B7),".","_"),"=""", 'Exporter Excel Reference'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT="window.save.excel.classical.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B8),".","_"),"=""", 'Exporter Excel Reference'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_CHECK_LABEL="window.save.excel.specific.check.label";</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B9),".","_"),"=""", 'Exporter Excel Reference'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_REFERENCE_FILE_LABEL="window.save.excel.reference.file.label";</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B10),".","_"),"=""", 'Exporter Excel Reference'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B11),".","_"),"=""", 'Exporter Excel Reference'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B12),".","_"),"=""", 'Exporter Excel Reference'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_TITLE_PANEL="window.save.excel.options.title.panel";</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B13),".","_"),"=""", 'Exporter Excel Reference'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_HEADER_LABEL="window.save.excel.options.header.label";</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B14),".","_"),"=""", 'Exporter Excel Reference'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B15),".","_"),"=""", 'Exporter Excel Reference'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B16),".","_"),"=""", 'Exporter Excel Reference'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_TITLE_PANEL="window.save.excel.action.title.panel";</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B17),".","_"),"=""", 'Exporter Excel Reference'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_BUTTON_LABEL="window.save.excel.action.button.label";</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B18),".","_"),"=""", 'Exporter Excel Reference'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B19),".","_"),"=""", 'Exporter Excel Reference'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B20),".","_"),"=""", 'Exporter Excel Reference'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_PANEL_LABEL="window.file.picker.panel.label";</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B21),".","_"),"=""", 'Exporter Excel Reference'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_PANEL_BUTTON="window.file.picker.panel.button";</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B22),".","_"),"=""", 'Exporter Excel Reference'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B23),".","_"),"=""", 'Exporter Excel Reference'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B24),".","_"),"=""", 'Exporter Excel Reference'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B25),".","_"),"=""", 'Exporter Excel Reference'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B26),".","_"),"=""", 'Exporter Excel Reference'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B27),".","_"),"=""", 'Exporter Excel Reference'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B28),".","_"),"=""", 'Exporter Excel Reference'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B29),".","_"),"=""", 'Exporter Excel Reference'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B30),".","_"),"=""", 'Exporter Excel Reference'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B31),".","_"),"=""", 'Exporter Excel Reference'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B2),".","_"),"=""", 'Exporter Excel Personnalisé'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B3),".","_"),"=""", 'Exporter Excel Personnalisé'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_SPECIFIC_PANEL_TITLE="window.file.picker.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B4),".","_"),"=""", 'Exporter Excel Personnalisé'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_PANEL_TITLE="window.save.excel.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B5),".","_"),"=""", 'Exporter Excel Personnalisé'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TITLE="window.save.excel.specific.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B6),".","_"),"=""", 'Exporter Excel Personnalisé'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.specific.information.panel.text.nothing";</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B7),".","_"),"=""", 'Exporter Excel Personnalisé'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT="window.save.excel.specific.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B8),".","_"),"=""", 'Exporter Excel Personnalisé'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_PANEL_TITLE="window.save.excel.specific.list.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B9),".","_"),"=""", 'Exporter Excel Personnalisé'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL="window.save.excel.specific.list.specific.label";</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B10),".","_"),"=""", 'Exporter Excel Personnalisé'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL_NOTHING="window.save.excel.specific.list.specific.label.nothing";</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B11),".","_"),"=""", 'Exporter Excel Personnalisé'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_FIELDS_TITLE_PANEL="window.save.excel.specific.list.fields.title.panel";</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B12),".","_"),"=""", 'Exporter Excel Personnalisé'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_FILE_LABEL="window.save.excel.specific.file.label";</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B13),".","_"),"=""", 'Exporter Excel Personnalisé'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_TITLE_PANEL="window.save.excel.specific.action.title.panel";</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B14),".","_"),"=""", 'Exporter Excel Personnalisé'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_SELECT_ALL="window.save.excel.specific.action.select.all";</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B15),".","_"),"=""", 'Exporter Excel Personnalisé'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_DESELECT_ALL="window.save.excel.specific.action.deselect.all";</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B16),".","_"),"=""", 'Exporter Excel Personnalisé'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B17),".","_"),"=""", 'Exporter Excel Personnalisé'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B18),".","_"),"=""", 'Exporter Excel Personnalisé'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B19),".","_"),"=""", 'Exporter Excel Personnalisé'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B20),".","_"),"=""", 'Exporter Excel Personnalisé'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B21),".","_"),"=""", 'Exporter Excel Personnalisé'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B22),".","_"),"=""", 'Exporter Excel Personnalisé'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B23),".","_"),"=""", 'Exporter Excel Personnalisé'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B24),".","_"),"=""", 'Exporter Excel Personnalisé'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B25),".","_"),"=""", 'Exporter Excel Personnalisé'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B2),".","_"),"=""", Autres!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f>IF(Autres!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B3),".","_"),"=""", Autres!B3,""";"),"")</f>
+        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_ANSWER="window.recovery.error.state.answer";</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f>IF(Autres!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B4),".","_"),"=""", Autres!B4,""";"),"")</f>
+        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_TITLE="window.recovery.error.state.title";</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f>IF(Autres!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B5),".","_"),"=""", Autres!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f>IF(Autres!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B6),".","_"),"=""", Autres!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f>IF(Autres!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B7),".","_"),"=""", Autres!B7,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_PANEL_LABEL="window.information.panel.label";</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f>IF(Autres!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B8),".","_"),"=""", Autres!B8,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_MESSAGE_PANEL_LABEL="window.information.message.panel.label";</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f>IF(Autres!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B9),".","_"),"=""", Autres!B9,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_ACTION_PANEL_LABEL="window.information.action.panel.label";</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f>IF(Autres!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B10),".","_"),"=""", Autres!B10,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_ACTION_BUTTON_LABEL="window.information.action.button.label";</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f>IF(Autres!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B11),".","_"),"=""", Autres!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f>IF(Autres!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B12),".","_"),"=""", Autres!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f>IF(Autres!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B13),".","_"),"=""", Autres!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_ERROR_MOVE_FILE_EXISTS="window.message.error.move.file.exists";</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f>IF(Autres!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B14),".","_"),"=""", Autres!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_RESULT_MOVE_FILE="window.message.result.move.file";</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f>IF(Autres!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B15),".","_"),"=""", Autres!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_UNKNOW_ERROR="window.message.unknow.error";</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f>IF(Autres!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B16),".","_"),"=""", Autres!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_FROM="window.message.from";</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f>IF(Autres!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B17),".","_"),"=""", Autres!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_TO="window.message.to";</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f>IF(Autres!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B18),".","_"),"=""", Autres!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f>IF(Autres!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B19),".","_"),"=""", Autres!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f>IF(Autres!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B20),".","_"),"=""", Autres!B20,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_TITLE="window.manage.texts.delete.text.action.message.title";</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f>IF(Autres!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B21),".","_"),"=""", Autres!B21,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_CONTENT="window.manage.texts.delete.text.action.message.content";</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B22),".","_"),"=""", Autres!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B23),".","_"),"=""", Autres!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B24),".","_"),"=""", Autres!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B25),".","_"),"=""", Autres!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B26),".","_"),"=""", Autres!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B27),".","_"),"=""", Autres!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B28),".","_"),"=""", Autres!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B29),".","_"),"=""", Autres!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B30),".","_"),"=""", Autres!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B31),".","_"),"=""", Autres!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B32),".","_"),"=""", Autres!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B33),".","_"),"=""", Autres!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B34),".","_"),"=""", Autres!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B35),".","_"),"=""", Autres!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B2),".","_"),"=""", 'Changer Configuration'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B3),".","_"),"=""", 'Changer Configuration'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_TITLE="window.change.configuration.title";</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B4),".","_"),"=""", 'Changer Configuration'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_LIST_LABEL="window.change.configuration.list.label";</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B5),".","_"),"=""", 'Changer Configuration'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_PANEL_TITLE="window.change.configuration.panel.title";</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B6),".","_"),"=""", 'Changer Configuration'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_PANEL_TITLE="window.change.configuration.message.panel.title";</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B7),".","_"),"=""", 'Changer Configuration'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_CONTENT="window.change.configuration.message.content";</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B8),".","_"),"=""", 'Changer Configuration'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_APPLY_AND_CLOSE="window.change.configuration.button.apply.and.close";</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B9),".","_"),"=""", 'Changer Configuration'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_CLOSE="window.change.configuration.button.close";</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B10),".","_"),"=""", 'Changer Configuration'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTONS_PANEL_TITLE="window.change.configuration.buttons.panel.title";</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B11),".","_"),"=""", 'Changer Configuration'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B12),".","_"),"=""", 'Changer Configuration'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B13),".","_"),"=""", 'Changer Configuration'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B14),".","_"),"=""", 'Changer Configuration'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B15),".","_"),"=""", 'Changer Configuration'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B16),".","_"),"=""", 'Changer Configuration'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B17),".","_"),"=""", 'Changer Configuration'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B18),".","_"),"=""", 'Changer Configuration'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B19),".","_"),"=""", 'Changer Configuration'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B20),".","_"),"=""", 'Changer Configuration'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B21),".","_"),"=""", 'Changer Configuration'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B22),".","_"),"=""", 'Changer Configuration'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B23),".","_"),"=""", 'Changer Configuration'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>IF('Changer Configuration'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B24),".","_"),"=""", 'Changer Configuration'!B24,""";"),"")</f>
         <v/>
       </c>
     </row>
@@ -27750,26 +31577,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -27777,13 +31604,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -27791,13 +31618,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -27805,13 +31632,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -27819,13 +31646,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -27833,13 +31660,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -27847,13 +31674,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -27861,13 +31688,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -27875,13 +31702,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -27889,13 +31716,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -27922,26 +31749,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -27949,13 +31776,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -27963,13 +31790,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -27977,13 +31804,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -27991,13 +31818,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -28005,13 +31832,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -28020,10 +31847,10 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -28031,13 +31858,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -28045,13 +31872,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
         <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -28059,21 +31886,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -28081,13 +31908,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -28095,13 +31922,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -28109,21 +31936,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D19" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -28131,13 +31958,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -28145,13 +31972,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -28178,26 +32005,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28205,13 +32032,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28220,10 +32047,10 @@
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28231,13 +32058,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28246,10 +32073,10 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28257,13 +32084,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28271,13 +32098,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28285,13 +32112,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28299,13 +32126,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28313,13 +32140,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28327,13 +32154,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28341,13 +32168,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C15" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28355,13 +32182,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28369,13 +32196,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28383,13 +32210,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28397,13 +32224,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28411,10 +32238,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -28422,13 +32249,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" t="s">
         <v>226</v>
       </c>
-      <c r="C22" t="s">
-        <v>232</v>
-      </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28436,7 +32263,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter une nouvelle donnée, il faut absolument remplir toutes les cases et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout d'informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc des doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;suit le même fonctionnement de sélectionner la file entière que le bouton Ajouter, et donc, de la même manière,"," on doit faire attention car l'on efface une file complète (la ligne entière), et pas seulement la case de la colonne spécifique à la file sélectionné.&lt;/p&gt;&lt;/html&gt;")</f>
@@ -28452,13 +32279,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -28466,7 +32293,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs ont été detectés sur cette écran.&lt;br/&gt;Completer les tableaux ci-dessous pour rectifier les erreurs.&lt;br/&gt;Une fois les erreurs corrigés, ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
@@ -28510,7 +32337,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28520,26 +32347,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -28547,13 +32374,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -28561,13 +32388,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -28575,13 +32402,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -28589,13 +32416,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -28603,13 +32430,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -28617,13 +32444,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -28631,13 +32458,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -28645,13 +32472,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -28659,13 +32486,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -28673,13 +32500,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -28687,13 +32514,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -28722,26 +32549,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -28749,13 +32576,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -28784,26 +32611,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -28811,13 +32638,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -28825,13 +32652,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -28839,13 +32666,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -28853,13 +32680,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -28867,13 +32694,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -28881,13 +32708,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28895,13 +32722,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -28909,13 +32736,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -28923,13 +32750,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -28937,13 +32764,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -28951,13 +32778,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -28984,26 +32811,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -29011,13 +32838,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -29025,13 +32852,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29039,13 +32866,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -29053,13 +32880,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -29067,13 +32894,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -29095,8 +32922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59160BD-885A-4DEA-9FEE-62F72A09FE0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29108,24 +32935,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -29133,13 +32960,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -29147,13 +32974,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -29161,13 +32988,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -29175,13 +33002,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -29189,13 +33016,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -29203,13 +33030,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -29217,13 +33044,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -29231,13 +33058,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -29245,13 +33072,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -29259,13 +33086,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -29273,13 +33100,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -29287,13 +33114,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -29301,13 +33128,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -29315,13 +33142,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -29329,13 +33156,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D17" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29343,7 +33170,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Pour filtrer les textes cliquer sur Rechercher dans les textes, une fenêtre vous permettant de créer un nouveau filtre va s'ouvrir,","&lt;br /&gt;et vous devrez la fermer avoir de pouvoir faire toutes autres opérations","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, lorsque vous éditez un corpus, vous pouvez ajouter un texte dans le corpus, &lt;br /&gt;","il sera nécessaire d'enregistrer les modifications pour que le texte soit écrit physiquement dans le fichier, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, cliquez sur le bouton éditer le texte pour éditer un texte&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, si vous désirez supprimer un texte, celui ci sera définitvement supprimer (même du fichier physique)&lt;/p&gt;&lt;/html&gt;")</f>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dossier Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6695F2B4-8698-43C0-A2CC-879D6263FFF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A88650-0744-4FA8-9E0B-63E2273CA277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="14" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="Exporter Excel Personnalisé" sheetId="12" r:id="rId12"/>
     <sheet name="Autres" sheetId="13" r:id="rId13"/>
     <sheet name="Changer Configuration" sheetId="17" r:id="rId14"/>
-    <sheet name="FR_Properties" sheetId="14" r:id="rId15"/>
-    <sheet name="ES_Properties" sheetId="16" r:id="rId16"/>
-    <sheet name="Constants" sheetId="18" r:id="rId17"/>
+    <sheet name="A propos" sheetId="19" r:id="rId15"/>
+    <sheet name="FR_Properties" sheetId="14" r:id="rId16"/>
+    <sheet name="ES_Properties" sheetId="16" r:id="rId17"/>
+    <sheet name="Constants" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="567">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -241,9 +242,6 @@
     <t>Administra los materials</t>
   </si>
   <si>
-    <t>Repertorio de la biblioteca :</t>
-  </si>
-  <si>
     <t>Estado del análisis</t>
   </si>
   <si>
@@ -295,9 +293,6 @@
     <t>Numero</t>
   </si>
   <si>
-    <t xml:space="preserve">Repertorio analizado : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Número de estructuras con errores : </t>
   </si>
   <si>
@@ -1715,6 +1710,45 @@
   </si>
   <si>
     <t>Configuración actual :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directorio analizado : </t>
+  </si>
+  <si>
+    <t>Directorio de la biblioteca :</t>
+  </si>
+  <si>
+    <t>A propos</t>
+  </si>
+  <si>
+    <t>Acerca</t>
+  </si>
+  <si>
+    <t>#Message pour la fenêtre a propos</t>
+  </si>
+  <si>
+    <t>window.about.title</t>
+  </si>
+  <si>
+    <t>window.about.message.content</t>
+  </si>
+  <si>
+    <t>menu.about</t>
+  </si>
+  <si>
+    <t>menu.about.open</t>
+  </si>
+  <si>
+    <t>Ouvrir</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -22687,8 +22721,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D47" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A1:D47" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A1:D49" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{581AA08F-F8B9-4EB9-9270-F690B4699028}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{86F9FD87-A94B-4F9B-BA16-3BEE622BE071}" name="Code"/>
@@ -22759,6 +22793,19 @@
     <tableColumn id="2" xr3:uid="{2BD08D0A-A06E-4823-A29F-229DAC1664B5}" name="Code"/>
     <tableColumn id="3" xr3:uid="{1106E753-C414-43B7-8028-DF7D2546A2D2}" name="Français"/>
     <tableColumn id="4" xr3:uid="{52E87CF4-50EE-426B-94A1-8281489E5B8E}" name="Español"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{54C75DA3-536A-47AA-84F8-D9CAFCFCCBCD}" name="Tableau161011" displayName="Tableau161011" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2EAF23AA-21BD-4ECF-A89A-1EE1FAB4FA7B}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{23137A6E-4186-404B-8C24-F3653D56A29E}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{AD125158-21C5-4047-A063-80C29885C631}" name="Français"/>
+    <tableColumn id="4" xr3:uid="{F3A203CF-2262-4BDF-AA75-7DA21118D925}" name="Español"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23165,10 +23212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23181,16 +23228,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -23241,7 +23288,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -23255,7 +23302,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -23269,7 +23316,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -23283,7 +23330,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -23297,7 +23344,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -23311,7 +23358,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -23325,13 +23372,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23339,13 +23386,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23353,7 +23400,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -23367,7 +23414,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -23381,7 +23428,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -23395,7 +23442,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -23424,7 +23471,7 @@
         <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23438,7 +23485,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23452,7 +23499,7 @@
         <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23466,7 +23513,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23480,7 +23527,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23494,7 +23541,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23508,7 +23555,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23519,10 +23566,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D29" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23536,7 +23583,7 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23550,7 +23597,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23564,7 +23611,7 @@
         <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -23578,7 +23625,7 @@
         <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23592,7 +23639,7 @@
         <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23606,7 +23653,7 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23620,7 +23667,7 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -23634,7 +23681,7 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23648,7 +23695,7 @@
         <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23662,7 +23709,7 @@
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23670,13 +23717,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23684,13 +23731,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23698,13 +23745,13 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23712,13 +23759,13 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23726,13 +23773,13 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23740,13 +23787,13 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23754,13 +23801,41 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
+        <v>551</v>
+      </c>
+      <c r="C46" t="s">
+        <v>552</v>
+      </c>
+      <c r="D46" t="s">
         <v>553</v>
       </c>
-      <c r="C46" t="s">
-        <v>554</v>
-      </c>
-      <c r="D46" t="s">
-        <v>555</v>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>561</v>
+      </c>
+      <c r="C47" t="s">
+        <v>556</v>
+      </c>
+      <c r="D47" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>562</v>
+      </c>
+      <c r="C48" t="s">
+        <v>563</v>
+      </c>
+      <c r="D48" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -23789,24 +23864,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23814,13 +23889,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -23828,13 +23903,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -23842,13 +23917,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -23856,13 +23931,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -23870,13 +23945,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23884,13 +23959,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23898,13 +23973,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23912,13 +23987,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23926,13 +24001,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23940,13 +24015,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23954,13 +24029,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -23968,13 +24043,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23982,13 +24057,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -24017,24 +24092,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24042,13 +24117,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24056,13 +24131,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24070,13 +24145,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24084,13 +24159,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24098,7 +24173,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24114,13 +24189,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24128,21 +24203,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24150,13 +24225,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24164,21 +24239,21 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D15" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -24186,13 +24261,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24200,21 +24275,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24222,13 +24297,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24236,13 +24311,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C21" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -24269,24 +24344,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24294,13 +24369,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24308,13 +24383,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24322,13 +24397,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24336,13 +24411,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24350,7 +24425,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24366,13 +24441,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24380,13 +24455,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24394,13 +24469,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24408,13 +24483,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24422,13 +24497,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24436,13 +24511,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24450,13 +24525,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24464,13 +24539,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -24498,24 +24573,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24523,13 +24598,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24537,21 +24612,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24559,13 +24634,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24573,13 +24648,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24587,13 +24662,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24601,21 +24676,21 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24623,7 +24698,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24639,7 +24714,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24655,7 +24730,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24671,13 +24746,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24685,21 +24760,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -24707,13 +24782,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24721,13 +24796,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -24754,24 +24829,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24779,13 +24854,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24793,13 +24868,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" t="s">
         <v>530</v>
       </c>
-      <c r="C4" t="s">
-        <v>532</v>
-      </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24807,13 +24882,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24821,13 +24896,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -24835,7 +24910,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;","Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;","Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;")</f>
@@ -24851,13 +24926,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24865,13 +24940,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24879,13 +24954,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24915,11 +24990,100 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A141E-D5BD-46DF-8EEC-B92516C123B1}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
-  <dimension ref="A1:A369"/>
+  <dimension ref="A1:A391"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A369" sqref="A1:A369"/>
+    <sheetView showZeros="0" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A288" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25200,13 +25364,13 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE('Fenêtre principal'!B47,"=", 'Fenêtre principal'!C47),IF('Fenêtre principal'!C47&lt;&gt;"",'Fenêtre principal'!C47,""))</f>
-        <v/>
+        <v>menu.about=A propos</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE('Fenêtre principal'!B48,"=", 'Fenêtre principal'!C48),IF('Fenêtre principal'!C48&lt;&gt;"",'Fenêtre principal'!C48,""))</f>
-        <v/>
+        <v>menu.about.open=Ouvrir</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -25248,6 +25412,18 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>IF('Fenêtre principal'!B55&lt;&gt;"",CONCATENATE('Fenêtre principal'!B55,"=", 'Fenêtre principal'!C55),IF('Fenêtre principal'!C55&lt;&gt;"",'Fenêtre principal'!C55,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF('Fenêtre principal'!B56&lt;&gt;"",CONCATENATE('Fenêtre principal'!B56,"=", 'Fenêtre principal'!C56),IF('Fenêtre principal'!C56&lt;&gt;"",'Fenêtre principal'!C56,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>IF('Fenêtre principal'!B57&lt;&gt;"",CONCATENATE('Fenêtre principal'!B57,"=", 'Fenêtre principal'!C57),IF('Fenêtre principal'!C57&lt;&gt;"",'Fenêtre principal'!C57,""))</f>
         <v/>
       </c>
     </row>
@@ -25695,6 +25871,42 @@
         <v/>
       </c>
     </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B32,"=", 'Fenêtre spécifique'!C32),IF('Fenêtre spécifique'!C32&lt;&gt;"",'Fenêtre spécifique'!C32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B33,"=", 'Fenêtre spécifique'!C33),IF('Fenêtre spécifique'!C33&lt;&gt;"",'Fenêtre spécifique'!C33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B34,"=", 'Fenêtre spécifique'!C34),IF('Fenêtre spécifique'!C34&lt;&gt;"",'Fenêtre spécifique'!C34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B35,"=", 'Fenêtre spécifique'!C35),IF('Fenêtre spécifique'!C35&lt;&gt;"",'Fenêtre spécifique'!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B36,"=", 'Fenêtre spécifique'!C36),IF('Fenêtre spécifique'!C36&lt;&gt;"",'Fenêtre spécifique'!C36,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B37,"=", 'Fenêtre spécifique'!C37),IF('Fenêtre spécifique'!C37&lt;&gt;"",'Fenêtre spécifique'!C37,""))</f>
+        <v/>
+      </c>
+    </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B2,"=", 'Fenêtre Chargement document'!C2),IF('Fenêtre Chargement document'!C2&lt;&gt;"",'Fenêtre Chargement document'!C2,""))</f>
@@ -26751,339 +26963,477 @@
         <v/>
       </c>
     </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE(Autres!B2,"=", Autres!C2),IF(Autres!C2&lt;&gt;"",Autres!C2,""))</f>
+        <v>#Message reprise correction</v>
+      </c>
+    </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE(Autres!B2,"=", Autres!C2),IF(Autres!C2&lt;&gt;"",Autres!C2,""))</f>
-        <v>#Message reprise correction</v>
+        <f>IF(Autres!B3&lt;&gt;"",CONCATENATE(Autres!B3,"=", Autres!C3),IF(Autres!C3&lt;&gt;"",Autres!C3,""))</f>
+        <v>window.recovery.error.state.answer=Une analyse en cours de correction a été detecté.\nSouhaitez vous reprendre la correction en cours ?</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
-        <f>IF(Autres!B3&lt;&gt;"",CONCATENATE(Autres!B3,"=", Autres!C3),IF(Autres!C3&lt;&gt;"",Autres!C3,""))</f>
-        <v>window.recovery.error.state.answer=Une analyse en cours de correction a été detecté.\nSouhaitez vous reprendre la correction en cours ?</v>
+        <f>IF(Autres!B4&lt;&gt;"",CONCATENATE(Autres!B4,"=", Autres!C4),IF(Autres!C4&lt;&gt;"",Autres!C4,""))</f>
+        <v>window.recovery.error.state.title=Reprendre</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="str">
-        <f>IF(Autres!B4&lt;&gt;"",CONCATENATE(Autres!B4,"=", Autres!C4),IF(Autres!C4&lt;&gt;"",Autres!C4,""))</f>
-        <v>window.recovery.error.state.title=Reprendre</v>
+        <f>IF(Autres!B5&lt;&gt;"",CONCATENATE(Autres!B5,"=", Autres!C5),IF(Autres!C5&lt;&gt;"",Autres!C5,""))</f>
+        <v/>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="str">
-        <f>IF(Autres!B5&lt;&gt;"",CONCATENATE(Autres!B5,"=", Autres!C5),IF(Autres!C5&lt;&gt;"",Autres!C5,""))</f>
-        <v/>
+        <f>IF(Autres!B6&lt;&gt;"",CONCATENATE(Autres!B6,"=", Autres!C6),IF(Autres!C6&lt;&gt;"",Autres!C6,""))</f>
+        <v>#Fenêtre d'information</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="str">
-        <f>IF(Autres!B6&lt;&gt;"",CONCATENATE(Autres!B6,"=", Autres!C6),IF(Autres!C6&lt;&gt;"",Autres!C6,""))</f>
-        <v>#Fenêtre d'information</v>
+        <f>IF(Autres!B7&lt;&gt;"",CONCATENATE(Autres!B7,"=", Autres!C7),IF(Autres!C7&lt;&gt;"",Autres!C7,""))</f>
+        <v>window.information.panel.label=Message d'information</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="str">
-        <f>IF(Autres!B7&lt;&gt;"",CONCATENATE(Autres!B7,"=", Autres!C7),IF(Autres!C7&lt;&gt;"",Autres!C7,""))</f>
-        <v>window.information.panel.label=Message d'information</v>
+        <f>IF(Autres!B8&lt;&gt;"",CONCATENATE(Autres!B8,"=", Autres!C8),IF(Autres!C8&lt;&gt;"",Autres!C8,""))</f>
+        <v>window.information.message.panel.label=Message</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="str">
-        <f>IF(Autres!B8&lt;&gt;"",CONCATENATE(Autres!B8,"=", Autres!C8),IF(Autres!C8&lt;&gt;"",Autres!C8,""))</f>
-        <v>window.information.message.panel.label=Message</v>
+        <f>IF(Autres!B9&lt;&gt;"",CONCATENATE(Autres!B9,"=", Autres!C9),IF(Autres!C9&lt;&gt;"",Autres!C9,""))</f>
+        <v>window.information.action.panel.label=Action utilisateur</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="str">
-        <f>IF(Autres!B9&lt;&gt;"",CONCATENATE(Autres!B9,"=", Autres!C9),IF(Autres!C9&lt;&gt;"",Autres!C9,""))</f>
-        <v>window.information.action.panel.label=Action utilisateur</v>
+        <f>IF(Autres!B10&lt;&gt;"",CONCATENATE(Autres!B10,"=", Autres!C10),IF(Autres!C10&lt;&gt;"",Autres!C10,""))</f>
+        <v>window.information.action.button.label=Fermer</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="str">
-        <f>IF(Autres!B10&lt;&gt;"",CONCATENATE(Autres!B10,"=", Autres!C10),IF(Autres!C10&lt;&gt;"",Autres!C10,""))</f>
-        <v>window.information.action.button.label=Fermer</v>
+        <f>IF(Autres!B11&lt;&gt;"",CONCATENATE(Autres!B11,"=", Autres!C11),IF(Autres!C11&lt;&gt;"",Autres!C11,""))</f>
+        <v/>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="str">
-        <f>IF(Autres!B11&lt;&gt;"",CONCATENATE(Autres!B11,"=", Autres!C11),IF(Autres!C11&lt;&gt;"",Autres!C11,""))</f>
-        <v/>
+        <f>IF(Autres!B12&lt;&gt;"",CONCATENATE(Autres!B12,"=", Autres!C12),IF(Autres!C12&lt;&gt;"",Autres!C12,""))</f>
+        <v>#Information pour le déplacement des fichiers</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
-        <f>IF(Autres!B12&lt;&gt;"",CONCATENATE(Autres!B12,"=", Autres!C12),IF(Autres!C12&lt;&gt;"",Autres!C12,""))</f>
-        <v>#Information pour le déplacement des fichiers</v>
+        <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!C13),IF(Autres!C13&lt;&gt;"",Autres!C13,""))</f>
+        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
-        <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!C13),IF(Autres!C13&lt;&gt;"",Autres!C13,""))</f>
-        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <f>IF(Autres!B14&lt;&gt;"",CONCATENATE(Autres!B14,"=", Autres!C14),IF(Autres!C14&lt;&gt;"",Autres!C14,""))</f>
+        <v>window.message.result.move.file=&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="str">
-        <f>IF(Autres!B14&lt;&gt;"",CONCATENATE(Autres!B14,"=", Autres!C14),IF(Autres!C14&lt;&gt;"",Autres!C14,""))</f>
-        <v>window.message.result.move.file=&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <f>IF(Autres!B15&lt;&gt;"",CONCATENATE(Autres!B15,"=", Autres!C15),IF(Autres!C15&lt;&gt;"",Autres!C15,""))</f>
+        <v>window.message.unknow.error=&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="str">
-        <f>IF(Autres!B15&lt;&gt;"",CONCATENATE(Autres!B15,"=", Autres!C15),IF(Autres!C15&lt;&gt;"",Autres!C15,""))</f>
-        <v>window.message.unknow.error=&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <f>IF(Autres!B16&lt;&gt;"",CONCATENATE(Autres!B16,"=", Autres!C16),IF(Autres!C16&lt;&gt;"",Autres!C16,""))</f>
+        <v xml:space="preserve">window.message.from=Depuis : </v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="str">
-        <f>IF(Autres!B16&lt;&gt;"",CONCATENATE(Autres!B16,"=", Autres!C16),IF(Autres!C16&lt;&gt;"",Autres!C16,""))</f>
-        <v xml:space="preserve">window.message.from=Depuis : </v>
+        <f>IF(Autres!B17&lt;&gt;"",CONCATENATE(Autres!B17,"=", Autres!C17),IF(Autres!C17&lt;&gt;"",Autres!C17,""))</f>
+        <v xml:space="preserve">window.message.to=Vers : </v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="str">
-        <f>IF(Autres!B17&lt;&gt;"",CONCATENATE(Autres!B17,"=", Autres!C17),IF(Autres!C17&lt;&gt;"",Autres!C17,""))</f>
-        <v xml:space="preserve">window.message.to=Vers : </v>
+        <f>IF(Autres!B18&lt;&gt;"",CONCATENATE(Autres!B18,"=", Autres!C18),IF(Autres!C18&lt;&gt;"",Autres!C18,""))</f>
+        <v/>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="str">
-        <f>IF(Autres!B18&lt;&gt;"",CONCATENATE(Autres!B18,"=", Autres!C18),IF(Autres!C18&lt;&gt;"",Autres!C18,""))</f>
-        <v/>
+        <f>IF(Autres!B19&lt;&gt;"",CONCATENATE(Autres!B19,"=", Autres!C19),IF(Autres!C19&lt;&gt;"",Autres!C19,""))</f>
+        <v>#Message de prevention en cas de suppression</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="str">
-        <f>IF(Autres!B19&lt;&gt;"",CONCATENATE(Autres!B19,"=", Autres!C19),IF(Autres!C19&lt;&gt;"",Autres!C19,""))</f>
-        <v>#Message de prevention en cas de suppression</v>
+        <f>IF(Autres!B20&lt;&gt;"",CONCATENATE(Autres!B20,"=", Autres!C20),IF(Autres!C20&lt;&gt;"",Autres!C20,""))</f>
+        <v>window.manage.texts.delete.text.action.message.title=Message de prévention</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
-        <f>IF(Autres!B20&lt;&gt;"",CONCATENATE(Autres!B20,"=", Autres!C20),IF(Autres!C20&lt;&gt;"",Autres!C20,""))</f>
-        <v>window.manage.texts.delete.text.action.message.title=Message de prévention</v>
+        <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!C21),IF(Autres!C21&lt;&gt;"",Autres!C21,""))</f>
+        <v>window.manage.texts.delete.text.action.message.content=Vous allez supprimer un texte du corpus.\nCette action sera irréversible.\nVoulez vous continuer ?</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
-        <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!C21),IF(Autres!C21&lt;&gt;"",Autres!C21,""))</f>
-        <v>window.manage.texts.delete.text.action.message.content=Vous allez supprimer un texte du corpus.\nCette action sera irréversible.\nVoulez vous continuer ?</v>
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!C22),IF(Autres!C22&lt;&gt;"",Autres!C22,""))</f>
+        <v/>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="str">
-        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!C22),IF(Autres!C22&lt;&gt;"",Autres!C22,""))</f>
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!C23),IF(Autres!C23&lt;&gt;"",Autres!C23,""))</f>
         <v/>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="str">
-        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!C23),IF(Autres!C23&lt;&gt;"",Autres!C23,""))</f>
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!C24),IF(Autres!C24&lt;&gt;"",Autres!C24,""))</f>
         <v/>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="str">
-        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!C24),IF(Autres!C24&lt;&gt;"",Autres!C24,""))</f>
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!C25),IF(Autres!C25&lt;&gt;"",Autres!C25,""))</f>
         <v/>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="str">
-        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!C25),IF(Autres!C25&lt;&gt;"",Autres!C25,""))</f>
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!C26),IF(Autres!C26&lt;&gt;"",Autres!C26,""))</f>
         <v/>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="str">
-        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!C26),IF(Autres!C26&lt;&gt;"",Autres!C26,""))</f>
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!C27),IF(Autres!C27&lt;&gt;"",Autres!C27,""))</f>
         <v/>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="str">
-        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!C27),IF(Autres!C27&lt;&gt;"",Autres!C27,""))</f>
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!C28),IF(Autres!C28&lt;&gt;"",Autres!C28,""))</f>
         <v/>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="str">
-        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!C28),IF(Autres!C28&lt;&gt;"",Autres!C28,""))</f>
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!C29),IF(Autres!C29&lt;&gt;"",Autres!C29,""))</f>
         <v/>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="str">
-        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!C29),IF(Autres!C29&lt;&gt;"",Autres!C29,""))</f>
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!C30),IF(Autres!C30&lt;&gt;"",Autres!C30,""))</f>
         <v/>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="str">
-        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!C30),IF(Autres!C30&lt;&gt;"",Autres!C30,""))</f>
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!C31),IF(Autres!C31&lt;&gt;"",Autres!C31,""))</f>
         <v/>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="str">
-        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!C31),IF(Autres!C31&lt;&gt;"",Autres!C31,""))</f>
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!C32),IF(Autres!C32&lt;&gt;"",Autres!C32,""))</f>
         <v/>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!C32),IF(Autres!C32&lt;&gt;"",Autres!C32,""))</f>
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!C33),IF(Autres!C33&lt;&gt;"",Autres!C33,""))</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!C33),IF(Autres!C33&lt;&gt;"",Autres!C33,""))</f>
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!C34),IF(Autres!C34&lt;&gt;"",Autres!C34,""))</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!C34),IF(Autres!C34&lt;&gt;"",Autres!C34,""))</f>
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
         <v/>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
-        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
-        <v/>
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!C2),IF('Changer Configuration'!C2&lt;&gt;"",'Changer Configuration'!C2,""))</f>
+        <v>#Message pour le changement de la configuration</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
-        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!C2),IF('Changer Configuration'!C2&lt;&gt;"",'Changer Configuration'!C2,""))</f>
-        <v>#Message pour le changement de la configuration</v>
+        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!C3),IF('Changer Configuration'!C3&lt;&gt;"",'Changer Configuration'!C3,""))</f>
+        <v>window.change.configuration.title=Configuration courante</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
-        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!C3),IF('Changer Configuration'!C3&lt;&gt;"",'Changer Configuration'!C3,""))</f>
-        <v>window.change.configuration.title=Configuration courante</v>
+        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!C4),IF('Changer Configuration'!C4&lt;&gt;"",'Changer Configuration'!C4,""))</f>
+        <v>window.change.configuration.list.label=Configuration à utiliser :</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="str">
-        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!C4),IF('Changer Configuration'!C4&lt;&gt;"",'Changer Configuration'!C4,""))</f>
-        <v>window.change.configuration.list.label=Configuration à utiliser :</v>
+        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!C5),IF('Changer Configuration'!C5&lt;&gt;"",'Changer Configuration'!C5,""))</f>
+        <v>window.change.configuration.panel.title=Changement de la configuration</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="str">
-        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!C5),IF('Changer Configuration'!C5&lt;&gt;"",'Changer Configuration'!C5,""))</f>
-        <v>window.change.configuration.panel.title=Changement de la configuration</v>
+        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!C6),IF('Changer Configuration'!C6&lt;&gt;"",'Changer Configuration'!C6,""))</f>
+        <v>window.change.configuration.message.panel.title=Message d'information</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
-        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!C6),IF('Changer Configuration'!C6&lt;&gt;"",'Changer Configuration'!C6,""))</f>
-        <v>window.change.configuration.message.panel.title=Message d'information</v>
+        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
-        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
-        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
+        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!C8),IF('Changer Configuration'!C8&lt;&gt;"",'Changer Configuration'!C8,""))</f>
+        <v>window.change.configuration.button.apply.and.close=Choisir cette configuration et fermer</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="str">
-        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!C8),IF('Changer Configuration'!C8&lt;&gt;"",'Changer Configuration'!C8,""))</f>
-        <v>window.change.configuration.button.apply.and.close=Choisir cette configuration et fermer</v>
+        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!C9),IF('Changer Configuration'!C9&lt;&gt;"",'Changer Configuration'!C9,""))</f>
+        <v>window.change.configuration.button.close=Fermer</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="str">
-        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!C9),IF('Changer Configuration'!C9&lt;&gt;"",'Changer Configuration'!C9,""))</f>
-        <v>window.change.configuration.button.close=Fermer</v>
+        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!C10),IF('Changer Configuration'!C10&lt;&gt;"",'Changer Configuration'!C10,""))</f>
+        <v>window.change.configuration.buttons.panel.title=Actions</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="str">
-        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!C10),IF('Changer Configuration'!C10&lt;&gt;"",'Changer Configuration'!C10,""))</f>
-        <v>window.change.configuration.buttons.panel.title=Actions</v>
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!C11),IF('Changer Configuration'!C11&lt;&gt;"",'Changer Configuration'!C11,""))</f>
+        <v/>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="str">
-        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!C11),IF('Changer Configuration'!C11&lt;&gt;"",'Changer Configuration'!C11,""))</f>
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!C12),IF('Changer Configuration'!C12&lt;&gt;"",'Changer Configuration'!C12,""))</f>
         <v/>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="str">
-        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!C12),IF('Changer Configuration'!C12&lt;&gt;"",'Changer Configuration'!C12,""))</f>
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!C13),IF('Changer Configuration'!C13&lt;&gt;"",'Changer Configuration'!C13,""))</f>
         <v/>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="str">
-        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!C13),IF('Changer Configuration'!C13&lt;&gt;"",'Changer Configuration'!C13,""))</f>
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!C14),IF('Changer Configuration'!C14&lt;&gt;"",'Changer Configuration'!C14,""))</f>
         <v/>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="str">
-        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!C14),IF('Changer Configuration'!C14&lt;&gt;"",'Changer Configuration'!C14,""))</f>
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!C15),IF('Changer Configuration'!C15&lt;&gt;"",'Changer Configuration'!C15,""))</f>
         <v/>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="str">
-        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!C15),IF('Changer Configuration'!C15&lt;&gt;"",'Changer Configuration'!C15,""))</f>
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!C16),IF('Changer Configuration'!C16&lt;&gt;"",'Changer Configuration'!C16,""))</f>
         <v/>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="str">
-        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!C16),IF('Changer Configuration'!C16&lt;&gt;"",'Changer Configuration'!C16,""))</f>
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!C17),IF('Changer Configuration'!C17&lt;&gt;"",'Changer Configuration'!C17,""))</f>
         <v/>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="str">
-        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!C17),IF('Changer Configuration'!C17&lt;&gt;"",'Changer Configuration'!C17,""))</f>
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!C18),IF('Changer Configuration'!C18&lt;&gt;"",'Changer Configuration'!C18,""))</f>
         <v/>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="str">
-        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!C18),IF('Changer Configuration'!C18&lt;&gt;"",'Changer Configuration'!C18,""))</f>
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!C19),IF('Changer Configuration'!C19&lt;&gt;"",'Changer Configuration'!C19,""))</f>
         <v/>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="str">
-        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!C19),IF('Changer Configuration'!C19&lt;&gt;"",'Changer Configuration'!C19,""))</f>
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
         <v/>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="str">
-        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
         <v/>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
-        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
-        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE('A propos'!B2,"=", 'A propos'!C2),IF('A propos'!C2&lt;&gt;"",'A propos'!C2,""))</f>
+        <v>#Message pour la fenêtre a propos</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE('A propos'!B3,"=", 'A propos'!C3),IF('A propos'!C3&lt;&gt;"",'A propos'!C3,""))</f>
+        <v>window.about.title=A propos</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!C4),IF('A propos'!C4&lt;&gt;"",'A propos'!C4,""))</f>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!C5),IF('A propos'!C5&lt;&gt;"",'A propos'!C5,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!C6),IF('A propos'!C6&lt;&gt;"",'A propos'!C6,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!C7),IF('A propos'!C7&lt;&gt;"",'A propos'!C7,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!C8),IF('A propos'!C8&lt;&gt;"",'A propos'!C8,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!C9),IF('A propos'!C9&lt;&gt;"",'A propos'!C9,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!C10),IF('A propos'!C10&lt;&gt;"",'A propos'!C10,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!C11),IF('A propos'!C11&lt;&gt;"",'A propos'!C11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!C12),IF('A propos'!C12&lt;&gt;"",'A propos'!C12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!C13),IF('A propos'!C13&lt;&gt;"",'A propos'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!C14),IF('A propos'!C14&lt;&gt;"",'A propos'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!C15),IF('A propos'!C15&lt;&gt;"",'A propos'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!C16),IF('A propos'!C16&lt;&gt;"",'A propos'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!C19),IF('A propos'!C19&lt;&gt;"",'A propos'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!C42),IF('A propos'!C20&lt;&gt;"",'A propos'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE('A propos'!B21,"=", 'A propos'!C43),IF('A propos'!C21&lt;&gt;"",'A propos'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE('A propos'!B22,"=", 'A propos'!C44),IF('A propos'!C22&lt;&gt;"",'A propos'!C22,""))</f>
         <v/>
       </c>
     </row>
@@ -27092,12 +27442,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
-  <dimension ref="A1:A369"/>
+  <dimension ref="A1:A390"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A343" sqref="A1:A369"/>
+    <sheetView showZeros="0" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A384" sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27228,7 +27578,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE('Fenêtre principal'!B22,"=", 'Fenêtre principal'!D22),IF('Fenêtre principal'!D22&lt;&gt;"",'Fenêtre principal'!D22,""))</f>
-        <v>window.main.configuration.library.panel.state.label=Repertorio de la biblioteca :</v>
+        <v>window.main.configuration.library.panel.state.label=Directorio de la biblioteca :</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -27258,7 +27608,7 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>IF('Fenêtre principal'!B27&lt;&gt;"",CONCATENATE('Fenêtre principal'!B27,"=", 'Fenêtre principal'!D27),IF('Fenêtre principal'!D27&lt;&gt;"",'Fenêtre principal'!D27,""))</f>
-        <v xml:space="preserve">window.main.analyze.panel.state.folder.label=Repertorio analizado : </v>
+        <v xml:space="preserve">window.main.analyze.panel.state.folder.label=Directorio analizado : </v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -27378,13 +27728,13 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE('Fenêtre principal'!B47,"=", 'Fenêtre principal'!D47),IF('Fenêtre principal'!D47&lt;&gt;"",'Fenêtre principal'!D47,""))</f>
-        <v/>
+        <v>menu.about=Acerca</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE('Fenêtre principal'!B48,"=", 'Fenêtre principal'!D48),IF('Fenêtre principal'!D48&lt;&gt;"",'Fenêtre principal'!D48,""))</f>
-        <v/>
+        <v>menu.about.open=Abrir</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -29316,6 +29666,132 @@
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
         <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE('A propos'!B2,"=", 'A propos'!D2),IF('A propos'!D2&lt;&gt;"",'A propos'!D2,""))</f>
+        <v>#Mensaje para el cambio de configuración</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE('A propos'!B3,"=", 'A propos'!D3),IF('A propos'!D3&lt;&gt;"",'A propos'!D3,""))</f>
+        <v>window.about.title=Acerca</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!D4),IF('A propos'!D4&lt;&gt;"",'A propos'!D4,""))</f>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!D5),IF('A propos'!D5&lt;&gt;"",'A propos'!D5,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!D6),IF('A propos'!D6&lt;&gt;"",'A propos'!D6,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!D7),IF('A propos'!D7&lt;&gt;"",'A propos'!D7,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!D8),IF('A propos'!D8&lt;&gt;"",'A propos'!D8,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!D9),IF('A propos'!D9&lt;&gt;"",'A propos'!D9,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!D10),IF('A propos'!D10&lt;&gt;"",'A propos'!D10,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!D11),IF('A propos'!D11&lt;&gt;"",'A propos'!D11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!D12),IF('A propos'!D12&lt;&gt;"",'A propos'!D12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!D13),IF('A propos'!D13&lt;&gt;"",'A propos'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!D14),IF('A propos'!D14&lt;&gt;"",'A propos'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!D15),IF('A propos'!D15&lt;&gt;"",'A propos'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!D16),IF('A propos'!D16&lt;&gt;"",'A propos'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!D17),IF('A propos'!D17&lt;&gt;"",'A propos'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!D20),IF('A propos'!D20&lt;&gt;"",'A propos'!D20,""))</f>
         <v/>
       </c>
     </row>
@@ -29324,12 +29800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
-  <dimension ref="A1:A370"/>
+  <dimension ref="A1:A386"/>
   <sheetViews>
-    <sheetView topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A354" sqref="A354"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29610,13 +30086,13 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B47),".","_"),"=""", 'Fenêtre principal'!B47,""";"),"")</f>
-        <v/>
+        <v>public static final String MENU_ABOUT="menu.about";</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B48),".","_"),"=""", 'Fenêtre principal'!B48,""";"),"")</f>
-        <v/>
+        <v>public static final String MENU_ABOUT_OPEN="menu.about.open";</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -31553,7 +32029,103 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
-        <f>IF('Changer Configuration'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B24),".","_"),"=""", 'Changer Configuration'!B24,""";"),"")</f>
+        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B2),".","_"),"=""", 'A propos'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B3),".","_"),"=""", 'A propos'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_ABOUT_TITLE="window.about.title";</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B4),".","_"),"=""", 'A propos'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_ABOUT_MESSAGE_CONTENT="window.about.message.content";</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B5),".","_"),"=""", 'A propos'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B6),".","_"),"=""", 'A propos'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B7),".","_"),"=""", 'A propos'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B8),".","_"),"=""", 'A propos'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B9),".","_"),"=""", 'A propos'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B10),".","_"),"=""", 'A propos'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B11),".","_"),"=""", 'A propos'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B12),".","_"),"=""", 'A propos'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B13),".","_"),"=""", 'A propos'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B14),".","_"),"=""", 'A propos'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B15),".","_"),"=""", 'A propos'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B16),".","_"),"=""", 'A propos'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B17),".","_"),"=""", 'A propos'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B18),".","_"),"=""", 'A propos'!B18,""";"),"")</f>
         <v/>
       </c>
     </row>
@@ -31577,26 +32149,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -31604,13 +32176,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -31618,13 +32190,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -31632,13 +32204,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -31646,13 +32218,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -31660,13 +32232,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -31674,13 +32246,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -31688,13 +32260,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -31702,13 +32274,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -31716,13 +32288,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -31749,26 +32321,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -31776,13 +32348,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -31790,13 +32362,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -31804,13 +32376,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -31818,13 +32390,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -31832,13 +32404,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -31847,10 +32419,10 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -31858,13 +32430,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
         <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -31872,13 +32444,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -31886,21 +32458,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -31908,13 +32480,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -31922,13 +32494,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -31936,21 +32508,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" t="s">
         <v>182</v>
-      </c>
-      <c r="C17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -31958,13 +32530,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -31972,13 +32544,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -32005,26 +32577,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32032,13 +32604,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32047,10 +32619,10 @@
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32058,13 +32630,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32073,10 +32645,10 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32084,13 +32656,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32098,13 +32670,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32112,13 +32684,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32126,13 +32698,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32140,13 +32712,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32154,13 +32726,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32168,13 +32740,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32182,13 +32754,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32196,13 +32768,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32210,13 +32782,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32224,13 +32796,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
         <v>216</v>
-      </c>
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32238,10 +32810,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -32249,13 +32821,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32263,7 +32835,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter une nouvelle donnée, il faut absolument remplir toutes les cases et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout d'informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc des doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;suit le même fonctionnement de sélectionner la file entière que le bouton Ajouter, et donc, de la même manière,"," on doit faire attention car l'on efface une file complète (la ligne entière), et pas seulement la case de la colonne spécifique à la file sélectionné.&lt;/p&gt;&lt;/html&gt;")</f>
@@ -32279,13 +32851,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" t="s">
         <v>225</v>
-      </c>
-      <c r="D24" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -32293,7 +32865,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs ont été detectés sur cette écran.&lt;br/&gt;Completer les tableaux ci-dessous pour rectifier les erreurs.&lt;br/&gt;Une fois les erreurs corrigés, ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
@@ -32347,26 +32919,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32374,13 +32946,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32388,13 +32960,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32402,13 +32974,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32416,13 +32988,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32430,13 +33002,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32444,13 +33016,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -32458,13 +33030,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32472,13 +33044,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32486,13 +33058,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32500,13 +33072,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -32514,13 +33086,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -32549,26 +33121,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32576,13 +33148,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -32611,26 +33183,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32638,13 +33210,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32652,13 +33224,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32666,13 +33238,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32680,13 +33252,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32694,13 +33266,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32708,13 +33280,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32722,13 +33294,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32736,13 +33308,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32750,13 +33322,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32764,13 +33336,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -32778,13 +33350,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -32811,26 +33383,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32838,13 +33410,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32852,13 +33424,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32866,13 +33438,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32880,13 +33452,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32894,13 +33466,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -32935,24 +33507,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32960,13 +33532,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32974,13 +33546,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32988,13 +33560,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33002,13 +33574,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33016,13 +33588,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33030,13 +33602,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33044,13 +33616,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33058,13 +33630,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33072,13 +33644,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33086,13 +33658,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33100,13 +33672,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33114,13 +33686,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33128,13 +33700,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D15" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -33142,13 +33714,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
         <v>327</v>
-      </c>
-      <c r="C16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D16" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33156,13 +33728,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>504</v>
+      </c>
+      <c r="C17" t="s">
         <v>506</v>
       </c>
-      <c r="C17" t="s">
-        <v>508</v>
-      </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33170,7 +33742,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Pour filtrer les textes cliquer sur Rechercher dans les textes, une fenêtre vous permettant de créer un nouveau filtre va s'ouvrir,","&lt;br /&gt;et vous devrez la fermer avoir de pouvoir faire toutes autres opérations","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, lorsque vous éditez un corpus, vous pouvez ajouter un texte dans le corpus, &lt;br /&gt;","il sera nécessaire d'enregistrer les modifications pour que le texte soit écrit physiquement dans le fichier, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, cliquez sur le bouton éditer le texte pour éditer un texte&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, si vous désirez supprimer un texte, celui ci sera définitvement supprimer (même du fichier physique)&lt;/p&gt;&lt;/html&gt;")</f>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dossier Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A88650-0744-4FA8-9E0B-63E2273CA277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E0462-7A2B-4E6B-A446-F3828D367D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="14" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -1721,9 +1721,6 @@
     <t>A propos</t>
   </si>
   <si>
-    <t>Acerca</t>
-  </si>
-  <si>
     <t>#Message pour la fenêtre a propos</t>
   </si>
   <si>
@@ -1749,6 +1746,9 @@
   </si>
   <si>
     <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Acerca de</t>
   </si>
 </sst>
 </file>
@@ -23214,8 +23214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23815,13 +23815,13 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C47" t="s">
         <v>556</v>
       </c>
       <c r="D47" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23829,13 +23829,13 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
+        <v>561</v>
+      </c>
+      <c r="C48" t="s">
         <v>562</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>563</v>
-      </c>
-      <c r="D48" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -24993,8 +24993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A141E-D5BD-46DF-8EEC-B92516C123B1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25019,7 +25019,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2" t="s">
         <v>535</v>
@@ -25030,13 +25030,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25044,13 +25044,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -27447,7 +27447,7 @@
   <dimension ref="A1:A390"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A384" sqref="A1:A390"/>
+      <selection activeCell="A379" sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27728,7 +27728,7 @@
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE('Fenêtre principal'!B47,"=", 'Fenêtre principal'!D47),IF('Fenêtre principal'!D47&lt;&gt;"",'Fenêtre principal'!D47,""))</f>
-        <v>menu.about=Acerca</v>
+        <v>menu.about=Acerca de</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -29678,7 +29678,7 @@
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
         <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE('A propos'!B3,"=", 'A propos'!D3),IF('A propos'!D3&lt;&gt;"",'A propos'!D3,""))</f>
-        <v>window.about.title=Acerca</v>
+        <v>window.about.title=Acerca de</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dossier Caerus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E0462-7A2B-4E6B-A446-F3828D367D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EEFCCB-FC57-4339-AF25-16DD78CC2039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="562">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Charger les documents</t>
   </si>
   <si>
-    <t xml:space="preserve">Enregister les documents Excel </t>
-  </si>
-  <si>
-    <t>Enregister un fichier Excel personnalisé</t>
-  </si>
-  <si>
     <t>Sortir</t>
   </si>
   <si>
@@ -89,15 +83,6 @@
     <t>Création</t>
   </si>
   <si>
-    <t>Ouvrir le dossier qui contient les documents</t>
-  </si>
-  <si>
-    <t>Créer un materiel</t>
-  </si>
-  <si>
-    <t>Gérer les textes</t>
-  </si>
-  <si>
     <t># Menu</t>
   </si>
   <si>
@@ -185,21 +170,12 @@
     <t>window.main.blank.line.error.panel.title</t>
   </si>
   <si>
-    <t>Informations et balises non renseignées</t>
-  </si>
-  <si>
     <t>window.main.blank.line.error.nb.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de textes contenant des balises vides : </t>
-  </si>
-  <si>
     <t>window.main.blank.line.error.fixed.button.label</t>
   </si>
   <si>
-    <t>Corriger les textes</t>
-  </si>
-  <si>
     <t xml:space="preserve">État de l'analyse : </t>
   </si>
   <si>
@@ -209,21 +185,12 @@
     <t>Numero de séquences :</t>
   </si>
   <si>
-    <t>Repertoire de la bibliothèque :</t>
-  </si>
-  <si>
     <t>Documentos</t>
   </si>
   <si>
     <t>Cargar los documentos .txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardar los documentos Excel </t>
-  </si>
-  <si>
-    <t>Guardar un archivo de Excel personalizado</t>
-  </si>
-  <si>
     <t>Salir</t>
   </si>
   <si>
@@ -233,15 +200,6 @@
     <t>Creación</t>
   </si>
   <si>
-    <t>Abrir carpeta que contiene los documentos</t>
-  </si>
-  <si>
-    <t>Crear un material</t>
-  </si>
-  <si>
-    <t>Administra los materials</t>
-  </si>
-  <si>
     <t>Estado del análisis</t>
   </si>
   <si>
@@ -275,12 +233,6 @@
     <t>Corregir las estructuras</t>
   </si>
   <si>
-    <t>Información o etiquetas no cumplimentadas</t>
-  </si>
-  <si>
-    <t>Corregir los textos</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -296,21 +248,12 @@
     <t xml:space="preserve">Número de estructuras con errores : </t>
   </si>
   <si>
-    <t xml:space="preserve">Número de secuencias con etiquetas vacías : </t>
-  </si>
-  <si>
     <t>window.main.meta.blank.line.error.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Presencia de encabezados con etiquetas vacías : </t>
-  </si>
-  <si>
     <t>window.main.meta.blank.line.error.fixed.button.label</t>
   </si>
   <si>
-    <t>Corregir las cabeceras del corpus</t>
-  </si>
-  <si>
     <t>window.yes.label</t>
   </si>
   <si>
@@ -323,12 +266,6 @@
     <t>no</t>
   </si>
   <si>
-    <t xml:space="preserve">Présence d'en-tête contenant des balises vides : </t>
-  </si>
-  <si>
-    <t>Corriger les en-têtes du corpus</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
@@ -338,21 +275,9 @@
     <t>window.move.file.library.panel.label</t>
   </si>
   <si>
-    <t>Archivar los textos</t>
-  </si>
-  <si>
     <t>window.move.file.library.button.label</t>
   </si>
   <si>
-    <t>Mover los textos en la biblioteca</t>
-  </si>
-  <si>
-    <t>Archiver les textes</t>
-  </si>
-  <si>
-    <t>Déplacer les textes dans la bibliothèque</t>
-  </si>
-  <si>
     <t># Fenêtre corriger erreur ligne</t>
   </si>
   <si>
@@ -362,9 +287,6 @@
     <t>window.fixed.error.line.title</t>
   </si>
   <si>
-    <t>Corrección de etiquetas erróneas</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.content.panel.title</t>
   </si>
   <si>
@@ -380,9 +302,6 @@
     <t>window.fixed.error.line.content.panel.line.fixed.label</t>
   </si>
   <si>
-    <t>Etiqueta corregida:</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.action.panel.title</t>
   </si>
   <si>
@@ -398,30 +317,18 @@
     <t>window.fixed.error.line.action.panel.save.quit.button.label</t>
   </si>
   <si>
-    <t>Corregir y guardar el documento corregido</t>
-  </si>
-  <si>
-    <t>Correction des balises en erreur</t>
-  </si>
-  <si>
     <t>Balise à corriger %d / %d</t>
   </si>
   <si>
     <t>Balise en erreur :</t>
   </si>
   <si>
-    <t>Balise corrigé :</t>
-  </si>
-  <si>
     <t>Actions</t>
   </si>
   <si>
     <t>Corriger et passer à la balise suivante</t>
   </si>
   <si>
-    <t>Corriger et enregistrer le fichier corrigé</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.content.panel.line.number.label</t>
   </si>
   <si>
@@ -431,21 +338,12 @@
     <t>window.fixed.error.line.content.panel.line.file.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Dirección del archivo : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Numéro de la ligne : </t>
   </si>
   <si>
-    <t xml:space="preserve">Emplacement du fichier : </t>
-  </si>
-  <si>
     <t>window.fixed.text.title</t>
   </si>
   <si>
-    <t>Correction d'un texte</t>
-  </si>
-  <si>
     <t>window.fixed.text.action.panel.title</t>
   </si>
   <si>
@@ -470,9 +368,6 @@
     <t>Corriger et quitter</t>
   </si>
   <si>
-    <t>Corrección de un texto</t>
-  </si>
-  <si>
     <t>Corrección del texto %d / %d</t>
   </si>
   <si>
@@ -548,15 +443,9 @@
     <t>window.manage.texts.edit.text.panel.title</t>
   </si>
   <si>
-    <t>Consulter/Editer un texte</t>
-  </si>
-  <si>
     <t>window.manage.texts.edit.text.action.panel.title</t>
   </si>
   <si>
-    <t>Enregistrement des informations</t>
-  </si>
-  <si>
     <t>window.manage.texts.edit.text.action.button.save.and.quit.label</t>
   </si>
   <si>
@@ -578,15 +467,6 @@
     <t># Fenêtre d'Edition</t>
   </si>
   <si>
-    <t>Ver/Editar texto</t>
-  </si>
-  <si>
-    <t>Registro de información</t>
-  </si>
-  <si>
-    <t>Guardar cambios y cerrar</t>
-  </si>
-  <si>
     <t>Cerrar</t>
   </si>
   <si>
@@ -596,9 +476,6 @@
     <t>Editer les informations spécifiques</t>
   </si>
   <si>
-    <t>Editar información específica</t>
-  </si>
-  <si>
     <t>window.create.specific.title</t>
   </si>
   <si>
@@ -623,9 +500,6 @@
     <t>window.create.specific.details.panel.title</t>
   </si>
   <si>
-    <t>Details de la structure</t>
-  </si>
-  <si>
     <t>window.create.specific.action.panel.button.previous.label</t>
   </si>
   <si>
@@ -662,18 +536,12 @@
     <t>Supprimer</t>
   </si>
   <si>
-    <t>Editar de las informaciones específicas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Creación de las informaciones específicas </t>
   </si>
   <si>
     <t>Nombre del material:</t>
   </si>
   <si>
-    <t>Detalles de la estructura</t>
-  </si>
-  <si>
     <t>Anterior</t>
   </si>
   <si>
@@ -746,9 +614,6 @@
     <t>window.load.texts.title</t>
   </si>
   <si>
-    <t xml:space="preserve"> Selecciona la configuración que vas a utilizar </t>
-  </si>
-  <si>
     <t>window.load.texts.type.configuration.panel.title</t>
   </si>
   <si>
@@ -764,21 +629,12 @@
     <t>window.load.texts.type.configuration.expert.label</t>
   </si>
   <si>
-    <t>Configuración de la biblioteca :</t>
-  </si>
-  <si>
     <t>window.load.texts.folder.panel.title</t>
   </si>
   <si>
-    <t>Elección de la carpeta</t>
-  </si>
-  <si>
     <t>window.load.texts.folder.label</t>
   </si>
   <si>
-    <t>Carpeta que contiene los textos:</t>
-  </si>
-  <si>
     <t>window.load.texts.folder.button.label</t>
   </si>
   <si>
@@ -788,60 +644,27 @@
     <t>window.load.texts.folder.button.folder.choose.title</t>
   </si>
   <si>
-    <t>Seleccionar la carpeta que contiene los textos</t>
-  </si>
-  <si>
     <t>window.load.texts.start.button.label</t>
   </si>
   <si>
-    <t>Cargar la carpeta que contiene los documentos</t>
-  </si>
-  <si>
-    <t>mode Basique</t>
-  </si>
-  <si>
     <t>mode Personnalisé</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sélectionner la configuration à utiliser</t>
-  </si>
-  <si>
     <t>Options de la configuration</t>
   </si>
   <si>
     <t>Configuration :</t>
   </si>
   <si>
-    <t>Configuration de la bibliothèque:</t>
-  </si>
-  <si>
-    <t>Choisisez le dossier qui contient les documents</t>
-  </si>
-  <si>
-    <t>Dossier qui contient les documents:</t>
-  </si>
-  <si>
     <t>Ouvrir...</t>
   </si>
   <si>
-    <t>Choisir le dossier qui contient les documents</t>
-  </si>
-  <si>
-    <t>Charger le dossier qui contient les documents</t>
-  </si>
-  <si>
     <t>#Chargement textes librairie</t>
   </si>
   <si>
     <t>window.load.texts.folder.library.button.folder.choose.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Sélectionner le dossier contenant la bibliothèque de materiels </t>
-  </si>
-  <si>
-    <t>Selecciona la carpeta que contiene la biblioteca de materiales</t>
-  </si>
-  <si>
     <t>window.create.corpus.title</t>
   </si>
   <si>
@@ -869,9 +692,6 @@
     <t>window.fixed.error.meta.blank.line.panel.title</t>
   </si>
   <si>
-    <t>Correction des en-têtes du corpus non renseignés</t>
-  </si>
-  <si>
     <t>window.fixed.error.meta.blank.line.panel.save.quit.button.label</t>
   </si>
   <si>
@@ -896,9 +716,6 @@
     <t xml:space="preserve">Añadir un material </t>
   </si>
   <si>
-    <t>Corrección de las cabeceras del corpus no informadas</t>
-  </si>
-  <si>
     <t>Finalizar y guardar las correcciones</t>
   </si>
   <si>
@@ -926,27 +743,15 @@
     <t>window.display.texts.panel.label</t>
   </si>
   <si>
-    <t>Liste des textes</t>
-  </si>
-  <si>
     <t>window.display.corpus.edit.button.label</t>
   </si>
   <si>
-    <t>Consulter/Editer le corpus</t>
-  </si>
-  <si>
     <t>window.display.texts.edit.button.label</t>
   </si>
   <si>
-    <t>Consulter/Editer le texte</t>
-  </si>
-  <si>
     <t>window.display.texts.delete.button.label</t>
   </si>
   <si>
-    <t>Supprimer le texte</t>
-  </si>
-  <si>
     <t>window.display.texts.previous.button.label</t>
   </si>
   <si>
@@ -962,93 +767,36 @@
     <t>window.display.texts.nb.texts.by.page.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre de textes par page : </t>
-  </si>
-  <si>
     <t>window.display.texts.corpus.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Corpus : </t>
-  </si>
-  <si>
     <t>window.manage.texts.title</t>
   </si>
   <si>
-    <t>Gérer les textes de la biblitothéques</t>
-  </si>
-  <si>
     <t>window.manage.texts.generate.excel.panel.title</t>
   </si>
   <si>
-    <t>Exporter les résultats</t>
-  </si>
-  <si>
     <t>window.manage.texts.generate.excel.classical.button.label</t>
   </si>
   <si>
-    <t>Exporter dans un fichier Excel de référence</t>
-  </si>
-  <si>
     <t>window.manage.texts.generate.excel.specific.button.label</t>
   </si>
   <si>
-    <t>Exporter dans un fichier Excel personnalisé</t>
-  </si>
-  <si>
-    <t>Lista de textos</t>
-  </si>
-  <si>
-    <t>Ver/Editar el corpus</t>
-  </si>
-  <si>
-    <t>Ver/Editar el texto</t>
-  </si>
-  <si>
-    <t>Eliminar el texto</t>
-  </si>
-  <si>
     <t>Página %d / %d</t>
   </si>
   <si>
-    <t xml:space="preserve">Número de textos por página : </t>
-  </si>
-  <si>
-    <t>Administra los textos de la biblioteca</t>
-  </si>
-  <si>
-    <t>Exportar los resultados</t>
-  </si>
-  <si>
-    <t>Exportar a un archivo Excel de referencia</t>
-  </si>
-  <si>
-    <t>Exportar a un archivo Excel personalizado</t>
-  </si>
-  <si>
     <t>window.manage.texts.filters.button.label</t>
   </si>
   <si>
-    <t>Rechercher dans les textes</t>
-  </si>
-  <si>
-    <t>Buscar en textos</t>
-  </si>
-  <si>
     <t>#Fenêtre Gestion des filtres</t>
   </si>
   <si>
     <t>window.filter.type.CONTAINS</t>
   </si>
   <si>
-    <t>Contient le terme</t>
-  </si>
-  <si>
     <t>window.filter.type.EQUAL</t>
   </si>
   <si>
-    <t>Est égale à</t>
-  </si>
-  <si>
     <t>window.manage.filters.global.panel.title</t>
   </si>
   <si>
@@ -1058,21 +806,12 @@
     <t>window.manage.filters.panel.title</t>
   </si>
   <si>
-    <t>Gérer les filtres pour les textes</t>
-  </si>
-  <si>
     <t>window.manage.filters.type.filter.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Choix du filtre : </t>
-  </si>
-  <si>
     <t>window.manage.filters.value.filter.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Contenu à rechercher : </t>
-  </si>
-  <si>
     <t>window.manage.filters.add.filter.button.label</t>
   </si>
   <si>
@@ -1082,15 +821,9 @@
     <t>window.manage.filters.corpus.panel.title</t>
   </si>
   <si>
-    <t>Filtrer un corpus</t>
-  </si>
-  <si>
     <t>window.manage.filters.corpus.value.label</t>
   </si>
   <si>
-    <t xml:space="preserve">Corpus sur lequel on souhaite filtrer : </t>
-  </si>
-  <si>
     <t>window.manage.filters.action.panel.title</t>
   </si>
   <si>
@@ -1106,60 +839,30 @@
     <t>window.manage.filters.corpus.all.label</t>
   </si>
   <si>
-    <t>Tous les corpus</t>
-  </si>
-  <si>
     <t>window.manage.filters.delete.filter.button.label</t>
   </si>
   <si>
     <t>Supprimer le filtre sélectionné</t>
   </si>
   <si>
-    <t>Contiene el término</t>
-  </si>
-  <si>
-    <t>Es igual a</t>
-  </si>
-  <si>
     <t>Gestión de filtrado de corpus</t>
   </si>
   <si>
-    <t>Administrar filtros para textos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elección de filtro : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contenido a buscar : </t>
-  </si>
-  <si>
     <t>Agregar filtro</t>
   </si>
   <si>
     <t>Eliminar filtro seleccionado</t>
   </si>
   <si>
-    <t>Filtrar un corpus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corpus en el que queremos filtrar : </t>
-  </si>
-  <si>
     <t>Acciones del usuario</t>
   </si>
   <si>
     <t>Aplicar filtros</t>
   </si>
   <si>
-    <t>Todos corpus</t>
-  </si>
-  <si>
     <t>#Fenêtre Export Excel Reference</t>
   </si>
   <si>
-    <t>Choix du fichier excel de reference</t>
-  </si>
-  <si>
     <t>window.save.excel.classical.panel.title</t>
   </si>
   <si>
@@ -1175,9 +878,6 @@
     <t>window.save.excel.classical.information.panel.text.nothing</t>
   </si>
   <si>
-    <t>Sélectionner un fichier de référence via le bouton parcourir pour pouvoir générer le ou les fichiers</t>
-  </si>
-  <si>
     <t>window.save.excel.classical.information.panel.text</t>
   </si>
   <si>
@@ -1190,30 +890,18 @@
     <t>window.save.excel.reference.file.label</t>
   </si>
   <si>
-    <t>Fichier excel de référence : %s</t>
-  </si>
-  <si>
     <t>window.save.excel.options.title.panel</t>
   </si>
   <si>
-    <t>Options de générations</t>
-  </si>
-  <si>
     <t>window.save.excel.options.header.label</t>
   </si>
   <si>
-    <t>Afficher les libellés des balises en entête</t>
-  </si>
-  <si>
     <t>#Options de génération (commun)</t>
   </si>
   <si>
     <t>window.save.excel.action.title.panel</t>
   </si>
   <si>
-    <t>Enregistrement du ou des fichiers excel</t>
-  </si>
-  <si>
     <t>window.save.excel.action.button.label</t>
   </si>
   <si>
@@ -1226,42 +914,21 @@
     <t>window.file.picker.classical.panel.title</t>
   </si>
   <si>
-    <t>Elección del archivo excel de referencia</t>
-  </si>
-  <si>
     <t>Guardar archivos de excel de referencia</t>
   </si>
   <si>
     <t>Lista de archivos de Excel generados</t>
   </si>
   <si>
-    <t>Seleccione un archivo de referencia para poder generar los archivos</t>
-  </si>
-  <si>
     <t>Generar el archivo de excel</t>
   </si>
   <si>
-    <t>Archivo de referencia de excel : %s</t>
-  </si>
-  <si>
-    <t>Opciones de generación</t>
-  </si>
-  <si>
-    <t>Mostrar las etiquetas de los encabezados</t>
-  </si>
-  <si>
-    <t>Guardar archivos de excel</t>
-  </si>
-  <si>
     <t>Guardar</t>
   </si>
   <si>
     <t>window.file.picker.panel.label</t>
   </si>
   <si>
-    <t>Choisissez l'emplacement du fichier excel à enregistrer</t>
-  </si>
-  <si>
     <t>window.file.picker.panel.button</t>
   </si>
   <si>
@@ -1271,12 +938,6 @@
     <t># choix de l'emplacement du fichier (commun)</t>
   </si>
   <si>
-    <t>Elija la ubicación del archivo de excel para guardar</t>
-  </si>
-  <si>
-    <t>Recorrer…</t>
-  </si>
-  <si>
     <t>#Fenêtre Export Excel Personnalisé</t>
   </si>
   <si>
@@ -1376,9 +1037,6 @@
     <t>Sin tratamiento</t>
   </si>
   <si>
-    <t>Lista de campos para generar</t>
-  </si>
-  <si>
     <t>Archivo excel personalizado : %s</t>
   </si>
   <si>
@@ -1463,15 +1121,9 @@
     <t>window.manage.texts.delete.text.action.message.content</t>
   </si>
   <si>
-    <t>Vous allez supprimer un texte du corpus.\nCette action sera irréversible.\nVoulez vous continuer ?</t>
-  </si>
-  <si>
     <t>#Message de prevention en cas de suppression</t>
   </si>
   <si>
-    <t>¿Se ha detectado un análisis.\nDesea continuar con el análisis?</t>
-  </si>
-  <si>
     <t>Continuar</t>
   </si>
   <si>
@@ -1493,9 +1145,6 @@
     <t>Mensaje de prevención</t>
   </si>
   <si>
-    <t>Eliminará un texto del corpus.\nTesta acción será irreversible.\n¿Desea continuar?</t>
-  </si>
-  <si>
     <t>window.menu.level1.title</t>
   </si>
   <si>
@@ -1538,15 +1187,9 @@
     <t>window.manage.corpus.title</t>
   </si>
   <si>
-    <t>Consultation ou Edition des données du matériel</t>
-  </si>
-  <si>
     <t>Création d'un matériel</t>
   </si>
   <si>
-    <t>Ver o Editar datos de un material</t>
-  </si>
-  <si>
     <t>window.fixed.specific.title</t>
   </si>
   <si>
@@ -1568,12 +1211,6 @@
     <t>window.manage.texts.information.label</t>
   </si>
   <si>
-    <t>Utilisation de la gestions des textes</t>
-  </si>
-  <si>
-    <t>Utilización de la gestión de los textos</t>
-  </si>
-  <si>
     <t># Utilizado en edición de corpus y texto</t>
   </si>
   <si>
@@ -1685,12 +1322,6 @@
     <t>window.change.configuration.button.apply.and.close</t>
   </si>
   <si>
-    <t>Changer la configuration courante</t>
-  </si>
-  <si>
-    <t>Cambiar la configuración actual</t>
-  </si>
-  <si>
     <t>Configurations</t>
   </si>
   <si>
@@ -1715,9 +1346,6 @@
     <t xml:space="preserve">Directorio analizado : </t>
   </si>
   <si>
-    <t>Directorio de la biblioteca :</t>
-  </si>
-  <si>
     <t>A propos</t>
   </si>
   <si>
@@ -1749,13 +1377,370 @@
   </si>
   <si>
     <t>Acerca de</t>
+  </si>
+  <si>
+    <t>Archiver les matériels</t>
+  </si>
+  <si>
+    <t>Archivar los materiales</t>
+  </si>
+  <si>
+    <t>Editar informaciones específicas</t>
+  </si>
+  <si>
+    <t>Enregistrement du matériel</t>
+  </si>
+  <si>
+    <t>Guardar el material</t>
+  </si>
+  <si>
+    <t>Guardar los cambios y cerrar</t>
+  </si>
+  <si>
+    <t>Affichage de la structure</t>
+  </si>
+  <si>
+    <t>Visualización de la estructura</t>
+  </si>
+  <si>
+    <t>Correction des matériels</t>
+  </si>
+  <si>
+    <t>Corrección de los materiales</t>
+  </si>
+  <si>
+    <t>Edición de las informaciones específicas</t>
+  </si>
+  <si>
+    <t>Consulter/Editer des matériels</t>
+  </si>
+  <si>
+    <t>Consultar/Editar los materiales</t>
+  </si>
+  <si>
+    <t>Créer des matériels</t>
+  </si>
+  <si>
+    <t>Crear materiales</t>
+  </si>
+  <si>
+    <t>Consulter/Editer le matériel</t>
+  </si>
+  <si>
+    <t>Consultar/Editar el material</t>
+  </si>
+  <si>
+    <t>Consulter/Editer le document</t>
+  </si>
+  <si>
+    <t>Consultar/Editar el documento</t>
+  </si>
+  <si>
+    <t>Exporter Excel de référence</t>
+  </si>
+  <si>
+    <t>Exporter Excel personnalisé</t>
+  </si>
+  <si>
+    <t>Exportar Excel de referencia</t>
+  </si>
+  <si>
+    <t>Exportar Excel personalizado</t>
+  </si>
+  <si>
+    <t>Configuration de la bibliothèque : NO EXISTE AUN</t>
+  </si>
+  <si>
+    <t>Configuración de la biblioteca: NO EXISTE AUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encabezados con etiquetas vacías : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materiales con etiquetas vacías : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matériels avec des balises vides : </t>
+  </si>
+  <si>
+    <t>Nueva biblioteca</t>
+  </si>
+  <si>
+    <t>Nouvelle bibliothèque</t>
+  </si>
+  <si>
+    <t>Gestión de materiales</t>
+  </si>
+  <si>
+    <t>Gestion de matériels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar la configuración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer la configuration </t>
+  </si>
+  <si>
+    <t>Guardar Excel personalizado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar Excel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregister Excel </t>
+  </si>
+  <si>
+    <t>Enregister Excel personnalisé</t>
+  </si>
+  <si>
+    <t>Balises non renseignées</t>
+  </si>
+  <si>
+    <t>Etiquetas no cumplimentadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En-tête avec des balises vides : </t>
+  </si>
+  <si>
+    <t>Repertoire de ma bibliothèque :</t>
+  </si>
+  <si>
+    <t>Directorio de mi biblioteca :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Éditer les en-têtes </t>
+  </si>
+  <si>
+    <t>Editar etiquetas de materiales</t>
+  </si>
+  <si>
+    <t>Éditer balises des matériels</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bibliothèque Caerus "library"</t>
+  </si>
+  <si>
+    <t>Biblioteca Caerus "library"</t>
+  </si>
+  <si>
+    <t>Editar las cabeceras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction des balises </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corrección de etiquetas </t>
+  </si>
+  <si>
+    <t>Corriger la balise :</t>
+  </si>
+  <si>
+    <t>Corregir la etiqueta:</t>
+  </si>
+  <si>
+    <t>Enregistrer les balises corrigés</t>
+  </si>
+  <si>
+    <t>Guardar las etiquetas corregidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación del error: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emplacement de l'erreur : </t>
+  </si>
+  <si>
+    <t>Se ha detectado un análisis.\n¿Desea continuar con el análisis?</t>
+  </si>
+  <si>
+    <t>Corrección de informaciones específicas</t>
+  </si>
+  <si>
+    <t>Correction de informations spécifiques</t>
+  </si>
+  <si>
+    <t>mode Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charger les documents</t>
+  </si>
+  <si>
+    <t>Cargar los documentos</t>
+  </si>
+  <si>
+    <t>Choisir sa bibliothèque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choisir sa bibliothèque </t>
+  </si>
+  <si>
+    <t>Elegir su biblioteca</t>
+  </si>
+  <si>
+    <t>Dossier des documents:</t>
+  </si>
+  <si>
+    <t>Carpeta de los documentos:</t>
+  </si>
+  <si>
+    <t>Cargar mi biblioteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charger ma bibliothèque </t>
+  </si>
+  <si>
+    <t>Editar los encabezados</t>
+  </si>
+  <si>
+    <t>Éditer les en-tête</t>
+  </si>
+  <si>
+    <t>Filtrer le contenu</t>
+  </si>
+  <si>
+    <t>Filtrar el contenido</t>
+  </si>
+  <si>
+    <t>Gestion manuelle des matériels</t>
+  </si>
+  <si>
+    <t>Supprimer le matériel</t>
+  </si>
+  <si>
+    <t>Eliminar el material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de matériels par page : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de materiales por página : </t>
+  </si>
+  <si>
+    <t>Gestión técnica de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrer le contenu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrar : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtrer : </t>
+  </si>
+  <si>
+    <t>Visualización de los materiales de la biblioteca</t>
+  </si>
+  <si>
+    <t>Affichage des matériels de la bibliothèque</t>
+  </si>
+  <si>
+    <t>Gestion de contenus</t>
+  </si>
+  <si>
+    <t>Gestión del contenido</t>
+  </si>
+  <si>
+    <t>Gérer les matériels dans la bibliothèque</t>
+  </si>
+  <si>
+    <t>Administrar los materiales en la biblioteca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration des filtres </t>
+  </si>
+  <si>
+    <t>Configuración de los filtros</t>
+  </si>
+  <si>
+    <t>Todos los documentos de la biblioteca</t>
+  </si>
+  <si>
+    <t>Tous les documents de la bibliothèque</t>
+  </si>
+  <si>
+    <t>La integralidad del contenido coincide con</t>
+  </si>
+  <si>
+    <t>L’intégralité du contenu coïncide avec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicar en el apartado : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche le contenu ou mots clés : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Búsqueda de contenido o palabras clave : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contiene </t>
+  </si>
+  <si>
+    <t>Mostrar los nombres de las etiquetas en los encabezados de las tablas (RECOMENDADO)</t>
+  </si>
+  <si>
+    <t>Afficher les libellés des balises dans les en-têtes des tableaux (RECOMMANDÉ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Options </t>
+  </si>
+  <si>
+    <t>Emplacement de l'enregistrement des Excel</t>
+  </si>
+  <si>
+    <t>Ubicación  para guardar los Excel</t>
+  </si>
+  <si>
+    <t>Choix de la bibliothèque Excel</t>
+  </si>
+  <si>
+    <t>Elección de la biblioteca Excel</t>
+  </si>
+  <si>
+    <t>Sélectionner un fichier de référence via le bouton parcourir pour pouvoir générer les fichiers</t>
+  </si>
+  <si>
+    <t>Seleccione un archivo de referencia a través del botón Examinar para poder generar los archivos</t>
+  </si>
+  <si>
+    <t>Examinar…</t>
+  </si>
+  <si>
+    <t>Guardar archivos de Excel</t>
+  </si>
+  <si>
+    <t>Enregistrement des fichiers Excel</t>
+  </si>
+  <si>
+    <t>Excel de referencia : %s</t>
+  </si>
+  <si>
+    <t>Excel de référence : %s</t>
+  </si>
+  <si>
+    <t>Lista de apartados para generar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliquer dans le champ : </t>
+  </si>
+  <si>
+    <t>Eliminará un texto del documento.\nEsta acción será irreversible.\n¿Desea continuar?</t>
+  </si>
+  <si>
+    <t>Vous allez supprimer un texte du document.\nCette action sera irréversible.\nVoulez vous continuer ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1788,6 +1773,19 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1834,7 +1832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1847,6 +1845,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8870,7 +8874,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>475323</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>18415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13725,15 +13729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13748,7 +13752,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16630650" y="1781175"/>
+          <a:off x="16621125" y="1276350"/>
           <a:ext cx="333375" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13795,15 +13799,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13819,9 +13823,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="14706600" y="1847850"/>
-          <a:ext cx="1924050" cy="61913"/>
+        <a:xfrm flipH="1">
+          <a:off x="14097000" y="1404938"/>
+          <a:ext cx="2524125" cy="157162"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -13850,15 +13854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13873,7 +13877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16602075" y="1447800"/>
+          <a:off x="16697325" y="1762125"/>
           <a:ext cx="333375" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13919,16 +13923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13944,9 +13948,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="14058900" y="1576388"/>
-          <a:ext cx="2543175" cy="14287"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14735175" y="1847850"/>
+          <a:ext cx="1962150" cy="42863"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18845,6 +18849,94 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>141399</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B687FC4-0F6A-48A8-9DA6-E1C2855241A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7058025"/>
+          <a:ext cx="11809524" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541303</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858373ED-16DF-474A-A210-880F2D3D45E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7058025"/>
+          <a:ext cx="12971428" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22692,6 +22784,129 @@
         <a:xfrm>
           <a:off x="11039475" y="1090613"/>
           <a:ext cx="609600" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="ZoneTexte 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC90FCEB-1DCD-4F14-B720-79146F8E0D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="1714500"/>
+          <a:ext cx="390525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Connecteur droit avec flèche 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F744D-8502-480D-B3E3-A4A0330F48D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="1957388"/>
+          <a:ext cx="428625" cy="157162"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23214,8 +23429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23228,16 +23443,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -23277,10 +23492,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23288,13 +23503,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23302,13 +23517,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>483</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23316,13 +23531,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>479</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23330,13 +23545,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>485</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23344,13 +23559,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>486</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23358,13 +23573,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>487</v>
+        <v>370</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -23372,13 +23587,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>424</v>
       </c>
       <c r="D14" t="s">
-        <v>548</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23386,13 +23601,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>372</v>
       </c>
       <c r="C15" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23400,13 +23615,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>490</v>
+        <v>373</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -23414,13 +23629,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>491</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -23428,13 +23643,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>492</v>
+        <v>375</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>456</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -23442,13 +23657,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>493</v>
+        <v>376</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23457,7 +23672,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -23465,13 +23680,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>484</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23479,13 +23694,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23493,13 +23708,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23507,13 +23722,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23521,13 +23736,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23535,13 +23750,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23549,13 +23764,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23563,13 +23778,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>549</v>
+        <v>426</v>
       </c>
       <c r="D29" t="s">
-        <v>550</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23577,13 +23792,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23591,13 +23806,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23605,13 +23820,13 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -23619,13 +23834,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23633,13 +23848,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23647,13 +23862,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23661,13 +23876,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -23675,13 +23890,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23689,13 +23904,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23703,13 +23918,13 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>488</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23717,13 +23932,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>483</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23731,13 +23946,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23745,13 +23960,13 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23759,13 +23974,13 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23773,13 +23988,13 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>443</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -23787,13 +24002,13 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -23801,13 +24016,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>428</v>
       </c>
       <c r="C46" t="s">
-        <v>552</v>
+        <v>429</v>
       </c>
       <c r="D46" t="s">
-        <v>553</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -23815,13 +24030,13 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>560</v>
+        <v>436</v>
       </c>
       <c r="C47" t="s">
-        <v>556</v>
+        <v>432</v>
       </c>
       <c r="D47" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -23829,13 +24044,13 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>561</v>
+        <v>437</v>
       </c>
       <c r="C48" t="s">
-        <v>562</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>563</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -23853,7 +24068,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23864,24 +24079,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>517</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -23889,13 +24104,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>330</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -23903,13 +24118,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>356</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -23917,13 +24132,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -23931,13 +24146,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>532</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -23945,13 +24160,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>559</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23959,13 +24174,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
+        <v>539</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23973,13 +24188,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23987,13 +24202,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>523</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24001,13 +24216,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>346</v>
+        <v>525</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24015,13 +24230,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>259</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24029,13 +24244,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>366</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24043,13 +24258,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>535</v>
       </c>
       <c r="D14" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24057,13 +24272,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -24079,8 +24294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B401BD-099E-4C78-A6FA-A69F5838BCFF}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24092,24 +24307,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>368</v>
+        <v>270</v>
       </c>
       <c r="D2" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24117,13 +24332,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="C3" t="s">
-        <v>369</v>
+        <v>549</v>
       </c>
       <c r="D3" t="s">
-        <v>392</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24131,13 +24346,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>272</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24145,13 +24360,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24159,13 +24374,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>375</v>
+        <v>551</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>395</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24173,7 +24388,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24189,13 +24404,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24203,21 +24418,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>380</v>
+        <v>557</v>
       </c>
       <c r="D9" t="s">
-        <v>397</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>385</v>
+        <v>282</v>
       </c>
       <c r="D11" t="s">
-        <v>519</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24225,13 +24440,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>546</v>
       </c>
       <c r="D12" t="s">
-        <v>398</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24239,21 +24454,21 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>520</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -24261,13 +24476,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>555</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24275,35 +24490,35 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s">
-        <v>401</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>406</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>292</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>403</v>
+        <v>547</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>407</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24311,13 +24526,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
       <c r="D21" t="s">
-        <v>408</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -24333,8 +24548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E44A7C0-84CE-428C-95CD-A59151D79341}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24344,24 +24559,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>409</v>
+        <v>296</v>
       </c>
       <c r="D2" t="s">
-        <v>522</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24369,13 +24584,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>410</v>
+        <v>297</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24383,13 +24598,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24397,13 +24612,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24411,13 +24626,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>416</v>
+        <v>303</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>417</v>
+        <v>304</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>438</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24425,7 +24640,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>321</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24441,13 +24656,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>305</v>
       </c>
       <c r="C8" t="s">
-        <v>419</v>
+        <v>306</v>
       </c>
       <c r="D8" t="s">
-        <v>439</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24455,13 +24670,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>307</v>
       </c>
       <c r="C9" t="s">
-        <v>421</v>
+        <v>308</v>
       </c>
       <c r="D9" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24469,13 +24684,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>310</v>
       </c>
       <c r="D10" t="s">
-        <v>441</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24483,13 +24698,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="D11" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24497,13 +24712,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24511,13 +24726,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24525,13 +24740,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24539,13 +24754,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>320</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -24562,8 +24777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B861A8A-1131-4099-83D4-ECA745EBF0ED}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24573,24 +24788,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="D2" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24598,13 +24813,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24612,21 +24827,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>451</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>474</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24634,13 +24849,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24648,13 +24863,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24662,13 +24877,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24676,21 +24891,21 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="D12" t="s">
-        <v>525</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24698,15 +24913,15 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
-        <v>&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
+        <v>&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>"&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya existen en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
-        <v>&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya existen en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <f>"&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya están en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
+        <v>&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya están en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24714,7 +24929,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24730,7 +24945,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24746,13 +24961,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="D16" t="s">
-        <v>478</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24760,21 +24975,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="D19" t="s">
-        <v>526</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -24782,13 +24997,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>469</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24796,13 +25011,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>471</v>
+        <v>561</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>481</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -24818,7 +25033,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24829,24 +25044,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>527</v>
+        <v>406</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24854,13 +25069,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>408</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>534</v>
+        <v>413</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24868,13 +25083,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24882,13 +25097,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>539</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>531</v>
+        <v>410</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24896,29 +25111,29 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>540</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>541</v>
+        <v>420</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;","Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;","Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;","Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;","Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;","Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;","Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;","Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;","Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24926,13 +25141,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>532</v>
+        <v>411</v>
       </c>
       <c r="D8" t="s">
-        <v>538</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24940,13 +25155,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>542</v>
+        <v>421</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24954,13 +25169,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>543</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -25005,24 +25220,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>557</v>
+        <v>433</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25030,13 +25245,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>558</v>
+        <v>434</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>556</v>
+        <v>432</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>566</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25044,13 +25259,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>559</v>
+        <v>435</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>564</v>
+        <v>440</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>565</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25082,8 +25297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
   <dimension ref="A1:A391"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A288" sqref="A1:A391"/>
+    <sheetView showZeros="0" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A225" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25142,13 +25357,13 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('Fenêtre principal'!B10&lt;&gt;"",CONCATENATE('Fenêtre principal'!B10,"=", 'Fenêtre principal'!C10),IF('Fenêtre principal'!C10&lt;&gt;"",'Fenêtre principal'!C10,""))</f>
-        <v xml:space="preserve">window.menu.level1.sublevel2.title=Enregister les documents Excel </v>
+        <v xml:space="preserve">window.menu.level1.sublevel2.title=Enregister Excel </v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('Fenêtre principal'!B11&lt;&gt;"",CONCATENATE('Fenêtre principal'!B11,"=", 'Fenêtre principal'!C11),IF('Fenêtre principal'!C11&lt;&gt;"",'Fenêtre principal'!C11,""))</f>
-        <v>window.menu.level1.sublevel3.title=Enregister un fichier Excel personnalisé</v>
+        <v>window.menu.level1.sublevel3.title=Enregister Excel personnalisé</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -25172,7 +25387,7 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!C15),IF('Fenêtre principal'!C15&lt;&gt;"",'Fenêtre principal'!C15,""))</f>
-        <v>window.menu.level3.sublevel1.title=Changer la configuration courante</v>
+        <v xml:space="preserve">window.menu.level3.sublevel1.title=Changer la configuration </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -25184,19 +25399,19 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('Fenêtre principal'!B17&lt;&gt;"",CONCATENATE('Fenêtre principal'!B17,"=", 'Fenêtre principal'!C17),IF('Fenêtre principal'!C17&lt;&gt;"",'Fenêtre principal'!C17,""))</f>
-        <v>window.menu.level5.sublevel1.title=Ouvrir le dossier qui contient les documents</v>
+        <v>window.menu.level5.sublevel1.title=Nouvelle bibliothèque</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE('Fenêtre principal'!B18,"=", 'Fenêtre principal'!C18),IF('Fenêtre principal'!C18&lt;&gt;"",'Fenêtre principal'!C18,""))</f>
-        <v>window.menu.level5.sublevel2.title=Créer un materiel</v>
+        <v>window.menu.level5.sublevel2.title=Créer des matériels</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE('Fenêtre principal'!B19,"=", 'Fenêtre principal'!C19),IF('Fenêtre principal'!C19&lt;&gt;"",'Fenêtre principal'!C19,""))</f>
-        <v>window.menu.level5.sublevel3.title=Gérer les textes</v>
+        <v>window.menu.level5.sublevel3.title=Gestion de matériels</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -25214,7 +25429,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE('Fenêtre principal'!B22,"=", 'Fenêtre principal'!C22),IF('Fenêtre principal'!C22&lt;&gt;"",'Fenêtre principal'!C22,""))</f>
-        <v>window.main.configuration.library.panel.state.label=Repertoire de la bibliothèque :</v>
+        <v>window.main.configuration.library.panel.state.label=Repertoire de ma bibliothèque :</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -25304,31 +25519,31 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('Fenêtre principal'!B37&lt;&gt;"",CONCATENATE('Fenêtre principal'!B37,"=", 'Fenêtre principal'!C37),IF('Fenêtre principal'!C37&lt;&gt;"",'Fenêtre principal'!C37,""))</f>
-        <v>window.main.blank.line.error.panel.title=Informations et balises non renseignées</v>
+        <v>window.main.blank.line.error.panel.title=Balises non renseignées</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('Fenêtre principal'!B38&lt;&gt;"",CONCATENATE('Fenêtre principal'!B38,"=", 'Fenêtre principal'!C38),IF('Fenêtre principal'!C38&lt;&gt;"",'Fenêtre principal'!C38,""))</f>
-        <v xml:space="preserve">window.main.blank.line.error.nb.label=Nombre de textes contenant des balises vides : </v>
+        <v xml:space="preserve">window.main.blank.line.error.nb.label=Matériels avec des balises vides : </v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE('Fenêtre principal'!B39,"=", 'Fenêtre principal'!C39),IF('Fenêtre principal'!C39&lt;&gt;"",'Fenêtre principal'!C39,""))</f>
-        <v>window.main.blank.line.error.fixed.button.label=Corriger les textes</v>
+        <v>window.main.blank.line.error.fixed.button.label=Éditer balises des matériels</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE('Fenêtre principal'!B40,"=", 'Fenêtre principal'!C40),IF('Fenêtre principal'!C40&lt;&gt;"",'Fenêtre principal'!C40,""))</f>
-        <v xml:space="preserve">window.main.meta.blank.line.error.label=Présence d'en-tête contenant des balises vides : </v>
+        <v xml:space="preserve">window.main.meta.blank.line.error.label=En-tête avec des balises vides : </v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE('Fenêtre principal'!B41,"=", 'Fenêtre principal'!C41),IF('Fenêtre principal'!C41&lt;&gt;"",'Fenêtre principal'!C41,""))</f>
-        <v>window.main.meta.blank.line.error.fixed.button.label=Corriger les en-têtes du corpus</v>
+        <v xml:space="preserve">window.main.meta.blank.line.error.fixed.button.label=Éditer les en-têtes </v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -25346,13 +25561,13 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF('Fenêtre principal'!B44&lt;&gt;"",CONCATENATE('Fenêtre principal'!B44,"=", 'Fenêtre principal'!C44),IF('Fenêtre principal'!C44&lt;&gt;"",'Fenêtre principal'!C44,""))</f>
-        <v>window.move.file.library.panel.label=Archiver les textes</v>
+        <v>window.move.file.library.panel.label=Archiver les matériels</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE('Fenêtre principal'!B45,"=", 'Fenêtre principal'!C45),IF('Fenêtre principal'!C45&lt;&gt;"",'Fenêtre principal'!C45,""))</f>
-        <v>window.move.file.library.button.label=Déplacer les textes dans la bibliothèque</v>
+        <v>window.move.file.library.button.label= Bibliothèque Caerus "library"</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -25436,7 +25651,7 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('Fenêtre erreur ligne'!B3&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B3,"=", 'Fenêtre erreur ligne'!C3),IF('Fenêtre erreur ligne'!C3&lt;&gt;"",'Fenêtre erreur ligne'!C3,""))</f>
-        <v>window.fixed.error.line.title=Correction des balises en erreur</v>
+        <v xml:space="preserve">window.fixed.error.line.title=Correction des balises </v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -25454,7 +25669,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B6,"=", 'Fenêtre erreur ligne'!C6),IF('Fenêtre erreur ligne'!C6&lt;&gt;"",'Fenêtre erreur ligne'!C6,""))</f>
-        <v>window.fixed.error.line.content.panel.line.fixed.label=Balise corrigé :</v>
+        <v>window.fixed.error.line.content.panel.line.fixed.label=Corriger la balise :</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -25472,7 +25687,7 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF('Fenêtre erreur ligne'!B9&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B9,"=", 'Fenêtre erreur ligne'!C9),IF('Fenêtre erreur ligne'!C9&lt;&gt;"",'Fenêtre erreur ligne'!C9,""))</f>
-        <v>window.fixed.error.line.action.panel.save.quit.button.label=Corriger et enregistrer le fichier corrigé</v>
+        <v>window.fixed.error.line.action.panel.save.quit.button.label=Enregistrer les balises corrigés</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -25484,7 +25699,7 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B11,"=", 'Fenêtre erreur ligne'!C11),IF('Fenêtre erreur ligne'!C11&lt;&gt;"",'Fenêtre erreur ligne'!C11,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Emplacement du fichier : </v>
+        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Emplacement de l'erreur : </v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -25550,7 +25765,7 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE('Correction Edit texte'!B3,"=", 'Correction Edit texte'!C3),IF('Correction Edit texte'!C3&lt;&gt;"",'Correction Edit texte'!C3,""))</f>
-        <v>window.fixed.text.title=Correction d'un texte</v>
+        <v>window.fixed.text.title=Correction des matériels</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -25562,7 +25777,7 @@
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE('Correction Edit texte'!B5,"=", 'Correction Edit texte'!C5),IF('Correction Edit texte'!C5&lt;&gt;"",'Correction Edit texte'!C5,""))</f>
-        <v>window.fixed.text.action.fill.specific.button.title=Correction des informations spécifiques</v>
+        <v>window.fixed.text.action.fill.specific.button.title=Correction de informations spécifiques</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -25622,13 +25837,13 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE('Correction Edit texte'!B15,"=", 'Correction Edit texte'!C15),IF('Correction Edit texte'!C15&lt;&gt;"",'Correction Edit texte'!C15,""))</f>
-        <v>window.manage.texts.edit.text.panel.title=Consulter/Editer un texte</v>
+        <v>window.manage.texts.edit.text.panel.title=Consulter/Editer des matériels</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE('Correction Edit texte'!B16,"=", 'Correction Edit texte'!C16),IF('Correction Edit texte'!C16&lt;&gt;"",'Correction Edit texte'!C16,""))</f>
-        <v>window.manage.texts.edit.text.action.panel.title=Enregistrement des informations</v>
+        <v>window.manage.texts.edit.text.action.panel.title=Enregistrement du matériel</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -25754,7 +25969,7 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B12,"=", 'Fenêtre spécifique'!C12),IF('Fenêtre spécifique'!C12&lt;&gt;"",'Fenêtre spécifique'!C12,""))</f>
-        <v>window.create.specific.details.panel.title=Details de la structure</v>
+        <v>window.create.specific.details.panel.title=Affichage de la structure</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
@@ -25820,7 +26035,7 @@
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B23,"=", 'Fenêtre spécifique'!C23),IF('Fenêtre spécifique'!C23&lt;&gt;"",'Fenêtre spécifique'!C23,""))</f>
-        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter une nouvelle donnée, il faut absolument remplir toutes les cases et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout d'informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc des doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;suit le même fonctionnement de sélectionner la file entière que le bouton Ajouter, et donc, de la même manière, on doit faire attention car l'on efface une file complète (la ligne entière), et pas seulement la case de la colonne spécifique à la file sélectionné.&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -25832,7 +26047,7 @@
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B25,"=", 'Fenêtre spécifique'!C25),IF('Fenêtre spécifique'!C25&lt;&gt;"",'Fenêtre spécifique'!C25,""))</f>
-        <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs ont été detectés sur cette écran.&lt;br/&gt;Completer les tableaux ci-dessous pour rectifier les erreurs.&lt;br/&gt;Une fois les erreurs corrigés, ce message disparaitra.&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -25916,7 +26131,7 @@
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B3,"=", 'Fenêtre Chargement document'!C3),IF('Fenêtre Chargement document'!C3&lt;&gt;"",'Fenêtre Chargement document'!C3,""))</f>
-        <v>window.type.configuration.DIDACTIC=mode Basique</v>
+        <v>window.type.configuration.DIDACTIC=mode Basic</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
@@ -25928,7 +26143,7 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B5,"=", 'Fenêtre Chargement document'!C5),IF('Fenêtre Chargement document'!C5&lt;&gt;"",'Fenêtre Chargement document'!C5,""))</f>
-        <v>window.load.texts.title= Sélectionner la configuration à utiliser</v>
+        <v>window.load.texts.title= Charger les documents</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -25946,19 +26161,19 @@
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B8,"=", 'Fenêtre Chargement document'!C8),IF('Fenêtre Chargement document'!C8&lt;&gt;"",'Fenêtre Chargement document'!C8,""))</f>
-        <v>window.load.texts.type.configuration.expert.label=Configuration de la bibliothèque:</v>
+        <v>window.load.texts.type.configuration.expert.label=Configuration de la bibliothèque : NO EXISTE AUN</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B9,"=", 'Fenêtre Chargement document'!C9),IF('Fenêtre Chargement document'!C9&lt;&gt;"",'Fenêtre Chargement document'!C9,""))</f>
-        <v>window.load.texts.folder.panel.title=Choisisez le dossier qui contient les documents</v>
+        <v xml:space="preserve">window.load.texts.folder.panel.title=Choisir sa bibliothèque </v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B10,"=", 'Fenêtre Chargement document'!C10),IF('Fenêtre Chargement document'!C10&lt;&gt;"",'Fenêtre Chargement document'!C10,""))</f>
-        <v>window.load.texts.folder.label=Dossier qui contient les documents:</v>
+        <v>window.load.texts.folder.label=Dossier des documents:</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -25970,13 +26185,13 @@
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B12,"=", 'Fenêtre Chargement document'!C12),IF('Fenêtre Chargement document'!C12&lt;&gt;"",'Fenêtre Chargement document'!C12,""))</f>
-        <v>window.load.texts.folder.button.folder.choose.title=Choisir le dossier qui contient les documents</v>
+        <v>window.load.texts.folder.button.folder.choose.title=Choisir sa bibliothèque</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B13,"=", 'Fenêtre Chargement document'!C13),IF('Fenêtre Chargement document'!C13&lt;&gt;"",'Fenêtre Chargement document'!C13,""))</f>
-        <v>window.load.texts.start.button.label=Charger le dossier qui contient les documents</v>
+        <v xml:space="preserve">window.load.texts.start.button.label=Charger ma bibliothèque </v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -26054,7 +26269,7 @@
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B3,"=", 'Choix bibliotheque texte'!C3),IF('Choix bibliotheque texte'!C3&lt;&gt;"",'Choix bibliotheque texte'!C3,""))</f>
-        <v xml:space="preserve">window.load.texts.folder.library.button.folder.choose.title=Sélectionner le dossier contenant la bibliothèque de materiels </v>
+        <v xml:space="preserve">window.load.texts.folder.library.button.folder.choose.title=Choisir sa bibliothèque </v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -26156,7 +26371,7 @@
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B9,"=", 'Fenetre Corpus'!C9),IF('Fenetre Corpus'!C9&lt;&gt;"",'Fenetre Corpus'!C9,""))</f>
-        <v>window.fixed.error.meta.blank.line.panel.title=Correction des en-têtes du corpus non renseignés</v>
+        <v>window.fixed.error.meta.blank.line.panel.title=Éditer les en-tête</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -26174,7 +26389,7 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B12,"=", 'Fenetre Corpus'!C12),IF('Fenetre Corpus'!C12&lt;&gt;"",'Fenetre Corpus'!C12,""))</f>
-        <v>window.manage.corpus.title=Consultation ou Edition des données du matériel</v>
+        <v>window.manage.corpus.title=Consulter/Editer le document</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -26354,25 +26569,25 @@
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B3,"=", 'Fenetre Gerer les textes'!C3),IF('Fenetre Gerer les textes'!C3&lt;&gt;"",'Fenetre Gerer les textes'!C3,""))</f>
-        <v>window.display.texts.panel.label=Liste des textes</v>
+        <v>window.display.texts.panel.label=Affichage des matériels de la bibliothèque</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B4,"=", 'Fenetre Gerer les textes'!C4),IF('Fenetre Gerer les textes'!C4&lt;&gt;"",'Fenetre Gerer les textes'!C4,""))</f>
-        <v>window.display.corpus.edit.button.label=Consulter/Editer le corpus</v>
+        <v>window.display.corpus.edit.button.label=Consulter/Editer le document</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B5,"=", 'Fenetre Gerer les textes'!C5),IF('Fenetre Gerer les textes'!C5&lt;&gt;"",'Fenetre Gerer les textes'!C5,""))</f>
-        <v>window.display.texts.edit.button.label=Consulter/Editer le texte</v>
+        <v>window.display.texts.edit.button.label=Consulter/Editer le matériel</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B6,"=", 'Fenetre Gerer les textes'!C6),IF('Fenetre Gerer les textes'!C6&lt;&gt;"",'Fenetre Gerer les textes'!C6,""))</f>
-        <v>window.display.texts.delete.button.label=Supprimer le texte</v>
+        <v>window.display.texts.delete.button.label=Supprimer le matériel</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -26396,55 +26611,55 @@
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B10,"=", 'Fenetre Gerer les textes'!C10),IF('Fenetre Gerer les textes'!C10&lt;&gt;"",'Fenetre Gerer les textes'!C10,""))</f>
-        <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Nombre de textes par page : </v>
+        <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Nombre de matériels par page : </v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B11,"=", 'Fenetre Gerer les textes'!C11),IF('Fenetre Gerer les textes'!C11&lt;&gt;"",'Fenetre Gerer les textes'!C11,""))</f>
-        <v xml:space="preserve">window.display.texts.corpus.label=Corpus : </v>
+        <v>window.display.texts.corpus.label=Gestion manuelle des matériels</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B12,"=", 'Fenetre Gerer les textes'!C12),IF('Fenetre Gerer les textes'!C12&lt;&gt;"",'Fenetre Gerer les textes'!C12,""))</f>
-        <v>window.manage.texts.title=Gérer les textes de la biblitothéques</v>
+        <v>window.manage.texts.title=Gérer les matériels dans la bibliothèque</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B13,"=", 'Fenetre Gerer les textes'!C13),IF('Fenetre Gerer les textes'!C13&lt;&gt;"",'Fenetre Gerer les textes'!C13,""))</f>
-        <v>window.manage.texts.generate.excel.panel.title=Exporter les résultats</v>
+        <v>window.manage.texts.generate.excel.panel.title=Gestion de contenus</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B14,"=", 'Fenetre Gerer les textes'!C14),IF('Fenetre Gerer les textes'!C14&lt;&gt;"",'Fenetre Gerer les textes'!C14,""))</f>
-        <v>window.manage.texts.generate.excel.classical.button.label=Exporter dans un fichier Excel de référence</v>
+        <v>window.manage.texts.generate.excel.classical.button.label=Exporter Excel de référence</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B15,"=", 'Fenetre Gerer les textes'!C15),IF('Fenetre Gerer les textes'!C15&lt;&gt;"",'Fenetre Gerer les textes'!C15,""))</f>
-        <v>window.manage.texts.generate.excel.specific.button.label=Exporter dans un fichier Excel personnalisé</v>
+        <v>window.manage.texts.generate.excel.specific.button.label=Exporter Excel personnalisé</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B16,"=", 'Fenetre Gerer les textes'!C16),IF('Fenetre Gerer les textes'!C16&lt;&gt;"",'Fenetre Gerer les textes'!C16,""))</f>
-        <v>window.manage.texts.filters.button.label=Rechercher dans les textes</v>
+        <v>window.manage.texts.filters.button.label=Filtrer le contenu</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B17,"=", 'Fenetre Gerer les textes'!C17),IF('Fenetre Gerer les textes'!C17&lt;&gt;"",'Fenetre Gerer les textes'!C17,""))</f>
-        <v>window.manage.texts.information.title=Utilisation de la gestions des textes</v>
+        <v>window.manage.texts.information.title=Informations sur l'utilisation</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B18,"=", 'Fenetre Gerer les textes'!C18),IF('Fenetre Gerer les textes'!C18&lt;&gt;"",'Fenetre Gerer les textes'!C18,""))</f>
-        <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Pour filtrer les textes cliquer sur Rechercher dans les textes, une fenêtre vous permettant de créer un nouveau filtre va s'ouvrir,&lt;br /&gt;et vous devrez la fermer avoir de pouvoir faire toutes autres opérations&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, lorsque vous éditez un corpus, vous pouvez ajouter un texte dans le corpus, &lt;br /&gt;il sera nécessaire d'enregistrer les modifications pour que le texte soit écrit physiquement dans le fichier, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, cliquez sur le bouton éditer le texte pour éditer un texte&lt;br /&gt;&lt;b&gt;&lt;u&gt;Supprimer texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, si vous désirez supprimer un texte, celui ci sera définitvement supprimer (même du fichier physique)&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt; Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -26510,13 +26725,13 @@
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B3,"=", 'Fenetre filtre texte'!C3),IF('Fenetre filtre texte'!C3&lt;&gt;"",'Fenetre filtre texte'!C3,""))</f>
-        <v>window.filter.type.CONTAINS=Contient le terme</v>
+        <v xml:space="preserve">window.filter.type.CONTAINS=Contient </v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!C4),IF('Fenetre filtre texte'!C4&lt;&gt;"",'Fenetre filtre texte'!C4,""))</f>
-        <v>window.filter.type.EQUAL=Est égale à</v>
+        <v>window.filter.type.EQUAL=L’intégralité du contenu coïncide avec</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -26528,19 +26743,19 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B6,"=", 'Fenetre filtre texte'!C6),IF('Fenetre filtre texte'!C6&lt;&gt;"",'Fenetre filtre texte'!C6,""))</f>
-        <v>window.manage.filters.panel.title=Gérer les filtres pour les textes</v>
+        <v xml:space="preserve">window.manage.filters.panel.title=Configuration des filtres </v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B7,"=", 'Fenetre filtre texte'!C7),IF('Fenetre filtre texte'!C7&lt;&gt;"",'Fenetre filtre texte'!C7,""))</f>
-        <v xml:space="preserve">window.manage.filters.type.filter.label=Choix du filtre : </v>
+        <v xml:space="preserve">window.manage.filters.type.filter.label=Appliquer dans le champ : </v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B8,"=", 'Fenetre filtre texte'!C8),IF('Fenetre filtre texte'!C8&lt;&gt;"",'Fenetre filtre texte'!C8,""))</f>
-        <v xml:space="preserve">window.manage.filters.value.filter.label=Contenu à rechercher : </v>
+        <v xml:space="preserve">window.manage.filters.value.filter.label=Recherche le contenu ou mots clés : </v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -26552,13 +26767,13 @@
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B10,"=", 'Fenetre filtre texte'!C10),IF('Fenetre filtre texte'!C10&lt;&gt;"",'Fenetre filtre texte'!C10,""))</f>
-        <v>window.manage.filters.corpus.panel.title=Filtrer un corpus</v>
+        <v xml:space="preserve">window.manage.filters.corpus.panel.title=Filtrer le contenu </v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B11,"=", 'Fenetre filtre texte'!C11),IF('Fenetre filtre texte'!C11&lt;&gt;"",'Fenetre filtre texte'!C11,""))</f>
-        <v xml:space="preserve">window.manage.filters.corpus.value.label=Corpus sur lequel on souhaite filtrer : </v>
+        <v xml:space="preserve">window.manage.filters.corpus.value.label=Filtrer : </v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -26576,7 +26791,7 @@
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B14,"=", 'Fenetre filtre texte'!C14),IF('Fenetre filtre texte'!C14&lt;&gt;"",'Fenetre filtre texte'!C14,""))</f>
-        <v>window.manage.filters.corpus.all.label=Tous les corpus</v>
+        <v>window.manage.filters.corpus.all.label=Tous les documents de la bibliothèque</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -26654,7 +26869,7 @@
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B3,"=", 'Exporter Excel Reference'!C3),IF('Exporter Excel Reference'!C3&lt;&gt;"",'Exporter Excel Reference'!C3,""))</f>
-        <v>window.file.picker.classical.panel.title=Choix du fichier excel de reference</v>
+        <v>window.file.picker.classical.panel.title=Choix de la bibliothèque Excel</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -26672,7 +26887,7 @@
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B6,"=", 'Exporter Excel Reference'!C6),IF('Exporter Excel Reference'!C6&lt;&gt;"",'Exporter Excel Reference'!C6,""))</f>
-        <v>window.save.excel.classical.information.panel.text.nothing=Sélectionner un fichier de référence via le bouton parcourir pour pouvoir générer le ou les fichiers</v>
+        <v>window.save.excel.classical.information.panel.text.nothing=Sélectionner un fichier de référence via le bouton parcourir pour pouvoir générer les fichiers</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -26690,7 +26905,7 @@
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B9,"=", 'Exporter Excel Reference'!C9),IF('Exporter Excel Reference'!C9&lt;&gt;"",'Exporter Excel Reference'!C9,""))</f>
-        <v>window.save.excel.reference.file.label=Fichier excel de référence : %s</v>
+        <v>window.save.excel.reference.file.label=Excel de référence : %s</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
@@ -26708,13 +26923,13 @@
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B12,"=", 'Exporter Excel Reference'!C12),IF('Exporter Excel Reference'!C12&lt;&gt;"",'Exporter Excel Reference'!C12,""))</f>
-        <v>window.save.excel.options.title.panel=Options de générations</v>
+        <v xml:space="preserve">window.save.excel.options.title.panel=Options </v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B13,"=", 'Exporter Excel Reference'!C13),IF('Exporter Excel Reference'!C13&lt;&gt;"",'Exporter Excel Reference'!C13,""))</f>
-        <v>window.save.excel.options.header.label=Afficher les libellés des balises en entête</v>
+        <v>window.save.excel.options.header.label=Afficher les libellés des balises dans les en-têtes des tableaux (RECOMMANDÉ)</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
@@ -26732,7 +26947,7 @@
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B16,"=", 'Exporter Excel Reference'!C16),IF('Exporter Excel Reference'!C16&lt;&gt;"",'Exporter Excel Reference'!C16,""))</f>
-        <v>window.save.excel.action.title.panel=Enregistrement du ou des fichiers excel</v>
+        <v>window.save.excel.action.title.panel=Enregistrement des fichiers Excel</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
@@ -26756,7 +26971,7 @@
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B20,"=", 'Exporter Excel Reference'!C20),IF('Exporter Excel Reference'!C20&lt;&gt;"",'Exporter Excel Reference'!C20,""))</f>
-        <v>window.file.picker.panel.label=Choisissez l'emplacement du fichier excel à enregistrer</v>
+        <v>window.file.picker.panel.label=Emplacement de l'enregistrement des Excel</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
@@ -27032,7 +27247,7 @@
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="str">
         <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!C13),IF(Autres!C13&lt;&gt;"",Autres!C13,""))</f>
-        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils existent déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -27080,7 +27295,7 @@
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="str">
         <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!C21),IF(Autres!C21&lt;&gt;"",Autres!C21,""))</f>
-        <v>window.manage.texts.delete.text.action.message.content=Vous allez supprimer un texte du corpus.\nCette action sera irréversible.\nVoulez vous continuer ?</v>
+        <v>window.manage.texts.delete.text.action.message.content=Vous allez supprimer un texte du document.\nCette action sera irréversible.\nVoulez vous continuer ?</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
@@ -27200,7 +27415,7 @@
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
-        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l'application Caerus repose sur un fichier qui permet de paramétrer entiérement la génération des interfaces et des analyses.&lt;br/&gt;Vous pouvez modifier la configuration à utiliser dans cette interface, mais vous pouvez aussi ajouter, modifier ou supprimer des configurations en agissant dans le repertoire '%s'&lt;br/&gt;Bientot des fenêtres graphique seront ajouter à l'application pour faciliter ses changements&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -27446,8 +27661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
   <dimension ref="A1:A390"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A379" sqref="A1:A390"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27506,13 +27721,13 @@
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>IF('Fenêtre principal'!B10&lt;&gt;"",CONCATENATE('Fenêtre principal'!B10,"=", 'Fenêtre principal'!D10),IF('Fenêtre principal'!D10&lt;&gt;"",'Fenêtre principal'!D10,""))</f>
-        <v xml:space="preserve">window.menu.level1.sublevel2.title=Guardar los documentos Excel </v>
+        <v xml:space="preserve">window.menu.level1.sublevel2.title=Guardar Excel </v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>IF('Fenêtre principal'!B11&lt;&gt;"",CONCATENATE('Fenêtre principal'!B11,"=", 'Fenêtre principal'!D11),IF('Fenêtre principal'!D11&lt;&gt;"",'Fenêtre principal'!D11,""))</f>
-        <v>window.menu.level1.sublevel3.title=Guardar un archivo de Excel personalizado</v>
+        <v>window.menu.level1.sublevel3.title=Guardar Excel personalizado</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -27536,7 +27751,7 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!D15),IF('Fenêtre principal'!D15&lt;&gt;"",'Fenêtre principal'!D15,""))</f>
-        <v>window.menu.level3.sublevel1.title=Cambiar la configuración actual</v>
+        <v xml:space="preserve">window.menu.level3.sublevel1.title=Cambiar la configuración </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -27548,19 +27763,19 @@
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>IF('Fenêtre principal'!B17&lt;&gt;"",CONCATENATE('Fenêtre principal'!B17,"=", 'Fenêtre principal'!D17),IF('Fenêtre principal'!D17&lt;&gt;"",'Fenêtre principal'!D17,""))</f>
-        <v>window.menu.level5.sublevel1.title=Abrir carpeta que contiene los documentos</v>
+        <v>window.menu.level5.sublevel1.title=Nueva biblioteca</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE('Fenêtre principal'!B18,"=", 'Fenêtre principal'!D18),IF('Fenêtre principal'!D18&lt;&gt;"",'Fenêtre principal'!D18,""))</f>
-        <v>window.menu.level5.sublevel2.title=Crear un material</v>
+        <v>window.menu.level5.sublevel2.title=Crear materiales</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE('Fenêtre principal'!B19,"=", 'Fenêtre principal'!D19),IF('Fenêtre principal'!D19&lt;&gt;"",'Fenêtre principal'!D19,""))</f>
-        <v>window.menu.level5.sublevel3.title=Administra los materials</v>
+        <v>window.menu.level5.sublevel3.title=Gestión de materiales</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -27578,7 +27793,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE('Fenêtre principal'!B22,"=", 'Fenêtre principal'!D22),IF('Fenêtre principal'!D22&lt;&gt;"",'Fenêtre principal'!D22,""))</f>
-        <v>window.main.configuration.library.panel.state.label=Directorio de la biblioteca :</v>
+        <v>window.main.configuration.library.panel.state.label=Directorio de mi biblioteca :</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -27668,31 +27883,31 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>IF('Fenêtre principal'!B37&lt;&gt;"",CONCATENATE('Fenêtre principal'!B37,"=", 'Fenêtre principal'!D37),IF('Fenêtre principal'!D37&lt;&gt;"",'Fenêtre principal'!D37,""))</f>
-        <v>window.main.blank.line.error.panel.title=Información o etiquetas no cumplimentadas</v>
+        <v>window.main.blank.line.error.panel.title=Etiquetas no cumplimentadas</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>IF('Fenêtre principal'!B38&lt;&gt;"",CONCATENATE('Fenêtre principal'!B38,"=", 'Fenêtre principal'!D38),IF('Fenêtre principal'!D38&lt;&gt;"",'Fenêtre principal'!D38,""))</f>
-        <v xml:space="preserve">window.main.blank.line.error.nb.label=Número de secuencias con etiquetas vacías : </v>
+        <v xml:space="preserve">window.main.blank.line.error.nb.label=Materiales con etiquetas vacías : </v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE('Fenêtre principal'!B39,"=", 'Fenêtre principal'!D39),IF('Fenêtre principal'!D39&lt;&gt;"",'Fenêtre principal'!D39,""))</f>
-        <v>window.main.blank.line.error.fixed.button.label=Corregir los textos</v>
+        <v>window.main.blank.line.error.fixed.button.label=Editar etiquetas de materiales</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE('Fenêtre principal'!B40,"=", 'Fenêtre principal'!D40),IF('Fenêtre principal'!D40&lt;&gt;"",'Fenêtre principal'!D40,""))</f>
-        <v xml:space="preserve">window.main.meta.blank.line.error.label=Presencia de encabezados con etiquetas vacías : </v>
+        <v xml:space="preserve">window.main.meta.blank.line.error.label=Encabezados con etiquetas vacías : </v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE('Fenêtre principal'!B41,"=", 'Fenêtre principal'!D41),IF('Fenêtre principal'!D41&lt;&gt;"",'Fenêtre principal'!D41,""))</f>
-        <v>window.main.meta.blank.line.error.fixed.button.label=Corregir las cabeceras del corpus</v>
+        <v>window.main.meta.blank.line.error.fixed.button.label=Editar las cabeceras</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -27710,13 +27925,13 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>IF('Fenêtre principal'!B44&lt;&gt;"",CONCATENATE('Fenêtre principal'!B44,"=", 'Fenêtre principal'!D44),IF('Fenêtre principal'!D44&lt;&gt;"",'Fenêtre principal'!D44,""))</f>
-        <v>window.move.file.library.panel.label=Archivar los textos</v>
+        <v>window.move.file.library.panel.label=Archivar los materiales</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE('Fenêtre principal'!B45,"=", 'Fenêtre principal'!D45),IF('Fenêtre principal'!D45&lt;&gt;"",'Fenêtre principal'!D45,""))</f>
-        <v>window.move.file.library.button.label=Mover los textos en la biblioteca</v>
+        <v>window.move.file.library.button.label=Biblioteca Caerus "library"</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -27800,7 +28015,7 @@
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>IF('Fenêtre erreur ligne'!B3&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B3,"=", 'Fenêtre erreur ligne'!D3),IF('Fenêtre erreur ligne'!D3&lt;&gt;"",'Fenêtre erreur ligne'!D3,""))</f>
-        <v>window.fixed.error.line.title=Corrección de etiquetas erróneas</v>
+        <v xml:space="preserve">window.fixed.error.line.title=Corrección de etiquetas </v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -27818,7 +28033,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B6,"=", 'Fenêtre erreur ligne'!D6),IF('Fenêtre erreur ligne'!D6&lt;&gt;"",'Fenêtre erreur ligne'!D6,""))</f>
-        <v>window.fixed.error.line.content.panel.line.fixed.label=Etiqueta corregida:</v>
+        <v>window.fixed.error.line.content.panel.line.fixed.label=Corregir la etiqueta:</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -27836,7 +28051,7 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>IF('Fenêtre erreur ligne'!B9&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B9,"=", 'Fenêtre erreur ligne'!D9),IF('Fenêtre erreur ligne'!D9&lt;&gt;"",'Fenêtre erreur ligne'!D9,""))</f>
-        <v>window.fixed.error.line.action.panel.save.quit.button.label=Corregir y guardar el documento corregido</v>
+        <v>window.fixed.error.line.action.panel.save.quit.button.label=Guardar las etiquetas corregidas</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -27848,7 +28063,7 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B11,"=", 'Fenêtre erreur ligne'!D11),IF('Fenêtre erreur ligne'!D11&lt;&gt;"",'Fenêtre erreur ligne'!D11,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Dirección del archivo : </v>
+        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Ubicación del error: </v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -27914,7 +28129,7 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE('Correction Edit texte'!B3,"=", 'Correction Edit texte'!D3),IF('Correction Edit texte'!D3&lt;&gt;"",'Correction Edit texte'!D3,""))</f>
-        <v>window.fixed.text.title=Corrección de un texto</v>
+        <v>window.fixed.text.title=Corrección de los materiales</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -27926,7 +28141,7 @@
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE('Correction Edit texte'!B5,"=", 'Correction Edit texte'!D5),IF('Correction Edit texte'!D5&lt;&gt;"",'Correction Edit texte'!D5,""))</f>
-        <v>window.fixed.text.action.fill.specific.button.title=Corrección de las informaciones específicas</v>
+        <v>window.fixed.text.action.fill.specific.button.title=Corrección de informaciones específicas</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -27986,19 +28201,19 @@
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE('Correction Edit texte'!B15,"=", 'Correction Edit texte'!D15),IF('Correction Edit texte'!D15&lt;&gt;"",'Correction Edit texte'!D15,""))</f>
-        <v>window.manage.texts.edit.text.panel.title=Ver/Editar texto</v>
+        <v>window.manage.texts.edit.text.panel.title=Consultar/Editar los materiales</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE('Correction Edit texte'!B16,"=", 'Correction Edit texte'!D16),IF('Correction Edit texte'!D16&lt;&gt;"",'Correction Edit texte'!D16,""))</f>
-        <v>window.manage.texts.edit.text.action.panel.title=Registro de información</v>
+        <v>window.manage.texts.edit.text.action.panel.title=Guardar el material</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE('Correction Edit texte'!B17,"=", 'Correction Edit texte'!D17),IF('Correction Edit texte'!D17&lt;&gt;"",'Correction Edit texte'!D17,""))</f>
-        <v>window.manage.texts.edit.text.action.fill.specific.button.title=Editar información específica</v>
+        <v>window.manage.texts.edit.text.action.fill.specific.button.title=Editar informaciones específicas</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -28016,7 +28231,7 @@
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE('Correction Edit texte'!B20,"=", 'Correction Edit texte'!D20),IF('Correction Edit texte'!D20&lt;&gt;"",'Correction Edit texte'!D20,""))</f>
-        <v>window.manage.texts.edit.text.action.button.save.and.quit.label=Guardar cambios y cerrar</v>
+        <v>window.manage.texts.edit.text.action.button.save.and.quit.label=Guardar los cambios y cerrar</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -28082,7 +28297,7 @@
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B6,"=", 'Fenêtre spécifique'!D6),IF('Fenêtre spécifique'!D6&lt;&gt;"",'Fenêtre spécifique'!D6,""))</f>
-        <v>window.edit.specific.title=Editar de las informaciones específicas</v>
+        <v>window.edit.specific.title=Edición de las informaciones específicas</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
@@ -28118,7 +28333,7 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B12,"=", 'Fenêtre spécifique'!D12),IF('Fenêtre spécifique'!D12&lt;&gt;"",'Fenêtre spécifique'!D12,""))</f>
-        <v>window.create.specific.details.panel.title=Detalles de la estructura</v>
+        <v>window.create.specific.details.panel.title=Visualización de la estructura</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
@@ -28184,7 +28399,7 @@
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B23,"=", 'Fenêtre spécifique'!D23),IF('Fenêtre spécifique'!D23&lt;&gt;"",'Fenêtre spécifique'!D23,""))</f>
-        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, debe completar absolutamente todos los cuadros y hacer clic en Agregar. Esto permitirá agregar información al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la información de la columna en la cola correspondiente, de esta manera modificamos la información de este cuadro en la línea seleccionada, sin crear una nueva cola y, por lo tanto, duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;sigue la misma operación de seleccionar toda la cola que el botón Agregar, y por lo tanto, de la misma manera, debemos tenga cuidado porque elimina una cola completa (toda la fila), y no solo el cuadro en la columna específica de la cola seleccionada.&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -28196,7 +28411,7 @@
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B25,"=", 'Fenêtre spécifique'!D25),IF('Fenêtre spécifique'!D25&lt;&gt;"",'Fenêtre spécifique'!D25,""))</f>
-        <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores en esta pantalla.&lt;br/&gt;Complete las tablas a continuación para corrija los errores.&lt;br/&gt;Una vez que se hayan corregido los errores, este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores estructurales.&lt;br/&gt;Complete las siguientes tablas para corregirlos.&lt;br/&gt;Una vez que se hayan corregido los errores este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
@@ -28292,7 +28507,7 @@
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B5,"=", 'Fenêtre Chargement document'!D5),IF('Fenêtre Chargement document'!D5&lt;&gt;"",'Fenêtre Chargement document'!D5,""))</f>
-        <v xml:space="preserve">window.load.texts.title= Selecciona la configuración que vas a utilizar </v>
+        <v>window.load.texts.title=Cargar los documentos</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -28310,19 +28525,19 @@
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B8,"=", 'Fenêtre Chargement document'!D8),IF('Fenêtre Chargement document'!D8&lt;&gt;"",'Fenêtre Chargement document'!D8,""))</f>
-        <v>window.load.texts.type.configuration.expert.label=Configuración de la biblioteca :</v>
+        <v>window.load.texts.type.configuration.expert.label=Configuración de la biblioteca: NO EXISTE AUN</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B9,"=", 'Fenêtre Chargement document'!D9),IF('Fenêtre Chargement document'!D9&lt;&gt;"",'Fenêtre Chargement document'!D9,""))</f>
-        <v>window.load.texts.folder.panel.title=Elección de la carpeta</v>
+        <v>window.load.texts.folder.panel.title=Elegir su biblioteca</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B10,"=", 'Fenêtre Chargement document'!D10),IF('Fenêtre Chargement document'!D10&lt;&gt;"",'Fenêtre Chargement document'!D10,""))</f>
-        <v>window.load.texts.folder.label=Carpeta que contiene los textos:</v>
+        <v>window.load.texts.folder.label=Carpeta de los documentos:</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -28334,13 +28549,13 @@
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B12,"=", 'Fenêtre Chargement document'!D12),IF('Fenêtre Chargement document'!D12&lt;&gt;"",'Fenêtre Chargement document'!D12,""))</f>
-        <v>window.load.texts.folder.button.folder.choose.title=Seleccionar la carpeta que contiene los textos</v>
+        <v>window.load.texts.folder.button.folder.choose.title=Elegir su biblioteca</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="str">
         <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B13,"=", 'Fenêtre Chargement document'!D13),IF('Fenêtre Chargement document'!D13&lt;&gt;"",'Fenêtre Chargement document'!D13,""))</f>
-        <v>window.load.texts.start.button.label=Cargar la carpeta que contiene los documentos</v>
+        <v>window.load.texts.start.button.label=Cargar mi biblioteca</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -28418,7 +28633,7 @@
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B3,"=", 'Choix bibliotheque texte'!D3),IF('Choix bibliotheque texte'!D3&lt;&gt;"",'Choix bibliotheque texte'!D3,""))</f>
-        <v>window.load.texts.folder.library.button.folder.choose.title=Selecciona la carpeta que contiene la biblioteca de materiales</v>
+        <v>window.load.texts.folder.library.button.folder.choose.title=Elegir su biblioteca</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -28520,7 +28735,7 @@
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B9,"=", 'Fenetre Corpus'!D9),IF('Fenetre Corpus'!D9&lt;&gt;"",'Fenetre Corpus'!D9,""))</f>
-        <v>window.fixed.error.meta.blank.line.panel.title=Corrección de las cabeceras del corpus no informadas</v>
+        <v>window.fixed.error.meta.blank.line.panel.title=Editar los encabezados</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
@@ -28538,7 +28753,7 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B12,"=", 'Fenetre Corpus'!D12),IF('Fenetre Corpus'!D12&lt;&gt;"",'Fenetre Corpus'!D12,""))</f>
-        <v>window.manage.corpus.title=Ver o Editar datos de un material</v>
+        <v>window.manage.corpus.title=Consultar/Editar el documento</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -28718,25 +28933,25 @@
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
         <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B3,"=", 'Fenetre Gerer les textes'!D3),IF('Fenetre Gerer les textes'!D3&lt;&gt;"",'Fenetre Gerer les textes'!D3,""))</f>
-        <v>window.display.texts.panel.label=Lista de textos</v>
+        <v>window.display.texts.panel.label=Visualización de los materiales de la biblioteca</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="str">
         <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B4,"=", 'Fenetre Gerer les textes'!D4),IF('Fenetre Gerer les textes'!D4&lt;&gt;"",'Fenetre Gerer les textes'!D4,""))</f>
-        <v>window.display.corpus.edit.button.label=Ver/Editar el corpus</v>
+        <v>window.display.corpus.edit.button.label=Consultar/Editar el documento</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="str">
         <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B5,"=", 'Fenetre Gerer les textes'!D5),IF('Fenetre Gerer les textes'!D5&lt;&gt;"",'Fenetre Gerer les textes'!D5,""))</f>
-        <v>window.display.texts.edit.button.label=Ver/Editar el texto</v>
+        <v>window.display.texts.edit.button.label=Consultar/Editar el material</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="str">
         <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B6,"=", 'Fenetre Gerer les textes'!D6),IF('Fenetre Gerer les textes'!D6&lt;&gt;"",'Fenetre Gerer les textes'!D6,""))</f>
-        <v>window.display.texts.delete.button.label=Eliminar el texto</v>
+        <v>window.display.texts.delete.button.label=Eliminar el material</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -28760,55 +28975,55 @@
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="str">
         <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B10,"=", 'Fenetre Gerer les textes'!D10),IF('Fenetre Gerer les textes'!D10&lt;&gt;"",'Fenetre Gerer les textes'!D10,""))</f>
-        <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Número de textos por página : </v>
+        <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Número de materiales por página : </v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="str">
         <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B11,"=", 'Fenetre Gerer les textes'!D11),IF('Fenetre Gerer les textes'!D11&lt;&gt;"",'Fenetre Gerer les textes'!D11,""))</f>
-        <v xml:space="preserve">window.display.texts.corpus.label=Corpus : </v>
+        <v>window.display.texts.corpus.label=Gestión técnica de</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="str">
         <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B12,"=", 'Fenetre Gerer les textes'!D12),IF('Fenetre Gerer les textes'!D12&lt;&gt;"",'Fenetre Gerer les textes'!D12,""))</f>
-        <v>window.manage.texts.title=Administra los textos de la biblioteca</v>
+        <v>window.manage.texts.title=Administrar los materiales en la biblioteca</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="str">
         <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B13,"=", 'Fenetre Gerer les textes'!D13),IF('Fenetre Gerer les textes'!D13&lt;&gt;"",'Fenetre Gerer les textes'!D13,""))</f>
-        <v>window.manage.texts.generate.excel.panel.title=Exportar los resultados</v>
+        <v>window.manage.texts.generate.excel.panel.title=Gestión del contenido</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="str">
         <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B14,"=", 'Fenetre Gerer les textes'!D14),IF('Fenetre Gerer les textes'!D14&lt;&gt;"",'Fenetre Gerer les textes'!D14,""))</f>
-        <v>window.manage.texts.generate.excel.classical.button.label=Exportar a un archivo Excel de referencia</v>
+        <v>window.manage.texts.generate.excel.classical.button.label=Exportar Excel de referencia</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="str">
         <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B15,"=", 'Fenetre Gerer les textes'!D15),IF('Fenetre Gerer les textes'!D15&lt;&gt;"",'Fenetre Gerer les textes'!D15,""))</f>
-        <v>window.manage.texts.generate.excel.specific.button.label=Exportar a un archivo Excel personalizado</v>
+        <v>window.manage.texts.generate.excel.specific.button.label=Exportar Excel personalizado</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="str">
         <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B16,"=", 'Fenetre Gerer les textes'!D16),IF('Fenetre Gerer les textes'!D16&lt;&gt;"",'Fenetre Gerer les textes'!D16,""))</f>
-        <v>window.manage.texts.filters.button.label=Buscar en textos</v>
+        <v>window.manage.texts.filters.button.label=Filtrar el contenido</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="str">
         <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B17,"=", 'Fenetre Gerer les textes'!D17),IF('Fenetre Gerer les textes'!D17&lt;&gt;"",'Fenetre Gerer les textes'!D17,""))</f>
-        <v>window.manage.texts.information.title=Utilización de la gestión de los textos</v>
+        <v>window.manage.texts.information.title=Información de uso</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="str">
         <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B18,"=", 'Fenetre Gerer les textes'!D18),IF('Fenetre Gerer les textes'!D18&lt;&gt;"",'Fenetre Gerer les textes'!D18,""))</f>
-        <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Para filtrar los textos haga clic en Buscar en los textos, se abrirá una ventana que le permite crear un nuevo filtro,&lt;br /&gt;y usted tendrá que cerrarla tener que hacer cualquier otra operación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición Corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, cuando edita un corpus, puede añadir un texto en el corpus, &lt;br /&gt;será necesario registrar las modificaciones para que el texto se escriba físicamente en el fichero, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición de texto :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, haga clic en el botón Editar texto para editar un texto&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprímase el texto siguiente:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, si desea eliminar un texto, el texto será definitivamente eliminado (incluso desde el archivo físico)&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
@@ -28874,13 +29089,13 @@
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B3,"=", 'Fenetre filtre texte'!D3),IF('Fenetre filtre texte'!D3&lt;&gt;"",'Fenetre filtre texte'!D3,""))</f>
-        <v>window.filter.type.CONTAINS=Contiene el término</v>
+        <v xml:space="preserve">window.filter.type.CONTAINS=Contiene </v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!D4),IF('Fenetre filtre texte'!D4&lt;&gt;"",'Fenetre filtre texte'!D4,""))</f>
-        <v>window.filter.type.EQUAL=Es igual a</v>
+        <v>window.filter.type.EQUAL=La integralidad del contenido coincide con</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -28892,19 +29107,19 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="str">
         <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B6,"=", 'Fenetre filtre texte'!D6),IF('Fenetre filtre texte'!D6&lt;&gt;"",'Fenetre filtre texte'!D6,""))</f>
-        <v>window.manage.filters.panel.title=Administrar filtros para textos</v>
+        <v>window.manage.filters.panel.title=Configuración de los filtros</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="str">
         <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B7,"=", 'Fenetre filtre texte'!D7),IF('Fenetre filtre texte'!D7&lt;&gt;"",'Fenetre filtre texte'!D7,""))</f>
-        <v xml:space="preserve">window.manage.filters.type.filter.label=Elección de filtro : </v>
+        <v xml:space="preserve">window.manage.filters.type.filter.label=Aplicar en el apartado : </v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="str">
         <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B8,"=", 'Fenetre filtre texte'!D8),IF('Fenetre filtre texte'!D8&lt;&gt;"",'Fenetre filtre texte'!D8,""))</f>
-        <v xml:space="preserve">window.manage.filters.value.filter.label=Contenido a buscar : </v>
+        <v xml:space="preserve">window.manage.filters.value.filter.label=Búsqueda de contenido o palabras clave : </v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -28916,13 +29131,13 @@
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="str">
         <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B10,"=", 'Fenetre filtre texte'!D10),IF('Fenetre filtre texte'!D10&lt;&gt;"",'Fenetre filtre texte'!D10,""))</f>
-        <v>window.manage.filters.corpus.panel.title=Filtrar un corpus</v>
+        <v>window.manage.filters.corpus.panel.title=Filtrar el contenido</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="str">
         <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B11,"=", 'Fenetre filtre texte'!D11),IF('Fenetre filtre texte'!D11&lt;&gt;"",'Fenetre filtre texte'!D11,""))</f>
-        <v xml:space="preserve">window.manage.filters.corpus.value.label=Corpus en el que queremos filtrar : </v>
+        <v xml:space="preserve">window.manage.filters.corpus.value.label=Filtrar : </v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -28940,7 +29155,7 @@
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="str">
         <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B14,"=", 'Fenetre filtre texte'!D14),IF('Fenetre filtre texte'!D14&lt;&gt;"",'Fenetre filtre texte'!D14,""))</f>
-        <v>window.manage.filters.corpus.all.label=Todos corpus</v>
+        <v>window.manage.filters.corpus.all.label=Todos los documentos de la biblioteca</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -29018,7 +29233,7 @@
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
         <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B3,"=", 'Exporter Excel Reference'!D3),IF('Exporter Excel Reference'!D3&lt;&gt;"",'Exporter Excel Reference'!D3,""))</f>
-        <v>window.file.picker.classical.panel.title=Elección del archivo excel de referencia</v>
+        <v>window.file.picker.classical.panel.title=Elección de la biblioteca Excel</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -29036,7 +29251,7 @@
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="str">
         <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B6,"=", 'Exporter Excel Reference'!D6),IF('Exporter Excel Reference'!D6&lt;&gt;"",'Exporter Excel Reference'!D6,""))</f>
-        <v>window.save.excel.classical.information.panel.text.nothing=Seleccione un archivo de referencia para poder generar los archivos</v>
+        <v>window.save.excel.classical.information.panel.text.nothing=Seleccione un archivo de referencia a través del botón Examinar para poder generar los archivos</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -29054,7 +29269,7 @@
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="str">
         <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B9,"=", 'Exporter Excel Reference'!D9),IF('Exporter Excel Reference'!D9&lt;&gt;"",'Exporter Excel Reference'!D9,""))</f>
-        <v>window.save.excel.reference.file.label=Archivo de referencia de excel : %s</v>
+        <v>window.save.excel.reference.file.label=Excel de referencia : %s</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
@@ -29072,13 +29287,13 @@
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="str">
         <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B12,"=", 'Exporter Excel Reference'!D12),IF('Exporter Excel Reference'!D12&lt;&gt;"",'Exporter Excel Reference'!D12,""))</f>
-        <v>window.save.excel.options.title.panel=Opciones de generación</v>
+        <v xml:space="preserve">window.save.excel.options.title.panel=Opciones </v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="str">
         <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B13,"=", 'Exporter Excel Reference'!D13),IF('Exporter Excel Reference'!D13&lt;&gt;"",'Exporter Excel Reference'!D13,""))</f>
-        <v>window.save.excel.options.header.label=Mostrar las etiquetas de los encabezados</v>
+        <v>window.save.excel.options.header.label=Mostrar los nombres de las etiquetas en los encabezados de las tablas (RECOMENDADO)</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
@@ -29096,7 +29311,7 @@
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="str">
         <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B16,"=", 'Exporter Excel Reference'!D16),IF('Exporter Excel Reference'!D16&lt;&gt;"",'Exporter Excel Reference'!D16,""))</f>
-        <v>window.save.excel.action.title.panel=Guardar archivos de excel</v>
+        <v>window.save.excel.action.title.panel=Guardar archivos de Excel</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
@@ -29120,13 +29335,13 @@
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="str">
         <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B20,"=", 'Exporter Excel Reference'!D20),IF('Exporter Excel Reference'!D20&lt;&gt;"",'Exporter Excel Reference'!D20,""))</f>
-        <v>window.file.picker.panel.label=Elija la ubicación del archivo de excel para guardar</v>
+        <v>window.file.picker.panel.label=Ubicación  para guardar los Excel</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="str">
         <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B21,"=", 'Exporter Excel Reference'!D21),IF('Exporter Excel Reference'!D21&lt;&gt;"",'Exporter Excel Reference'!D21,""))</f>
-        <v>window.file.picker.panel.button=Recorrer…</v>
+        <v>window.file.picker.panel.button=Examinar…</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
@@ -29246,7 +29461,7 @@
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="str">
         <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B11,"=", 'Exporter Excel Personnalisé'!D11),IF('Exporter Excel Personnalisé'!D11&lt;&gt;"",'Exporter Excel Personnalisé'!D11,""))</f>
-        <v>window.save.excel.specific.list.fields.title.panel=Lista de campos para generar</v>
+        <v>window.save.excel.specific.list.fields.title.panel=Lista de apartados para generar</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -29342,7 +29557,7 @@
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
         <f>IF(Autres!B3&lt;&gt;"",CONCATENATE(Autres!B3,"=", Autres!D3),IF(Autres!D3&lt;&gt;"",Autres!D3,""))</f>
-        <v>window.recovery.error.state.answer=¿Se ha detectado un análisis.\nDesea continuar con el análisis?</v>
+        <v>window.recovery.error.state.answer=Se ha detectado un análisis.\n¿Desea continuar con el análisis?</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
@@ -29402,7 +29617,7 @@
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="str">
         <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!D13),IF(Autres!D13&lt;&gt;"",Autres!D13,""))</f>
-        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya existen en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya están en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
@@ -29450,7 +29665,7 @@
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="str">
         <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!D21),IF(Autres!D21&lt;&gt;"",Autres!D21,""))</f>
-        <v>window.manage.texts.delete.text.action.message.content=Eliminará un texto del corpus.\nTesta acción será irreversible.\n¿Desea continuar?</v>
+        <v>window.manage.texts.delete.text.action.message.content=Eliminará un texto del documento.\nEsta acción será irreversible.\n¿Desea continuar?</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
@@ -29570,7 +29785,7 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!D7),IF('Changer Configuration'!D7&lt;&gt;"",'Changer Configuration'!D7,""))</f>
-        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la generación de interfaces y análisis.&lt;br/&gt;Puede modificar la configuración para usar en esta interfaz, pero también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -29804,7 +30019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A386"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -32138,8 +32353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77FE015-45ED-4C89-B5D1-EDB5C6B1F7DA}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32149,26 +32364,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32176,13 +32391,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>492</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32190,13 +32405,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32204,13 +32419,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32218,13 +32433,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>494</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32232,13 +32447,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32246,13 +32461,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -32260,13 +32475,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
-        <v>116</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32274,13 +32489,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32288,13 +32503,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -32310,8 +32525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56DE331-9367-41C8-8048-603F1BE40CC9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32321,26 +32536,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32348,13 +32563,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32362,13 +32577,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32376,13 +32591,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32390,13 +32605,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32404,13 +32619,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32419,10 +32634,10 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32430,13 +32645,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32444,13 +32659,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32458,21 +32673,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -32480,13 +32695,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -32494,13 +32709,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>168</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
-        <v>177</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -32508,21 +32723,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>494</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -32530,13 +32745,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -32544,13 +32759,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -32566,8 +32781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32577,26 +32792,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32604,13 +32819,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>499</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32619,10 +32834,10 @@
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>509</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32630,13 +32845,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>500</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>501</v>
+        <v>382</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32645,10 +32860,10 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>510</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32656,13 +32871,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32670,13 +32885,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32684,13 +32899,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32698,13 +32913,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>449</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32712,13 +32927,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32726,13 +32941,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32740,13 +32955,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32754,13 +32969,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32768,13 +32983,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32782,13 +32997,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32796,13 +33011,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32810,10 +33025,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>511</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -32821,13 +33036,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32835,15 +33050,15 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter une nouvelle donnée, il faut absolument remplir toutes les cases et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout d'informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc des doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;suit le même fonctionnement de sélectionner la file entière que le bouton Ajouter, et donc, de la même manière,"," on doit faire attention car l'on efface une file complète (la ligne entière), et pas seulement la case de la colonne spécifique à la file sélectionné.&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter une nouvelle donnée, il faut absolument remplir toutes les cases et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout d'informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc des doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;suit le même fonctionnement de sélectionner la file entière que le bouton Ajouter, et donc, de la même manière, on doit faire attention car l'on efface une file complète (la ligne entière), et pas seulement la case de la colonne spécifique à la file sélectionné.&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, debe completar absolutamente todos los cuadros y hacer clic en Agregar. Esto permitirá agregar información al texto actual.&lt;br/&gt;","Editar:&lt;br/&gt;Seleccione ","exactamente la información de la columna en la cola correspondiente, de esta manera modificamos la información de este cuadro en la línea seleccionada, sin crear una nueva cola y, por lo tanto, duplicados.&lt;br/&gt;","Eliminar:&lt;br/&gt;sigue la misma operación de seleccionar toda la cola que el botón Agregar, y por lo tanto, de la misma manera",", debemos tenga cuidado porque elimina una cola completa (toda la fila), y no solo el cuadro en la columna específica de la cola seleccionada.&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, debe completar absolutamente todos los cuadros y hacer clic en Agregar. Esto permitirá agregar información al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la información de la columna en la cola correspondiente, de esta manera modificamos la información de este cuadro en la línea seleccionada, sin crear una nueva cola y, por lo tanto, duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;sigue la misma operación de seleccionar toda la cola que el botón Agregar, y por lo tanto, de la misma manera, debemos tenga cuidado porque elimina una cola completa (toda la fila), y no solo el cuadro en la columna específica de la cola seleccionada.&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;","Editar:&lt;br/&gt;Seleccione ","exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;","Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32851,13 +33066,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -32865,15 +33080,15 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs ont été detectés sur cette écran.&lt;br/&gt;Completer les tableaux ci-dessous pour rectifier les erreurs.&lt;br/&gt;Une fois les erreurs corrigés, ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
-        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs ont été detectés sur cette écran.&lt;br/&gt;Completer les tableaux ci-dessous pour rectifier les erreurs.&lt;br/&gt;Une fois les erreurs corrigés, ce message disparaitra.&lt;/p&gt;&lt;/html&gt;</v>
+        <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
+        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores en esta pantalla.&lt;br/&gt;Complete las tablas a continuación para corrija los errores.&lt;br/&gt;Una vez que se hayan corregido los errores, este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;"</f>
-        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores en esta pantalla.&lt;br/&gt;Complete las tablas a continuación para corrija los errores.&lt;br/&gt;Una vez que se hayan corregido los errores, este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;</v>
+        <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores estructurales.&lt;br/&gt;Complete las siguientes tablas para corregirlos.&lt;br/&gt;Una vez que se hayan corregido los errores este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;"</f>
+        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores estructurales.&lt;br/&gt;Complete las siguientes tablas para corregirlos.&lt;br/&gt;Una vez que se hayan corregido los errores este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
@@ -32909,7 +33124,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32919,187 +33134,188 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>228</v>
+      <c r="B3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>230</v>
+      <c r="B4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>232</v>
+      <c r="B5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>234</v>
+      <c r="B6" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>236</v>
+      <c r="B7" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>238</v>
+      <c r="B8" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>240</v>
+      <c r="B9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>242</v>
+      <c r="B10" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>244</v>
+      <c r="B11" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>246</v>
+      <c r="B12" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>248</v>
+      <c r="B13" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -33109,7 +33325,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33121,26 +33337,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>513</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33148,13 +33364,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>262</v>
+        <v>507</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>263</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -33171,7 +33387,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33183,26 +33399,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>514</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33210,13 +33426,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33224,13 +33440,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33238,13 +33454,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33252,13 +33468,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33266,13 +33482,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33280,13 +33496,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33294,13 +33510,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>273</v>
+        <v>514</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33308,13 +33524,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33322,13 +33538,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>277</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33336,13 +33552,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>495</v>
+        <v>378</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33350,13 +33566,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>502</v>
+        <v>383</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>503</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -33383,26 +33599,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>515</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33410,13 +33626,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33424,13 +33640,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33438,13 +33654,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33452,13 +33668,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33466,13 +33682,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33494,8 +33710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59160BD-885A-4DEA-9FEE-62F72A09FE0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33507,24 +33723,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>290</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33532,13 +33748,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>292</v>
+        <v>527</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33546,13 +33762,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>316</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33560,13 +33776,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="D5" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33574,13 +33790,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>298</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33588,13 +33804,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33602,13 +33818,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>235</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33616,13 +33832,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33630,13 +33846,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="D10" t="s">
-        <v>320</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33644,13 +33860,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>517</v>
       </c>
       <c r="D11" t="s">
-        <v>306</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33658,13 +33874,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>530</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33672,13 +33888,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>528</v>
       </c>
       <c r="D13" t="s">
-        <v>322</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33686,13 +33902,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33700,13 +33916,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
-        <v>324</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -33714,13 +33930,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
       <c r="C16" t="s">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="D16" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33728,13 +33944,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>504</v>
+        <v>385</v>
       </c>
       <c r="C17" t="s">
-        <v>506</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>507</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33742,15 +33958,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>386</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Pour filtrer les textes cliquer sur Rechercher dans les textes, une fenêtre vous permettant de créer un nouveau filtre va s'ouvrir,","&lt;br /&gt;et vous devrez la fermer avoir de pouvoir faire toutes autres opérations","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, lorsque vous éditez un corpus, vous pouvez ajouter un texte dans le corpus, &lt;br /&gt;","il sera nécessaire d'enregistrer les modifications pour que le texte soit écrit physiquement dans le fichier, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, cliquez sur le bouton éditer le texte pour éditer un texte&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, si vous désirez supprimer un texte, celui ci sera définitvement supprimer (même du fichier physique)&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Pour filtrer les textes cliquer sur Rechercher dans les textes, une fenêtre vous permettant de créer un nouveau filtre va s'ouvrir,&lt;br /&gt;et vous devrez la fermer avoir de pouvoir faire toutes autres opérations&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, lorsque vous éditez un corpus, vous pouvez ajouter un texte dans le corpus, &lt;br /&gt;il sera nécessaire d'enregistrer les modifications pour que le texte soit écrit physiquement dans le fichier, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edition texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, cliquez sur le bouton éditer le texte pour éditer un texte&lt;br /&gt;&lt;b&gt;&lt;u&gt;Supprimer texte :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir cliquer sur un texte, si vous désirez supprimer un texte, celui ci sera définitvement supprimer (même du fichier physique)&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents","&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt;"," Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt; Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Para filtrar los textos haga clic en Buscar en los textos, se abrirá una ventana que le permite crear un nuevo filtro,","&lt;br /&gt;y usted tendrá que cerrarla tener que hacer cualquier otra operación","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición Corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, cuando edita un corpus, puede añadir un texto en el corpus, &lt;br /&gt;","será necesario registrar las modificaciones para que el texto se escriba físicamente en el fichero, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición de texto :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, haga clic en el botón Editar texto para editar un texto&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Suprímase el texto siguiente:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, si desea eliminar un texto, el texto será definitivamente eliminado (incluso desde el archivo físico)&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Para filtrar los textos haga clic en Buscar en los textos, se abrirá una ventana que le permite crear un nuevo filtro,&lt;br /&gt;y usted tendrá que cerrarla tener que hacer cualquier otra operación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición Corpus :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, cuando edita un corpus, puede añadir un texto en el corpus, &lt;br /&gt;será necesario registrar las modificaciones para que el texto se escriba físicamente en el fichero, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Edición de texto :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, haga clic en el botón Editar texto para editar un texto&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprímase el texto siguiente:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de hacer clic en un texto, si desea eliminar un texto, el texto será definitivamente eliminado (incluso desde el archivo físico)&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,","&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;","Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EEFCCB-FC57-4339-AF25-16DD78CC2039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7894155-7101-46A4-B227-DC41ED3B8FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="563">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -296,9 +296,6 @@
     <t>window.fixed.error.line.content.panel.line.error.label</t>
   </si>
   <si>
-    <t>Etiqueta errónea:</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.content.panel.line.fixed.label</t>
   </si>
   <si>
@@ -395,9 +392,6 @@
     <t>window.create.text.name.label</t>
   </si>
   <si>
-    <t>Nom du document:</t>
-  </si>
-  <si>
     <t>window.create.text.content.panel.title</t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Información del documento</t>
   </si>
   <si>
-    <t>Nombre del documento:</t>
-  </si>
-  <si>
     <t>window.create.text.title</t>
   </si>
   <si>
@@ -494,9 +485,6 @@
     <t>window.create.specific.context.panel.file.label</t>
   </si>
   <si>
-    <t>Nom du materiel:</t>
-  </si>
-  <si>
     <t>window.create.specific.details.panel.title</t>
   </si>
   <si>
@@ -539,9 +527,6 @@
     <t xml:space="preserve">Creación de las informaciones específicas </t>
   </si>
   <si>
-    <t>Nombre del material:</t>
-  </si>
-  <si>
     <t>Anterior</t>
   </si>
   <si>
@@ -1544,9 +1529,6 @@
     <t>Guardar las etiquetas corregidas</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubicación del error: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Emplacement de l'erreur : </t>
   </si>
   <si>
@@ -1734,6 +1716,27 @@
   </si>
   <si>
     <t>Vous allez supprimer un texte du document.\nCette action sera irréversible.\nVoulez vous continuer ?</t>
+  </si>
+  <si>
+    <t>Nom du document</t>
+  </si>
+  <si>
+    <t>Nom du materiel :</t>
+  </si>
+  <si>
+    <t>Nombre del material :</t>
+  </si>
+  <si>
+    <t>Nom du document :</t>
+  </si>
+  <si>
+    <t>Nombre del documento :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubicación del error : </t>
+  </si>
+  <si>
+    <t>Etiqueta errónea :</t>
   </si>
 </sst>
 </file>
@@ -23430,7 +23433,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23503,7 +23506,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -23517,7 +23520,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -23531,13 +23534,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23545,13 +23548,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23559,7 +23562,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -23573,7 +23576,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -23587,13 +23590,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23601,13 +23604,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D15" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23615,7 +23618,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -23629,13 +23632,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D17" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -23643,13 +23646,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -23657,13 +23660,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C19" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D19" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23683,10 +23686,10 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23756,7 +23759,7 @@
         <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23781,10 +23784,10 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D29" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23893,10 +23896,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D37" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23907,10 +23910,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D38" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23921,10 +23924,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23935,10 +23938,10 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D40" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23949,10 +23952,10 @@
         <v>67</v>
       </c>
       <c r="C41" t="s">
+        <v>481</v>
+      </c>
+      <c r="D41" t="s">
         <v>486</v>
-      </c>
-      <c r="D41" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23991,10 +23994,10 @@
         <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D44" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -24005,10 +24008,10 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D45" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -24016,13 +24019,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C46" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -24030,13 +24033,13 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -24044,13 +24047,13 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D48" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -24093,10 +24096,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24104,13 +24107,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24118,13 +24121,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24132,13 +24135,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24146,13 +24149,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24160,13 +24163,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24174,13 +24177,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24188,13 +24191,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24202,13 +24205,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24216,13 +24219,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D11" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24230,13 +24233,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24244,13 +24247,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24258,13 +24261,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24272,13 +24275,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -24321,10 +24324,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24332,13 +24335,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24346,13 +24349,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24360,13 +24363,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24374,13 +24377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24388,7 +24391,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24404,13 +24407,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24418,21 +24421,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24440,13 +24443,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24454,21 +24457,21 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D13" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -24476,13 +24479,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C16" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D16" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24490,21 +24493,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -24512,13 +24515,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24526,13 +24529,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -24573,10 +24576,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24584,13 +24587,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24598,13 +24601,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24612,13 +24615,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24626,13 +24629,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24640,7 +24643,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24656,13 +24659,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24670,13 +24673,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24684,13 +24687,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24698,13 +24701,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24712,13 +24715,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24726,13 +24729,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24740,13 +24743,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24754,13 +24757,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -24802,10 +24805,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24813,13 +24816,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24827,21 +24830,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24849,13 +24852,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24863,13 +24866,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24877,13 +24880,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24891,21 +24894,21 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24913,7 +24916,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24929,7 +24932,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24945,7 +24948,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24961,13 +24964,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24975,21 +24978,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D19" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -24997,13 +25000,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -25011,13 +25014,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -25058,10 +25061,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25069,13 +25072,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25083,13 +25086,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -25097,13 +25100,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D5" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -25111,13 +25114,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -25125,7 +25128,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;","Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;","Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;")</f>
@@ -25141,13 +25144,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -25155,13 +25158,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -25169,13 +25172,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -25234,10 +25237,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25245,13 +25248,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25259,13 +25262,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>440</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25298,7 +25301,7 @@
   <dimension ref="A1:A391"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A225" sqref="A1:A391"/>
+      <selection activeCell="A288" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25819,7 +25822,7 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE('Correction Edit texte'!B12,"=", 'Correction Edit texte'!C12),IF('Correction Edit texte'!C12&lt;&gt;"",'Correction Edit texte'!C12,""))</f>
-        <v>window.create.text.name.label=Nom du document:</v>
+        <v>window.create.text.name.label=Nom du document :</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -25963,7 +25966,7 @@
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B11,"=", 'Fenêtre spécifique'!C11),IF('Fenêtre spécifique'!C11&lt;&gt;"",'Fenêtre spécifique'!C11,""))</f>
-        <v>window.create.specific.context.panel.file.label=Nom du materiel:</v>
+        <v>window.create.specific.context.panel.file.label=Nom du materiel :</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -26347,7 +26350,7 @@
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B5,"=", 'Fenetre Corpus'!C5),IF('Fenetre Corpus'!C5&lt;&gt;"",'Fenetre Corpus'!C5,""))</f>
-        <v>window.create.corpus.name.label=Nom du document:</v>
+        <v>window.create.corpus.name.label=Nom du document</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
@@ -27662,7 +27665,7 @@
   <dimension ref="A1:A390"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:A390"/>
+      <selection activeCell="A11" sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28027,7 +28030,7 @@
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f>IF('Fenêtre erreur ligne'!B5&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B5,"=", 'Fenêtre erreur ligne'!D5),IF('Fenêtre erreur ligne'!D5&lt;&gt;"",'Fenêtre erreur ligne'!D5,""))</f>
-        <v>window.fixed.error.line.content.panel.line.error.label=Etiqueta errónea:</v>
+        <v>window.fixed.error.line.content.panel.line.error.label=Etiqueta errónea :</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -28063,7 +28066,7 @@
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
         <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B11,"=", 'Fenêtre erreur ligne'!D11),IF('Fenêtre erreur ligne'!D11&lt;&gt;"",'Fenêtre erreur ligne'!D11,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Ubicación del error: </v>
+        <v xml:space="preserve">window.fixed.error.line.content.panel.line.file.label=Ubicación del error : </v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
@@ -28183,7 +28186,7 @@
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE('Correction Edit texte'!B12,"=", 'Correction Edit texte'!D12),IF('Correction Edit texte'!D12&lt;&gt;"",'Correction Edit texte'!D12,""))</f>
-        <v>window.create.text.name.label=Nombre del documento:</v>
+        <v>window.create.text.name.label=Nombre del documento :</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -28327,7 +28330,7 @@
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B11,"=", 'Fenêtre spécifique'!D11),IF('Fenêtre spécifique'!D11&lt;&gt;"",'Fenêtre spécifique'!D11,""))</f>
-        <v>window.create.specific.context.panel.file.label=Nombre del material:</v>
+        <v>window.create.specific.context.panel.file.label=Nombre del material :</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
@@ -32354,7 +32357,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32394,10 +32397,10 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32408,7 +32411,7 @@
         <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
         <v>80</v>
@@ -32422,10 +32425,10 @@
         <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32433,13 +32436,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32447,13 +32450,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32461,13 +32464,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -32475,13 +32478,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32489,13 +32492,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32503,13 +32506,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -32525,8 +32528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56DE331-9367-41C8-8048-603F1BE40CC9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32552,7 +32555,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>77</v>
@@ -32563,13 +32566,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32577,13 +32580,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32591,13 +32594,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32605,13 +32608,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32619,13 +32622,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32634,10 +32637,10 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32645,13 +32648,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32659,13 +32662,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
         <v>112</v>
       </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32673,21 +32676,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>559</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -32695,13 +32698,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D15" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -32709,13 +32712,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D16" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -32723,21 +32726,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -32745,13 +32748,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -32759,13 +32762,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -32781,8 +32784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32808,7 +32811,7 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>77</v>
@@ -32819,13 +32822,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32834,10 +32837,10 @@
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32845,13 +32848,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32860,10 +32863,10 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32871,13 +32874,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32885,13 +32888,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32899,13 +32902,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>557</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32913,13 +32916,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32927,13 +32930,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32941,13 +32944,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32955,13 +32958,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32969,13 +32972,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32983,13 +32986,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32997,13 +33000,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33011,13 +33014,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33025,10 +33028,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -33036,13 +33039,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33050,7 +33053,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;")</f>
@@ -33066,13 +33069,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" t="s">
         <v>176</v>
-      </c>
-      <c r="C24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -33080,7 +33083,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
@@ -33150,10 +33153,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33161,13 +33164,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33175,13 +33178,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33189,13 +33192,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33203,13 +33206,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33217,13 +33220,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33231,13 +33234,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33245,13 +33248,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33259,13 +33262,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33273,13 +33276,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33287,13 +33290,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33301,13 +33304,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -33353,10 +33356,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33364,13 +33367,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -33387,7 +33390,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33415,10 +33418,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33426,13 +33429,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33440,13 +33443,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33454,13 +33457,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>115</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33468,13 +33471,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33482,13 +33485,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33496,13 +33499,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33510,13 +33513,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D9" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33524,13 +33527,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33538,13 +33541,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33552,13 +33555,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33566,13 +33569,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -33615,10 +33618,10 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33626,13 +33629,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33640,13 +33643,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33654,13 +33657,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33668,13 +33671,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33682,13 +33685,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33710,7 +33713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59160BD-885A-4DEA-9FEE-62F72A09FE0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -33737,10 +33740,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33748,13 +33751,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D3" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33762,13 +33765,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33776,13 +33779,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33790,13 +33793,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33804,13 +33807,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33818,13 +33821,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33832,13 +33835,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33846,13 +33849,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33860,13 +33863,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D11" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33874,13 +33877,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33888,13 +33891,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D13" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33902,13 +33905,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33916,13 +33919,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -33930,13 +33933,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D16" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33944,13 +33947,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33958,7 +33961,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents","&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt;"," Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;")</f>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7894155-7101-46A4-B227-DC41ED3B8FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96846C89-B743-4FE8-B02A-9A5E7B98D02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Documents</t>
   </si>
   <si>
-    <t>Charger les documents</t>
-  </si>
-  <si>
     <t>Sortir</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>Documentos</t>
   </si>
   <si>
-    <t>Cargar los documentos .txt</t>
-  </si>
-  <si>
     <t>Salir</t>
   </si>
   <si>
@@ -785,9 +779,6 @@
     <t>window.manage.filters.global.panel.title</t>
   </si>
   <si>
-    <t>Gestion du filtrage des corpus</t>
-  </si>
-  <si>
     <t>window.manage.filters.panel.title</t>
   </si>
   <si>
@@ -830,9 +821,6 @@
     <t>Supprimer le filtre sélectionné</t>
   </si>
   <si>
-    <t>Gestión de filtrado de corpus</t>
-  </si>
-  <si>
     <t>Agregar filtro</t>
   </si>
   <si>
@@ -1403,9 +1391,6 @@
     <t>Consultar/Editar los materiales</t>
   </si>
   <si>
-    <t>Créer des matériels</t>
-  </si>
-  <si>
     <t>Crear materiales</t>
   </si>
   <si>
@@ -1439,9 +1424,6 @@
     <t>Configuración de la biblioteca: NO EXISTE AUN</t>
   </si>
   <si>
-    <t xml:space="preserve">Encabezados con etiquetas vacías : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Materiales con etiquetas vacías : </t>
   </si>
   <si>
@@ -1454,18 +1436,6 @@
     <t>Nouvelle bibliothèque</t>
   </si>
   <si>
-    <t>Gestión de materiales</t>
-  </si>
-  <si>
-    <t>Gestion de matériels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar la configuración </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer la configuration </t>
-  </si>
-  <si>
     <t>Guardar Excel personalizado</t>
   </si>
   <si>
@@ -1484,33 +1454,6 @@
     <t>Etiquetas no cumplimentadas</t>
   </si>
   <si>
-    <t xml:space="preserve">En-tête avec des balises vides : </t>
-  </si>
-  <si>
-    <t>Repertoire de ma bibliothèque :</t>
-  </si>
-  <si>
-    <t>Directorio de mi biblioteca :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Éditer les en-têtes </t>
-  </si>
-  <si>
-    <t>Editar etiquetas de materiales</t>
-  </si>
-  <si>
-    <t>Éditer balises des matériels</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Bibliothèque Caerus "library"</t>
-  </si>
-  <si>
-    <t>Biblioteca Caerus "library"</t>
-  </si>
-  <si>
-    <t>Editar las cabeceras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Correction des balises </t>
   </si>
   <si>
@@ -1640,12 +1583,6 @@
     <t>Tous les documents de la bibliothèque</t>
   </si>
   <si>
-    <t>La integralidad del contenido coincide con</t>
-  </si>
-  <si>
-    <t>L’intégralité du contenu coïncide avec</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplicar en el apartado : </t>
   </si>
   <si>
@@ -1737,6 +1674,69 @@
   </si>
   <si>
     <t>Etiqueta errónea :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion du filtrage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestión de filtrado </t>
+  </si>
+  <si>
+    <t>Contenido integral</t>
+  </si>
+  <si>
+    <t>Contenu intégral</t>
+  </si>
+  <si>
+    <t>Editar materiales</t>
+  </si>
+  <si>
+    <t>Repertoire de la bibliothèque Caerus :</t>
+  </si>
+  <si>
+    <t>Directorio de la biblioteca Caerus :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biblioteca Caerus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bibliothèque Caerus </t>
+  </si>
+  <si>
+    <t>Éditer matériels</t>
+  </si>
+  <si>
+    <t>Créer matériels</t>
+  </si>
+  <si>
+    <t>Cargar documentos .txt</t>
+  </si>
+  <si>
+    <t>Charger documents .txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar configuración </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer configuration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documents avec des balises vides : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentos con etiquetas vacías : </t>
+  </si>
+  <si>
+    <t>Éditer les documents</t>
+  </si>
+  <si>
+    <t>Editar los documentos</t>
+  </si>
+  <si>
+    <t>Editar los materiales</t>
+  </si>
+  <si>
+    <t>Éditer les matériels</t>
   </si>
 </sst>
 </file>
@@ -4907,7 +4907,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11887200" y="4686300"/>
+          <a:off x="12430125" y="4686300"/>
           <a:ext cx="3676190" cy="5561905"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -23433,7 +23433,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23446,16 +23446,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -23495,10 +23495,10 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -23506,13 +23506,13 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -23520,13 +23520,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>554</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23534,13 +23534,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23548,13 +23548,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23562,13 +23562,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -23576,13 +23576,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -23590,13 +23590,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C14" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -23604,13 +23604,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>471</v>
+        <v>556</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23618,13 +23618,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -23632,13 +23632,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -23646,13 +23646,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>451</v>
+        <v>552</v>
       </c>
       <c r="D18" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -23660,13 +23660,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>469</v>
+        <v>551</v>
       </c>
       <c r="D19" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23675,7 +23675,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -23683,13 +23683,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="D22" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23697,13 +23697,13 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -23711,13 +23711,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -23725,13 +23725,13 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
         <v>18</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -23739,13 +23739,13 @@
         <v>18</v>
       </c>
       <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -23753,13 +23753,13 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -23767,13 +23767,13 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -23781,13 +23781,13 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D29" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -23795,13 +23795,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -23809,13 +23809,13 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -23823,13 +23823,13 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -23837,13 +23837,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -23851,13 +23851,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -23865,13 +23865,13 @@
         <v>27</v>
       </c>
       <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>36</v>
-      </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -23879,13 +23879,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -23893,13 +23893,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -23907,13 +23907,13 @@
         <v>30</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D38" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -23921,13 +23921,13 @@
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="D39" t="s">
-        <v>482</v>
+        <v>561</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23935,13 +23935,13 @@
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="D40" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -23949,13 +23949,13 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>481</v>
+        <v>559</v>
       </c>
       <c r="D41" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -23963,13 +23963,13 @@
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -23977,13 +23977,13 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -23991,13 +23991,13 @@
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D44" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -24005,13 +24005,13 @@
         <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="D45" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -24019,13 +24019,13 @@
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C46" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D46" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -24033,13 +24033,13 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -24047,13 +24047,13 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D48" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -24070,8 +24070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870B81E7-C827-40EF-A3A3-030244BFE705}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24082,24 +24082,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24107,13 +24107,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24121,13 +24121,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24135,13 +24135,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>542</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24149,13 +24149,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24163,13 +24163,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24177,13 +24177,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24191,13 +24191,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24205,13 +24205,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24219,13 +24219,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24233,13 +24233,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24247,13 +24247,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24261,13 +24261,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D14" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24275,13 +24275,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
         <v>258</v>
-      </c>
-      <c r="C15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -24310,24 +24310,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24335,13 +24335,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24349,13 +24349,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24363,13 +24363,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24377,13 +24377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24391,7 +24391,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24407,13 +24407,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24421,21 +24421,21 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="D9" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24443,13 +24443,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24457,21 +24457,21 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="D13" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -24479,13 +24479,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24493,21 +24493,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -24515,13 +24515,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24529,13 +24529,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -24562,24 +24562,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -24587,13 +24587,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24601,13 +24601,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24615,13 +24615,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24629,13 +24629,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24643,7 +24643,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24659,13 +24659,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24673,13 +24673,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24687,13 +24687,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24701,13 +24701,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24715,13 +24715,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24729,13 +24729,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -24743,13 +24743,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24757,13 +24757,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -24791,24 +24791,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24816,13 +24816,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24830,21 +24830,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24852,13 +24852,13 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24866,13 +24866,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24880,13 +24880,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -24894,21 +24894,21 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -24916,7 +24916,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C13" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24932,7 +24932,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24948,7 +24948,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;"</f>
@@ -24964,13 +24964,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24978,21 +24978,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D17" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D19" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -25000,13 +25000,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D20" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -25014,13 +25014,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -25036,7 +25036,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25047,24 +25047,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25072,13 +25072,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25086,13 +25086,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -25100,13 +25100,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -25114,13 +25114,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -25128,15 +25128,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;","Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;","Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des matériels textuels créés.&lt;br/&gt;","Vous pouvez modifier la configuration des matériels et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;","Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des matériels textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des matériels et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;","Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;","Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente el  interfaz en función de los materiales textuales creados.&lt;br/&gt;","Puede modificar la configuración de los materiales y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;","Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente el  interfaz en función de los materiales textuales creados.&lt;br/&gt;Puede modificar la configuración de los materiales y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -25144,13 +25144,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -25158,13 +25158,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -25172,13 +25172,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -25223,24 +25223,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -25248,13 +25248,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25262,13 +25262,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25301,7 +25301,7 @@
   <dimension ref="A1:A391"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A288" sqref="A1:A391"/>
+      <selection activeCell="A286" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25354,7 +25354,7 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('Fenêtre principal'!B9&lt;&gt;"",CONCATENATE('Fenêtre principal'!B9,"=", 'Fenêtre principal'!C9),IF('Fenêtre principal'!C9&lt;&gt;"",'Fenêtre principal'!C9,""))</f>
-        <v>window.menu.level1.sublevel1.title=Charger les documents</v>
+        <v>window.menu.level1.sublevel1.title=Charger documents .txt</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -25390,7 +25390,7 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!C15),IF('Fenêtre principal'!C15&lt;&gt;"",'Fenêtre principal'!C15,""))</f>
-        <v xml:space="preserve">window.menu.level3.sublevel1.title=Changer la configuration </v>
+        <v xml:space="preserve">window.menu.level3.sublevel1.title=Changer configuration </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -25408,13 +25408,13 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE('Fenêtre principal'!B18,"=", 'Fenêtre principal'!C18),IF('Fenêtre principal'!C18&lt;&gt;"",'Fenêtre principal'!C18,""))</f>
-        <v>window.menu.level5.sublevel2.title=Créer des matériels</v>
+        <v>window.menu.level5.sublevel2.title=Créer matériels</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE('Fenêtre principal'!B19,"=", 'Fenêtre principal'!C19),IF('Fenêtre principal'!C19&lt;&gt;"",'Fenêtre principal'!C19,""))</f>
-        <v>window.menu.level5.sublevel3.title=Gestion de matériels</v>
+        <v>window.menu.level5.sublevel3.title=Éditer matériels</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -25432,7 +25432,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE('Fenêtre principal'!B22,"=", 'Fenêtre principal'!C22),IF('Fenêtre principal'!C22&lt;&gt;"",'Fenêtre principal'!C22,""))</f>
-        <v>window.main.configuration.library.panel.state.label=Repertoire de ma bibliothèque :</v>
+        <v>window.main.configuration.library.panel.state.label=Repertoire de la bibliothèque Caerus :</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -25534,19 +25534,19 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE('Fenêtre principal'!B39,"=", 'Fenêtre principal'!C39),IF('Fenêtre principal'!C39&lt;&gt;"",'Fenêtre principal'!C39,""))</f>
-        <v>window.main.blank.line.error.fixed.button.label=Éditer balises des matériels</v>
+        <v>window.main.blank.line.error.fixed.button.label=Éditer les matériels</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE('Fenêtre principal'!B40,"=", 'Fenêtre principal'!C40),IF('Fenêtre principal'!C40&lt;&gt;"",'Fenêtre principal'!C40,""))</f>
-        <v xml:space="preserve">window.main.meta.blank.line.error.label=En-tête avec des balises vides : </v>
+        <v xml:space="preserve">window.main.meta.blank.line.error.label=Documents avec des balises vides : </v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE('Fenêtre principal'!B41,"=", 'Fenêtre principal'!C41),IF('Fenêtre principal'!C41&lt;&gt;"",'Fenêtre principal'!C41,""))</f>
-        <v xml:space="preserve">window.main.meta.blank.line.error.fixed.button.label=Éditer les en-têtes </v>
+        <v>window.main.meta.blank.line.error.fixed.button.label=Éditer les documents</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -25570,7 +25570,7 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE('Fenêtre principal'!B45,"=", 'Fenêtre principal'!C45),IF('Fenêtre principal'!C45&lt;&gt;"",'Fenêtre principal'!C45,""))</f>
-        <v>window.move.file.library.button.label= Bibliothèque Caerus "library"</v>
+        <v xml:space="preserve">window.move.file.library.button.label= Bibliothèque Caerus </v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -26734,13 +26734,13 @@
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!C4),IF('Fenetre filtre texte'!C4&lt;&gt;"",'Fenetre filtre texte'!C4,""))</f>
-        <v>window.filter.type.EQUAL=L’intégralité du contenu coïncide avec</v>
+        <v>window.filter.type.EQUAL=Contenu intégral</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B5,"=", 'Fenetre filtre texte'!C5),IF('Fenetre filtre texte'!C5&lt;&gt;"",'Fenetre filtre texte'!C5,""))</f>
-        <v>window.manage.filters.global.panel.title=Gestion du filtrage des corpus</v>
+        <v xml:space="preserve">window.manage.filters.global.panel.title=Gestion du filtrage </v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -27418,7 +27418,7 @@
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
-        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des corpus textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des corpus et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des matériels textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des matériels et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
@@ -27665,7 +27665,7 @@
   <dimension ref="A1:A390"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:A390"/>
+      <selection sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27718,7 +27718,7 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>IF('Fenêtre principal'!B9&lt;&gt;"",CONCATENATE('Fenêtre principal'!B9,"=", 'Fenêtre principal'!D9),IF('Fenêtre principal'!D9&lt;&gt;"",'Fenêtre principal'!D9,""))</f>
-        <v>window.menu.level1.sublevel1.title=Cargar los documentos .txt</v>
+        <v>window.menu.level1.sublevel1.title=Cargar documentos .txt</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -27754,7 +27754,7 @@
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE('Fenêtre principal'!B15,"=", 'Fenêtre principal'!D15),IF('Fenêtre principal'!D15&lt;&gt;"",'Fenêtre principal'!D15,""))</f>
-        <v xml:space="preserve">window.menu.level3.sublevel1.title=Cambiar la configuración </v>
+        <v xml:space="preserve">window.menu.level3.sublevel1.title=Cambiar configuración </v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -27778,7 +27778,7 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE('Fenêtre principal'!B19,"=", 'Fenêtre principal'!D19),IF('Fenêtre principal'!D19&lt;&gt;"",'Fenêtre principal'!D19,""))</f>
-        <v>window.menu.level5.sublevel3.title=Gestión de materiales</v>
+        <v>window.menu.level5.sublevel3.title=Editar materiales</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -27796,7 +27796,7 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE('Fenêtre principal'!B22,"=", 'Fenêtre principal'!D22),IF('Fenêtre principal'!D22&lt;&gt;"",'Fenêtre principal'!D22,""))</f>
-        <v>window.main.configuration.library.panel.state.label=Directorio de mi biblioteca :</v>
+        <v>window.main.configuration.library.panel.state.label=Directorio de la biblioteca Caerus :</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -27898,19 +27898,19 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE('Fenêtre principal'!B39,"=", 'Fenêtre principal'!D39),IF('Fenêtre principal'!D39&lt;&gt;"",'Fenêtre principal'!D39,""))</f>
-        <v>window.main.blank.line.error.fixed.button.label=Editar etiquetas de materiales</v>
+        <v>window.main.blank.line.error.fixed.button.label=Editar los materiales</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE('Fenêtre principal'!B40,"=", 'Fenêtre principal'!D40),IF('Fenêtre principal'!D40&lt;&gt;"",'Fenêtre principal'!D40,""))</f>
-        <v xml:space="preserve">window.main.meta.blank.line.error.label=Encabezados con etiquetas vacías : </v>
+        <v xml:space="preserve">window.main.meta.blank.line.error.label=Documentos con etiquetas vacías : </v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE('Fenêtre principal'!B41,"=", 'Fenêtre principal'!D41),IF('Fenêtre principal'!D41&lt;&gt;"",'Fenêtre principal'!D41,""))</f>
-        <v>window.main.meta.blank.line.error.fixed.button.label=Editar las cabeceras</v>
+        <v>window.main.meta.blank.line.error.fixed.button.label=Editar los documentos</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -27934,7 +27934,7 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE('Fenêtre principal'!B45,"=", 'Fenêtre principal'!D45),IF('Fenêtre principal'!D45&lt;&gt;"",'Fenêtre principal'!D45,""))</f>
-        <v>window.move.file.library.button.label=Biblioteca Caerus "library"</v>
+        <v xml:space="preserve">window.move.file.library.button.label=Biblioteca Caerus </v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -29098,13 +29098,13 @@
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!D4),IF('Fenetre filtre texte'!D4&lt;&gt;"",'Fenetre filtre texte'!D4,""))</f>
-        <v>window.filter.type.EQUAL=La integralidad del contenido coincide con</v>
+        <v>window.filter.type.EQUAL=Contenido integral</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B5,"=", 'Fenetre filtre texte'!D5),IF('Fenetre filtre texte'!D5&lt;&gt;"",'Fenetre filtre texte'!D5,""))</f>
-        <v>window.manage.filters.global.panel.title=Gestión de filtrado de corpus</v>
+        <v xml:space="preserve">window.manage.filters.global.panel.title=Gestión de filtrado </v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -29788,7 +29788,7 @@
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!D7),IF('Changer Configuration'!D7&lt;&gt;"",'Changer Configuration'!D7,""))</f>
-        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente la  interfaz en función de los corpus textuales creados.&lt;br/&gt;Puede modificar la configuración de los corpus y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente el  interfaz en función de los materiales textuales creados.&lt;br/&gt;Puede modificar la configuración de los materiales y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -32367,26 +32367,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32394,13 +32394,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32408,13 +32408,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32422,13 +32422,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32436,13 +32436,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32450,13 +32450,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32464,13 +32464,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -32478,13 +32478,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32492,13 +32492,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32506,13 +32506,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D11" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -32528,7 +32528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56DE331-9367-41C8-8048-603F1BE40CC9}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -32539,26 +32539,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -32566,13 +32566,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32580,13 +32580,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -32594,13 +32594,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32608,13 +32608,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32622,13 +32622,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -32637,10 +32637,10 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32648,13 +32648,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -32662,13 +32662,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32676,21 +32676,21 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D12" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -32698,13 +32698,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -32712,13 +32712,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -32726,21 +32726,21 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D19" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -32748,13 +32748,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -32762,13 +32762,13 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -32784,7 +32784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B29" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -32795,26 +32795,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32822,13 +32822,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32837,10 +32837,10 @@
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32848,13 +32848,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32863,10 +32863,10 @@
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32874,13 +32874,13 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32888,13 +32888,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32902,13 +32902,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="D11" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32916,13 +32916,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32930,13 +32930,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32944,13 +32944,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32958,13 +32958,13 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32972,13 +32972,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -32986,13 +32986,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33000,13 +33000,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33014,13 +33014,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
         <v>165</v>
-      </c>
-      <c r="C19" t="s">
-        <v>166</v>
-      </c>
-      <c r="D19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33028,10 +33028,10 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -33039,13 +33039,13 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="216.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -33053,7 +33053,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur"," Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :","&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information ","de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;","Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;")</f>
@@ -33069,13 +33069,13 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
         <v>174</v>
-      </c>
-      <c r="D24" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -33083,7 +33083,7 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>"&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;"</f>
@@ -33137,26 +33137,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33164,13 +33164,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33178,13 +33178,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33192,13 +33192,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33206,13 +33206,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33220,13 +33220,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33234,13 +33234,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33248,13 +33248,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33262,13 +33262,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33276,13 +33276,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33290,13 +33290,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33304,13 +33304,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -33340,26 +33340,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33367,13 +33367,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -33402,26 +33402,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33429,13 +33429,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33443,13 +33443,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33457,13 +33457,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33471,13 +33471,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33485,13 +33485,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33499,13 +33499,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33513,13 +33513,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="D9" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33527,13 +33527,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33541,13 +33541,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33555,13 +33555,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33569,13 +33569,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -33602,26 +33602,26 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33629,13 +33629,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33643,13 +33643,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33657,13 +33657,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33671,13 +33671,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33685,13 +33685,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33713,7 +33713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59160BD-885A-4DEA-9FEE-62F72A09FE0A}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -33726,24 +33726,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -33751,13 +33751,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="D3" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33765,13 +33765,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D4" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -33779,13 +33779,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D5" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33793,13 +33793,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33807,13 +33807,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -33821,13 +33821,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33835,13 +33835,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33849,13 +33849,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="D10" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33863,13 +33863,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="D11" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -33877,13 +33877,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="D12" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33891,13 +33891,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33905,13 +33905,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -33919,13 +33919,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -33933,13 +33933,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D16" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33947,13 +33947,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33961,7 +33961,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C18" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents","&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt;"," Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;")</f>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96846C89-B743-4FE8-B02A-9A5E7B98D02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27134F94-BA8B-4ED5-8B14-2BB6645BFE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="579">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -1737,6 +1737,54 @@
   </si>
   <si>
     <t>Éditer les matériels</t>
+  </si>
+  <si>
+    <t>window.load.texts.start.panel.title</t>
+  </si>
+  <si>
+    <t>window.load.texts.informations.panel.title</t>
+  </si>
+  <si>
+    <t>window.load.texts.informations.message</t>
+  </si>
+  <si>
+    <t>window.load.texts.warning.panel.title</t>
+  </si>
+  <si>
+    <t>window.load.texts.warning.message</t>
+  </si>
+  <si>
+    <t>Informations</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Se cargarán los siguientes archivos : &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>Informaciones</t>
+  </si>
+  <si>
+    <t>Impossible de charger les documents</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Les fichiers ne peuvent pas être chargés.&lt;BR /&gt;Des fichiers qui ne sont pas au format .txt ont été détectés.&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Los archivos no se pueden cargar.&lt;BR /&gt;Se han detectado archivos que no tienen el formato . txt.&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>No se pudo cargar los documentos</t>
+  </si>
+  <si>
+    <t>window.load.texts.informations.message.default</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Sélectionnez un dossier avec le bouton Ouvrir&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Seleccione una carpeta con el botón Abrir&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Les fichiers suivants vont être chargés :  &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1854,6 +1902,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17524,7 +17578,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142498</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18560,16 +18614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18584,8 +18638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11572875" y="3314700"/>
-          <a:ext cx="390525" cy="257175"/>
+          <a:off x="11696700" y="3343275"/>
+          <a:ext cx="390525" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18631,15 +18685,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>414338</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18656,8 +18710,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11963400" y="3400426"/>
-          <a:ext cx="695325" cy="42862"/>
+          <a:off x="12087225" y="3429001"/>
+          <a:ext cx="695325" cy="423862"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18686,15 +18740,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2181225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>370856</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>37674</xdr:rowOff>
+      <xdr:colOff>361331</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180549</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18717,7 +18771,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6324600" y="2924175"/>
+          <a:off x="6315075" y="4400550"/>
           <a:ext cx="4952381" cy="3409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18730,15 +18784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18753,7 +18807,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5524500" y="2962275"/>
+          <a:off x="5514975" y="4438650"/>
           <a:ext cx="390525" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18800,15 +18854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2466975</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18825,7 +18879,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5915025" y="3048001"/>
+          <a:off x="5905500" y="4524376"/>
           <a:ext cx="695325" cy="42862"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -23069,8 +23123,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EBF64311-7537-42EE-8E54-E84D0BF4D4AE}" name="Tableau5" displayName="Tableau5" ref="A1:D13" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="A1:D13" xr:uid="{41D717A8-3858-4753-BC64-5539E3609195}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EBF64311-7537-42EE-8E54-E84D0BF4D4AE}" name="Tableau5" displayName="Tableau5" ref="A1:D19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+  <autoFilter ref="A1:D19" xr:uid="{41D717A8-3858-4753-BC64-5539E3609195}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D48463A3-F25C-4F92-A0EB-AE7A06E3CCAE}" name="Numero" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{7BC87355-4EBC-49E3-918B-5DDC49F9416D}" name="Code" dataDxfId="21"/>
@@ -23432,8 +23486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25301,7 +25355,7 @@
   <dimension ref="A1:A391"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A286" sqref="A1:A391"/>
+      <selection activeCell="A289" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26200,37 +26254,37 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B14,"=", 'Fenêtre Chargement document'!C14),IF('Fenêtre Chargement document'!C14&lt;&gt;"",'Fenêtre Chargement document'!C14,""))</f>
-        <v/>
+        <v>window.load.texts.start.panel.title=Actions</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B15,"=", 'Fenêtre Chargement document'!C15),IF('Fenêtre Chargement document'!C15&lt;&gt;"",'Fenêtre Chargement document'!C15,""))</f>
-        <v/>
+        <v>window.load.texts.informations.panel.title=Informations</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B16,"=", 'Fenêtre Chargement document'!C16),IF('Fenêtre Chargement document'!C16&lt;&gt;"",'Fenêtre Chargement document'!C16,""))</f>
-        <v/>
+        <v>window.load.texts.informations.message=&lt;HTML&gt;&lt;P&gt;Les fichiers suivants vont être chargés :  &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B17,"=", 'Fenêtre Chargement document'!C17),IF('Fenêtre Chargement document'!C17&lt;&gt;"",'Fenêtre Chargement document'!C17,""))</f>
-        <v/>
+        <v>window.load.texts.warning.panel.title=Impossible de charger les documents</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B18,"=", 'Fenêtre Chargement document'!C18),IF('Fenêtre Chargement document'!C18&lt;&gt;"",'Fenêtre Chargement document'!C18,""))</f>
-        <v/>
+        <v>window.load.texts.warning.message=&lt;HTML&gt;&lt;P&gt;Les fichiers ne peuvent pas être chargés.&lt;BR /&gt;Des fichiers qui ne sont pas au format .txt ont été détectés.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B19,"=", 'Fenêtre Chargement document'!C19),IF('Fenêtre Chargement document'!C19&lt;&gt;"",'Fenêtre Chargement document'!C19,""))</f>
-        <v/>
+        <v>window.load.texts.informations.message.default=&lt;HTML&gt;&lt;P&gt;Sélectionnez un dossier avec le bouton Ouvrir&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -28564,37 +28618,37 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B14,"=", 'Fenêtre Chargement document'!D14),IF('Fenêtre Chargement document'!D14&lt;&gt;"",'Fenêtre Chargement document'!D14,""))</f>
-        <v/>
+        <v>window.load.texts.start.panel.title=Acciones</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B15,"=", 'Fenêtre Chargement document'!D15),IF('Fenêtre Chargement document'!D15&lt;&gt;"",'Fenêtre Chargement document'!D15,""))</f>
-        <v/>
+        <v>window.load.texts.informations.panel.title=Informaciones</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B16,"=", 'Fenêtre Chargement document'!D16),IF('Fenêtre Chargement document'!D16&lt;&gt;"",'Fenêtre Chargement document'!D16,""))</f>
-        <v/>
+        <v>window.load.texts.informations.message=&lt;HTML&gt;&lt;P&gt;Se cargarán los siguientes archivos : &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B17,"=", 'Fenêtre Chargement document'!D17),IF('Fenêtre Chargement document'!D17&lt;&gt;"",'Fenêtre Chargement document'!D17,""))</f>
-        <v/>
+        <v>window.load.texts.warning.panel.title=No se pudo cargar los documentos</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B18,"=", 'Fenêtre Chargement document'!D18),IF('Fenêtre Chargement document'!D18&lt;&gt;"",'Fenêtre Chargement document'!D18,""))</f>
-        <v/>
+        <v>window.load.texts.warning.message=&lt;HTML&gt;&lt;P&gt;Los archivos no se pueden cargar.&lt;BR /&gt;Se han detectado archivos que no tienen el formato . txt.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B19,"=", 'Fenêtre Chargement document'!D19),IF('Fenêtre Chargement document'!D19&lt;&gt;"",'Fenêtre Chargement document'!D19,""))</f>
-        <v/>
+        <v>window.load.texts.informations.message.default=&lt;HTML&gt;&lt;P&gt;Seleccione una carpeta con el botón Abrir&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -30022,8 +30076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A386"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30922,37 +30976,37 @@
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B14),".","_"),"=""", 'Fenêtre Chargement document'!B14,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_START_PANEL_TITLE="window.load.texts.start.panel.title";</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B15),".","_"),"=""", 'Fenêtre Chargement document'!B15,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_PANEL_TITLE="window.load.texts.informations.panel.title";</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B16),".","_"),"=""", 'Fenêtre Chargement document'!B16,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE="window.load.texts.informations.message";</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B17),".","_"),"=""", 'Fenêtre Chargement document'!B17,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_PANEL_TITLE="window.load.texts.warning.panel.title";</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B18),".","_"),"=""", 'Fenêtre Chargement document'!B18,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_MESSAGE="window.load.texts.warning.message";</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B19),".","_"),"=""", 'Fenêtre Chargement document'!B19,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE_DEFAULT="window.load.texts.informations.message.default";</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -32784,7 +32838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
+    <sheetView topLeftCell="B16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -33124,10 +33178,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F50E13-E608-4097-A6DA-288DD69EAB08}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33311,6 +33365,90 @@
       </c>
       <c r="D13" s="11" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -33390,7 +33528,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27134F94-BA8B-4ED5-8B14-2BB6645BFE1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AEBAB-7EDA-4BAC-9A85-3C1D6EA6CFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView minimized="1" xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385" firstSheet="12" activeTab="15" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="599">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -1460,12 +1460,6 @@
     <t xml:space="preserve">Corrección de etiquetas </t>
   </si>
   <si>
-    <t>Corriger la balise :</t>
-  </si>
-  <si>
-    <t>Corregir la etiqueta:</t>
-  </si>
-  <si>
     <t>Enregistrer les balises corrigés</t>
   </si>
   <si>
@@ -1785,6 +1779,72 @@
   </si>
   <si>
     <t>&lt;HTML&gt;&lt;P&gt;Les fichiers suivants vont être chargés :  &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.panel.title</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.list.field.label</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.list.field.panel.title</t>
+  </si>
+  <si>
+    <t>Informaciónes</t>
+  </si>
+  <si>
+    <t>Liste des balises</t>
+  </si>
+  <si>
+    <t>Correction de la balise et du contenu textuelle</t>
+  </si>
+  <si>
+    <t>Lista de etiquetas</t>
+  </si>
+  <si>
+    <t>Corrección de etiqueta y contenido de texto</t>
+  </si>
+  <si>
+    <t>Balise corrigé :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiquetas corregida : </t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Pour corriger la ligne, vous devez effectuer les actions suivantes : &lt;OL&gt;&lt;LI&gt;Sélectionnez la balise dans la liste&lt;/LI&gt;&lt;LI&gt;Renseignez le champ texte avec le contenu textuelle de la balise&lt;/LI&gt;&lt;LI&gt;Vérifiez la balise corrigé&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Para corregir la línea, debe realizar las siguientes acciones : &lt;OL&gt;&lt;LI&gt;Seleccione la etiqueta de la lista&lt;/LI&gt;&lt;LI&gt;Rellene el campo de texto con el contenido de texto de la etiqueta&lt;/LI&gt;&lt;LI&gt;Compruebe la etiqueta corregida&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>window.load.texts.choose.search.panel.title</t>
+  </si>
+  <si>
+    <t>Options de chargement</t>
+  </si>
+  <si>
+    <t>window.load.texts.choose.search.label</t>
+  </si>
+  <si>
+    <t>Charger les documents dans les sous dossiers</t>
+  </si>
+  <si>
+    <t>Opciones de carga</t>
+  </si>
+  <si>
+    <t>Cargar documentos en subcarpetas</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.fixed.user.default.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En attente de sélection de la balise : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pendiente de selección de la etiqueta : </t>
   </si>
 </sst>
 </file>
@@ -12994,8 +13054,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304255</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>94981</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>856981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13621,6 +13681,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="17" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -23084,8 +23145,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D11" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A1:D11" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A1:D17" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5D46B975-1F69-4858-84DB-7E13C30C8025}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{9BDFB138-7114-4831-825F-D54624C7F460}" name="Code"/>
@@ -23123,8 +23184,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EBF64311-7537-42EE-8E54-E84D0BF4D4AE}" name="Tableau5" displayName="Tableau5" ref="A1:D19" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
-  <autoFilter ref="A1:D19" xr:uid="{41D717A8-3858-4753-BC64-5539E3609195}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EBF64311-7537-42EE-8E54-E84D0BF4D4AE}" name="Tableau5" displayName="Tableau5" ref="A1:D21" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23">
+  <autoFilter ref="A1:D21" xr:uid="{41D717A8-3858-4753-BC64-5539E3609195}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D48463A3-F25C-4F92-A0EB-AE7A06E3CCAE}" name="Numero" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{7BC87355-4EBC-49E3-918B-5DDC49F9416D}" name="Code" dataDxfId="21"/>
@@ -23577,10 +23638,10 @@
         <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23661,10 +23722,10 @@
         <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D15" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23703,7 +23764,7 @@
         <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D18" t="s">
         <v>447</v>
@@ -23717,10 +23778,10 @@
         <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23740,10 +23801,10 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D22" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -23978,10 +24039,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D39" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -23992,10 +24053,10 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -24006,10 +24067,10 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -24062,10 +24123,10 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D45" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -24164,10 +24225,10 @@
         <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24178,10 +24239,10 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24192,10 +24253,10 @@
         <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24206,10 +24267,10 @@
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24220,10 +24281,10 @@
         <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24234,10 +24295,10 @@
         <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D8" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24262,10 +24323,10 @@
         <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24276,10 +24337,10 @@
         <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24318,10 +24379,10 @@
         <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24392,10 +24453,10 @@
         <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24434,10 +24495,10 @@
         <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24478,10 +24539,10 @@
         <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D9" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24500,10 +24561,10 @@
         <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24514,10 +24575,10 @@
         <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24536,10 +24597,10 @@
         <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24572,10 +24633,10 @@
         <v>283</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24589,7 +24650,7 @@
         <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -24761,7 +24822,7 @@
         <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24876,7 +24937,7 @@
         <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25071,10 +25132,10 @@
         <v>347</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -25354,7 +25415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
   <dimension ref="A1:A391"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A289" sqref="A1:A391"/>
     </sheetView>
   </sheetViews>
@@ -25726,7 +25787,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B6,"=", 'Fenêtre erreur ligne'!C6),IF('Fenêtre erreur ligne'!C6&lt;&gt;"",'Fenêtre erreur ligne'!C6,""))</f>
-        <v>window.fixed.error.line.content.panel.line.fixed.label=Corriger la balise :</v>
+        <v>window.fixed.error.line.content.panel.line.fixed.label=Balise corrigé :</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -25762,31 +25823,31 @@
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B12,"=", 'Fenêtre erreur ligne'!C12),IF('Fenêtre erreur ligne'!C12&lt;&gt;"",'Fenêtre erreur ligne'!C12,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.panel.title=Informations</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B13,"=", 'Fenêtre erreur ligne'!C13),IF('Fenêtre erreur ligne'!C13&lt;&gt;"",'Fenêtre erreur ligne'!C13,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.message=&lt;HTML&gt;&lt;P&gt;Pour corriger la ligne, vous devez effectuer les actions suivantes : &lt;OL&gt;&lt;LI&gt;Sélectionnez la balise dans la liste&lt;/LI&gt;&lt;LI&gt;Renseignez le champ texte avec le contenu textuelle de la balise&lt;/LI&gt;&lt;LI&gt;Vérifiez la balise corrigé&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B14,"=", 'Fenêtre erreur ligne'!C14),IF('Fenêtre erreur ligne'!C14&lt;&gt;"",'Fenêtre erreur ligne'!C14,""))</f>
-        <v/>
+        <v>window.fixed.error.line.list.field.label=Liste des balises</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B15,"=", 'Fenêtre erreur ligne'!C15),IF('Fenêtre erreur ligne'!C15&lt;&gt;"",'Fenêtre erreur ligne'!C15,""))</f>
-        <v/>
+        <v>window.fixed.error.line.list.field.panel.title=Correction de la balise et du contenu textuelle</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B16,"=", 'Fenêtre erreur ligne'!C16),IF('Fenêtre erreur ligne'!C16&lt;&gt;"",'Fenêtre erreur ligne'!C16,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.fixed.user.default.label=En attente de sélection de la balise : </v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -26290,13 +26351,13 @@
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B20,"=", 'Fenêtre Chargement document'!C20),IF('Fenêtre Chargement document'!C20&lt;&gt;"",'Fenêtre Chargement document'!C20,""))</f>
-        <v/>
+        <v>window.load.texts.choose.search.panel.title=Options de chargement</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B21,"=", 'Fenêtre Chargement document'!C21),IF('Fenêtre Chargement document'!C21&lt;&gt;"",'Fenêtre Chargement document'!C21,""))</f>
-        <v/>
+        <v>window.load.texts.choose.search.label=Charger les documents dans les sous dossiers</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -27718,8 +27779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
   <dimension ref="A1:A390"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A390"/>
+    <sheetView showZeros="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A1:A390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28090,7 +28151,7 @@
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B6,"=", 'Fenêtre erreur ligne'!D6),IF('Fenêtre erreur ligne'!D6&lt;&gt;"",'Fenêtre erreur ligne'!D6,""))</f>
-        <v>window.fixed.error.line.content.panel.line.fixed.label=Corregir la etiqueta:</v>
+        <v xml:space="preserve">window.fixed.error.line.content.panel.line.fixed.label=Etiquetas corregida : </v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -28126,31 +28187,31 @@
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B12,"=", 'Fenêtre erreur ligne'!D12),IF('Fenêtre erreur ligne'!D12&lt;&gt;"",'Fenêtre erreur ligne'!D12,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.panel.title=Informaciónes</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B13,"=", 'Fenêtre erreur ligne'!D13),IF('Fenêtre erreur ligne'!D13&lt;&gt;"",'Fenêtre erreur ligne'!D13,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.message=&lt;HTML&gt;&lt;P&gt;Para corregir la línea, debe realizar las siguientes acciones : &lt;OL&gt;&lt;LI&gt;Seleccione la etiqueta de la lista&lt;/LI&gt;&lt;LI&gt;Rellene el campo de texto con el contenido de texto de la etiqueta&lt;/LI&gt;&lt;LI&gt;Compruebe la etiqueta corregida&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B14,"=", 'Fenêtre erreur ligne'!D14),IF('Fenêtre erreur ligne'!D14&lt;&gt;"",'Fenêtre erreur ligne'!D14,""))</f>
-        <v/>
+        <v>window.fixed.error.line.list.field.label=Lista de etiquetas</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B15,"=", 'Fenêtre erreur ligne'!D15),IF('Fenêtre erreur ligne'!D15&lt;&gt;"",'Fenêtre erreur ligne'!D15,""))</f>
-        <v/>
+        <v>window.fixed.error.line.list.field.panel.title=Corrección de etiqueta y contenido de texto</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B16,"=", 'Fenêtre erreur ligne'!D16),IF('Fenêtre erreur ligne'!D16&lt;&gt;"",'Fenêtre erreur ligne'!D16,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.fixed.user.default.label=Pendiente de selección de la etiqueta : </v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -28654,13 +28715,13 @@
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B20,"=", 'Fenêtre Chargement document'!D20),IF('Fenêtre Chargement document'!D20&lt;&gt;"",'Fenêtre Chargement document'!D20,""))</f>
-        <v/>
+        <v>window.load.texts.choose.search.panel.title=Opciones de carga</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B21,"=", 'Fenêtre Chargement document'!D21),IF('Fenêtre Chargement document'!D21&lt;&gt;"",'Fenêtre Chargement document'!D21,""))</f>
-        <v/>
+        <v>window.load.texts.choose.search.label=Cargar documentos en subcarpetas</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -30076,8 +30137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A386"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30484,31 +30545,31 @@
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B12),".","_"),"=""", 'Fenêtre erreur ligne'!B12,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_PANEL_TITLE="window.fixed.error.line.information.panel.title";</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE="window.fixed.error.line.information.message";</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_USER_DEFAULT_LABEL="window.fixed.error.line.fixed.user.default.label";</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
@@ -31012,13 +31073,13 @@
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B20),".","_"),"=""", 'Fenêtre Chargement document'!B20,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_PANEL_TITLE="window.load.texts.choose.search.panel.title";</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B21),".","_"),"=""", 'Fenêtre Chargement document'!B21,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_LABEL="window.load.texts.choose.search.label";</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
@@ -32408,10 +32469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77FE015-45ED-4C89-B5D1-EDB5C6B1F7DA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32482,7 +32543,7 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32493,10 +32554,10 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>470</v>
+        <v>586</v>
       </c>
       <c r="D6" t="s">
-        <v>471</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32535,10 +32596,10 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32563,10 +32624,80 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
-        <v>540</v>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" t="s">
+        <v>566</v>
+      </c>
+      <c r="D12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>582</v>
+      </c>
+      <c r="D14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C15" t="s">
+        <v>583</v>
+      </c>
+      <c r="D15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -32651,10 +32782,10 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32733,10 +32864,10 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -32838,8 +32969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32959,10 +33090,10 @@
         <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33178,10 +33309,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F50E13-E608-4097-A6DA-288DD69EAB08}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33221,7 +33352,7 @@
         <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>177</v>
@@ -33249,10 +33380,10 @@
         <v>180</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33305,10 +33436,10 @@
         <v>186</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33319,10 +33450,10 @@
         <v>187</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -33347,10 +33478,10 @@
         <v>190</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -33361,10 +33492,10 @@
         <v>191</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33372,7 +33503,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>88</v>
@@ -33386,13 +33517,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>568</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -33400,13 +33531,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33414,13 +33545,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -33428,13 +33559,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -33442,13 +33573,41 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>576</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>577</v>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -33508,10 +33667,10 @@
         <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -33598,7 +33757,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D5" t="s">
         <v>212</v>
@@ -33654,10 +33813,10 @@
         <v>206</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33892,10 +34051,10 @@
         <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33934,10 +34093,10 @@
         <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -33990,10 +34149,10 @@
         <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -34004,10 +34163,10 @@
         <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -34018,10 +34177,10 @@
         <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -34032,10 +34191,10 @@
         <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -34074,10 +34233,10 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97AEBAB-7EDA-4BAC-9A85-3C1D6EA6CFD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11410751-9386-4F45-BC76-FB8F5461D708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="690" yWindow="690" windowWidth="21600" windowHeight="11385" firstSheet="12" activeTab="15" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="637">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -1784,9 +1784,6 @@
     <t>window.fixed.error.line.information.panel.title</t>
   </si>
   <si>
-    <t>window.fixed.error.line.information.message</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.list.field.label</t>
   </si>
   <si>
@@ -1799,27 +1796,15 @@
     <t>Liste des balises</t>
   </si>
   <si>
-    <t>Correction de la balise et du contenu textuelle</t>
-  </si>
-  <si>
     <t>Lista de etiquetas</t>
   </si>
   <si>
-    <t>Corrección de etiqueta y contenido de texto</t>
-  </si>
-  <si>
     <t>Balise corrigé :</t>
   </si>
   <si>
     <t xml:space="preserve">Etiquetas corregida : </t>
   </si>
   <si>
-    <t>&lt;HTML&gt;&lt;P&gt;Pour corriger la ligne, vous devez effectuer les actions suivantes : &lt;OL&gt;&lt;LI&gt;Sélectionnez la balise dans la liste&lt;/LI&gt;&lt;LI&gt;Renseignez le champ texte avec le contenu textuelle de la balise&lt;/LI&gt;&lt;LI&gt;Vérifiez la balise corrigé&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</t>
-  </si>
-  <si>
-    <t>&lt;HTML&gt;&lt;P&gt;Para corregir la línea, debe realizar las siguientes acciones : &lt;OL&gt;&lt;LI&gt;Seleccione la etiqueta de la lista&lt;/LI&gt;&lt;LI&gt;Rellene el campo de texto con el contenido de texto de la etiqueta&lt;/LI&gt;&lt;LI&gt;Compruebe la etiqueta corregida&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</t>
-  </si>
-  <si>
     <t>window.load.texts.choose.search.panel.title</t>
   </si>
   <si>
@@ -1838,13 +1823,142 @@
     <t>Cargar documentos en subcarpetas</t>
   </si>
   <si>
-    <t>window.fixed.error.line.fixed.user.default.label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En attente de sélection de la balise : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pendiente de selección de la etiqueta : </t>
+    <t>#Information Assistant</t>
+  </si>
+  <si>
+    <t>window.wizard.navigation.panel.title</t>
+  </si>
+  <si>
+    <t>window.wizard.navigation.next.button.label</t>
+  </si>
+  <si>
+    <t>window.wizard.navigation.previous.button.label</t>
+  </si>
+  <si>
+    <t>#Información Asistente</t>
+  </si>
+  <si>
+    <t>Navigation - Etape %d / %d</t>
+  </si>
+  <si>
+    <t>Navegador : Paso %d / %d</t>
+  </si>
+  <si>
+    <t>Choix de la balise</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message.etape1</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message.etape2</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message.etape3</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message.etape4</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.selected.data.panel.title</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.selected.data.select.text.label</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.selected.data.selected.text.label</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.selected.data.select.text.button.label</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données de la balise : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données sélectionnés : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenu complet de la ligne : </t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.fixed.edit.text.label</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.fixed.panel.title</t>
+  </si>
+  <si>
+    <t>Edition des données</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.wizard.panel.title</t>
+  </si>
+  <si>
+    <t>Assistant de correction de la ligne</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.mode.panel.title</t>
+  </si>
+  <si>
+    <t>Mode de correction</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.mode.wizard.label</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.mode.expert.label</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>window.fixed.error.line.information.message.expert</t>
+  </si>
+  <si>
+    <t>Elección de la etiqueta</t>
+  </si>
+  <si>
+    <t>Selección de los datos</t>
+  </si>
+  <si>
+    <t>Sélection des données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenido completo de la línea : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos seleccionados : </t>
+  </si>
+  <si>
+    <t>Identificar</t>
+  </si>
+  <si>
+    <t>Datos de la etiqueta :</t>
+  </si>
+  <si>
+    <t>Edición de los datos</t>
+  </si>
+  <si>
+    <t>Asistente de corrección de línea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modo de corrección</t>
+  </si>
+  <si>
+    <t>Asistente</t>
+  </si>
+  <si>
+    <t>Experto</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Mode Expert : En mode expert vous pouvez modifier la balise corrigé ci-dessus&lt;BR/&gt;Et lorsque tout est bon vous pouvez cliquez sur le bouton de correction et passer au suivant&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Modo experto: En modo experto puede cambiar la etiqueta corregida arriba&lt;BR/&gt;Y cuando todo está bien puede hacer clic en el botón de corrección y pasar al siguiente&lt;/P&gt;&lt;/HTML&gt;</t>
   </si>
 </sst>
 </file>
@@ -13054,8 +13168,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304255</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>856981</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>475981</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13474,7 +13588,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13544,7 +13658,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13592,13 +13706,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13662,13 +13776,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>185738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13718,13 +13832,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13793,13 +13907,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -23106,8 +23220,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{028E31B7-3FC3-4143-B5FF-43FD17AAB26D}" name="Tableau16" displayName="Tableau16" ref="A1:D25" totalsRowShown="0">
-  <autoFilter ref="A1:D25" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{028E31B7-3FC3-4143-B5FF-43FD17AAB26D}" name="Tableau16" displayName="Tableau16" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EE0F9B50-F787-4253-A164-BB17836F12B4}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{58CBB508-E960-4269-90E7-903193963B86}" name="Code"/>
@@ -23145,8 +23259,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A1:D17" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A1:D29" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5D46B975-1F69-4858-84DB-7E13C30C8025}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{9BDFB138-7114-4831-825F-D54624C7F460}" name="Code"/>
@@ -24893,10 +25007,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B861A8A-1131-4099-83D4-ECA745EBF0ED}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25136,6 +25250,56 @@
       </c>
       <c r="D21" s="1" t="s">
         <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" t="s">
+        <v>596</v>
+      </c>
+      <c r="D24" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -25413,10 +25577,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
-  <dimension ref="A1:A391"/>
+  <dimension ref="A1:A403"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A289" sqref="A1:A391"/>
+    <sheetView showZeros="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25829,1943 +25993,2015 @@
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B13,"=", 'Fenêtre erreur ligne'!C13),IF('Fenêtre erreur ligne'!C13&lt;&gt;"",'Fenêtre erreur ligne'!C13,""))</f>
-        <v>window.fixed.error.line.information.message=&lt;HTML&gt;&lt;P&gt;Pour corriger la ligne, vous devez effectuer les actions suivantes : &lt;OL&gt;&lt;LI&gt;Sélectionnez la balise dans la liste&lt;/LI&gt;&lt;LI&gt;Renseignez le champ texte avec le contenu textuelle de la balise&lt;/LI&gt;&lt;LI&gt;Vérifiez la balise corrigé&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>window.fixed.error.line.list.field.label=Liste des balises</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B14,"=", 'Fenêtre erreur ligne'!C14),IF('Fenêtre erreur ligne'!C14&lt;&gt;"",'Fenêtre erreur ligne'!C14,""))</f>
-        <v>window.fixed.error.line.list.field.label=Liste des balises</v>
+        <v>window.fixed.error.line.list.field.panel.title=Choix de la balise</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B15,"=", 'Fenêtre erreur ligne'!C15),IF('Fenêtre erreur ligne'!C15&lt;&gt;"",'Fenêtre erreur ligne'!C15,""))</f>
-        <v>window.fixed.error.line.list.field.panel.title=Correction de la balise et du contenu textuelle</v>
+        <v>window.fixed.error.line.information.message.etape2=&lt;HTML&gt;&lt;P&gt;Quelle est la balise correspondante à cette ligne ?&lt;BR/&gt;Utilisez la liste, pour sélectionner la balise adéquate.&lt;BR/&gt;Puis cliquez sur suivant.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B16,"=", 'Fenêtre erreur ligne'!C16),IF('Fenêtre erreur ligne'!C16&lt;&gt;"",'Fenêtre erreur ligne'!C16,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.fixed.user.default.label=En attente de sélection de la balise : </v>
+        <v>window.fixed.error.line.information.message.etape3=&lt;HTML&gt;&lt;P&gt;Quel est le contenu de la balise ?&lt;BR/&gt;Pour sélectionner les données textuelles de la balise, utilisez la souris,&lt;BR/&gt;sélectionnez la partie correspondante aux données textuelles&lt;BR/&gt;dans la zone à gauche du bouton 'identifier' et cliquez dessus ce bouton.&lt;BR/&gt;La zone de texte en dessous a été mise à jour avec le contenu que vous&lt;BR/&gt;avez sélectionné, ci cela vous convient cliquez sur suivant sinon, recommencez.&lt;BR/&gt;NB : Si le texte n'est pas complet ou erroné, vous pourrez le modifier&lt;BR/&gt;à l'étape suivante.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B17,"=", 'Fenêtre erreur ligne'!C17),IF('Fenêtre erreur ligne'!C17&lt;&gt;"",'Fenêtre erreur ligne'!C17,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;modifier dans la zone de texte ci-dessous,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B18,"=", 'Fenêtre erreur ligne'!C18),IF('Fenêtre erreur ligne'!C18&lt;&gt;"",'Fenêtre erreur ligne'!C18,""))</f>
-        <v/>
+        <v>window.fixed.error.line.selected.data.panel.title=Sélection des données</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B19,"=", 'Fenêtre erreur ligne'!C19),IF('Fenêtre erreur ligne'!C19&lt;&gt;"",'Fenêtre erreur ligne'!C19,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.selected.data.select.text.label=Contenu complet de la ligne : </v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B20,"=", 'Fenêtre erreur ligne'!C20),IF('Fenêtre erreur ligne'!C20&lt;&gt;"",'Fenêtre erreur ligne'!C20,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.selected.data.selected.text.label=Données sélectionnés : </v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
+        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B21,"=", 'Fenêtre erreur ligne'!C21),IF('Fenêtre erreur ligne'!C21&lt;&gt;"",'Fenêtre erreur ligne'!C21,""))</f>
+        <v>window.fixed.error.line.selected.data.select.text.button.label=Identifier</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B22,"=", 'Fenêtre erreur ligne'!C22),IF('Fenêtre erreur ligne'!C22&lt;&gt;"",'Fenêtre erreur ligne'!C22,""))</f>
+        <v xml:space="preserve">window.fixed.error.line.fixed.edit.text.label=Données de la balise : </v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B23,"=", 'Fenêtre erreur ligne'!C23),IF('Fenêtre erreur ligne'!C23&lt;&gt;"",'Fenêtre erreur ligne'!C23,""))</f>
+        <v>window.fixed.error.line.fixed.panel.title=Edition des données</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B24,"=", 'Fenêtre erreur ligne'!C24),IF('Fenêtre erreur ligne'!C24&lt;&gt;"",'Fenêtre erreur ligne'!C24,""))</f>
+        <v>window.fixed.error.line.wizard.panel.title=Assistant de correction de la ligne</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B25,"=", 'Fenêtre erreur ligne'!C25),IF('Fenêtre erreur ligne'!C25&lt;&gt;"",'Fenêtre erreur ligne'!C25,""))</f>
+        <v>window.fixed.error.line.mode.panel.title=Mode de correction</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B26,"=", 'Fenêtre erreur ligne'!C26),IF('Fenêtre erreur ligne'!C26&lt;&gt;"",'Fenêtre erreur ligne'!C26,""))</f>
+        <v>window.fixed.error.line.mode.wizard.label=Assistant</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B27,"=", 'Fenêtre erreur ligne'!C27),IF('Fenêtre erreur ligne'!C27&lt;&gt;"",'Fenêtre erreur ligne'!C27,""))</f>
+        <v>window.fixed.error.line.mode.expert.label=Expert</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B28,"=", 'Fenêtre erreur ligne'!C28),IF('Fenêtre erreur ligne'!C28&lt;&gt;"",'Fenêtre erreur ligne'!C28,""))</f>
+        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Mode Expert : En mode expert vous pouvez modifier la balise corrigé ci-dessus&lt;BR/&gt;Et lorsque tout est bon vous pouvez cliquez sur le bouton de correction et passer au suivant&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B29,"=", 'Fenêtre erreur ligne'!C29),IF('Fenêtre erreur ligne'!C29&lt;&gt;"",'Fenêtre erreur ligne'!C29,""))</f>
+        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B30,"=", 'Fenêtre erreur ligne'!C30),IF('Fenêtre erreur ligne'!C30&lt;&gt;"",'Fenêtre erreur ligne'!C30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF('Fenêtre erreur ligne'!B31&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B31,"=", 'Fenêtre erreur ligne'!C31),IF('Fenêtre erreur ligne'!C31&lt;&gt;"",'Fenêtre erreur ligne'!C31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>IF('Fenêtre erreur ligne'!B32&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B32,"=", 'Fenêtre erreur ligne'!C32),IF('Fenêtre erreur ligne'!C32&lt;&gt;"",'Fenêtre erreur ligne'!C32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <f>IF('Correction Edit texte'!B2&lt;&gt;"",CONCATENATE('Correction Edit texte'!B2,"=", 'Correction Edit texte'!C2),IF('Correction Edit texte'!C2&lt;&gt;"",'Correction Edit texte'!C2,""))</f>
         <v># Fenêtre correction texte</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE('Correction Edit texte'!B3,"=", 'Correction Edit texte'!C3),IF('Correction Edit texte'!C3&lt;&gt;"",'Correction Edit texte'!C3,""))</f>
         <v>window.fixed.text.title=Correction des matériels</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE('Correction Edit texte'!B4,"=", 'Correction Edit texte'!C4),IF('Correction Edit texte'!C4&lt;&gt;"",'Correction Edit texte'!C4,""))</f>
         <v>window.fixed.text.action.panel.title=Correction du texte %d / %d</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE('Correction Edit texte'!B5,"=", 'Correction Edit texte'!C5),IF('Correction Edit texte'!C5&lt;&gt;"",'Correction Edit texte'!C5,""))</f>
         <v>window.fixed.text.action.fill.specific.button.title=Correction de informations spécifiques</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
         <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE('Correction Edit texte'!B6,"=", 'Correction Edit texte'!C6),IF('Correction Edit texte'!C6&lt;&gt;"",'Correction Edit texte'!C6,""))</f>
         <v>window.fixed.text.action.next.button.title=Corriger et passer au texte suivant</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
         <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE('Correction Edit texte'!B7,"=", 'Correction Edit texte'!C7),IF('Correction Edit texte'!C7&lt;&gt;"",'Correction Edit texte'!C7,""))</f>
         <v>window.fixed.text.action.next.and.save.button.title=Corriger et quitter</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
         <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE('Correction Edit texte'!B8,"=", 'Correction Edit texte'!C8),IF('Correction Edit texte'!C8&lt;&gt;"",'Correction Edit texte'!C8,""))</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
         <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE('Correction Edit texte'!B9,"=", 'Correction Edit texte'!C9),IF('Correction Edit texte'!C9&lt;&gt;"",'Correction Edit texte'!C9,""))</f>
         <v># Information du document (utilisé pour la création, l'édition, la correction des textes)</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
         <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE('Correction Edit texte'!B10,"=", 'Correction Edit texte'!C10),IF('Correction Edit texte'!C10&lt;&gt;"",'Correction Edit texte'!C10,""))</f>
         <v>window.create.text.content.panel.title=Informations à propos du materiel</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE('Correction Edit texte'!B11,"=", 'Correction Edit texte'!C11),IF('Correction Edit texte'!C11&lt;&gt;"",'Correction Edit texte'!C11,""))</f>
         <v>window.create.text.file.panel.title=Information du document</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE('Correction Edit texte'!B12,"=", 'Correction Edit texte'!C12),IF('Correction Edit texte'!C12&lt;&gt;"",'Correction Edit texte'!C12,""))</f>
         <v>window.create.text.name.label=Nom du document :</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE('Correction Edit texte'!B13,"=", 'Correction Edit texte'!C13),IF('Correction Edit texte'!C13&lt;&gt;"",'Correction Edit texte'!C13,""))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE('Correction Edit texte'!B14,"=", 'Correction Edit texte'!C14),IF('Correction Edit texte'!C14&lt;&gt;"",'Correction Edit texte'!C14,""))</f>
         <v># Fenêtre d'Edition</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE('Correction Edit texte'!B15,"=", 'Correction Edit texte'!C15),IF('Correction Edit texte'!C15&lt;&gt;"",'Correction Edit texte'!C15,""))</f>
         <v>window.manage.texts.edit.text.panel.title=Consulter/Editer des matériels</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE('Correction Edit texte'!B16,"=", 'Correction Edit texte'!C16),IF('Correction Edit texte'!C16&lt;&gt;"",'Correction Edit texte'!C16,""))</f>
         <v>window.manage.texts.edit.text.action.panel.title=Enregistrement du matériel</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE('Correction Edit texte'!B17,"=", 'Correction Edit texte'!C17),IF('Correction Edit texte'!C17&lt;&gt;"",'Correction Edit texte'!C17,""))</f>
         <v>window.manage.texts.edit.text.action.fill.specific.button.title=Editer les informations spécifiques</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE('Correction Edit texte'!B18,"=", 'Correction Edit texte'!C18),IF('Correction Edit texte'!C18&lt;&gt;"",'Correction Edit texte'!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE('Correction Edit texte'!B19,"=", 'Correction Edit texte'!C19),IF('Correction Edit texte'!C19&lt;&gt;"",'Correction Edit texte'!C19,""))</f>
         <v># Utilisé en edition de corpus et de texte</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE('Correction Edit texte'!B20,"=", 'Correction Edit texte'!C20),IF('Correction Edit texte'!C20&lt;&gt;"",'Correction Edit texte'!C20,""))</f>
         <v>window.manage.texts.edit.text.action.button.save.and.quit.label=Enregistrer les modifications et fermer</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE('Correction Edit texte'!B21,"=", 'Correction Edit texte'!C21),IF('Correction Edit texte'!C21&lt;&gt;"",'Correction Edit texte'!C21,""))</f>
         <v>window.manage.texts.edit.text.action.button.quit.label=Fermer</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE('Correction Edit texte'!B22,"=", 'Correction Edit texte'!C22),IF('Correction Edit texte'!C22&lt;&gt;"",'Correction Edit texte'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE('Correction Edit texte'!B23,"=", 'Correction Edit texte'!C23),IF('Correction Edit texte'!C23&lt;&gt;"",'Correction Edit texte'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
         <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE('Correction Edit texte'!B24,"=", 'Correction Edit texte'!C24),IF('Correction Edit texte'!C24&lt;&gt;"",'Correction Edit texte'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
         <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE('Correction Edit texte'!B25,"=", 'Correction Edit texte'!C25),IF('Correction Edit texte'!C25&lt;&gt;"",'Correction Edit texte'!C25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
         <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE('Correction Edit texte'!B26,"=", 'Correction Edit texte'!C26),IF('Correction Edit texte'!C26&lt;&gt;"",'Correction Edit texte'!C26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B2,"=", 'Fenêtre spécifique'!C2),IF('Fenêtre spécifique'!C2&lt;&gt;"",'Fenêtre spécifique'!C2,""))</f>
         <v># Titre Correction information spécifique</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B3,"=", 'Fenêtre spécifique'!C3),IF('Fenêtre spécifique'!C3&lt;&gt;"",'Fenêtre spécifique'!C3,""))</f>
         <v>window.fixed.specific.title=Correction des informations spécifiques</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B4,"=", 'Fenêtre spécifique'!C4),IF('Fenêtre spécifique'!C4&lt;&gt;"",'Fenêtre spécifique'!C4,""))</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B5,"=", 'Fenêtre spécifique'!C5),IF('Fenêtre spécifique'!C5&lt;&gt;"",'Fenêtre spécifique'!C5,""))</f>
         <v># Titre Edition information spécifique</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
         <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B6,"=", 'Fenêtre spécifique'!C6),IF('Fenêtre spécifique'!C6&lt;&gt;"",'Fenêtre spécifique'!C6,""))</f>
         <v>window.edit.specific.title=Edition des informations spécifiques</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
         <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B7,"=", 'Fenêtre spécifique'!C7),IF('Fenêtre spécifique'!C7&lt;&gt;"",'Fenêtre spécifique'!C7,""))</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
         <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B8,"=", 'Fenêtre spécifique'!C8),IF('Fenêtre spécifique'!C8&lt;&gt;"",'Fenêtre spécifique'!C8,""))</f>
         <v>#Fenêtre création spécifique</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
         <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B9,"=", 'Fenêtre spécifique'!C9),IF('Fenêtre spécifique'!C9&lt;&gt;"",'Fenêtre spécifique'!C9,""))</f>
         <v>window.create.specific.title=Création des informations spécifiques</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
         <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B10,"=", 'Fenêtre spécifique'!C10),IF('Fenêtre spécifique'!C10&lt;&gt;"",'Fenêtre spécifique'!C10,""))</f>
         <v>window.create.specific.context.panel.title=Information du document</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
         <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B11,"=", 'Fenêtre spécifique'!C11),IF('Fenêtre spécifique'!C11&lt;&gt;"",'Fenêtre spécifique'!C11,""))</f>
         <v>window.create.specific.context.panel.file.label=Nom du materiel :</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
         <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B12,"=", 'Fenêtre spécifique'!C12),IF('Fenêtre spécifique'!C12&lt;&gt;"",'Fenêtre spécifique'!C12,""))</f>
         <v>window.create.specific.details.panel.title=Affichage de la structure</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
         <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B13,"=", 'Fenêtre spécifique'!C13),IF('Fenêtre spécifique'!C13&lt;&gt;"",'Fenêtre spécifique'!C13,""))</f>
         <v>window.create.specific.action.panel.button.previous.label=Précédent</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
         <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B14,"=", 'Fenêtre spécifique'!C14),IF('Fenêtre spécifique'!C14&lt;&gt;"",'Fenêtre spécifique'!C14,""))</f>
         <v>window.create.specific.action.panel.button.next.label=Suivant</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
         <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B15,"=", 'Fenêtre spécifique'!C15),IF('Fenêtre spécifique'!C15&lt;&gt;"",'Fenêtre spécifique'!C15,""))</f>
         <v>window.create.specific.create.panel.title=Remplir les informations spécifiques</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
         <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B16,"=", 'Fenêtre spécifique'!C16),IF('Fenêtre spécifique'!C16&lt;&gt;"",'Fenêtre spécifique'!C16,""))</f>
         <v>window.create.specific.create.panel.action.modify.label=Modifier</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
         <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B17,"=", 'Fenêtre spécifique'!C17),IF('Fenêtre spécifique'!C17&lt;&gt;"",'Fenêtre spécifique'!C17,""))</f>
         <v>window.create.specific.create.panel.action.add.label=Ajouter</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
         <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B18,"=", 'Fenêtre spécifique'!C18),IF('Fenêtre spécifique'!C18&lt;&gt;"",'Fenêtre spécifique'!C18,""))</f>
         <v>window.create.specific.create.panel.action.delete.label=Supprimer</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
         <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B19,"=", 'Fenêtre spécifique'!C19),IF('Fenêtre spécifique'!C19&lt;&gt;"",'Fenêtre spécifique'!C19,""))</f>
         <v>window.create.specific.action.panel.button.finish.label=Terminer</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
         <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B20,"=", 'Fenêtre spécifique'!C20),IF('Fenêtre spécifique'!C20&lt;&gt;"",'Fenêtre spécifique'!C20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
         <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B21,"=", 'Fenêtre spécifique'!C21),IF('Fenêtre spécifique'!C21&lt;&gt;"",'Fenêtre spécifique'!C21,""))</f>
         <v># Information pour le spécifique</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
         <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B22,"=", 'Fenêtre spécifique'!C22),IF('Fenêtre spécifique'!C22&lt;&gt;"",'Fenêtre spécifique'!C22,""))</f>
         <v>window.specific.information.panel.title=Informations sur l'utilisation</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B23,"=", 'Fenêtre spécifique'!C23),IF('Fenêtre spécifique'!C23&lt;&gt;"",'Fenêtre spécifique'!C23,""))</f>
         <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
         <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B24,"=", 'Fenêtre spécifique'!C24),IF('Fenêtre spécifique'!C24&lt;&gt;"",'Fenêtre spécifique'!C24,""))</f>
         <v>window.specific.warning.panel.title=Erreurs detectées</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
         <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B25,"=", 'Fenêtre spécifique'!C25),IF('Fenêtre spécifique'!C25&lt;&gt;"",'Fenêtre spécifique'!C25,""))</f>
         <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;ATTENTION : &lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Des erreurs structurels ont été detectés.&lt;br/&gt;Completer les tableaux ci-dessous pour les rectifier.&lt;br/&gt;Une fois les erreurs corrigés ce message disparaitra.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B26,"=", 'Fenêtre spécifique'!C26),IF('Fenêtre spécifique'!C26&lt;&gt;"",'Fenêtre spécifique'!C26,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B27,"=", 'Fenêtre spécifique'!C27),IF('Fenêtre spécifique'!C27&lt;&gt;"",'Fenêtre spécifique'!C27,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B28,"=", 'Fenêtre spécifique'!C28),IF('Fenêtre spécifique'!C28&lt;&gt;"",'Fenêtre spécifique'!C28,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B29,"=", 'Fenêtre spécifique'!C29),IF('Fenêtre spécifique'!C29&lt;&gt;"",'Fenêtre spécifique'!C29,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B30,"=", 'Fenêtre spécifique'!C30),IF('Fenêtre spécifique'!C30&lt;&gt;"",'Fenêtre spécifique'!C30,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B31,"=", 'Fenêtre spécifique'!C31),IF('Fenêtre spécifique'!C31&lt;&gt;"",'Fenêtre spécifique'!C31,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B32,"=", 'Fenêtre spécifique'!C32),IF('Fenêtre spécifique'!C32&lt;&gt;"",'Fenêtre spécifique'!C32,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B33,"=", 'Fenêtre spécifique'!C33),IF('Fenêtre spécifique'!C33&lt;&gt;"",'Fenêtre spécifique'!C33,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B34,"=", 'Fenêtre spécifique'!C34),IF('Fenêtre spécifique'!C34&lt;&gt;"",'Fenêtre spécifique'!C34,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B35,"=", 'Fenêtre spécifique'!C35),IF('Fenêtre spécifique'!C35&lt;&gt;"",'Fenêtre spécifique'!C35,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B36,"=", 'Fenêtre spécifique'!C36),IF('Fenêtre spécifique'!C36&lt;&gt;"",'Fenêtre spécifique'!C36,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
-        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B37,"=", 'Fenêtre spécifique'!C37),IF('Fenêtre spécifique'!C37&lt;&gt;"",'Fenêtre spécifique'!C37,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
+        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B26,"=", 'Fenêtre spécifique'!C26),IF('Fenêtre spécifique'!C26&lt;&gt;"",'Fenêtre spécifique'!C26,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B27,"=", 'Fenêtre spécifique'!C27),IF('Fenêtre spécifique'!C27&lt;&gt;"",'Fenêtre spécifique'!C27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B28,"=", 'Fenêtre spécifique'!C28),IF('Fenêtre spécifique'!C28&lt;&gt;"",'Fenêtre spécifique'!C28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B29,"=", 'Fenêtre spécifique'!C29),IF('Fenêtre spécifique'!C29&lt;&gt;"",'Fenêtre spécifique'!C29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B30,"=", 'Fenêtre spécifique'!C30),IF('Fenêtre spécifique'!C30&lt;&gt;"",'Fenêtre spécifique'!C30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B31,"=", 'Fenêtre spécifique'!C31),IF('Fenêtre spécifique'!C31&lt;&gt;"",'Fenêtre spécifique'!C31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B32,"=", 'Fenêtre spécifique'!C32),IF('Fenêtre spécifique'!C32&lt;&gt;"",'Fenêtre spécifique'!C32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B33,"=", 'Fenêtre spécifique'!C33),IF('Fenêtre spécifique'!C33&lt;&gt;"",'Fenêtre spécifique'!C33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B34,"=", 'Fenêtre spécifique'!C34),IF('Fenêtre spécifique'!C34&lt;&gt;"",'Fenêtre spécifique'!C34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B35,"=", 'Fenêtre spécifique'!C35),IF('Fenêtre spécifique'!C35&lt;&gt;"",'Fenêtre spécifique'!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B36,"=", 'Fenêtre spécifique'!C36),IF('Fenêtre spécifique'!C36&lt;&gt;"",'Fenêtre spécifique'!C36,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B37,"=", 'Fenêtre spécifique'!C37),IF('Fenêtre spécifique'!C37&lt;&gt;"",'Fenêtre spécifique'!C37,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B2,"=", 'Fenêtre Chargement document'!C2),IF('Fenêtre Chargement document'!C2&lt;&gt;"",'Fenêtre Chargement document'!C2,""))</f>
         <v>#Fenêtre chargement texte</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B3,"=", 'Fenêtre Chargement document'!C3),IF('Fenêtre Chargement document'!C3&lt;&gt;"",'Fenêtre Chargement document'!C3,""))</f>
         <v>window.type.configuration.DIDACTIC=mode Basic</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B4,"=", 'Fenêtre Chargement document'!C4),IF('Fenêtre Chargement document'!C4&lt;&gt;"",'Fenêtre Chargement document'!C4,""))</f>
         <v>window.type.configuration.DIDACTIC_EXPERT=mode Personnalisé</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B5,"=", 'Fenêtre Chargement document'!C5),IF('Fenêtre Chargement document'!C5&lt;&gt;"",'Fenêtre Chargement document'!C5,""))</f>
         <v>window.load.texts.title= Charger les documents</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B6,"=", 'Fenêtre Chargement document'!C6),IF('Fenêtre Chargement document'!C6&lt;&gt;"",'Fenêtre Chargement document'!C6,""))</f>
         <v>window.load.texts.type.configuration.panel.title=Options de la configuration</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B7,"=", 'Fenêtre Chargement document'!C7),IF('Fenêtre Chargement document'!C7&lt;&gt;"",'Fenêtre Chargement document'!C7,""))</f>
         <v>window.load.texts.type.configuration.label=Configuration :</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B8,"=", 'Fenêtre Chargement document'!C8),IF('Fenêtre Chargement document'!C8&lt;&gt;"",'Fenêtre Chargement document'!C8,""))</f>
         <v>window.load.texts.type.configuration.expert.label=Configuration de la bibliothèque : NO EXISTE AUN</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B9,"=", 'Fenêtre Chargement document'!C9),IF('Fenêtre Chargement document'!C9&lt;&gt;"",'Fenêtre Chargement document'!C9,""))</f>
         <v xml:space="preserve">window.load.texts.folder.panel.title=Choisir sa bibliothèque </v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B10,"=", 'Fenêtre Chargement document'!C10),IF('Fenêtre Chargement document'!C10&lt;&gt;"",'Fenêtre Chargement document'!C10,""))</f>
         <v>window.load.texts.folder.label=Dossier des documents:</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B11,"=", 'Fenêtre Chargement document'!C11),IF('Fenêtre Chargement document'!C11&lt;&gt;"",'Fenêtre Chargement document'!C11,""))</f>
         <v>window.load.texts.folder.button.label=Ouvrir...</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B12,"=", 'Fenêtre Chargement document'!C12),IF('Fenêtre Chargement document'!C12&lt;&gt;"",'Fenêtre Chargement document'!C12,""))</f>
         <v>window.load.texts.folder.button.folder.choose.title=Choisir sa bibliothèque</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B13,"=", 'Fenêtre Chargement document'!C13),IF('Fenêtre Chargement document'!C13&lt;&gt;"",'Fenêtre Chargement document'!C13,""))</f>
         <v xml:space="preserve">window.load.texts.start.button.label=Charger ma bibliothèque </v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B14,"=", 'Fenêtre Chargement document'!C14),IF('Fenêtre Chargement document'!C14&lt;&gt;"",'Fenêtre Chargement document'!C14,""))</f>
         <v>window.load.texts.start.panel.title=Actions</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B15,"=", 'Fenêtre Chargement document'!C15),IF('Fenêtre Chargement document'!C15&lt;&gt;"",'Fenêtre Chargement document'!C15,""))</f>
         <v>window.load.texts.informations.panel.title=Informations</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B16,"=", 'Fenêtre Chargement document'!C16),IF('Fenêtre Chargement document'!C16&lt;&gt;"",'Fenêtre Chargement document'!C16,""))</f>
         <v>window.load.texts.informations.message=&lt;HTML&gt;&lt;P&gt;Les fichiers suivants vont être chargés :  &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B17,"=", 'Fenêtre Chargement document'!C17),IF('Fenêtre Chargement document'!C17&lt;&gt;"",'Fenêtre Chargement document'!C17,""))</f>
         <v>window.load.texts.warning.panel.title=Impossible de charger les documents</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B18,"=", 'Fenêtre Chargement document'!C18),IF('Fenêtre Chargement document'!C18&lt;&gt;"",'Fenêtre Chargement document'!C18,""))</f>
         <v>window.load.texts.warning.message=&lt;HTML&gt;&lt;P&gt;Les fichiers ne peuvent pas être chargés.&lt;BR /&gt;Des fichiers qui ne sont pas au format .txt ont été détectés.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B19,"=", 'Fenêtre Chargement document'!C19),IF('Fenêtre Chargement document'!C19&lt;&gt;"",'Fenêtre Chargement document'!C19,""))</f>
         <v>window.load.texts.informations.message.default=&lt;HTML&gt;&lt;P&gt;Sélectionnez un dossier avec le bouton Ouvrir&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B20,"=", 'Fenêtre Chargement document'!C20),IF('Fenêtre Chargement document'!C20&lt;&gt;"",'Fenêtre Chargement document'!C20,""))</f>
         <v>window.load.texts.choose.search.panel.title=Options de chargement</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B21,"=", 'Fenêtre Chargement document'!C21),IF('Fenêtre Chargement document'!C21&lt;&gt;"",'Fenêtre Chargement document'!C21,""))</f>
         <v>window.load.texts.choose.search.label=Charger les documents dans les sous dossiers</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
         <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B22,"=", 'Fenêtre Chargement document'!C22),IF('Fenêtre Chargement document'!C22&lt;&gt;"",'Fenêtre Chargement document'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
         <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B23,"=", 'Fenêtre Chargement document'!C23),IF('Fenêtre Chargement document'!C23&lt;&gt;"",'Fenêtre Chargement document'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
         <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B24,"=", 'Fenêtre Chargement document'!C24),IF('Fenêtre Chargement document'!C24&lt;&gt;"",'Fenêtre Chargement document'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
         <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B2,"=", 'Choix bibliotheque texte'!C2),IF('Choix bibliotheque texte'!C2&lt;&gt;"",'Choix bibliotheque texte'!C2,""))</f>
         <v>#Chargement textes librairie</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
         <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B3,"=", 'Choix bibliotheque texte'!C3),IF('Choix bibliotheque texte'!C3&lt;&gt;"",'Choix bibliotheque texte'!C3,""))</f>
         <v xml:space="preserve">window.load.texts.folder.library.button.folder.choose.title=Choisir sa bibliothèque </v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
         <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B4,"=", 'Choix bibliotheque texte'!C4),IF('Choix bibliotheque texte'!C4&lt;&gt;"",'Choix bibliotheque texte'!C4,""))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
         <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B5,"=", 'Choix bibliotheque texte'!C5),IF('Choix bibliotheque texte'!C5&lt;&gt;"",'Choix bibliotheque texte'!C5,""))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
         <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B6,"=", 'Choix bibliotheque texte'!C6),IF('Choix bibliotheque texte'!C6&lt;&gt;"",'Choix bibliotheque texte'!C6,""))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
         <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B7,"=", 'Choix bibliotheque texte'!C7),IF('Choix bibliotheque texte'!C7&lt;&gt;"",'Choix bibliotheque texte'!C7,""))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
         <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B8,"=", 'Choix bibliotheque texte'!C8),IF('Choix bibliotheque texte'!C8&lt;&gt;"",'Choix bibliotheque texte'!C8,""))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
         <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B9,"=", 'Choix bibliotheque texte'!C9),IF('Choix bibliotheque texte'!C9&lt;&gt;"",'Choix bibliotheque texte'!C9,""))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
         <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B10,"=", 'Choix bibliotheque texte'!C10),IF('Choix bibliotheque texte'!C10&lt;&gt;"",'Choix bibliotheque texte'!C10,""))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
         <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B11,"=", 'Choix bibliotheque texte'!C11),IF('Choix bibliotheque texte'!C11&lt;&gt;"",'Choix bibliotheque texte'!C11,""))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
         <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B12,"=", 'Choix bibliotheque texte'!C12),IF('Choix bibliotheque texte'!C12&lt;&gt;"",'Choix bibliotheque texte'!C12,""))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
         <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B2,"=", 'Fenetre Corpus'!C2),IF('Fenetre Corpus'!C2&lt;&gt;"",'Fenetre Corpus'!C2,""))</f>
         <v>#Fenêtre Corpus</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
         <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B3,"=", 'Fenetre Corpus'!C3),IF('Fenetre Corpus'!C3&lt;&gt;"",'Fenetre Corpus'!C3,""))</f>
         <v>window.create.corpus.title=Création d'un matériel</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
         <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B4,"=", 'Fenetre Corpus'!C4),IF('Fenetre Corpus'!C4&lt;&gt;"",'Fenetre Corpus'!C4,""))</f>
         <v>window.create.corpus.file.panel.title=Information du document</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
         <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B5,"=", 'Fenetre Corpus'!C5),IF('Fenetre Corpus'!C5&lt;&gt;"",'Fenetre Corpus'!C5,""))</f>
         <v>window.create.corpus.name.label=Nom du document</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
         <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B6,"=", 'Fenetre Corpus'!C6),IF('Fenetre Corpus'!C6&lt;&gt;"",'Fenetre Corpus'!C6,""))</f>
         <v>window.create.corpus.content.panel.title=Informations à propos du document</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
         <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B7,"=", 'Fenetre Corpus'!C7),IF('Fenetre Corpus'!C7&lt;&gt;"",'Fenetre Corpus'!C7,""))</f>
         <v>window.create.corpus.action.panel.title=Actions</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
         <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B8,"=", 'Fenetre Corpus'!C8),IF('Fenetre Corpus'!C8&lt;&gt;"",'Fenetre Corpus'!C8,""))</f>
         <v>window.create.corpus.action.create.text.button.title=Ajouter un materiel</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
         <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B9,"=", 'Fenetre Corpus'!C9),IF('Fenetre Corpus'!C9&lt;&gt;"",'Fenetre Corpus'!C9,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.title=Éditer les en-tête</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
         <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B10,"=", 'Fenetre Corpus'!C10),IF('Fenetre Corpus'!C10&lt;&gt;"",'Fenetre Corpus'!C10,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.save.quit.button.label=Terminer et enregistrer les corrections</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
         <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B11,"=", 'Fenetre Corpus'!C11),IF('Fenetre Corpus'!C11&lt;&gt;"",'Fenetre Corpus'!C11,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.save.next.button.label=Enregistrer et passer au suivant</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
         <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B12,"=", 'Fenetre Corpus'!C12),IF('Fenetre Corpus'!C12&lt;&gt;"",'Fenetre Corpus'!C12,""))</f>
         <v>window.manage.corpus.title=Consulter/Editer le document</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
         <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B13,"=", 'Fenetre Corpus'!C13),IF('Fenetre Corpus'!C13&lt;&gt;"",'Fenetre Corpus'!C13,""))</f>
         <v>window.manage.texts.add.text.action.button.save.and.quit.label=Ajouter un materiel</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
         <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B14,"=", 'Fenetre Corpus'!C14),IF('Fenetre Corpus'!C14&lt;&gt;"",'Fenetre Corpus'!C14,""))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
         <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B15,"=", 'Fenetre Corpus'!C15),IF('Fenetre Corpus'!C15&lt;&gt;"",'Fenetre Corpus'!C15,""))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
         <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B16,"=", 'Fenetre Corpus'!C16),IF('Fenetre Corpus'!C16&lt;&gt;"",'Fenetre Corpus'!C16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
         <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B17,"=", 'Fenetre Corpus'!C17),IF('Fenetre Corpus'!C17&lt;&gt;"",'Fenetre Corpus'!C17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
         <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B18,"=", 'Fenetre Corpus'!C18),IF('Fenetre Corpus'!C18&lt;&gt;"",'Fenetre Corpus'!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
         <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B19,"=", 'Fenetre Corpus'!C19),IF('Fenetre Corpus'!C19&lt;&gt;"",'Fenetre Corpus'!C19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
         <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B20,"=", 'Fenetre Corpus'!C20),IF('Fenetre Corpus'!C20&lt;&gt;"",'Fenetre Corpus'!C20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
         <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B2,"=", 'Fenetre Creation texte'!C2),IF('Fenetre Creation texte'!C2&lt;&gt;"",'Fenetre Creation texte'!C2,""))</f>
         <v>#Fenêtre Création texte</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
         <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B3,"=", 'Fenetre Creation texte'!C3),IF('Fenetre Creation texte'!C3&lt;&gt;"",'Fenetre Creation texte'!C3,""))</f>
         <v>window.create.text.title=Création d'un materiel</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
         <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B4,"=", 'Fenetre Creation texte'!C4),IF('Fenetre Creation texte'!C4&lt;&gt;"",'Fenetre Creation texte'!C4,""))</f>
         <v>window.create.text.action.panel.title=Actions</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="str">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
         <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B5,"=", 'Fenetre Creation texte'!C5),IF('Fenetre Creation texte'!C5&lt;&gt;"",'Fenetre Creation texte'!C5,""))</f>
         <v>window.create.text.action.create.and.quit.text.button.title=Finir et enregistrer</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="str">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
         <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B6,"=", 'Fenetre Creation texte'!C6),IF('Fenetre Creation texte'!C6&lt;&gt;"",'Fenetre Creation texte'!C6,""))</f>
         <v>window.create.text.action.create.text.and.add.text.button.title=Ajouter un autre matériel</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="str">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
         <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B7,"=", 'Fenetre Creation texte'!C7),IF('Fenetre Creation texte'!C7&lt;&gt;"",'Fenetre Creation texte'!C7,""))</f>
         <v>window.create.text.action.fill.specific.button.title=Création des informations spécifiques</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="str">
-        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B8,"=", 'Fenetre Creation texte'!C8),IF('Fenetre Creation texte'!C8&lt;&gt;"",'Fenetre Creation texte'!C8,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="str">
-        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B9,"=", 'Fenetre Creation texte'!C9),IF('Fenetre Creation texte'!C9&lt;&gt;"",'Fenetre Creation texte'!C9,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="str">
-        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B10,"=", 'Fenetre Creation texte'!C10),IF('Fenetre Creation texte'!C10&lt;&gt;"",'Fenetre Creation texte'!C10,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
-        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B11,"=", 'Fenetre Creation texte'!C11),IF('Fenetre Creation texte'!C11&lt;&gt;"",'Fenetre Creation texte'!C11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="str">
-        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B12,"=", 'Fenetre Creation texte'!C12),IF('Fenetre Creation texte'!C12&lt;&gt;"",'Fenetre Creation texte'!C12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="str">
-        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B13,"=", 'Fenetre Creation texte'!C13),IF('Fenetre Creation texte'!C13&lt;&gt;"",'Fenetre Creation texte'!C13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="str">
-        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B14,"=", 'Fenetre Creation texte'!C14),IF('Fenetre Creation texte'!C14&lt;&gt;"",'Fenetre Creation texte'!C14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="str">
-        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B15,"=", 'Fenetre Creation texte'!C15),IF('Fenetre Creation texte'!C15&lt;&gt;"",'Fenetre Creation texte'!C15,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="str">
-        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B16,"=", 'Fenetre Creation texte'!C16),IF('Fenetre Creation texte'!C16&lt;&gt;"",'Fenetre Creation texte'!C16,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="str">
-        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B17,"=", 'Fenetre Creation texte'!C17),IF('Fenetre Creation texte'!C17&lt;&gt;"",'Fenetre Creation texte'!C17,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="str">
-        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B18,"=", 'Fenetre Creation texte'!C18),IF('Fenetre Creation texte'!C18&lt;&gt;"",'Fenetre Creation texte'!C18,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="str">
-        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B19,"=", 'Fenetre Creation texte'!C19),IF('Fenetre Creation texte'!C19&lt;&gt;"",'Fenetre Creation texte'!C19,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B20,"=", 'Fenetre Creation texte'!C20),IF('Fenetre Creation texte'!C20&lt;&gt;"",'Fenetre Creation texte'!C20,""))</f>
+        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B8,"=", 'Fenetre Creation texte'!C8),IF('Fenetre Creation texte'!C8&lt;&gt;"",'Fenetre Creation texte'!C8,""))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B21,"=", 'Fenetre Creation texte'!C21),IF('Fenetre Creation texte'!C21&lt;&gt;"",'Fenetre Creation texte'!C21,""))</f>
+        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B9,"=", 'Fenetre Creation texte'!C9),IF('Fenetre Creation texte'!C9&lt;&gt;"",'Fenetre Creation texte'!C9,""))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
+        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B10,"=", 'Fenetre Creation texte'!C10),IF('Fenetre Creation texte'!C10&lt;&gt;"",'Fenetre Creation texte'!C10,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B11,"=", 'Fenetre Creation texte'!C11),IF('Fenetre Creation texte'!C11&lt;&gt;"",'Fenetre Creation texte'!C11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B12,"=", 'Fenetre Creation texte'!C12),IF('Fenetre Creation texte'!C12&lt;&gt;"",'Fenetre Creation texte'!C12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B13,"=", 'Fenetre Creation texte'!C13),IF('Fenetre Creation texte'!C13&lt;&gt;"",'Fenetre Creation texte'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B14,"=", 'Fenetre Creation texte'!C14),IF('Fenetre Creation texte'!C14&lt;&gt;"",'Fenetre Creation texte'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B15,"=", 'Fenetre Creation texte'!C15),IF('Fenetre Creation texte'!C15&lt;&gt;"",'Fenetre Creation texte'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B16,"=", 'Fenetre Creation texte'!C16),IF('Fenetre Creation texte'!C16&lt;&gt;"",'Fenetre Creation texte'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B17,"=", 'Fenetre Creation texte'!C17),IF('Fenetre Creation texte'!C17&lt;&gt;"",'Fenetre Creation texte'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B18,"=", 'Fenetre Creation texte'!C18),IF('Fenetre Creation texte'!C18&lt;&gt;"",'Fenetre Creation texte'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B19,"=", 'Fenetre Creation texte'!C19),IF('Fenetre Creation texte'!C19&lt;&gt;"",'Fenetre Creation texte'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B20,"=", 'Fenetre Creation texte'!C20),IF('Fenetre Creation texte'!C20&lt;&gt;"",'Fenetre Creation texte'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B21,"=", 'Fenetre Creation texte'!C21),IF('Fenetre Creation texte'!C21&lt;&gt;"",'Fenetre Creation texte'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
         <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B2,"=", 'Fenetre Gerer les textes'!C2),IF('Fenetre Gerer les textes'!C2&lt;&gt;"",'Fenetre Gerer les textes'!C2,""))</f>
         <v>#Fenêtre Gestion des textes</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="str">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
         <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B3,"=", 'Fenetre Gerer les textes'!C3),IF('Fenetre Gerer les textes'!C3&lt;&gt;"",'Fenetre Gerer les textes'!C3,""))</f>
         <v>window.display.texts.panel.label=Affichage des matériels de la bibliothèque</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="str">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
         <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B4,"=", 'Fenetre Gerer les textes'!C4),IF('Fenetre Gerer les textes'!C4&lt;&gt;"",'Fenetre Gerer les textes'!C4,""))</f>
         <v>window.display.corpus.edit.button.label=Consulter/Editer le document</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="str">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
         <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B5,"=", 'Fenetre Gerer les textes'!C5),IF('Fenetre Gerer les textes'!C5&lt;&gt;"",'Fenetre Gerer les textes'!C5,""))</f>
         <v>window.display.texts.edit.button.label=Consulter/Editer le matériel</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="str">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
         <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B6,"=", 'Fenetre Gerer les textes'!C6),IF('Fenetre Gerer les textes'!C6&lt;&gt;"",'Fenetre Gerer les textes'!C6,""))</f>
         <v>window.display.texts.delete.button.label=Supprimer le matériel</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="str">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
         <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B7,"=", 'Fenetre Gerer les textes'!C7),IF('Fenetre Gerer les textes'!C7&lt;&gt;"",'Fenetre Gerer les textes'!C7,""))</f>
         <v>window.display.texts.previous.button.label=Précédent</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="str">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
         <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B8,"=", 'Fenetre Gerer les textes'!C8),IF('Fenetre Gerer les textes'!C8&lt;&gt;"",'Fenetre Gerer les textes'!C8,""))</f>
         <v>window.display.texts.next.button.label=Suivant</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="str">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
         <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B9,"=", 'Fenetre Gerer les textes'!C9),IF('Fenetre Gerer les textes'!C9&lt;&gt;"",'Fenetre Gerer les textes'!C9,""))</f>
         <v>window.display.texts.current.position.label=Page %d / %d</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="str">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
         <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B10,"=", 'Fenetre Gerer les textes'!C10),IF('Fenetre Gerer les textes'!C10&lt;&gt;"",'Fenetre Gerer les textes'!C10,""))</f>
         <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Nombre de matériels par page : </v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="str">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
         <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B11,"=", 'Fenetre Gerer les textes'!C11),IF('Fenetre Gerer les textes'!C11&lt;&gt;"",'Fenetre Gerer les textes'!C11,""))</f>
         <v>window.display.texts.corpus.label=Gestion manuelle des matériels</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="str">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
         <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B12,"=", 'Fenetre Gerer les textes'!C12),IF('Fenetre Gerer les textes'!C12&lt;&gt;"",'Fenetre Gerer les textes'!C12,""))</f>
         <v>window.manage.texts.title=Gérer les matériels dans la bibliothèque</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="str">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
         <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B13,"=", 'Fenetre Gerer les textes'!C13),IF('Fenetre Gerer les textes'!C13&lt;&gt;"",'Fenetre Gerer les textes'!C13,""))</f>
         <v>window.manage.texts.generate.excel.panel.title=Gestion de contenus</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="str">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
         <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B14,"=", 'Fenetre Gerer les textes'!C14),IF('Fenetre Gerer les textes'!C14&lt;&gt;"",'Fenetre Gerer les textes'!C14,""))</f>
         <v>window.manage.texts.generate.excel.classical.button.label=Exporter Excel de référence</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="str">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
         <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B15,"=", 'Fenetre Gerer les textes'!C15),IF('Fenetre Gerer les textes'!C15&lt;&gt;"",'Fenetre Gerer les textes'!C15,""))</f>
         <v>window.manage.texts.generate.excel.specific.button.label=Exporter Excel personnalisé</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="str">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
         <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B16,"=", 'Fenetre Gerer les textes'!C16),IF('Fenetre Gerer les textes'!C16&lt;&gt;"",'Fenetre Gerer les textes'!C16,""))</f>
         <v>window.manage.texts.filters.button.label=Filtrer le contenu</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="str">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
         <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B17,"=", 'Fenetre Gerer les textes'!C17),IF('Fenetre Gerer les textes'!C17&lt;&gt;"",'Fenetre Gerer les textes'!C17,""))</f>
         <v>window.manage.texts.information.title=Informations sur l'utilisation</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="str">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
         <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B18,"=", 'Fenetre Gerer les textes'!C18),IF('Fenetre Gerer les textes'!C18&lt;&gt;"",'Fenetre Gerer les textes'!C18,""))</f>
         <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrer le contenu :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de créer des filtres pour effectuer des recherches dans la bibliothèque en fonction du contenu des documents&lt;br /&gt;N'oubliez pas de fermer la fenêtre du filtre avant  de pouvoir continuer a faire toute autre opération&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le document :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette fonction vous permet de gérer manuellement le contenu de votre bibliothèque. Lorsque vous éditez un document, vous pouvez ajouter du matériel au document. &lt;br /&gt; Pensez à enregistrer les modifications pour que le nouveau matériel soit écrit physiquement dans le document .txt, &lt;br /&gt;sinon il sera perdu après la fermeture de l'application&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consulter/Éditer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Cette option vous permet de modifier le texte du matériel et lui ajouter une structure additionnelle grâce aux informations spécifiques en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Supprimer le matériel :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Après avoir sélectionné un texte, si vous voulez le supprimer , le texte peut être définitivement supprimé avec ce bouton (ATTENTION! vous ne pourrez pas annuler l’action)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="str">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
         <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B19,"=", 'Fenetre Gerer les textes'!C19),IF('Fenetre Gerer les textes'!C19&lt;&gt;"",'Fenetre Gerer les textes'!C19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="str">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
         <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B20,"=", 'Fenetre Gerer les textes'!C20),IF('Fenetre Gerer les textes'!C20&lt;&gt;"",'Fenetre Gerer les textes'!C20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="str">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
         <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B21,"=", 'Fenetre Gerer les textes'!C21),IF('Fenetre Gerer les textes'!C21&lt;&gt;"",'Fenetre Gerer les textes'!C21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="str">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
         <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B22,"=", 'Fenetre Gerer les textes'!C22),IF('Fenetre Gerer les textes'!C22&lt;&gt;"",'Fenetre Gerer les textes'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="str">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
         <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B23,"=", 'Fenetre Gerer les textes'!C23),IF('Fenetre Gerer les textes'!C23&lt;&gt;"",'Fenetre Gerer les textes'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="str">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
         <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B24,"=", 'Fenetre Gerer les textes'!C24),IF('Fenetre Gerer les textes'!C24&lt;&gt;"",'Fenetre Gerer les textes'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="str">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
         <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B25,"=", 'Fenetre Gerer les textes'!C25),IF('Fenetre Gerer les textes'!C25&lt;&gt;"",'Fenetre Gerer les textes'!C25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="str">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
         <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B26,"=", 'Fenetre Gerer les textes'!C26),IF('Fenetre Gerer les textes'!C26&lt;&gt;"",'Fenetre Gerer les textes'!C26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="str">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
         <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B27,"=", 'Fenetre Gerer les textes'!C27),IF('Fenetre Gerer les textes'!C27&lt;&gt;"",'Fenetre Gerer les textes'!C27,""))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="str">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
         <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B2,"=", 'Fenetre filtre texte'!C2),IF('Fenetre filtre texte'!C2&lt;&gt;"",'Fenetre filtre texte'!C2,""))</f>
         <v>#Fenêtre Gestion des filtres</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="str">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
         <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B3,"=", 'Fenetre filtre texte'!C3),IF('Fenetre filtre texte'!C3&lt;&gt;"",'Fenetre filtre texte'!C3,""))</f>
         <v xml:space="preserve">window.filter.type.CONTAINS=Contient </v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="str">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!C4),IF('Fenetre filtre texte'!C4&lt;&gt;"",'Fenetre filtre texte'!C4,""))</f>
         <v>window.filter.type.EQUAL=Contenu intégral</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="str">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
         <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B5,"=", 'Fenetre filtre texte'!C5),IF('Fenetre filtre texte'!C5&lt;&gt;"",'Fenetre filtre texte'!C5,""))</f>
         <v xml:space="preserve">window.manage.filters.global.panel.title=Gestion du filtrage </v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="str">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
         <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B6,"=", 'Fenetre filtre texte'!C6),IF('Fenetre filtre texte'!C6&lt;&gt;"",'Fenetre filtre texte'!C6,""))</f>
         <v xml:space="preserve">window.manage.filters.panel.title=Configuration des filtres </v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="str">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
         <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B7,"=", 'Fenetre filtre texte'!C7),IF('Fenetre filtre texte'!C7&lt;&gt;"",'Fenetre filtre texte'!C7,""))</f>
         <v xml:space="preserve">window.manage.filters.type.filter.label=Appliquer dans le champ : </v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="str">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
         <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B8,"=", 'Fenetre filtre texte'!C8),IF('Fenetre filtre texte'!C8&lt;&gt;"",'Fenetre filtre texte'!C8,""))</f>
         <v xml:space="preserve">window.manage.filters.value.filter.label=Recherche le contenu ou mots clés : </v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="str">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
         <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B9,"=", 'Fenetre filtre texte'!C9),IF('Fenetre filtre texte'!C9&lt;&gt;"",'Fenetre filtre texte'!C9,""))</f>
         <v>window.manage.filters.add.filter.button.label=Ajouter le filtre</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
         <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B10,"=", 'Fenetre filtre texte'!C10),IF('Fenetre filtre texte'!C10&lt;&gt;"",'Fenetre filtre texte'!C10,""))</f>
         <v xml:space="preserve">window.manage.filters.corpus.panel.title=Filtrer le contenu </v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="str">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
         <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B11,"=", 'Fenetre filtre texte'!C11),IF('Fenetre filtre texte'!C11&lt;&gt;"",'Fenetre filtre texte'!C11,""))</f>
         <v xml:space="preserve">window.manage.filters.corpus.value.label=Filtrer : </v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="str">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
         <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B12,"=", 'Fenetre filtre texte'!C12),IF('Fenetre filtre texte'!C12&lt;&gt;"",'Fenetre filtre texte'!C12,""))</f>
         <v>window.manage.filters.action.panel.title=Actions utilisateurs</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="str">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
         <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B13,"=", 'Fenetre filtre texte'!C13),IF('Fenetre filtre texte'!C13&lt;&gt;"",'Fenetre filtre texte'!C13,""))</f>
         <v>window.manage.filters.action.apply.button.label=Appliquer les filtres</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="str">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
         <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B14,"=", 'Fenetre filtre texte'!C14),IF('Fenetre filtre texte'!C14&lt;&gt;"",'Fenetre filtre texte'!C14,""))</f>
         <v>window.manage.filters.corpus.all.label=Tous les documents de la bibliothèque</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="str">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
         <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B15,"=", 'Fenetre filtre texte'!C15),IF('Fenetre filtre texte'!C15&lt;&gt;"",'Fenetre filtre texte'!C15,""))</f>
         <v>window.manage.filters.delete.filter.button.label=Supprimer le filtre sélectionné</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="str">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
         <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B16,"=", 'Fenetre filtre texte'!C16),IF('Fenetre filtre texte'!C16&lt;&gt;"",'Fenetre filtre texte'!C16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="str">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
         <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B17,"=", 'Fenetre filtre texte'!C17),IF('Fenetre filtre texte'!C17&lt;&gt;"",'Fenetre filtre texte'!C17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="str">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
         <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B18,"=", 'Fenetre filtre texte'!C18),IF('Fenetre filtre texte'!C18&lt;&gt;"",'Fenetre filtre texte'!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="str">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
         <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B19,"=", 'Fenetre filtre texte'!C19),IF('Fenetre filtre texte'!C19&lt;&gt;"",'Fenetre filtre texte'!C19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="str">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
         <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B20,"=", 'Fenetre filtre texte'!C20),IF('Fenetre filtre texte'!C20&lt;&gt;"",'Fenetre filtre texte'!C20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="str">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
         <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B21,"=", 'Fenetre filtre texte'!C21),IF('Fenetre filtre texte'!C21&lt;&gt;"",'Fenetre filtre texte'!C21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="str">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
         <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B22,"=", 'Fenetre filtre texte'!C22),IF('Fenetre filtre texte'!C22&lt;&gt;"",'Fenetre filtre texte'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="str">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
         <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B23,"=", 'Fenetre filtre texte'!C23),IF('Fenetre filtre texte'!C23&lt;&gt;"",'Fenetre filtre texte'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="str">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
         <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B24,"=", 'Fenetre filtre texte'!C24),IF('Fenetre filtre texte'!C24&lt;&gt;"",'Fenetre filtre texte'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="str">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
         <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B25,"=", 'Fenetre filtre texte'!C25),IF('Fenetre filtre texte'!C25&lt;&gt;"",'Fenetre filtre texte'!C25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="str">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
         <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B2,"=", 'Exporter Excel Reference'!C2),IF('Exporter Excel Reference'!C2&lt;&gt;"",'Exporter Excel Reference'!C2,""))</f>
         <v>#Fenêtre Export Excel Reference</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="str">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
         <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B3,"=", 'Exporter Excel Reference'!C3),IF('Exporter Excel Reference'!C3&lt;&gt;"",'Exporter Excel Reference'!C3,""))</f>
         <v>window.file.picker.classical.panel.title=Choix de la bibliothèque Excel</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="str">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
         <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B4,"=", 'Exporter Excel Reference'!C4),IF('Exporter Excel Reference'!C4&lt;&gt;"",'Exporter Excel Reference'!C4,""))</f>
         <v>window.save.excel.classical.panel.title=Enregistrer les fichiers excels de référence</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="str">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
         <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B5,"=", 'Exporter Excel Reference'!C5),IF('Exporter Excel Reference'!C5&lt;&gt;"",'Exporter Excel Reference'!C5,""))</f>
         <v>window.save.excel.classical.information.panel.title=Liste des fichiers excel générés</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="str">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
         <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B6,"=", 'Exporter Excel Reference'!C6),IF('Exporter Excel Reference'!C6&lt;&gt;"",'Exporter Excel Reference'!C6,""))</f>
         <v>window.save.excel.classical.information.panel.text.nothing=Sélectionner un fichier de référence via le bouton parcourir pour pouvoir générer les fichiers</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="str">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
         <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B7,"=", 'Exporter Excel Reference'!C7),IF('Exporter Excel Reference'!C7&lt;&gt;"",'Exporter Excel Reference'!C7,""))</f>
         <v>window.save.excel.classical.information.panel.text=&lt;html&gt;&lt;p&gt;Les fichiers suivants vont être générés : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="str">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
         <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B8,"=", 'Exporter Excel Reference'!C8),IF('Exporter Excel Reference'!C8&lt;&gt;"",'Exporter Excel Reference'!C8,""))</f>
         <v>window.save.excel.specific.check.label=Générer le fichier excel</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="str">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
         <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B9,"=", 'Exporter Excel Reference'!C9),IF('Exporter Excel Reference'!C9&lt;&gt;"",'Exporter Excel Reference'!C9,""))</f>
         <v>window.save.excel.reference.file.label=Excel de référence : %s</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="str">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
         <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B10,"=", 'Exporter Excel Reference'!C10),IF('Exporter Excel Reference'!C10&lt;&gt;"",'Exporter Excel Reference'!C10,""))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="str">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
         <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B11,"=", 'Exporter Excel Reference'!C11),IF('Exporter Excel Reference'!C11&lt;&gt;"",'Exporter Excel Reference'!C11,""))</f>
         <v>#Options de génération (commun)</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="str">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
         <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B12,"=", 'Exporter Excel Reference'!C12),IF('Exporter Excel Reference'!C12&lt;&gt;"",'Exporter Excel Reference'!C12,""))</f>
         <v xml:space="preserve">window.save.excel.options.title.panel=Options </v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="str">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
         <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B13,"=", 'Exporter Excel Reference'!C13),IF('Exporter Excel Reference'!C13&lt;&gt;"",'Exporter Excel Reference'!C13,""))</f>
         <v>window.save.excel.options.header.label=Afficher les libellés des balises dans les en-têtes des tableaux (RECOMMANDÉ)</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="str">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
         <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B14,"=", 'Exporter Excel Reference'!C14),IF('Exporter Excel Reference'!C14&lt;&gt;"",'Exporter Excel Reference'!C14,""))</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="str">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
         <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B15,"=", 'Exporter Excel Reference'!C15),IF('Exporter Excel Reference'!C15&lt;&gt;"",'Exporter Excel Reference'!C15,""))</f>
         <v># Pavé enregistrement excel (commun)</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="str">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
         <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B16,"=", 'Exporter Excel Reference'!C16),IF('Exporter Excel Reference'!C16&lt;&gt;"",'Exporter Excel Reference'!C16,""))</f>
         <v>window.save.excel.action.title.panel=Enregistrement des fichiers Excel</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="str">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
         <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B17,"=", 'Exporter Excel Reference'!C17),IF('Exporter Excel Reference'!C17&lt;&gt;"",'Exporter Excel Reference'!C17,""))</f>
         <v>window.save.excel.action.button.label=Enregistrer</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="str">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
         <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B18,"=", 'Exporter Excel Reference'!C18),IF('Exporter Excel Reference'!C18&lt;&gt;"",'Exporter Excel Reference'!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="str">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
         <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B19,"=", 'Exporter Excel Reference'!C19),IF('Exporter Excel Reference'!C19&lt;&gt;"",'Exporter Excel Reference'!C19,""))</f>
         <v># choix de l'emplacement du fichier (commun)</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="str">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
         <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B20,"=", 'Exporter Excel Reference'!C20),IF('Exporter Excel Reference'!C20&lt;&gt;"",'Exporter Excel Reference'!C20,""))</f>
         <v>window.file.picker.panel.label=Emplacement de l'enregistrement des Excel</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="str">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
         <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B21,"=", 'Exporter Excel Reference'!C21),IF('Exporter Excel Reference'!C21&lt;&gt;"",'Exporter Excel Reference'!C21,""))</f>
         <v>window.file.picker.panel.button=Parcourir...</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="str">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
         <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B22,"=", 'Exporter Excel Reference'!C22),IF('Exporter Excel Reference'!C22&lt;&gt;"",'Exporter Excel Reference'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="str">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
         <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B23,"=", 'Exporter Excel Reference'!C23),IF('Exporter Excel Reference'!C23&lt;&gt;"",'Exporter Excel Reference'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="str">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
         <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B24,"=", 'Exporter Excel Reference'!C24),IF('Exporter Excel Reference'!C24&lt;&gt;"",'Exporter Excel Reference'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="str">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
         <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B25,"=", 'Exporter Excel Reference'!C25),IF('Exporter Excel Reference'!C25&lt;&gt;"",'Exporter Excel Reference'!C25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="str">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
         <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B26,"=", 'Exporter Excel Reference'!C26),IF('Exporter Excel Reference'!C26&lt;&gt;"",'Exporter Excel Reference'!C26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="str">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
         <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B27,"=", 'Exporter Excel Reference'!C27),IF('Exporter Excel Reference'!C27&lt;&gt;"",'Exporter Excel Reference'!C27,""))</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="str">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
         <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B28,"=", 'Exporter Excel Reference'!C28),IF('Exporter Excel Reference'!C28&lt;&gt;"",'Exporter Excel Reference'!C28,""))</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="str">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
         <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B29,"=", 'Exporter Excel Reference'!C29),IF('Exporter Excel Reference'!C29&lt;&gt;"",'Exporter Excel Reference'!C29,""))</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="str">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
         <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B30,"=", 'Exporter Excel Reference'!C30),IF('Exporter Excel Reference'!C30&lt;&gt;"",'Exporter Excel Reference'!C30,""))</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="str">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
         <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B31,"=", 'Exporter Excel Reference'!C31),IF('Exporter Excel Reference'!C31&lt;&gt;"",'Exporter Excel Reference'!C31,""))</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="str">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
         <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B2,"=", 'Exporter Excel Personnalisé'!C2),IF('Exporter Excel Personnalisé'!C2&lt;&gt;"",'Exporter Excel Personnalisé'!C2,""))</f>
         <v>#Fenêtre Export Excel Personnalisé</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="str">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
         <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B3,"=", 'Exporter Excel Personnalisé'!C3),IF('Exporter Excel Personnalisé'!C3&lt;&gt;"",'Exporter Excel Personnalisé'!C3,""))</f>
         <v>window.file.picker.specific.panel.title=Choix du fichier excel personnalisé</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="str">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
         <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B4,"=", 'Exporter Excel Personnalisé'!C4),IF('Exporter Excel Personnalisé'!C4&lt;&gt;"",'Exporter Excel Personnalisé'!C4,""))</f>
         <v>window.save.excel.specific.panel.title=Enregistrer le fichier excel personnalisé</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="str">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
         <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B5,"=", 'Exporter Excel Personnalisé'!C5),IF('Exporter Excel Personnalisé'!C5&lt;&gt;"",'Exporter Excel Personnalisé'!C5,""))</f>
         <v>window.save.excel.specific.information.panel.title=Le fichier excel à générer</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="str">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
         <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B6,"=", 'Exporter Excel Personnalisé'!C6),IF('Exporter Excel Personnalisé'!C6&lt;&gt;"",'Exporter Excel Personnalisé'!C6,""))</f>
         <v>window.save.excel.specific.information.panel.text.nothing=Sélectionner le fichier le bouton parcourir pour pouvoir le générer</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="str">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
         <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B7,"=", 'Exporter Excel Personnalisé'!C7),IF('Exporter Excel Personnalisé'!C7&lt;&gt;"",'Exporter Excel Personnalisé'!C7,""))</f>
         <v>window.save.excel.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Le fichier suivant va être généré : &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="str">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
         <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B8,"=", 'Exporter Excel Personnalisé'!C8),IF('Exporter Excel Personnalisé'!C8&lt;&gt;"",'Exporter Excel Personnalisé'!C8,""))</f>
         <v>window.save.excel.specific.list.specific.panel.title=Choix du traitement à appliquer à la génération</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="str">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
         <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B9,"=", 'Exporter Excel Personnalisé'!C9),IF('Exporter Excel Personnalisé'!C9&lt;&gt;"",'Exporter Excel Personnalisé'!C9,""))</f>
         <v>window.save.excel.specific.list.specific.label=Choix de la méthode de traitement</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="str">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
         <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B10,"=", 'Exporter Excel Personnalisé'!C10),IF('Exporter Excel Personnalisé'!C10&lt;&gt;"",'Exporter Excel Personnalisé'!C10,""))</f>
         <v>window.save.excel.specific.list.specific.label.nothing=Aucun traitement</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="str">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
         <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B11,"=", 'Exporter Excel Personnalisé'!C11),IF('Exporter Excel Personnalisé'!C11&lt;&gt;"",'Exporter Excel Personnalisé'!C11,""))</f>
         <v>window.save.excel.specific.list.fields.title.panel=Liste des champs à générer</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
         <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B12,"=", 'Exporter Excel Personnalisé'!C12),IF('Exporter Excel Personnalisé'!C12&lt;&gt;"",'Exporter Excel Personnalisé'!C12,""))</f>
         <v>window.save.excel.specific.file.label=Fichier excel personnalisé : %s</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="str">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
         <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B13,"=", 'Exporter Excel Personnalisé'!C13),IF('Exporter Excel Personnalisé'!C13&lt;&gt;"",'Exporter Excel Personnalisé'!C13,""))</f>
         <v>window.save.excel.specific.action.title.panel=Action de masse</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="str">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
         <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B14,"=", 'Exporter Excel Personnalisé'!C14),IF('Exporter Excel Personnalisé'!C14&lt;&gt;"",'Exporter Excel Personnalisé'!C14,""))</f>
         <v>window.save.excel.specific.action.select.all=Selectionnez tous les champ ci-dessous</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="str">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
         <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B15,"=", 'Exporter Excel Personnalisé'!C15),IF('Exporter Excel Personnalisé'!C15&lt;&gt;"",'Exporter Excel Personnalisé'!C15,""))</f>
         <v>window.save.excel.specific.action.deselect.all=Deselectionnez tous les champ ci-dessous</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
         <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B16,"=", 'Exporter Excel Personnalisé'!C16),IF('Exporter Excel Personnalisé'!C16&lt;&gt;"",'Exporter Excel Personnalisé'!C16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="str">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
         <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B17,"=", 'Exporter Excel Personnalisé'!C17),IF('Exporter Excel Personnalisé'!C17&lt;&gt;"",'Exporter Excel Personnalisé'!C17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="str">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
         <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B18,"=", 'Exporter Excel Personnalisé'!C18),IF('Exporter Excel Personnalisé'!C18&lt;&gt;"",'Exporter Excel Personnalisé'!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="str">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
         <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B19,"=", 'Exporter Excel Personnalisé'!C19),IF('Exporter Excel Personnalisé'!C19&lt;&gt;"",'Exporter Excel Personnalisé'!C19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="str">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
         <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B20,"=", 'Exporter Excel Personnalisé'!C20),IF('Exporter Excel Personnalisé'!C20&lt;&gt;"",'Exporter Excel Personnalisé'!C20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="str">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
         <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B21,"=", 'Exporter Excel Personnalisé'!C21),IF('Exporter Excel Personnalisé'!C21&lt;&gt;"",'Exporter Excel Personnalisé'!C21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="str">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
         <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B22,"=", 'Exporter Excel Personnalisé'!C22),IF('Exporter Excel Personnalisé'!C22&lt;&gt;"",'Exporter Excel Personnalisé'!C22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="str">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
         <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B23,"=", 'Exporter Excel Personnalisé'!C23),IF('Exporter Excel Personnalisé'!C23&lt;&gt;"",'Exporter Excel Personnalisé'!C23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="str">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
         <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B24,"=", 'Exporter Excel Personnalisé'!C24),IF('Exporter Excel Personnalisé'!C24&lt;&gt;"",'Exporter Excel Personnalisé'!C24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="str">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
         <f>IF(Autres!B2&lt;&gt;"",CONCATENATE(Autres!B2,"=", Autres!C2),IF(Autres!C2&lt;&gt;"",Autres!C2,""))</f>
         <v>#Message reprise correction</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="str">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
         <f>IF(Autres!B3&lt;&gt;"",CONCATENATE(Autres!B3,"=", Autres!C3),IF(Autres!C3&lt;&gt;"",Autres!C3,""))</f>
         <v>window.recovery.error.state.answer=Une analyse en cours de correction a été detecté.\nSouhaitez vous reprendre la correction en cours ?</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="str">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
         <f>IF(Autres!B4&lt;&gt;"",CONCATENATE(Autres!B4,"=", Autres!C4),IF(Autres!C4&lt;&gt;"",Autres!C4,""))</f>
         <v>window.recovery.error.state.title=Reprendre</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="str">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
         <f>IF(Autres!B5&lt;&gt;"",CONCATENATE(Autres!B5,"=", Autres!C5),IF(Autres!C5&lt;&gt;"",Autres!C5,""))</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="str">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
         <f>IF(Autres!B6&lt;&gt;"",CONCATENATE(Autres!B6,"=", Autres!C6),IF(Autres!C6&lt;&gt;"",Autres!C6,""))</f>
         <v>#Fenêtre d'information</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="str">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
         <f>IF(Autres!B7&lt;&gt;"",CONCATENATE(Autres!B7,"=", Autres!C7),IF(Autres!C7&lt;&gt;"",Autres!C7,""))</f>
         <v>window.information.panel.label=Message d'information</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="str">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
         <f>IF(Autres!B8&lt;&gt;"",CONCATENATE(Autres!B8,"=", Autres!C8),IF(Autres!C8&lt;&gt;"",Autres!C8,""))</f>
         <v>window.information.message.panel.label=Message</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="str">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
         <f>IF(Autres!B9&lt;&gt;"",CONCATENATE(Autres!B9,"=", Autres!C9),IF(Autres!C9&lt;&gt;"",Autres!C9,""))</f>
         <v>window.information.action.panel.label=Action utilisateur</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="str">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
         <f>IF(Autres!B10&lt;&gt;"",CONCATENATE(Autres!B10,"=", Autres!C10),IF(Autres!C10&lt;&gt;"",Autres!C10,""))</f>
         <v>window.information.action.button.label=Fermer</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="str">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
         <f>IF(Autres!B11&lt;&gt;"",CONCATENATE(Autres!B11,"=", Autres!C11),IF(Autres!C11&lt;&gt;"",Autres!C11,""))</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="str">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
         <f>IF(Autres!B12&lt;&gt;"",CONCATENATE(Autres!B12,"=", Autres!C12),IF(Autres!C12&lt;&gt;"",Autres!C12,""))</f>
         <v>#Information pour le déplacement des fichiers</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="str">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
         <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!C13),IF(Autres!C13&lt;&gt;"",Autres!C13,""))</f>
         <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Les fichiers suivants n'ont pas pu être déplacé, car ils y sont déjà dans la bibliothéque : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="str">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
         <f>IF(Autres!B14&lt;&gt;"",CONCATENATE(Autres!B14,"=", Autres!C14),IF(Autres!C14&lt;&gt;"",Autres!C14,""))</f>
         <v>window.message.result.move.file=&lt;html&gt;&lt;p&gt;Les fichiers suivants ont été déplacé : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="str">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
         <f>IF(Autres!B15&lt;&gt;"",CONCATENATE(Autres!B15,"=", Autres!C15),IF(Autres!C15&lt;&gt;"",Autres!C15,""))</f>
         <v>window.message.unknow.error=&lt;html&gt;&lt;p&gt;Une erreur inconnu s'est produite : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="str">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
         <f>IF(Autres!B16&lt;&gt;"",CONCATENATE(Autres!B16,"=", Autres!C16),IF(Autres!C16&lt;&gt;"",Autres!C16,""))</f>
         <v xml:space="preserve">window.message.from=Depuis : </v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="str">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
         <f>IF(Autres!B17&lt;&gt;"",CONCATENATE(Autres!B17,"=", Autres!C17),IF(Autres!C17&lt;&gt;"",Autres!C17,""))</f>
         <v xml:space="preserve">window.message.to=Vers : </v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="str">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
         <f>IF(Autres!B18&lt;&gt;"",CONCATENATE(Autres!B18,"=", Autres!C18),IF(Autres!C18&lt;&gt;"",Autres!C18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="str">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
         <f>IF(Autres!B19&lt;&gt;"",CONCATENATE(Autres!B19,"=", Autres!C19),IF(Autres!C19&lt;&gt;"",Autres!C19,""))</f>
         <v>#Message de prevention en cas de suppression</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="str">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
         <f>IF(Autres!B20&lt;&gt;"",CONCATENATE(Autres!B20,"=", Autres!C20),IF(Autres!C20&lt;&gt;"",Autres!C20,""))</f>
         <v>window.manage.texts.delete.text.action.message.title=Message de prévention</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="str">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
         <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!C21),IF(Autres!C21&lt;&gt;"",Autres!C21,""))</f>
         <v>window.manage.texts.delete.text.action.message.content=Vous allez supprimer un texte du document.\nCette action sera irréversible.\nVoulez vous continuer ?</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="str">
-        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!C22),IF(Autres!C22&lt;&gt;"",Autres!C22,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="str">
-        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!C23),IF(Autres!C23&lt;&gt;"",Autres!C23,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="str">
-        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!C24),IF(Autres!C24&lt;&gt;"",Autres!C24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="str">
-        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!C25),IF(Autres!C25&lt;&gt;"",Autres!C25,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="str">
-        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!C26),IF(Autres!C26&lt;&gt;"",Autres!C26,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="str">
-        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!C27),IF(Autres!C27&lt;&gt;"",Autres!C27,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="str">
-        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!C28),IF(Autres!C28&lt;&gt;"",Autres!C28,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="str">
-        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!C29),IF(Autres!C29&lt;&gt;"",Autres!C29,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="str">
-        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!C30),IF(Autres!C30&lt;&gt;"",Autres!C30,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="str">
-        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!C31),IF(Autres!C31&lt;&gt;"",Autres!C31,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="str">
-        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!C32),IF(Autres!C32&lt;&gt;"",Autres!C32,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="str">
-        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!C33),IF(Autres!C33&lt;&gt;"",Autres!C33,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!C34),IF(Autres!C34&lt;&gt;"",Autres!C34,""))</f>
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!C22),IF(Autres!C22&lt;&gt;"",Autres!C22,""))</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
-        <v/>
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!C23),IF(Autres!C23&lt;&gt;"",Autres!C23,""))</f>
+        <v>#Information Assistant</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!C24),IF(Autres!C24&lt;&gt;"",Autres!C24,""))</f>
+        <v>window.wizard.navigation.panel.title=Navigation - Etape %d / %d</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!C25),IF(Autres!C25&lt;&gt;"",Autres!C25,""))</f>
+        <v>window.wizard.navigation.previous.button.label=Précédent</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!C26),IF(Autres!C26&lt;&gt;"",Autres!C26,""))</f>
+        <v>window.wizard.navigation.next.button.label=Suivant</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!C27),IF(Autres!C27&lt;&gt;"",Autres!C27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!C28),IF(Autres!C28&lt;&gt;"",Autres!C28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!C29),IF(Autres!C29&lt;&gt;"",Autres!C29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!C30),IF(Autres!C30&lt;&gt;"",Autres!C30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!C31),IF(Autres!C31&lt;&gt;"",Autres!C31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!C32),IF(Autres!C32&lt;&gt;"",Autres!C32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!C33),IF(Autres!C33&lt;&gt;"",Autres!C33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!C34),IF(Autres!C34&lt;&gt;"",Autres!C34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
         <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!C2),IF('Changer Configuration'!C2&lt;&gt;"",'Changer Configuration'!C2,""))</f>
         <v>#Message pour le changement de la configuration</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="str">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
         <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!C3),IF('Changer Configuration'!C3&lt;&gt;"",'Changer Configuration'!C3,""))</f>
         <v>window.change.configuration.title=Configuration courante</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="str">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
         <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!C4),IF('Changer Configuration'!C4&lt;&gt;"",'Changer Configuration'!C4,""))</f>
         <v>window.change.configuration.list.label=Configuration à utiliser :</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="str">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
         <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!C5),IF('Changer Configuration'!C5&lt;&gt;"",'Changer Configuration'!C5,""))</f>
         <v>window.change.configuration.panel.title=Changement de la configuration</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="str">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
         <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!C6),IF('Changer Configuration'!C6&lt;&gt;"",'Changer Configuration'!C6,""))</f>
         <v>window.change.configuration.message.panel.title=Message d'information</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="str">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!C7),IF('Changer Configuration'!C7&lt;&gt;"",'Changer Configuration'!C7,""))</f>
         <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuration de l’application Caerus est basée sur un fichier qui vous permet de configurer complètement l’interface en fonction des matériels textuels créés.&lt;br/&gt;Vous pouvez modifier la configuration des matériels et les utiliser avec l'interface de Caerus, vous pouvez également ajouter , modifier ou supprimer les paramètres en agissant dans le répertoire '%s'&lt;br/&gt;Des fenêtres graphiques seront bientôt ajoutées à l’application pour faciliter vos modifications&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="str">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
         <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!C8),IF('Changer Configuration'!C8&lt;&gt;"",'Changer Configuration'!C8,""))</f>
         <v>window.change.configuration.button.apply.and.close=Choisir cette configuration et fermer</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="str">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
         <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!C9),IF('Changer Configuration'!C9&lt;&gt;"",'Changer Configuration'!C9,""))</f>
         <v>window.change.configuration.button.close=Fermer</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="str">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
         <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!C10),IF('Changer Configuration'!C10&lt;&gt;"",'Changer Configuration'!C10,""))</f>
         <v>window.change.configuration.buttons.panel.title=Actions</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="str">
-        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!C11),IF('Changer Configuration'!C11&lt;&gt;"",'Changer Configuration'!C11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="str">
-        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!C12),IF('Changer Configuration'!C12&lt;&gt;"",'Changer Configuration'!C12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="str">
-        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!C13),IF('Changer Configuration'!C13&lt;&gt;"",'Changer Configuration'!C13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="str">
-        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!C14),IF('Changer Configuration'!C14&lt;&gt;"",'Changer Configuration'!C14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="str">
-        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!C15),IF('Changer Configuration'!C15&lt;&gt;"",'Changer Configuration'!C15,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="str">
-        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!C16),IF('Changer Configuration'!C16&lt;&gt;"",'Changer Configuration'!C16,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="str">
-        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!C17),IF('Changer Configuration'!C17&lt;&gt;"",'Changer Configuration'!C17,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="str">
-        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!C18),IF('Changer Configuration'!C18&lt;&gt;"",'Changer Configuration'!C18,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="str">
-        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!C19),IF('Changer Configuration'!C19&lt;&gt;"",'Changer Configuration'!C19,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="str">
-        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="str">
-        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="str">
-        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!C11),IF('Changer Configuration'!C11&lt;&gt;"",'Changer Configuration'!C11,""))</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!C12),IF('Changer Configuration'!C12&lt;&gt;"",'Changer Configuration'!C12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!C13),IF('Changer Configuration'!C13&lt;&gt;"",'Changer Configuration'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!C14),IF('Changer Configuration'!C14&lt;&gt;"",'Changer Configuration'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!C15),IF('Changer Configuration'!C15&lt;&gt;"",'Changer Configuration'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!C16),IF('Changer Configuration'!C16&lt;&gt;"",'Changer Configuration'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!C17),IF('Changer Configuration'!C17&lt;&gt;"",'Changer Configuration'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!C18),IF('Changer Configuration'!C18&lt;&gt;"",'Changer Configuration'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!C19),IF('Changer Configuration'!C19&lt;&gt;"",'Changer Configuration'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
         <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE('A propos'!B2,"=", 'A propos'!C2),IF('A propos'!C2&lt;&gt;"",'A propos'!C2,""))</f>
         <v>#Message pour la fenêtre a propos</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="str">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
         <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE('A propos'!B3,"=", 'A propos'!C3),IF('A propos'!C3&lt;&gt;"",'A propos'!C3,""))</f>
         <v>window.about.title=A propos</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="str">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!C4),IF('A propos'!C4&lt;&gt;"",'A propos'!C4,""))</f>
         <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="str">
-        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!C5),IF('A propos'!C5&lt;&gt;"",'A propos'!C5,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="str">
-        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!C6),IF('A propos'!C6&lt;&gt;"",'A propos'!C6,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="str">
-        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!C7),IF('A propos'!C7&lt;&gt;"",'A propos'!C7,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="str">
-        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!C8),IF('A propos'!C8&lt;&gt;"",'A propos'!C8,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="str">
-        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!C9),IF('A propos'!C9&lt;&gt;"",'A propos'!C9,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="str">
-        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!C10),IF('A propos'!C10&lt;&gt;"",'A propos'!C10,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="str">
-        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!C11),IF('A propos'!C11&lt;&gt;"",'A propos'!C11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="str">
-        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!C12),IF('A propos'!C12&lt;&gt;"",'A propos'!C12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="str">
-        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!C13),IF('A propos'!C13&lt;&gt;"",'A propos'!C13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="str">
-        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!C14),IF('A propos'!C14&lt;&gt;"",'A propos'!C14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="str">
-        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!C15),IF('A propos'!C15&lt;&gt;"",'A propos'!C15,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="str">
-        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!C16),IF('A propos'!C16&lt;&gt;"",'A propos'!C16,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!C5),IF('A propos'!C5&lt;&gt;"",'A propos'!C5,""))</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
-        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!C6),IF('A propos'!C6&lt;&gt;"",'A propos'!C6,""))</f>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
-        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!C7),IF('A propos'!C7&lt;&gt;"",'A propos'!C7,""))</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!C8),IF('A propos'!C8&lt;&gt;"",'A propos'!C8,""))</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
-        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!C19),IF('A propos'!C19&lt;&gt;"",'A propos'!C19,""))</f>
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!C9),IF('A propos'!C9&lt;&gt;"",'A propos'!C9,""))</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
-        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!C42),IF('A propos'!C20&lt;&gt;"",'A propos'!C20,""))</f>
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!C10),IF('A propos'!C10&lt;&gt;"",'A propos'!C10,""))</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
-        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE('A propos'!B21,"=", 'A propos'!C43),IF('A propos'!C21&lt;&gt;"",'A propos'!C21,""))</f>
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!C11),IF('A propos'!C11&lt;&gt;"",'A propos'!C11,""))</f>
         <v/>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!C12),IF('A propos'!C12&lt;&gt;"",'A propos'!C12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!C13),IF('A propos'!C13&lt;&gt;"",'A propos'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!C14),IF('A propos'!C14&lt;&gt;"",'A propos'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!C15),IF('A propos'!C15&lt;&gt;"",'A propos'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!C16),IF('A propos'!C16&lt;&gt;"",'A propos'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!C17),IF('A propos'!C17&lt;&gt;"",'A propos'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!C18),IF('A propos'!C18&lt;&gt;"",'A propos'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!C19),IF('A propos'!C19&lt;&gt;"",'A propos'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!C42),IF('A propos'!C20&lt;&gt;"",'A propos'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE('A propos'!B21,"=", 'A propos'!C43),IF('A propos'!C21&lt;&gt;"",'A propos'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
         <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE('A propos'!B22,"=", 'A propos'!C44),IF('A propos'!C22&lt;&gt;"",'A propos'!C22,""))</f>
         <v/>
       </c>
@@ -27777,10 +28013,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
-  <dimension ref="A1:A390"/>
+  <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A1:A390"/>
+    <sheetView showZeros="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A1:A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28193,1937 +28429,2003 @@
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B13,"=", 'Fenêtre erreur ligne'!D13),IF('Fenêtre erreur ligne'!D13&lt;&gt;"",'Fenêtre erreur ligne'!D13,""))</f>
-        <v>window.fixed.error.line.information.message=&lt;HTML&gt;&lt;P&gt;Para corregir la línea, debe realizar las siguientes acciones : &lt;OL&gt;&lt;LI&gt;Seleccione la etiqueta de la lista&lt;/LI&gt;&lt;LI&gt;Rellene el campo de texto con el contenido de texto de la etiqueta&lt;/LI&gt;&lt;LI&gt;Compruebe la etiqueta corregida&lt;/LI&gt;&lt;/OL&gt;&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>window.fixed.error.line.list.field.label=Lista de etiquetas</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B14,"=", 'Fenêtre erreur ligne'!D14),IF('Fenêtre erreur ligne'!D14&lt;&gt;"",'Fenêtre erreur ligne'!D14,""))</f>
-        <v>window.fixed.error.line.list.field.label=Lista de etiquetas</v>
+        <v>window.fixed.error.line.list.field.panel.title=Elección de la etiqueta</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B15,"=", 'Fenêtre erreur ligne'!D15),IF('Fenêtre erreur ligne'!D15&lt;&gt;"",'Fenêtre erreur ligne'!D15,""))</f>
-        <v>window.fixed.error.line.list.field.panel.title=Corrección de etiqueta y contenido de texto</v>
+        <v>window.fixed.error.line.information.message.etape2=&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B16,"=", 'Fenêtre erreur ligne'!D16),IF('Fenêtre erreur ligne'!D16&lt;&gt;"",'Fenêtre erreur ligne'!D16,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.fixed.user.default.label=Pendiente de selección de la etiqueta : </v>
+        <v>window.fixed.error.line.information.message.etape3=&lt;HTML&gt;&lt;P&gt;¿Cuál es el contenido de la etiqueta?&lt;BR/&gt;Para seleccionar los datos de texto de la etiqueta, utilice el ratón,&lt;BR/&gt;seleccione la parte correspondiente a los datos de texto&lt;BR/&gt;en el área a la izquierda del botón 'identificar ' y haga clic en él.&lt;BR/&gt;El cuadro de texto de abajo se ha actualizado con el contenido que usted&lt;BR/&gt;ha seleccionado, esto le conviene haga clic en siguiente si no, reinicie.&lt;BR/&gt;Nota: Si el texto no es completo o erróneo, podrá editarlo&lt;BR/&gt;en el siguiente paso.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B17,"=", 'Fenêtre erreur ligne'!D17),IF('Fenêtre erreur ligne'!D17&lt;&gt;"",'Fenêtre erreur ligne'!D17,""))</f>
-        <v/>
+        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;modificar en el cuadro de texto siguiente,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B18,"=", 'Fenêtre erreur ligne'!D18),IF('Fenêtre erreur ligne'!D18&lt;&gt;"",'Fenêtre erreur ligne'!D18,""))</f>
-        <v/>
+        <v>window.fixed.error.line.selected.data.panel.title=Selección de los datos</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B19,"=", 'Fenêtre erreur ligne'!D19),IF('Fenêtre erreur ligne'!D19&lt;&gt;"",'Fenêtre erreur ligne'!D19,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.selected.data.select.text.label=Contenido completo de la línea : </v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B20,"=", 'Fenêtre erreur ligne'!D20),IF('Fenêtre erreur ligne'!D20&lt;&gt;"",'Fenêtre erreur ligne'!D20,""))</f>
-        <v/>
+        <v xml:space="preserve">window.fixed.error.line.selected.data.selected.text.label=Datos seleccionados : </v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
+        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B21,"=", 'Fenêtre erreur ligne'!D21),IF('Fenêtre erreur ligne'!D21&lt;&gt;"",'Fenêtre erreur ligne'!D21,""))</f>
+        <v>window.fixed.error.line.selected.data.select.text.button.label=Identificar</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B22,"=", 'Fenêtre erreur ligne'!D22),IF('Fenêtre erreur ligne'!D22&lt;&gt;"",'Fenêtre erreur ligne'!D22,""))</f>
+        <v>window.fixed.error.line.fixed.edit.text.label=Datos de la etiqueta :</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B23,"=", 'Fenêtre erreur ligne'!D23),IF('Fenêtre erreur ligne'!D23&lt;&gt;"",'Fenêtre erreur ligne'!D23,""))</f>
+        <v>window.fixed.error.line.fixed.panel.title=Edición de los datos</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B24,"=", 'Fenêtre erreur ligne'!D24),IF('Fenêtre erreur ligne'!D24&lt;&gt;"",'Fenêtre erreur ligne'!D24,""))</f>
+        <v>window.fixed.error.line.wizard.panel.title=Asistente de corrección de línea</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B25,"=", 'Fenêtre erreur ligne'!D25),IF('Fenêtre erreur ligne'!D25&lt;&gt;"",'Fenêtre erreur ligne'!D25,""))</f>
+        <v>window.fixed.error.line.mode.panel.title= Modo de corrección</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B26,"=", 'Fenêtre erreur ligne'!D26),IF('Fenêtre erreur ligne'!D26&lt;&gt;"",'Fenêtre erreur ligne'!D26,""))</f>
+        <v>window.fixed.error.line.mode.wizard.label=Asistente</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B27,"=", 'Fenêtre erreur ligne'!D27),IF('Fenêtre erreur ligne'!D27&lt;&gt;"",'Fenêtre erreur ligne'!D27,""))</f>
+        <v>window.fixed.error.line.mode.expert.label=Experto</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B28,"=", 'Fenêtre erreur ligne'!D28),IF('Fenêtre erreur ligne'!D28&lt;&gt;"",'Fenêtre erreur ligne'!D28,""))</f>
+        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Modo experto: En modo experto puede cambiar la etiqueta corregida arriba&lt;BR/&gt;Y cuando todo está bien puede hacer clic en el botón de corrección y pasar al siguiente&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B29,"=", 'Fenêtre erreur ligne'!D29),IF('Fenêtre erreur ligne'!D29&lt;&gt;"",'Fenêtre erreur ligne'!D29,""))</f>
+        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;Haga clic en siguiente para comenzar la corrección.&lt;BR/&gt;NB: En cualquier momento usted puede volver atrás con el botón anterior.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B30,"=", 'Fenêtre erreur ligne'!D30),IF('Fenêtre erreur ligne'!D30&lt;&gt;"",'Fenêtre erreur ligne'!D30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF('Fenêtre erreur ligne'!B31&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B31,"=", 'Fenêtre erreur ligne'!D31),IF('Fenêtre erreur ligne'!D31&lt;&gt;"",'Fenêtre erreur ligne'!D31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
         <f>IF('Correction Edit texte'!B2&lt;&gt;"",CONCATENATE('Correction Edit texte'!B2,"=", 'Correction Edit texte'!D2),IF('Correction Edit texte'!D2&lt;&gt;"",'Correction Edit texte'!D2,""))</f>
         <v># Pantalla corregir error de línea</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE('Correction Edit texte'!B3,"=", 'Correction Edit texte'!D3),IF('Correction Edit texte'!D3&lt;&gt;"",'Correction Edit texte'!D3,""))</f>
         <v>window.fixed.text.title=Corrección de los materiales</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE('Correction Edit texte'!B4,"=", 'Correction Edit texte'!D4),IF('Correction Edit texte'!D4&lt;&gt;"",'Correction Edit texte'!D4,""))</f>
         <v>window.fixed.text.action.panel.title=Corrección del texto %d / %d</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE('Correction Edit texte'!B5,"=", 'Correction Edit texte'!D5),IF('Correction Edit texte'!D5&lt;&gt;"",'Correction Edit texte'!D5,""))</f>
         <v>window.fixed.text.action.fill.specific.button.title=Corrección de informaciones específicas</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE('Correction Edit texte'!B6,"=", 'Correction Edit texte'!D6),IF('Correction Edit texte'!D6&lt;&gt;"",'Correction Edit texte'!D6,""))</f>
         <v>window.fixed.text.action.next.button.title=Corregir y pasar al texto siguiente</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
         <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE('Correction Edit texte'!B7,"=", 'Correction Edit texte'!D7),IF('Correction Edit texte'!D7&lt;&gt;"",'Correction Edit texte'!D7,""))</f>
         <v>window.fixed.text.action.next.and.save.button.title=Corregir y salir</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
         <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE('Correction Edit texte'!B8,"=", 'Correction Edit texte'!D8),IF('Correction Edit texte'!D8&lt;&gt;"",'Correction Edit texte'!D8,""))</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
         <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE('Correction Edit texte'!B9,"=", 'Correction Edit texte'!D9),IF('Correction Edit texte'!D9&lt;&gt;"",'Correction Edit texte'!D9,""))</f>
         <v># Información del documento (utilizado para crear, editar, corregir textos)</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
         <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE('Correction Edit texte'!B10,"=", 'Correction Edit texte'!D10),IF('Correction Edit texte'!D10&lt;&gt;"",'Correction Edit texte'!D10,""))</f>
         <v xml:space="preserve">window.create.text.content.panel.title=Información acerca del material </v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
         <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE('Correction Edit texte'!B11,"=", 'Correction Edit texte'!D11),IF('Correction Edit texte'!D11&lt;&gt;"",'Correction Edit texte'!D11,""))</f>
         <v>window.create.text.file.panel.title=Información del documento</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE('Correction Edit texte'!B12,"=", 'Correction Edit texte'!D12),IF('Correction Edit texte'!D12&lt;&gt;"",'Correction Edit texte'!D12,""))</f>
         <v>window.create.text.name.label=Nombre del documento :</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE('Correction Edit texte'!B13,"=", 'Correction Edit texte'!D13),IF('Correction Edit texte'!D13&lt;&gt;"",'Correction Edit texte'!D13,""))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE('Correction Edit texte'!B14,"=", 'Correction Edit texte'!D14),IF('Correction Edit texte'!D14&lt;&gt;"",'Correction Edit texte'!D14,""))</f>
         <v># Pantalla de Edición</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE('Correction Edit texte'!B15,"=", 'Correction Edit texte'!D15),IF('Correction Edit texte'!D15&lt;&gt;"",'Correction Edit texte'!D15,""))</f>
         <v>window.manage.texts.edit.text.panel.title=Consultar/Editar los materiales</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE('Correction Edit texte'!B16,"=", 'Correction Edit texte'!D16),IF('Correction Edit texte'!D16&lt;&gt;"",'Correction Edit texte'!D16,""))</f>
         <v>window.manage.texts.edit.text.action.panel.title=Guardar el material</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE('Correction Edit texte'!B17,"=", 'Correction Edit texte'!D17),IF('Correction Edit texte'!D17&lt;&gt;"",'Correction Edit texte'!D17,""))</f>
         <v>window.manage.texts.edit.text.action.fill.specific.button.title=Editar informaciones específicas</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE('Correction Edit texte'!B18,"=", 'Correction Edit texte'!D18),IF('Correction Edit texte'!D18&lt;&gt;"",'Correction Edit texte'!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE('Correction Edit texte'!B19,"=", 'Correction Edit texte'!D19),IF('Correction Edit texte'!D19&lt;&gt;"",'Correction Edit texte'!D19,""))</f>
         <v># Utilizado en edición de corpus y texto</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE('Correction Edit texte'!B20,"=", 'Correction Edit texte'!D20),IF('Correction Edit texte'!D20&lt;&gt;"",'Correction Edit texte'!D20,""))</f>
         <v>window.manage.texts.edit.text.action.button.save.and.quit.label=Guardar los cambios y cerrar</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE('Correction Edit texte'!B21,"=", 'Correction Edit texte'!D21),IF('Correction Edit texte'!D21&lt;&gt;"",'Correction Edit texte'!D21,""))</f>
         <v>window.manage.texts.edit.text.action.button.quit.label=Cerrar</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE('Correction Edit texte'!B22,"=", 'Correction Edit texte'!D22),IF('Correction Edit texte'!D22&lt;&gt;"",'Correction Edit texte'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE('Correction Edit texte'!B23,"=", 'Correction Edit texte'!D23),IF('Correction Edit texte'!D23&lt;&gt;"",'Correction Edit texte'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE('Correction Edit texte'!B24,"=", 'Correction Edit texte'!D24),IF('Correction Edit texte'!D24&lt;&gt;"",'Correction Edit texte'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
         <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE('Correction Edit texte'!B25,"=", 'Correction Edit texte'!D25),IF('Correction Edit texte'!D25&lt;&gt;"",'Correction Edit texte'!D25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
         <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE('Correction Edit texte'!B26,"=", 'Correction Edit texte'!D26),IF('Correction Edit texte'!D26&lt;&gt;"",'Correction Edit texte'!D26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
         <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B2,"=", 'Fenêtre spécifique'!D2),IF('Fenêtre spécifique'!D2&lt;&gt;"",'Fenêtre spécifique'!D2,""))</f>
         <v># Pantalla corregir error de línea</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B3,"=", 'Fenêtre spécifique'!D3),IF('Fenêtre spécifique'!D3&lt;&gt;"",'Fenêtre spécifique'!D3,""))</f>
         <v>window.fixed.specific.title=Corrección de las informaciones específicas</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B4,"=", 'Fenêtre spécifique'!D4),IF('Fenêtre spécifique'!D4&lt;&gt;"",'Fenêtre spécifique'!D4,""))</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B5,"=", 'Fenêtre spécifique'!D5),IF('Fenêtre spécifique'!D5&lt;&gt;"",'Fenêtre spécifique'!D5,""))</f>
         <v># Título Edición información específica</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B6,"=", 'Fenêtre spécifique'!D6),IF('Fenêtre spécifique'!D6&lt;&gt;"",'Fenêtre spécifique'!D6,""))</f>
         <v>window.edit.specific.title=Edición de las informaciones específicas</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
         <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B7,"=", 'Fenêtre spécifique'!D7),IF('Fenêtre spécifique'!D7&lt;&gt;"",'Fenêtre spécifique'!D7,""))</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
         <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B8,"=", 'Fenêtre spécifique'!D8),IF('Fenêtre spécifique'!D8&lt;&gt;"",'Fenêtre spécifique'!D8,""))</f>
         <v># Pantalla de creación específica</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
         <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B9,"=", 'Fenêtre spécifique'!D9),IF('Fenêtre spécifique'!D9&lt;&gt;"",'Fenêtre spécifique'!D9,""))</f>
         <v xml:space="preserve">window.create.specific.title=Creación de las informaciones específicas </v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
         <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B10,"=", 'Fenêtre spécifique'!D10),IF('Fenêtre spécifique'!D10&lt;&gt;"",'Fenêtre spécifique'!D10,""))</f>
         <v>window.create.specific.context.panel.title=Información del documento</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
         <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B11,"=", 'Fenêtre spécifique'!D11),IF('Fenêtre spécifique'!D11&lt;&gt;"",'Fenêtre spécifique'!D11,""))</f>
         <v>window.create.specific.context.panel.file.label=Nombre del material :</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
         <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B12,"=", 'Fenêtre spécifique'!D12),IF('Fenêtre spécifique'!D12&lt;&gt;"",'Fenêtre spécifique'!D12,""))</f>
         <v>window.create.specific.details.panel.title=Visualización de la estructura</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
         <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B13,"=", 'Fenêtre spécifique'!D13),IF('Fenêtre spécifique'!D13&lt;&gt;"",'Fenêtre spécifique'!D13,""))</f>
         <v>window.create.specific.action.panel.button.previous.label=Anterior</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
         <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B14,"=", 'Fenêtre spécifique'!D14),IF('Fenêtre spécifique'!D14&lt;&gt;"",'Fenêtre spécifique'!D14,""))</f>
         <v>window.create.specific.action.panel.button.next.label=Siguiente</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
         <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B15,"=", 'Fenêtre spécifique'!D15),IF('Fenêtre spécifique'!D15&lt;&gt;"",'Fenêtre spécifique'!D15,""))</f>
         <v xml:space="preserve">window.create.specific.create.panel.title=Completa las informaciones específicas </v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
         <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B16,"=", 'Fenêtre spécifique'!D16),IF('Fenêtre spécifique'!D16&lt;&gt;"",'Fenêtre spécifique'!D16,""))</f>
         <v>window.create.specific.create.panel.action.modify.label=Editar</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
         <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B17,"=", 'Fenêtre spécifique'!D17),IF('Fenêtre spécifique'!D17&lt;&gt;"",'Fenêtre spécifique'!D17,""))</f>
         <v>window.create.specific.create.panel.action.add.label=Añadir</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
         <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B18,"=", 'Fenêtre spécifique'!D18),IF('Fenêtre spécifique'!D18&lt;&gt;"",'Fenêtre spécifique'!D18,""))</f>
         <v>window.create.specific.create.panel.action.delete.label=Suprimir</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
         <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B19,"=", 'Fenêtre spécifique'!D19),IF('Fenêtre spécifique'!D19&lt;&gt;"",'Fenêtre spécifique'!D19,""))</f>
         <v>window.create.specific.action.panel.button.finish.label=Terminar</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
         <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B20,"=", 'Fenêtre spécifique'!D20),IF('Fenêtre spécifique'!D20&lt;&gt;"",'Fenêtre spécifique'!D20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
         <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B21,"=", 'Fenêtre spécifique'!D21),IF('Fenêtre spécifique'!D21&lt;&gt;"",'Fenêtre spécifique'!D21,""))</f>
         <v># Información para el específico</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
         <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B22,"=", 'Fenêtre spécifique'!D22),IF('Fenêtre spécifique'!D22&lt;&gt;"",'Fenêtre spécifique'!D22,""))</f>
         <v>window.specific.information.panel.title=Información de uso</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B23,"=", 'Fenêtre spécifique'!D23),IF('Fenêtre spécifique'!D23&lt;&gt;"",'Fenêtre spécifique'!D23,""))</f>
         <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
         <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B24,"=", 'Fenêtre spécifique'!D24),IF('Fenêtre spécifique'!D24&lt;&gt;"",'Fenêtre spécifique'!D24,""))</f>
         <v>window.specific.warning.panel.title=Errores detectados</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
         <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B25,"=", 'Fenêtre spécifique'!D25),IF('Fenêtre spécifique'!D25&lt;&gt;"",'Fenêtre spécifique'!D25,""))</f>
         <v>window.specific.warning.panel.text=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;PRECAUCIÓN:&lt;/u&gt;&lt;/b&gt;&lt;br/&gt;&lt;br/&gt;Se detectaron errores estructurales.&lt;br/&gt;Complete las siguientes tablas para corregirlos.&lt;br/&gt;Una vez que se hayan corregido los errores este mensaje desaparecerá.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B26,"=", 'Fenêtre spécifique'!D26),IF('Fenêtre spécifique'!D26&lt;&gt;"",'Fenêtre spécifique'!D26,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B27,"=", 'Fenêtre spécifique'!D27),IF('Fenêtre spécifique'!D27&lt;&gt;"",'Fenêtre spécifique'!D27,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B28,"=", 'Fenêtre spécifique'!D28),IF('Fenêtre spécifique'!D28&lt;&gt;"",'Fenêtre spécifique'!D28,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B29,"=", 'Fenêtre spécifique'!D29),IF('Fenêtre spécifique'!D29&lt;&gt;"",'Fenêtre spécifique'!D29,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B30,"=", 'Fenêtre spécifique'!D30),IF('Fenêtre spécifique'!D30&lt;&gt;"",'Fenêtre spécifique'!D30,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B31,"=", 'Fenêtre spécifique'!D31),IF('Fenêtre spécifique'!D31&lt;&gt;"",'Fenêtre spécifique'!D31,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B32,"=", 'Fenêtre spécifique'!D32),IF('Fenêtre spécifique'!D32&lt;&gt;"",'Fenêtre spécifique'!D32,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B33,"=", 'Fenêtre spécifique'!D33),IF('Fenêtre spécifique'!D33&lt;&gt;"",'Fenêtre spécifique'!D33,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B34,"=", 'Fenêtre spécifique'!D34),IF('Fenêtre spécifique'!D34&lt;&gt;"",'Fenêtre spécifique'!D34,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B35,"=", 'Fenêtre spécifique'!D35),IF('Fenêtre spécifique'!D35&lt;&gt;"",'Fenêtre spécifique'!D35,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B36,"=", 'Fenêtre spécifique'!D36),IF('Fenêtre spécifique'!D36&lt;&gt;"",'Fenêtre spécifique'!D36,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B37,"=", 'Fenêtre spécifique'!D37),IF('Fenêtre spécifique'!D37&lt;&gt;"",'Fenêtre spécifique'!D37,""))</f>
+        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B26,"=", 'Fenêtre spécifique'!D26),IF('Fenêtre spécifique'!D26&lt;&gt;"",'Fenêtre spécifique'!D26,""))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
+        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B27,"=", 'Fenêtre spécifique'!D27),IF('Fenêtre spécifique'!D27&lt;&gt;"",'Fenêtre spécifique'!D27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B28,"=", 'Fenêtre spécifique'!D28),IF('Fenêtre spécifique'!D28&lt;&gt;"",'Fenêtre spécifique'!D28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B29,"=", 'Fenêtre spécifique'!D29),IF('Fenêtre spécifique'!D29&lt;&gt;"",'Fenêtre spécifique'!D29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B30,"=", 'Fenêtre spécifique'!D30),IF('Fenêtre spécifique'!D30&lt;&gt;"",'Fenêtre spécifique'!D30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B31,"=", 'Fenêtre spécifique'!D31),IF('Fenêtre spécifique'!D31&lt;&gt;"",'Fenêtre spécifique'!D31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B32,"=", 'Fenêtre spécifique'!D32),IF('Fenêtre spécifique'!D32&lt;&gt;"",'Fenêtre spécifique'!D32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B33,"=", 'Fenêtre spécifique'!D33),IF('Fenêtre spécifique'!D33&lt;&gt;"",'Fenêtre spécifique'!D33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B34,"=", 'Fenêtre spécifique'!D34),IF('Fenêtre spécifique'!D34&lt;&gt;"",'Fenêtre spécifique'!D34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B35,"=", 'Fenêtre spécifique'!D35),IF('Fenêtre spécifique'!D35&lt;&gt;"",'Fenêtre spécifique'!D35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B36,"=", 'Fenêtre spécifique'!D36),IF('Fenêtre spécifique'!D36&lt;&gt;"",'Fenêtre spécifique'!D36,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B37,"=", 'Fenêtre spécifique'!D37),IF('Fenêtre spécifique'!D37&lt;&gt;"",'Fenêtre spécifique'!D37,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
         <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B2,"=", 'Fenêtre Chargement document'!D2),IF('Fenêtre Chargement document'!D2&lt;&gt;"",'Fenêtre Chargement document'!D2,""))</f>
         <v>#Ventana cargar texto</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B3,"=", 'Fenêtre Chargement document'!D3),IF('Fenêtre Chargement document'!D3&lt;&gt;"",'Fenêtre Chargement document'!D3,""))</f>
         <v>window.type.configuration.DIDACTIC=modo Básico</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B4,"=", 'Fenêtre Chargement document'!D4),IF('Fenêtre Chargement document'!D4&lt;&gt;"",'Fenêtre Chargement document'!D4,""))</f>
         <v>window.type.configuration.DIDACTIC_EXPERT=modo Personalizado</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B5,"=", 'Fenêtre Chargement document'!D5),IF('Fenêtre Chargement document'!D5&lt;&gt;"",'Fenêtre Chargement document'!D5,""))</f>
         <v>window.load.texts.title=Cargar los documentos</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B6,"=", 'Fenêtre Chargement document'!D6),IF('Fenêtre Chargement document'!D6&lt;&gt;"",'Fenêtre Chargement document'!D6,""))</f>
         <v>window.load.texts.type.configuration.panel.title=Opciones de la configuración</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B7,"=", 'Fenêtre Chargement document'!D7),IF('Fenêtre Chargement document'!D7&lt;&gt;"",'Fenêtre Chargement document'!D7,""))</f>
         <v>window.load.texts.type.configuration.label=Configuración :</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B8,"=", 'Fenêtre Chargement document'!D8),IF('Fenêtre Chargement document'!D8&lt;&gt;"",'Fenêtre Chargement document'!D8,""))</f>
         <v>window.load.texts.type.configuration.expert.label=Configuración de la biblioteca: NO EXISTE AUN</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B9,"=", 'Fenêtre Chargement document'!D9),IF('Fenêtre Chargement document'!D9&lt;&gt;"",'Fenêtre Chargement document'!D9,""))</f>
         <v>window.load.texts.folder.panel.title=Elegir su biblioteca</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B10,"=", 'Fenêtre Chargement document'!D10),IF('Fenêtre Chargement document'!D10&lt;&gt;"",'Fenêtre Chargement document'!D10,""))</f>
         <v>window.load.texts.folder.label=Carpeta de los documentos:</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B11,"=", 'Fenêtre Chargement document'!D11),IF('Fenêtre Chargement document'!D11&lt;&gt;"",'Fenêtre Chargement document'!D11,""))</f>
         <v>window.load.texts.folder.button.label=Abrir...</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B12,"=", 'Fenêtre Chargement document'!D12),IF('Fenêtre Chargement document'!D12&lt;&gt;"",'Fenêtre Chargement document'!D12,""))</f>
         <v>window.load.texts.folder.button.folder.choose.title=Elegir su biblioteca</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B13,"=", 'Fenêtre Chargement document'!D13),IF('Fenêtre Chargement document'!D13&lt;&gt;"",'Fenêtre Chargement document'!D13,""))</f>
         <v>window.load.texts.start.button.label=Cargar mi biblioteca</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B14,"=", 'Fenêtre Chargement document'!D14),IF('Fenêtre Chargement document'!D14&lt;&gt;"",'Fenêtre Chargement document'!D14,""))</f>
         <v>window.load.texts.start.panel.title=Acciones</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B15,"=", 'Fenêtre Chargement document'!D15),IF('Fenêtre Chargement document'!D15&lt;&gt;"",'Fenêtre Chargement document'!D15,""))</f>
         <v>window.load.texts.informations.panel.title=Informaciones</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B16,"=", 'Fenêtre Chargement document'!D16),IF('Fenêtre Chargement document'!D16&lt;&gt;"",'Fenêtre Chargement document'!D16,""))</f>
         <v>window.load.texts.informations.message=&lt;HTML&gt;&lt;P&gt;Se cargarán los siguientes archivos : &lt;BR /&gt;&lt;BR /&gt; %s &lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B17,"=", 'Fenêtre Chargement document'!D17),IF('Fenêtre Chargement document'!D17&lt;&gt;"",'Fenêtre Chargement document'!D17,""))</f>
         <v>window.load.texts.warning.panel.title=No se pudo cargar los documentos</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B18,"=", 'Fenêtre Chargement document'!D18),IF('Fenêtre Chargement document'!D18&lt;&gt;"",'Fenêtre Chargement document'!D18,""))</f>
         <v>window.load.texts.warning.message=&lt;HTML&gt;&lt;P&gt;Los archivos no se pueden cargar.&lt;BR /&gt;Se han detectado archivos que no tienen el formato . txt.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B19,"=", 'Fenêtre Chargement document'!D19),IF('Fenêtre Chargement document'!D19&lt;&gt;"",'Fenêtre Chargement document'!D19,""))</f>
         <v>window.load.texts.informations.message.default=&lt;HTML&gt;&lt;P&gt;Seleccione una carpeta con el botón Abrir&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B20,"=", 'Fenêtre Chargement document'!D20),IF('Fenêtre Chargement document'!D20&lt;&gt;"",'Fenêtre Chargement document'!D20,""))</f>
         <v>window.load.texts.choose.search.panel.title=Opciones de carga</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B21,"=", 'Fenêtre Chargement document'!D21),IF('Fenêtre Chargement document'!D21&lt;&gt;"",'Fenêtre Chargement document'!D21,""))</f>
         <v>window.load.texts.choose.search.label=Cargar documentos en subcarpetas</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
         <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B22,"=", 'Fenêtre Chargement document'!D22),IF('Fenêtre Chargement document'!D22&lt;&gt;"",'Fenêtre Chargement document'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
         <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B23,"=", 'Fenêtre Chargement document'!D23),IF('Fenêtre Chargement document'!D23&lt;&gt;"",'Fenêtre Chargement document'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
         <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE('Fenêtre Chargement document'!B24,"=", 'Fenêtre Chargement document'!D24),IF('Fenêtre Chargement document'!D24&lt;&gt;"",'Fenêtre Chargement document'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
         <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B2,"=", 'Choix bibliotheque texte'!D2),IF('Choix bibliotheque texte'!D2&lt;&gt;"",'Choix bibliotheque texte'!D2,""))</f>
         <v>#Cargando textos librería</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
         <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B3,"=", 'Choix bibliotheque texte'!D3),IF('Choix bibliotheque texte'!D3&lt;&gt;"",'Choix bibliotheque texte'!D3,""))</f>
         <v>window.load.texts.folder.library.button.folder.choose.title=Elegir su biblioteca</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
         <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B4,"=", 'Choix bibliotheque texte'!D4),IF('Choix bibliotheque texte'!D4&lt;&gt;"",'Choix bibliotheque texte'!D4,""))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
         <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B5,"=", 'Choix bibliotheque texte'!D5),IF('Choix bibliotheque texte'!D5&lt;&gt;"",'Choix bibliotheque texte'!D5,""))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
         <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B6,"=", 'Choix bibliotheque texte'!D6),IF('Choix bibliotheque texte'!D6&lt;&gt;"",'Choix bibliotheque texte'!D6,""))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
         <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B7,"=", 'Choix bibliotheque texte'!D7),IF('Choix bibliotheque texte'!D7&lt;&gt;"",'Choix bibliotheque texte'!D7,""))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
         <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B8,"=", 'Choix bibliotheque texte'!D8),IF('Choix bibliotheque texte'!D8&lt;&gt;"",'Choix bibliotheque texte'!D8,""))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
         <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B9,"=", 'Choix bibliotheque texte'!D9),IF('Choix bibliotheque texte'!D9&lt;&gt;"",'Choix bibliotheque texte'!D9,""))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
         <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B10,"=", 'Choix bibliotheque texte'!D10),IF('Choix bibliotheque texte'!D10&lt;&gt;"",'Choix bibliotheque texte'!D10,""))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
         <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B11,"=", 'Choix bibliotheque texte'!D11),IF('Choix bibliotheque texte'!D11&lt;&gt;"",'Choix bibliotheque texte'!D11,""))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
         <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE('Choix bibliotheque texte'!B12,"=", 'Choix bibliotheque texte'!D12),IF('Choix bibliotheque texte'!D12&lt;&gt;"",'Choix bibliotheque texte'!D12,""))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
         <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B2,"=", 'Fenetre Corpus'!D2),IF('Fenetre Corpus'!D2&lt;&gt;"",'Fenetre Corpus'!D2,""))</f>
         <v>#Pantalla Corpus</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
         <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B3,"=", 'Fenetre Corpus'!D3),IF('Fenetre Corpus'!D3&lt;&gt;"",'Fenetre Corpus'!D3,""))</f>
         <v>window.create.corpus.title=Creación de un material</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
         <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B4,"=", 'Fenetre Corpus'!D4),IF('Fenetre Corpus'!D4&lt;&gt;"",'Fenetre Corpus'!D4,""))</f>
         <v>window.create.corpus.file.panel.title=Información del documento</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
         <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B5,"=", 'Fenetre Corpus'!D5),IF('Fenetre Corpus'!D5&lt;&gt;"",'Fenetre Corpus'!D5,""))</f>
         <v>window.create.corpus.name.label=Nombre del documento</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
         <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B6,"=", 'Fenetre Corpus'!D6),IF('Fenetre Corpus'!D6&lt;&gt;"",'Fenetre Corpus'!D6,""))</f>
         <v>window.create.corpus.content.panel.title=Informaciones acerca del documento</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
         <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B7,"=", 'Fenetre Corpus'!D7),IF('Fenetre Corpus'!D7&lt;&gt;"",'Fenetre Corpus'!D7,""))</f>
         <v>window.create.corpus.action.panel.title=Acciones</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
         <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B8,"=", 'Fenetre Corpus'!D8),IF('Fenetre Corpus'!D8&lt;&gt;"",'Fenetre Corpus'!D8,""))</f>
         <v xml:space="preserve">window.create.corpus.action.create.text.button.title=Añadir un material </v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
         <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B9,"=", 'Fenetre Corpus'!D9),IF('Fenetre Corpus'!D9&lt;&gt;"",'Fenetre Corpus'!D9,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.title=Editar los encabezados</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
         <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B10,"=", 'Fenetre Corpus'!D10),IF('Fenetre Corpus'!D10&lt;&gt;"",'Fenetre Corpus'!D10,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.save.quit.button.label=Finalizar y guardar las correcciones</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
         <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B11,"=", 'Fenetre Corpus'!D11),IF('Fenetre Corpus'!D11&lt;&gt;"",'Fenetre Corpus'!D11,""))</f>
         <v>window.fixed.error.meta.blank.line.panel.save.next.button.label=Corregir y pasar a la siguiente</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
         <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B12,"=", 'Fenetre Corpus'!D12),IF('Fenetre Corpus'!D12&lt;&gt;"",'Fenetre Corpus'!D12,""))</f>
         <v>window.manage.corpus.title=Consultar/Editar el documento</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
         <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B13,"=", 'Fenetre Corpus'!D13),IF('Fenetre Corpus'!D13&lt;&gt;"",'Fenetre Corpus'!D13,""))</f>
         <v>window.manage.texts.add.text.action.button.save.and.quit.label=Añadir un material</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
         <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B14,"=", 'Fenetre Corpus'!D14),IF('Fenetre Corpus'!D14&lt;&gt;"",'Fenetre Corpus'!D14,""))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
         <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B15,"=", 'Fenetre Corpus'!D15),IF('Fenetre Corpus'!D15&lt;&gt;"",'Fenetre Corpus'!D15,""))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
         <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B16,"=", 'Fenetre Corpus'!D16),IF('Fenetre Corpus'!D16&lt;&gt;"",'Fenetre Corpus'!D16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
         <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B17,"=", 'Fenetre Corpus'!D17),IF('Fenetre Corpus'!D17&lt;&gt;"",'Fenetre Corpus'!D17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
         <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B18,"=", 'Fenetre Corpus'!D18),IF('Fenetre Corpus'!D18&lt;&gt;"",'Fenetre Corpus'!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
         <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B19,"=", 'Fenetre Corpus'!D19),IF('Fenetre Corpus'!D19&lt;&gt;"",'Fenetre Corpus'!D19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
         <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE('Fenetre Corpus'!B20,"=", 'Fenetre Corpus'!D20),IF('Fenetre Corpus'!D20&lt;&gt;"",'Fenetre Corpus'!D20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
         <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B2,"=", 'Fenetre Creation texte'!D2),IF('Fenetre Creation texte'!D2&lt;&gt;"",'Fenetre Creation texte'!D2,""))</f>
         <v>#Pantalla Crear texto</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
         <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B3,"=", 'Fenetre Creation texte'!D3),IF('Fenetre Creation texte'!D3&lt;&gt;"",'Fenetre Creation texte'!D3,""))</f>
         <v xml:space="preserve">window.create.text.title=Creación de un material </v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
         <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B4,"=", 'Fenetre Creation texte'!D4),IF('Fenetre Creation texte'!D4&lt;&gt;"",'Fenetre Creation texte'!D4,""))</f>
         <v>window.create.text.action.panel.title=Acciones</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="str">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
         <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B5,"=", 'Fenetre Creation texte'!D5),IF('Fenetre Creation texte'!D5&lt;&gt;"",'Fenetre Creation texte'!D5,""))</f>
         <v>window.create.text.action.create.and.quit.text.button.title=Terminar y guardar</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="str">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
         <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B6,"=", 'Fenetre Creation texte'!D6),IF('Fenetre Creation texte'!D6&lt;&gt;"",'Fenetre Creation texte'!D6,""))</f>
         <v>window.create.text.action.create.text.and.add.text.button.title=Añadir otro material</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="str">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
         <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B7,"=", 'Fenetre Creation texte'!D7),IF('Fenetre Creation texte'!D7&lt;&gt;"",'Fenetre Creation texte'!D7,""))</f>
         <v>window.create.text.action.fill.specific.button.title=Creación de las informaciones específicas</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="str">
-        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B8,"=", 'Fenetre Creation texte'!D8),IF('Fenetre Creation texte'!D8&lt;&gt;"",'Fenetre Creation texte'!D8,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="str">
-        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B9,"=", 'Fenetre Creation texte'!D9),IF('Fenetre Creation texte'!D9&lt;&gt;"",'Fenetre Creation texte'!D9,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="str">
-        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B10,"=", 'Fenetre Creation texte'!D10),IF('Fenetre Creation texte'!D10&lt;&gt;"",'Fenetre Creation texte'!D10,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
-        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B11,"=", 'Fenetre Creation texte'!D11),IF('Fenetre Creation texte'!D11&lt;&gt;"",'Fenetre Creation texte'!D11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="str">
-        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B12,"=", 'Fenetre Creation texte'!D12),IF('Fenetre Creation texte'!D12&lt;&gt;"",'Fenetre Creation texte'!D12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="str">
-        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B13,"=", 'Fenetre Creation texte'!D13),IF('Fenetre Creation texte'!D13&lt;&gt;"",'Fenetre Creation texte'!D13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="str">
-        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B14,"=", 'Fenetre Creation texte'!D14),IF('Fenetre Creation texte'!D14&lt;&gt;"",'Fenetre Creation texte'!D14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="str">
-        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B15,"=", 'Fenetre Creation texte'!D15),IF('Fenetre Creation texte'!D15&lt;&gt;"",'Fenetre Creation texte'!D15,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="str">
-        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B16,"=", 'Fenetre Creation texte'!D16),IF('Fenetre Creation texte'!D16&lt;&gt;"",'Fenetre Creation texte'!D16,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="str">
-        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B17,"=", 'Fenetre Creation texte'!D17),IF('Fenetre Creation texte'!D17&lt;&gt;"",'Fenetre Creation texte'!D17,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="str">
-        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B18,"=", 'Fenetre Creation texte'!D18),IF('Fenetre Creation texte'!D18&lt;&gt;"",'Fenetre Creation texte'!D18,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B19,"=", 'Fenetre Creation texte'!D19),IF('Fenetre Creation texte'!D19&lt;&gt;"",'Fenetre Creation texte'!D19,""))</f>
+        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B8,"=", 'Fenetre Creation texte'!D8),IF('Fenetre Creation texte'!D8&lt;&gt;"",'Fenetre Creation texte'!D8,""))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B20,"=", 'Fenetre Creation texte'!D20),IF('Fenetre Creation texte'!D20&lt;&gt;"",'Fenetre Creation texte'!D20,""))</f>
+        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B9,"=", 'Fenetre Creation texte'!D9),IF('Fenetre Creation texte'!D9&lt;&gt;"",'Fenetre Creation texte'!D9,""))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B21,"=", 'Fenetre Creation texte'!D21),IF('Fenetre Creation texte'!D21&lt;&gt;"",'Fenetre Creation texte'!D21,""))</f>
+        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B10,"=", 'Fenetre Creation texte'!D10),IF('Fenetre Creation texte'!D10&lt;&gt;"",'Fenetre Creation texte'!D10,""))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
+        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B11,"=", 'Fenetre Creation texte'!D11),IF('Fenetre Creation texte'!D11&lt;&gt;"",'Fenetre Creation texte'!D11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B12,"=", 'Fenetre Creation texte'!D12),IF('Fenetre Creation texte'!D12&lt;&gt;"",'Fenetre Creation texte'!D12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B13,"=", 'Fenetre Creation texte'!D13),IF('Fenetre Creation texte'!D13&lt;&gt;"",'Fenetre Creation texte'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B14,"=", 'Fenetre Creation texte'!D14),IF('Fenetre Creation texte'!D14&lt;&gt;"",'Fenetre Creation texte'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B15,"=", 'Fenetre Creation texte'!D15),IF('Fenetre Creation texte'!D15&lt;&gt;"",'Fenetre Creation texte'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B16,"=", 'Fenetre Creation texte'!D16),IF('Fenetre Creation texte'!D16&lt;&gt;"",'Fenetre Creation texte'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B17,"=", 'Fenetre Creation texte'!D17),IF('Fenetre Creation texte'!D17&lt;&gt;"",'Fenetre Creation texte'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B18,"=", 'Fenetre Creation texte'!D18),IF('Fenetre Creation texte'!D18&lt;&gt;"",'Fenetre Creation texte'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B19,"=", 'Fenetre Creation texte'!D19),IF('Fenetre Creation texte'!D19&lt;&gt;"",'Fenetre Creation texte'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B20,"=", 'Fenetre Creation texte'!D20),IF('Fenetre Creation texte'!D20&lt;&gt;"",'Fenetre Creation texte'!D20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE('Fenetre Creation texte'!B21,"=", 'Fenetre Creation texte'!D21),IF('Fenetre Creation texte'!D21&lt;&gt;"",'Fenetre Creation texte'!D21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
         <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B2,"=", 'Fenetre Gerer les textes'!D2),IF('Fenetre Gerer les textes'!D2&lt;&gt;"",'Fenetre Gerer les textes'!D2,""))</f>
         <v>#Pantalla Gestión de textos</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="str">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
         <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B3,"=", 'Fenetre Gerer les textes'!D3),IF('Fenetre Gerer les textes'!D3&lt;&gt;"",'Fenetre Gerer les textes'!D3,""))</f>
         <v>window.display.texts.panel.label=Visualización de los materiales de la biblioteca</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="str">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
         <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B4,"=", 'Fenetre Gerer les textes'!D4),IF('Fenetre Gerer les textes'!D4&lt;&gt;"",'Fenetre Gerer les textes'!D4,""))</f>
         <v>window.display.corpus.edit.button.label=Consultar/Editar el documento</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="str">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
         <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B5,"=", 'Fenetre Gerer les textes'!D5),IF('Fenetre Gerer les textes'!D5&lt;&gt;"",'Fenetre Gerer les textes'!D5,""))</f>
         <v>window.display.texts.edit.button.label=Consultar/Editar el material</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="str">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
         <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B6,"=", 'Fenetre Gerer les textes'!D6),IF('Fenetre Gerer les textes'!D6&lt;&gt;"",'Fenetre Gerer les textes'!D6,""))</f>
         <v>window.display.texts.delete.button.label=Eliminar el material</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="str">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
         <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B7,"=", 'Fenetre Gerer les textes'!D7),IF('Fenetre Gerer les textes'!D7&lt;&gt;"",'Fenetre Gerer les textes'!D7,""))</f>
         <v>window.display.texts.previous.button.label=Anterior</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="str">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
         <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B8,"=", 'Fenetre Gerer les textes'!D8),IF('Fenetre Gerer les textes'!D8&lt;&gt;"",'Fenetre Gerer les textes'!D8,""))</f>
         <v>window.display.texts.next.button.label=Siguiente</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="str">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
         <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B9,"=", 'Fenetre Gerer les textes'!D9),IF('Fenetre Gerer les textes'!D9&lt;&gt;"",'Fenetre Gerer les textes'!D9,""))</f>
         <v>window.display.texts.current.position.label=Página %d / %d</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="str">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
         <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B10,"=", 'Fenetre Gerer les textes'!D10),IF('Fenetre Gerer les textes'!D10&lt;&gt;"",'Fenetre Gerer les textes'!D10,""))</f>
         <v xml:space="preserve">window.display.texts.nb.texts.by.page.label=Número de materiales por página : </v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="str">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
         <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B11,"=", 'Fenetre Gerer les textes'!D11),IF('Fenetre Gerer les textes'!D11&lt;&gt;"",'Fenetre Gerer les textes'!D11,""))</f>
         <v>window.display.texts.corpus.label=Gestión técnica de</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="str">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
         <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B12,"=", 'Fenetre Gerer les textes'!D12),IF('Fenetre Gerer les textes'!D12&lt;&gt;"",'Fenetre Gerer les textes'!D12,""))</f>
         <v>window.manage.texts.title=Administrar los materiales en la biblioteca</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="str">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
         <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B13,"=", 'Fenetre Gerer les textes'!D13),IF('Fenetre Gerer les textes'!D13&lt;&gt;"",'Fenetre Gerer les textes'!D13,""))</f>
         <v>window.manage.texts.generate.excel.panel.title=Gestión del contenido</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="str">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
         <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B14,"=", 'Fenetre Gerer les textes'!D14),IF('Fenetre Gerer les textes'!D14&lt;&gt;"",'Fenetre Gerer les textes'!D14,""))</f>
         <v>window.manage.texts.generate.excel.classical.button.label=Exportar Excel de referencia</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="str">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
         <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B15,"=", 'Fenetre Gerer les textes'!D15),IF('Fenetre Gerer les textes'!D15&lt;&gt;"",'Fenetre Gerer les textes'!D15,""))</f>
         <v>window.manage.texts.generate.excel.specific.button.label=Exportar Excel personalizado</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="str">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
         <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B16,"=", 'Fenetre Gerer les textes'!D16),IF('Fenetre Gerer les textes'!D16&lt;&gt;"",'Fenetre Gerer les textes'!D16,""))</f>
         <v>window.manage.texts.filters.button.label=Filtrar el contenido</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="str">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
         <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B17,"=", 'Fenetre Gerer les textes'!D17),IF('Fenetre Gerer les textes'!D17&lt;&gt;"",'Fenetre Gerer les textes'!D17,""))</f>
         <v>window.manage.texts.information.title=Información de uso</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="str">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
         <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B18,"=", 'Fenetre Gerer les textes'!D18),IF('Fenetre Gerer les textes'!D18&lt;&gt;"",'Fenetre Gerer les textes'!D18,""))</f>
         <v>window.manage.texts.information.label=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="str">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
         <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B19,"=", 'Fenetre Gerer les textes'!D19),IF('Fenetre Gerer les textes'!D19&lt;&gt;"",'Fenetre Gerer les textes'!D19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="str">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
         <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B20,"=", 'Fenetre Gerer les textes'!D20),IF('Fenetre Gerer les textes'!D20&lt;&gt;"",'Fenetre Gerer les textes'!D20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="str">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
         <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B21,"=", 'Fenetre Gerer les textes'!D21),IF('Fenetre Gerer les textes'!D21&lt;&gt;"",'Fenetre Gerer les textes'!D21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="str">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
         <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B22,"=", 'Fenetre Gerer les textes'!D22),IF('Fenetre Gerer les textes'!D22&lt;&gt;"",'Fenetre Gerer les textes'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="str">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
         <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B23,"=", 'Fenetre Gerer les textes'!D23),IF('Fenetre Gerer les textes'!D23&lt;&gt;"",'Fenetre Gerer les textes'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="str">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
         <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B24,"=", 'Fenetre Gerer les textes'!D24),IF('Fenetre Gerer les textes'!D24&lt;&gt;"",'Fenetre Gerer les textes'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="str">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
         <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B25,"=", 'Fenetre Gerer les textes'!D25),IF('Fenetre Gerer les textes'!D25&lt;&gt;"",'Fenetre Gerer les textes'!D25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="str">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
         <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B26,"=", 'Fenetre Gerer les textes'!D26),IF('Fenetre Gerer les textes'!D26&lt;&gt;"",'Fenetre Gerer les textes'!D26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="str">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
         <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B27,"=", 'Fenetre Gerer les textes'!D27),IF('Fenetre Gerer les textes'!D27&lt;&gt;"",'Fenetre Gerer les textes'!D27,""))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="str">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
         <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B2,"=", 'Fenetre filtre texte'!D2),IF('Fenetre filtre texte'!D2&lt;&gt;"",'Fenetre filtre texte'!D2,""))</f>
         <v>#Pantalla Administración de filtros</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="str">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
         <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B3,"=", 'Fenetre filtre texte'!D3),IF('Fenetre filtre texte'!D3&lt;&gt;"",'Fenetre filtre texte'!D3,""))</f>
         <v xml:space="preserve">window.filter.type.CONTAINS=Contiene </v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="str">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B4,"=", 'Fenetre filtre texte'!D4),IF('Fenetre filtre texte'!D4&lt;&gt;"",'Fenetre filtre texte'!D4,""))</f>
         <v>window.filter.type.EQUAL=Contenido integral</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="str">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
         <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B5,"=", 'Fenetre filtre texte'!D5),IF('Fenetre filtre texte'!D5&lt;&gt;"",'Fenetre filtre texte'!D5,""))</f>
         <v xml:space="preserve">window.manage.filters.global.panel.title=Gestión de filtrado </v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="str">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
         <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B6,"=", 'Fenetre filtre texte'!D6),IF('Fenetre filtre texte'!D6&lt;&gt;"",'Fenetre filtre texte'!D6,""))</f>
         <v>window.manage.filters.panel.title=Configuración de los filtros</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="str">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
         <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B7,"=", 'Fenetre filtre texte'!D7),IF('Fenetre filtre texte'!D7&lt;&gt;"",'Fenetre filtre texte'!D7,""))</f>
         <v xml:space="preserve">window.manage.filters.type.filter.label=Aplicar en el apartado : </v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="str">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
         <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B8,"=", 'Fenetre filtre texte'!D8),IF('Fenetre filtre texte'!D8&lt;&gt;"",'Fenetre filtre texte'!D8,""))</f>
         <v xml:space="preserve">window.manage.filters.value.filter.label=Búsqueda de contenido o palabras clave : </v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="str">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
         <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B9,"=", 'Fenetre filtre texte'!D9),IF('Fenetre filtre texte'!D9&lt;&gt;"",'Fenetre filtre texte'!D9,""))</f>
         <v>window.manage.filters.add.filter.button.label=Agregar filtro</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
         <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B10,"=", 'Fenetre filtre texte'!D10),IF('Fenetre filtre texte'!D10&lt;&gt;"",'Fenetre filtre texte'!D10,""))</f>
         <v>window.manage.filters.corpus.panel.title=Filtrar el contenido</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="str">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
         <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B11,"=", 'Fenetre filtre texte'!D11),IF('Fenetre filtre texte'!D11&lt;&gt;"",'Fenetre filtre texte'!D11,""))</f>
         <v xml:space="preserve">window.manage.filters.corpus.value.label=Filtrar : </v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="str">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
         <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B12,"=", 'Fenetre filtre texte'!D12),IF('Fenetre filtre texte'!D12&lt;&gt;"",'Fenetre filtre texte'!D12,""))</f>
         <v>window.manage.filters.action.panel.title=Acciones del usuario</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="str">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
         <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B13,"=", 'Fenetre filtre texte'!D13),IF('Fenetre filtre texte'!D13&lt;&gt;"",'Fenetre filtre texte'!D13,""))</f>
         <v>window.manage.filters.action.apply.button.label=Aplicar filtros</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="str">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
         <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B14,"=", 'Fenetre filtre texte'!D14),IF('Fenetre filtre texte'!D14&lt;&gt;"",'Fenetre filtre texte'!D14,""))</f>
         <v>window.manage.filters.corpus.all.label=Todos los documentos de la biblioteca</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="str">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
         <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B15,"=", 'Fenetre filtre texte'!D15),IF('Fenetre filtre texte'!D15&lt;&gt;"",'Fenetre filtre texte'!D15,""))</f>
         <v>window.manage.filters.delete.filter.button.label=Eliminar filtro seleccionado</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="str">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
         <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B16,"=", 'Fenetre filtre texte'!D16),IF('Fenetre filtre texte'!D16&lt;&gt;"",'Fenetre filtre texte'!D16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="str">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
         <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B17,"=", 'Fenetre filtre texte'!D17),IF('Fenetre filtre texte'!D17&lt;&gt;"",'Fenetre filtre texte'!D17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="str">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
         <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B18,"=", 'Fenetre filtre texte'!D18),IF('Fenetre filtre texte'!D18&lt;&gt;"",'Fenetre filtre texte'!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="str">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
         <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B19,"=", 'Fenetre filtre texte'!D19),IF('Fenetre filtre texte'!D19&lt;&gt;"",'Fenetre filtre texte'!D19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="str">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
         <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B20,"=", 'Fenetre filtre texte'!D20),IF('Fenetre filtre texte'!D20&lt;&gt;"",'Fenetre filtre texte'!D20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="str">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
         <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B21,"=", 'Fenetre filtre texte'!D21),IF('Fenetre filtre texte'!D21&lt;&gt;"",'Fenetre filtre texte'!D21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="str">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
         <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B22,"=", 'Fenetre filtre texte'!D22),IF('Fenetre filtre texte'!D22&lt;&gt;"",'Fenetre filtre texte'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="str">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
         <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B23,"=", 'Fenetre filtre texte'!D23),IF('Fenetre filtre texte'!D23&lt;&gt;"",'Fenetre filtre texte'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="str">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
         <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B24,"=", 'Fenetre filtre texte'!D24),IF('Fenetre filtre texte'!D24&lt;&gt;"",'Fenetre filtre texte'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="str">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
         <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE('Fenetre filtre texte'!B25,"=", 'Fenetre filtre texte'!D25),IF('Fenetre filtre texte'!D25&lt;&gt;"",'Fenetre filtre texte'!D25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="str">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
         <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B2,"=", 'Exporter Excel Reference'!D2),IF('Exporter Excel Reference'!D2&lt;&gt;"",'Exporter Excel Reference'!D2,""))</f>
         <v>#Pantalla Exportar Excel Reference</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="str">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
         <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B3,"=", 'Exporter Excel Reference'!D3),IF('Exporter Excel Reference'!D3&lt;&gt;"",'Exporter Excel Reference'!D3,""))</f>
         <v>window.file.picker.classical.panel.title=Elección de la biblioteca Excel</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="str">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
         <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B4,"=", 'Exporter Excel Reference'!D4),IF('Exporter Excel Reference'!D4&lt;&gt;"",'Exporter Excel Reference'!D4,""))</f>
         <v>window.save.excel.classical.panel.title=Guardar archivos de excel de referencia</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="str">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
         <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B5,"=", 'Exporter Excel Reference'!D5),IF('Exporter Excel Reference'!D5&lt;&gt;"",'Exporter Excel Reference'!D5,""))</f>
         <v>window.save.excel.classical.information.panel.title=Lista de archivos de Excel generados</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="str">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
         <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B6,"=", 'Exporter Excel Reference'!D6),IF('Exporter Excel Reference'!D6&lt;&gt;"",'Exporter Excel Reference'!D6,""))</f>
         <v>window.save.excel.classical.information.panel.text.nothing=Seleccione un archivo de referencia a través del botón Examinar para poder generar los archivos</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="str">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
         <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B7,"=", 'Exporter Excel Reference'!D7),IF('Exporter Excel Reference'!D7&lt;&gt;"",'Exporter Excel Reference'!D7,""))</f>
         <v>window.save.excel.classical.information.panel.text=&lt;html&gt;&lt;p&gt;Se generarán los siguientes archivos: &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="str">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
         <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B8,"=", 'Exporter Excel Reference'!D8),IF('Exporter Excel Reference'!D8&lt;&gt;"",'Exporter Excel Reference'!D8,""))</f>
         <v>window.save.excel.specific.check.label=Generar el archivo de excel</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="str">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
         <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B9,"=", 'Exporter Excel Reference'!D9),IF('Exporter Excel Reference'!D9&lt;&gt;"",'Exporter Excel Reference'!D9,""))</f>
         <v>window.save.excel.reference.file.label=Excel de referencia : %s</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="str">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
         <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B10,"=", 'Exporter Excel Reference'!D10),IF('Exporter Excel Reference'!D10&lt;&gt;"",'Exporter Excel Reference'!D10,""))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="str">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
         <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B11,"=", 'Exporter Excel Reference'!D11),IF('Exporter Excel Reference'!D11&lt;&gt;"",'Exporter Excel Reference'!D11,""))</f>
         <v>#Opciones de generación  (común)</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="str">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
         <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B12,"=", 'Exporter Excel Reference'!D12),IF('Exporter Excel Reference'!D12&lt;&gt;"",'Exporter Excel Reference'!D12,""))</f>
         <v xml:space="preserve">window.save.excel.options.title.panel=Opciones </v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="str">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
         <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B13,"=", 'Exporter Excel Reference'!D13),IF('Exporter Excel Reference'!D13&lt;&gt;"",'Exporter Excel Reference'!D13,""))</f>
         <v>window.save.excel.options.header.label=Mostrar los nombres de las etiquetas en los encabezados de las tablas (RECOMENDADO)</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="str">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
         <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B14,"=", 'Exporter Excel Reference'!D14),IF('Exporter Excel Reference'!D14&lt;&gt;"",'Exporter Excel Reference'!D14,""))</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="str">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
         <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B15,"=", 'Exporter Excel Reference'!D15),IF('Exporter Excel Reference'!D15&lt;&gt;"",'Exporter Excel Reference'!D15,""))</f>
         <v># Teclado registro excel (común)</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="str">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
         <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B16,"=", 'Exporter Excel Reference'!D16),IF('Exporter Excel Reference'!D16&lt;&gt;"",'Exporter Excel Reference'!D16,""))</f>
         <v>window.save.excel.action.title.panel=Guardar archivos de Excel</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="str">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
         <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B17,"=", 'Exporter Excel Reference'!D17),IF('Exporter Excel Reference'!D17&lt;&gt;"",'Exporter Excel Reference'!D17,""))</f>
         <v>window.save.excel.action.button.label=Guardar</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="str">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
         <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B18,"=", 'Exporter Excel Reference'!D18),IF('Exporter Excel Reference'!D18&lt;&gt;"",'Exporter Excel Reference'!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="str">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
         <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B19,"=", 'Exporter Excel Reference'!D19),IF('Exporter Excel Reference'!D19&lt;&gt;"",'Exporter Excel Reference'!D19,""))</f>
         <v># elección de la ubicación del archivo (común)</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="str">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
         <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B20,"=", 'Exporter Excel Reference'!D20),IF('Exporter Excel Reference'!D20&lt;&gt;"",'Exporter Excel Reference'!D20,""))</f>
         <v>window.file.picker.panel.label=Ubicación  para guardar los Excel</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="str">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
         <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B21,"=", 'Exporter Excel Reference'!D21),IF('Exporter Excel Reference'!D21&lt;&gt;"",'Exporter Excel Reference'!D21,""))</f>
         <v>window.file.picker.panel.button=Examinar…</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="str">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
         <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B22,"=", 'Exporter Excel Reference'!D22),IF('Exporter Excel Reference'!D22&lt;&gt;"",'Exporter Excel Reference'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="str">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
         <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B23,"=", 'Exporter Excel Reference'!D23),IF('Exporter Excel Reference'!D23&lt;&gt;"",'Exporter Excel Reference'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="str">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
         <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B24,"=", 'Exporter Excel Reference'!D24),IF('Exporter Excel Reference'!D24&lt;&gt;"",'Exporter Excel Reference'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="str">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
         <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B25,"=", 'Exporter Excel Reference'!D25),IF('Exporter Excel Reference'!D25&lt;&gt;"",'Exporter Excel Reference'!D25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="str">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
         <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B26,"=", 'Exporter Excel Reference'!D26),IF('Exporter Excel Reference'!D26&lt;&gt;"",'Exporter Excel Reference'!D26,""))</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="str">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
         <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B27,"=", 'Exporter Excel Reference'!D27),IF('Exporter Excel Reference'!D27&lt;&gt;"",'Exporter Excel Reference'!D27,""))</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="str">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
         <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B28,"=", 'Exporter Excel Reference'!D28),IF('Exporter Excel Reference'!D28&lt;&gt;"",'Exporter Excel Reference'!D28,""))</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="str">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
         <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B29,"=", 'Exporter Excel Reference'!D29),IF('Exporter Excel Reference'!D29&lt;&gt;"",'Exporter Excel Reference'!D29,""))</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="str">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
         <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B30,"=", 'Exporter Excel Reference'!D30),IF('Exporter Excel Reference'!D30&lt;&gt;"",'Exporter Excel Reference'!D30,""))</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="str">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
         <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE('Exporter Excel Reference'!B31,"=", 'Exporter Excel Reference'!D31),IF('Exporter Excel Reference'!D31&lt;&gt;"",'Exporter Excel Reference'!D31,""))</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="str">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
         <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B2,"=", 'Exporter Excel Personnalisé'!D2),IF('Exporter Excel Personnalisé'!D2&lt;&gt;"",'Exporter Excel Personnalisé'!D2,""))</f>
         <v>#Pantalla Exportar Excel Personalizada</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="str">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
         <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B3,"=", 'Exporter Excel Personnalisé'!D3),IF('Exporter Excel Personnalisé'!D3&lt;&gt;"",'Exporter Excel Personnalisé'!D3,""))</f>
         <v>window.file.picker.specific.panel.title=Elección del archivo excel personalizado</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="str">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
         <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B4,"=", 'Exporter Excel Personnalisé'!D4),IF('Exporter Excel Personnalisé'!D4&lt;&gt;"",'Exporter Excel Personnalisé'!D4,""))</f>
         <v>window.save.excel.specific.panel.title=Guardar archivo de Excel personalizado</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="str">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
         <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B5,"=", 'Exporter Excel Personnalisé'!D5),IF('Exporter Excel Personnalisé'!D5&lt;&gt;"",'Exporter Excel Personnalisé'!D5,""))</f>
         <v>window.save.excel.specific.information.panel.title=El archivo Excel para generar</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="str">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
         <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B6,"=", 'Exporter Excel Personnalisé'!D6),IF('Exporter Excel Personnalisé'!D6&lt;&gt;"",'Exporter Excel Personnalisé'!D6,""))</f>
         <v>window.save.excel.specific.information.panel.text.nothing=Seleccione el archivo, el botón Examinar para poder generarlo</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="str">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
         <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B7,"=", 'Exporter Excel Personnalisé'!D7),IF('Exporter Excel Personnalisé'!D7&lt;&gt;"",'Exporter Excel Personnalisé'!D7,""))</f>
         <v>window.save.excel.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Se generará el siguiente archivo: &lt;br/&gt;&lt;br/&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="str">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
         <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B8,"=", 'Exporter Excel Personnalisé'!D8),IF('Exporter Excel Personnalisé'!D8&lt;&gt;"",'Exporter Excel Personnalisé'!D8,""))</f>
         <v>window.save.excel.specific.list.specific.panel.title=Elección del tratamiento para aplicar a la generación</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="str">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
         <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B9,"=", 'Exporter Excel Personnalisé'!D9),IF('Exporter Excel Personnalisé'!D9&lt;&gt;"",'Exporter Excel Personnalisé'!D9,""))</f>
         <v>window.save.excel.specific.list.specific.label=Elección del método de tratamiento.</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="str">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
         <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B10,"=", 'Exporter Excel Personnalisé'!D10),IF('Exporter Excel Personnalisé'!D10&lt;&gt;"",'Exporter Excel Personnalisé'!D10,""))</f>
         <v>window.save.excel.specific.list.specific.label.nothing=Sin tratamiento</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="str">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
         <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B11,"=", 'Exporter Excel Personnalisé'!D11),IF('Exporter Excel Personnalisé'!D11&lt;&gt;"",'Exporter Excel Personnalisé'!D11,""))</f>
         <v>window.save.excel.specific.list.fields.title.panel=Lista de apartados para generar</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
         <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B12,"=", 'Exporter Excel Personnalisé'!D12),IF('Exporter Excel Personnalisé'!D12&lt;&gt;"",'Exporter Excel Personnalisé'!D12,""))</f>
         <v>window.save.excel.specific.file.label=Archivo excel personalizado : %s</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="str">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
         <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B13,"=", 'Exporter Excel Personnalisé'!D13),IF('Exporter Excel Personnalisé'!D13&lt;&gt;"",'Exporter Excel Personnalisé'!D13,""))</f>
         <v>window.save.excel.specific.action.title.panel=Acción masiva</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="str">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
         <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B14,"=", 'Exporter Excel Personnalisé'!D14),IF('Exporter Excel Personnalisé'!D14&lt;&gt;"",'Exporter Excel Personnalisé'!D14,""))</f>
         <v>window.save.excel.specific.action.select.all=Seleccione todos los campos a continuación</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="str">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
         <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B15,"=", 'Exporter Excel Personnalisé'!D15),IF('Exporter Excel Personnalisé'!D15&lt;&gt;"",'Exporter Excel Personnalisé'!D15,""))</f>
         <v>window.save.excel.specific.action.deselect.all=Anule la selección de todos los campos a continuación</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
         <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B16,"=", 'Exporter Excel Personnalisé'!D16),IF('Exporter Excel Personnalisé'!D16&lt;&gt;"",'Exporter Excel Personnalisé'!D16,""))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="str">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
         <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B17,"=", 'Exporter Excel Personnalisé'!D17),IF('Exporter Excel Personnalisé'!D17&lt;&gt;"",'Exporter Excel Personnalisé'!D17,""))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="str">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
         <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B18,"=", 'Exporter Excel Personnalisé'!D18),IF('Exporter Excel Personnalisé'!D18&lt;&gt;"",'Exporter Excel Personnalisé'!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="str">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
         <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B19,"=", 'Exporter Excel Personnalisé'!D19),IF('Exporter Excel Personnalisé'!D19&lt;&gt;"",'Exporter Excel Personnalisé'!D19,""))</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="str">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
         <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B20,"=", 'Exporter Excel Personnalisé'!D20),IF('Exporter Excel Personnalisé'!D20&lt;&gt;"",'Exporter Excel Personnalisé'!D20,""))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="str">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
         <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B21,"=", 'Exporter Excel Personnalisé'!D21),IF('Exporter Excel Personnalisé'!D21&lt;&gt;"",'Exporter Excel Personnalisé'!D21,""))</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="str">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
         <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B22,"=", 'Exporter Excel Personnalisé'!D22),IF('Exporter Excel Personnalisé'!D22&lt;&gt;"",'Exporter Excel Personnalisé'!D22,""))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="str">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
         <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B23,"=", 'Exporter Excel Personnalisé'!D23),IF('Exporter Excel Personnalisé'!D23&lt;&gt;"",'Exporter Excel Personnalisé'!D23,""))</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="str">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
         <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B24,"=", 'Exporter Excel Personnalisé'!D24),IF('Exporter Excel Personnalisé'!D24&lt;&gt;"",'Exporter Excel Personnalisé'!D24,""))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="str">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
         <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE('Exporter Excel Personnalisé'!B25,"=", 'Exporter Excel Personnalisé'!D25),IF('Exporter Excel Personnalisé'!D25&lt;&gt;"",'Exporter Excel Personnalisé'!D25,""))</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="str">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
         <f>IF(Autres!B2&lt;&gt;"",CONCATENATE(Autres!B2,"=", Autres!D2),IF(Autres!D2&lt;&gt;"",Autres!D2,""))</f>
         <v>#Mensaje de recuperación corrección</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="str">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
         <f>IF(Autres!B3&lt;&gt;"",CONCATENATE(Autres!B3,"=", Autres!D3),IF(Autres!D3&lt;&gt;"",Autres!D3,""))</f>
         <v>window.recovery.error.state.answer=Se ha detectado un análisis.\n¿Desea continuar con el análisis?</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="str">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
         <f>IF(Autres!B4&lt;&gt;"",CONCATENATE(Autres!B4,"=", Autres!D4),IF(Autres!D4&lt;&gt;"",Autres!D4,""))</f>
         <v>window.recovery.error.state.title=Continuar</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="str">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
         <f>IF(Autres!B5&lt;&gt;"",CONCATENATE(Autres!B5,"=", Autres!D5),IF(Autres!D5&lt;&gt;"",Autres!D5,""))</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="str">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
         <f>IF(Autres!B6&lt;&gt;"",CONCATENATE(Autres!B6,"=", Autres!D6),IF(Autres!D6&lt;&gt;"",Autres!D6,""))</f>
         <v>#Pantalla de información</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="str">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
         <f>IF(Autres!B7&lt;&gt;"",CONCATENATE(Autres!B7,"=", Autres!D7),IF(Autres!D7&lt;&gt;"",Autres!D7,""))</f>
         <v>window.information.panel.label=Mensaje informativo</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="str">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
         <f>IF(Autres!B8&lt;&gt;"",CONCATENATE(Autres!B8,"=", Autres!D8),IF(Autres!D8&lt;&gt;"",Autres!D8,""))</f>
         <v>window.information.message.panel.label=Mensaje</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="str">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
         <f>IF(Autres!B9&lt;&gt;"",CONCATENATE(Autres!B9,"=", Autres!D9),IF(Autres!D9&lt;&gt;"",Autres!D9,""))</f>
         <v>window.information.action.panel.label=Acción del usuario</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="str">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
         <f>IF(Autres!B10&lt;&gt;"",CONCATENATE(Autres!B10,"=", Autres!D10),IF(Autres!D10&lt;&gt;"",Autres!D10,""))</f>
         <v>window.information.action.button.label=Cerrar</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="str">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
         <f>IF(Autres!B11&lt;&gt;"",CONCATENATE(Autres!B11,"=", Autres!D11),IF(Autres!D11&lt;&gt;"",Autres!D11,""))</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="str">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
         <f>IF(Autres!B12&lt;&gt;"",CONCATENATE(Autres!B12,"=", Autres!D12),IF(Autres!D12&lt;&gt;"",Autres!D12,""))</f>
         <v>#Información para mover archivos</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="str">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
         <f>IF(Autres!B13&lt;&gt;"",CONCATENATE(Autres!B13,"=", Autres!D13),IF(Autres!D13&lt;&gt;"",Autres!D13,""))</f>
         <v>window.message.error.move.file.exists=&lt;html&gt;&lt;p&gt;Los siguientes archivos no se pudieron mover porque ya están en la biblioteca : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="str">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
         <f>IF(Autres!B14&lt;&gt;"",CONCATENATE(Autres!B14,"=", Autres!D14),IF(Autres!D14&lt;&gt;"",Autres!D14,""))</f>
         <v>window.message.result.move.file=&lt;html&gt;&lt;p&gt;Se han movido los siguientes archivos : &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="str">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
         <f>IF(Autres!B15&lt;&gt;"",CONCATENATE(Autres!B15,"=", Autres!D15),IF(Autres!D15&lt;&gt;"",Autres!D15,""))</f>
         <v>window.message.unknow.error=&lt;html&gt;&lt;p&gt;Ha ocurrido un error desconocido: &lt;br /&gt;&lt;br /&gt;%s&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="str">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
         <f>IF(Autres!B16&lt;&gt;"",CONCATENATE(Autres!B16,"=", Autres!D16),IF(Autres!D16&lt;&gt;"",Autres!D16,""))</f>
         <v xml:space="preserve">window.message.from=Desde : </v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="str">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
         <f>IF(Autres!B17&lt;&gt;"",CONCATENATE(Autres!B17,"=", Autres!D17),IF(Autres!D17&lt;&gt;"",Autres!D17,""))</f>
         <v xml:space="preserve">window.message.to=Hacia : </v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="str">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
         <f>IF(Autres!B18&lt;&gt;"",CONCATENATE(Autres!B18,"=", Autres!D18),IF(Autres!D18&lt;&gt;"",Autres!D18,""))</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="str">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
         <f>IF(Autres!B19&lt;&gt;"",CONCATENATE(Autres!B19,"=", Autres!D19),IF(Autres!D19&lt;&gt;"",Autres!D19,""))</f>
         <v>#Mensaje de prevención en caso de supresión</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="str">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
         <f>IF(Autres!B20&lt;&gt;"",CONCATENATE(Autres!B20,"=", Autres!D20),IF(Autres!D20&lt;&gt;"",Autres!D20,""))</f>
         <v>window.manage.texts.delete.text.action.message.title=Mensaje de prevención</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="str">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
         <f>IF(Autres!B21&lt;&gt;"",CONCATENATE(Autres!B21,"=", Autres!D21),IF(Autres!D21&lt;&gt;"",Autres!D21,""))</f>
         <v>window.manage.texts.delete.text.action.message.content=Eliminará un texto del documento.\nEsta acción será irreversible.\n¿Desea continuar?</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="str">
-        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!D22),IF(Autres!D22&lt;&gt;"",Autres!D22,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="str">
-        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!D23),IF(Autres!D23&lt;&gt;"",Autres!D23,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="str">
-        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!D24),IF(Autres!D24&lt;&gt;"",Autres!D24,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="str">
-        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!D25),IF(Autres!D25&lt;&gt;"",Autres!D25,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="str">
-        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!D26),IF(Autres!D26&lt;&gt;"",Autres!D26,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="str">
-        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!D27),IF(Autres!D27&lt;&gt;"",Autres!D27,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="str">
-        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!D28),IF(Autres!D28&lt;&gt;"",Autres!D28,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="str">
-        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!D29),IF(Autres!D29&lt;&gt;"",Autres!D29,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="str">
-        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!D30),IF(Autres!D30&lt;&gt;"",Autres!D30,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="str">
-        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!D31),IF(Autres!D31&lt;&gt;"",Autres!D31,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="str">
-        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!D32),IF(Autres!D32&lt;&gt;"",Autres!D32,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!D33),IF(Autres!D33&lt;&gt;"",Autres!D33,""))</f>
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE(Autres!B22,"=", Autres!D22),IF(Autres!D22&lt;&gt;"",Autres!D22,""))</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!D34),IF(Autres!D34&lt;&gt;"",Autres!D34,""))</f>
-        <v/>
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE(Autres!B23,"=", Autres!D23),IF(Autres!D23&lt;&gt;"",Autres!D23,""))</f>
+        <v>#Información Asistente</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
-        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
-        <v/>
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE(Autres!B24,"=", Autres!D24),IF(Autres!D24&lt;&gt;"",Autres!D24,""))</f>
+        <v>window.wizard.navigation.panel.title=Navegador : Paso %d / %d</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE(Autres!B25,"=", Autres!D25),IF(Autres!D25&lt;&gt;"",Autres!D25,""))</f>
+        <v>window.wizard.navigation.previous.button.label=Anterior</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE(Autres!B26,"=", Autres!D26),IF(Autres!D26&lt;&gt;"",Autres!D26,""))</f>
+        <v>window.wizard.navigation.next.button.label=Siguiente</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE(Autres!B27,"=", Autres!D27),IF(Autres!D27&lt;&gt;"",Autres!D27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE(Autres!B28,"=", Autres!D28),IF(Autres!D28&lt;&gt;"",Autres!D28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE(Autres!B29,"=", Autres!D29),IF(Autres!D29&lt;&gt;"",Autres!D29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE(Autres!B30,"=", Autres!D30),IF(Autres!D30&lt;&gt;"",Autres!D30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE(Autres!B31,"=", Autres!D31),IF(Autres!D31&lt;&gt;"",Autres!D31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE(Autres!B32,"=", Autres!D32),IF(Autres!D32&lt;&gt;"",Autres!D32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE(Autres!B33,"=", Autres!D33),IF(Autres!D33&lt;&gt;"",Autres!D33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE(Autres!B34,"=", Autres!D34),IF(Autres!D34&lt;&gt;"",Autres!D34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE(Autres!B35,"=", Autres!C35),IF(Autres!C35&lt;&gt;"",Autres!C35,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
         <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE('Changer Configuration'!B2,"=", 'Changer Configuration'!D2),IF('Changer Configuration'!D2&lt;&gt;"",'Changer Configuration'!D2,""))</f>
         <v>#Mensaje para el cambio de configuración</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="str">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
         <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE('Changer Configuration'!B3,"=", 'Changer Configuration'!D3),IF('Changer Configuration'!D3&lt;&gt;"",'Changer Configuration'!D3,""))</f>
         <v>window.change.configuration.title=Configuración actual</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="str">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
         <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE('Changer Configuration'!B4,"=", 'Changer Configuration'!D4),IF('Changer Configuration'!D4&lt;&gt;"",'Changer Configuration'!D4,""))</f>
         <v>window.change.configuration.list.label=Configuración a utilizar :</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="str">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
         <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE('Changer Configuration'!B5,"=", 'Changer Configuration'!D5),IF('Changer Configuration'!D5&lt;&gt;"",'Changer Configuration'!D5,""))</f>
         <v>window.change.configuration.panel.title=Cambio de configuración</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="str">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
         <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE('Changer Configuration'!B6,"=", 'Changer Configuration'!D6),IF('Changer Configuration'!D6&lt;&gt;"",'Changer Configuration'!D6,""))</f>
         <v>window.change.configuration.message.panel.title=Mensaje informativo</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="str">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE('Changer Configuration'!B7,"=", 'Changer Configuration'!D7),IF('Changer Configuration'!D7&lt;&gt;"",'Changer Configuration'!D7,""))</f>
         <v>window.change.configuration.message.content=&lt;html&gt;&lt;p&gt;La configuración de la aplicación Caerus se basa en un archivo que le permite configurar completamente el  interfaz en función de los materiales textuales creados.&lt;br/&gt;Puede modificar la configuración de los materiales y usarlos con el interfaz de Caerus, también puede agregar , modificar o eliminar configuraciones actuando en el directorio '%s'&lt;br/&gt;Pronto se agregarán ventanas gráficas a la aplicación para facilitar sus cambios&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="str">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
         <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE('Changer Configuration'!B8,"=", 'Changer Configuration'!D8),IF('Changer Configuration'!D8&lt;&gt;"",'Changer Configuration'!D8,""))</f>
         <v>window.change.configuration.button.apply.and.close=Elija esta configuración y cerrar</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="str">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
         <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE('Changer Configuration'!B9,"=", 'Changer Configuration'!D9),IF('Changer Configuration'!D9&lt;&gt;"",'Changer Configuration'!D9,""))</f>
         <v>window.change.configuration.button.close=Cerrar</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="str">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
         <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE('Changer Configuration'!B10,"=", 'Changer Configuration'!D10),IF('Changer Configuration'!D10&lt;&gt;"",'Changer Configuration'!D10,""))</f>
         <v>window.change.configuration.buttons.panel.title=Acciones</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="str">
-        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!D11),IF('Changer Configuration'!D11&lt;&gt;"",'Changer Configuration'!D11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="str">
-        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!D12),IF('Changer Configuration'!D12&lt;&gt;"",'Changer Configuration'!D12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="str">
-        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!D13),IF('Changer Configuration'!D13&lt;&gt;"",'Changer Configuration'!D13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="str">
-        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!D14),IF('Changer Configuration'!D14&lt;&gt;"",'Changer Configuration'!D14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="str">
-        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!D15),IF('Changer Configuration'!D15&lt;&gt;"",'Changer Configuration'!D15,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="str">
-        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!D16),IF('Changer Configuration'!D16&lt;&gt;"",'Changer Configuration'!D16,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="str">
-        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!D17),IF('Changer Configuration'!D17&lt;&gt;"",'Changer Configuration'!D17,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="str">
-        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!D18),IF('Changer Configuration'!D18&lt;&gt;"",'Changer Configuration'!D18,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="str">
-        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!D19),IF('Changer Configuration'!D19&lt;&gt;"",'Changer Configuration'!D19,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="str">
-        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="str">
-        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE('Changer Configuration'!B11,"=", 'Changer Configuration'!D11),IF('Changer Configuration'!D11&lt;&gt;"",'Changer Configuration'!D11,""))</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
-        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE('Changer Configuration'!B12,"=", 'Changer Configuration'!D12),IF('Changer Configuration'!D12&lt;&gt;"",'Changer Configuration'!D12,""))</f>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE('Changer Configuration'!B13,"=", 'Changer Configuration'!D13),IF('Changer Configuration'!D13&lt;&gt;"",'Changer Configuration'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE('Changer Configuration'!B14,"=", 'Changer Configuration'!D14),IF('Changer Configuration'!D14&lt;&gt;"",'Changer Configuration'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE('Changer Configuration'!B15,"=", 'Changer Configuration'!D15),IF('Changer Configuration'!D15&lt;&gt;"",'Changer Configuration'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE('Changer Configuration'!B16,"=", 'Changer Configuration'!D16),IF('Changer Configuration'!D16&lt;&gt;"",'Changer Configuration'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE('Changer Configuration'!B17,"=", 'Changer Configuration'!D17),IF('Changer Configuration'!D17&lt;&gt;"",'Changer Configuration'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE('Changer Configuration'!B18,"=", 'Changer Configuration'!D18),IF('Changer Configuration'!D18&lt;&gt;"",'Changer Configuration'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE('Changer Configuration'!B19,"=", 'Changer Configuration'!D19),IF('Changer Configuration'!D19&lt;&gt;"",'Changer Configuration'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE('Changer Configuration'!B20,"=", 'Changer Configuration'!C20),IF('Changer Configuration'!C20&lt;&gt;"",'Changer Configuration'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE('Changer Configuration'!B21,"=", 'Changer Configuration'!C21),IF('Changer Configuration'!C21&lt;&gt;"",'Changer Configuration'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE('Changer Configuration'!B22,"=", 'Changer Configuration'!C22),IF('Changer Configuration'!C22&lt;&gt;"",'Changer Configuration'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE('Changer Configuration'!B23,"=", 'Changer Configuration'!C23),IF('Changer Configuration'!C23&lt;&gt;"",'Changer Configuration'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
         <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE('A propos'!B2,"=", 'A propos'!D2),IF('A propos'!D2&lt;&gt;"",'A propos'!D2,""))</f>
         <v>#Mensaje para el cambio de configuración</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="str">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
         <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE('A propos'!B3,"=", 'A propos'!D3),IF('A propos'!D3&lt;&gt;"",'A propos'!D3,""))</f>
         <v>window.about.title=Acerca de</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="str">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!D4),IF('A propos'!D4&lt;&gt;"",'A propos'!D4,""))</f>
         <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="str">
-        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!D5),IF('A propos'!D5&lt;&gt;"",'A propos'!D5,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="str">
-        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!D6),IF('A propos'!D6&lt;&gt;"",'A propos'!D6,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="str">
-        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!D7),IF('A propos'!D7&lt;&gt;"",'A propos'!D7,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="str">
-        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!D8),IF('A propos'!D8&lt;&gt;"",'A propos'!D8,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="str">
-        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!D9),IF('A propos'!D9&lt;&gt;"",'A propos'!D9,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="str">
-        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!D10),IF('A propos'!D10&lt;&gt;"",'A propos'!D10,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="str">
-        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!D11),IF('A propos'!D11&lt;&gt;"",'A propos'!D11,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="str">
-        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!D12),IF('A propos'!D12&lt;&gt;"",'A propos'!D12,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="str">
-        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!D13),IF('A propos'!D13&lt;&gt;"",'A propos'!D13,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="str">
-        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!D14),IF('A propos'!D14&lt;&gt;"",'A propos'!D14,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="str">
-        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!D15),IF('A propos'!D15&lt;&gt;"",'A propos'!D15,""))</f>
-        <v/>
-      </c>
-    </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!D16),IF('A propos'!D16&lt;&gt;"",'A propos'!D16,""))</f>
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE('A propos'!B5,"=", 'A propos'!D5),IF('A propos'!D5&lt;&gt;"",'A propos'!D5,""))</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
-        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!D17),IF('A propos'!D17&lt;&gt;"",'A propos'!D17,""))</f>
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE('A propos'!B6,"=", 'A propos'!D6),IF('A propos'!D6&lt;&gt;"",'A propos'!D6,""))</f>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
-        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE('A propos'!B7,"=", 'A propos'!D7),IF('A propos'!D7&lt;&gt;"",'A propos'!D7,""))</f>
         <v/>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="str">
-        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE('A propos'!B8,"=", 'A propos'!D8),IF('A propos'!D8&lt;&gt;"",'A propos'!D8,""))</f>
         <v/>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="str">
-        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE('A propos'!B9,"=", 'A propos'!D9),IF('A propos'!D9&lt;&gt;"",'A propos'!D9,""))</f>
         <v/>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="str">
-        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE('A propos'!B10,"=", 'A propos'!D10),IF('A propos'!D10&lt;&gt;"",'A propos'!D10,""))</f>
         <v/>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE('A propos'!B11,"=", 'A propos'!D11),IF('A propos'!D11&lt;&gt;"",'A propos'!D11,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE('A propos'!B12,"=", 'A propos'!D12),IF('A propos'!D12&lt;&gt;"",'A propos'!D12,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE('A propos'!B13,"=", 'A propos'!D13),IF('A propos'!D13&lt;&gt;"",'A propos'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE('A propos'!B14,"=", 'A propos'!D14),IF('A propos'!D14&lt;&gt;"",'A propos'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE('A propos'!B15,"=", 'A propos'!D15),IF('A propos'!D15&lt;&gt;"",'A propos'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE('A propos'!B16,"=", 'A propos'!D16),IF('A propos'!D16&lt;&gt;"",'A propos'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE('A propos'!B17,"=", 'A propos'!D17),IF('A propos'!D17&lt;&gt;"",'A propos'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE('A propos'!B18,"=", 'A propos'!D18),IF('A propos'!D18&lt;&gt;"",'A propos'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE('A propos'!B19,"=", 'A propos'!D19),IF('A propos'!D19&lt;&gt;"",'A propos'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
         <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!D20),IF('A propos'!D20&lt;&gt;"",'A propos'!D20,""))</f>
         <v/>
       </c>
@@ -30135,10 +30437,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
-  <dimension ref="A1:A386"/>
+  <dimension ref="A1:A396"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30549,1915 +30851,1975 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE="window.fixed.error.line.information.message";</v>
+      <c r="A68" t="e">
+        <f>IF('Fenêtre erreur ligne'!#REF!&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!#REF!),".","_"),"=""", 'Fenêtre erreur ligne'!#REF!,""";"),"")</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
+        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
+        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_USER_DEFAULT_LABEL="window.fixed.error.line.fixed.user.default.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE2="window.fixed.error.line.information.message.etape2";</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
-        <v/>
+        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE3="window.fixed.error.line.information.message.etape3";</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
-        <v/>
+        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE4="window.fixed.error.line.information.message.etape4";</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
-        <v/>
+        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_PANEL_TITLE="window.fixed.error.line.selected.data.panel.title";</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
-        <v/>
+        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_LABEL="window.fixed.error.line.selected.data.select.text.label";</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF('Correction Edit texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B2),".","_"),"=""", 'Correction Edit texte'!B2,""";"),"")</f>
-        <v/>
+        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECTED_TEXT_LABEL="window.fixed.error.line.selected.data.selected.text.label";</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
+        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B21),".","_"),"=""", 'Fenêtre erreur ligne'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_BUTTON_LABEL="window.fixed.error.line.selected.data.select.text.button.label";</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B22),".","_"),"=""", 'Fenêtre erreur ligne'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_EDIT_TEXT_LABEL="window.fixed.error.line.fixed.edit.text.label";</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B23),".","_"),"=""", 'Fenêtre erreur ligne'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_PANEL_TITLE="window.fixed.error.line.fixed.panel.title";</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B24),".","_"),"=""", 'Fenêtre erreur ligne'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_WIZARD_PANEL_TITLE="window.fixed.error.line.wizard.panel.title";</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B25),".","_"),"=""", 'Fenêtre erreur ligne'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_PANEL_TITLE="window.fixed.error.line.mode.panel.title";</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B26),".","_"),"=""", 'Fenêtre erreur ligne'!B26,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_WIZARD_LABEL="window.fixed.error.line.mode.wizard.label";</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B27),".","_"),"=""", 'Fenêtre erreur ligne'!B27,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_EXPERT_LABEL="window.fixed.error.line.mode.expert.label";</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_EXPERT="window.fixed.error.line.information.message.expert";</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B29),".","_"),"=""", 'Fenêtre erreur ligne'!B29,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE1="window.fixed.error.line.information.message.etape1";</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B30),".","_"),"=""", 'Fenêtre erreur ligne'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
         <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B3),".","_"),"=""", 'Correction Edit texte'!B3,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_TEXT_TITLE="window.fixed.text.title";</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
         <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B4),".","_"),"=""", 'Correction Edit texte'!B4,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_TEXT_ACTION_PANEL_TITLE="window.fixed.text.action.panel.title";</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B5),".","_"),"=""", 'Correction Edit texte'!B5,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.fixed.text.action.fill.specific.button.title";</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
         <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B6),".","_"),"=""", 'Correction Edit texte'!B6,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_BUTTON_TITLE="window.fixed.text.action.next.button.title";</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
         <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B7),".","_"),"=""", 'Correction Edit texte'!B7,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_AND_SAVE_BUTTON_TITLE="window.fixed.text.action.next.and.save.button.title";</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
         <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B8),".","_"),"=""", 'Correction Edit texte'!B8,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
         <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B9),".","_"),"=""", 'Correction Edit texte'!B9,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
         <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B10),".","_"),"=""", 'Correction Edit texte'!B10,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_CONTENT_PANEL_TITLE="window.create.text.content.panel.title";</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
         <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B11),".","_"),"=""", 'Correction Edit texte'!B11,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_FILE_PANEL_TITLE="window.create.text.file.panel.title";</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
         <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B12),".","_"),"=""", 'Correction Edit texte'!B12,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_NAME_LABEL="window.create.text.name.label";</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
         <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B13),".","_"),"=""", 'Correction Edit texte'!B13,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
         <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B14),".","_"),"=""", 'Correction Edit texte'!B14,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
         <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B15),".","_"),"=""", 'Correction Edit texte'!B15,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_PANEL_TITLE="window.manage.texts.edit.text.panel.title";</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
         <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B16),".","_"),"=""", 'Correction Edit texte'!B16,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_PANEL_TITLE="window.manage.texts.edit.text.action.panel.title";</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
         <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B17),".","_"),"=""", 'Correction Edit texte'!B17,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.manage.texts.edit.text.action.fill.specific.button.title";</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B18),".","_"),"=""", 'Correction Edit texte'!B18,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B19),".","_"),"=""", 'Correction Edit texte'!B19,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B20),".","_"),"=""", 'Correction Edit texte'!B20,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.edit.text.action.button.save.and.quit.label";</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B21),".","_"),"=""", 'Correction Edit texte'!B21,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_QUIT_LABEL="window.manage.texts.edit.text.action.button.quit.label";</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B22),".","_"),"=""", 'Correction Edit texte'!B22,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B23),".","_"),"=""", 'Correction Edit texte'!B23,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B24),".","_"),"=""", 'Correction Edit texte'!B24,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B25),".","_"),"=""", 'Correction Edit texte'!B25,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
         <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B26),".","_"),"=""", 'Correction Edit texte'!B26,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
         <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B2),".","_"),"=""", 'Fenêtre spécifique'!B2,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
         <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B3),".","_"),"=""", 'Fenêtre spécifique'!B3,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_SPECIFIC_TITLE="window.fixed.specific.title";</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
         <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B4),".","_"),"=""", 'Fenêtre spécifique'!B4,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
         <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B5),".","_"),"=""", 'Fenêtre spécifique'!B5,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
         <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B6),".","_"),"=""", 'Fenêtre spécifique'!B6,""";"),"")</f>
         <v>public static final String WINDOW_EDIT_SPECIFIC_TITLE="window.edit.specific.title";</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
         <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B7),".","_"),"=""", 'Fenêtre spécifique'!B7,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
         <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B8),".","_"),"=""", 'Fenêtre spécifique'!B8,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
         <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B9),".","_"),"=""", 'Fenêtre spécifique'!B9,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_TITLE="window.create.specific.title";</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
         <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B10),".","_"),"=""", 'Fenêtre spécifique'!B10,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_TITLE="window.create.specific.context.panel.title";</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
         <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B11),".","_"),"=""", 'Fenêtre spécifique'!B11,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_FILE_LABEL="window.create.specific.context.panel.file.label";</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
         <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B12),".","_"),"=""", 'Fenêtre spécifique'!B12,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_DETAILS_PANEL_TITLE="window.create.specific.details.panel.title";</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
         <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B13),".","_"),"=""", 'Fenêtre spécifique'!B13,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_PREVIOUS_LABEL="window.create.specific.action.panel.button.previous.label";</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
         <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B14),".","_"),"=""", 'Fenêtre spécifique'!B14,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_NEXT_LABEL="window.create.specific.action.panel.button.next.label";</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
         <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B15),".","_"),"=""", 'Fenêtre spécifique'!B15,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_TITLE="window.create.specific.create.panel.title";</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
         <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B16),".","_"),"=""", 'Fenêtre spécifique'!B16,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_MODIFY_LABEL="window.create.specific.create.panel.action.modify.label";</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
         <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B17),".","_"),"=""", 'Fenêtre spécifique'!B17,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_ADD_LABEL="window.create.specific.create.panel.action.add.label";</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
         <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B18),".","_"),"=""", 'Fenêtre spécifique'!B18,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_DELETE_LABEL="window.create.specific.create.panel.action.delete.label";</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
         <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B19),".","_"),"=""", 'Fenêtre spécifique'!B19,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_FINISH_LABEL="window.create.specific.action.panel.button.finish.label";</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
         <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B20),".","_"),"=""", 'Fenêtre spécifique'!B20,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
         <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B21),".","_"),"=""", 'Fenêtre spécifique'!B21,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
         <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B22),".","_"),"=""", 'Fenêtre spécifique'!B22,""";"),"")</f>
         <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TITLE="window.specific.information.panel.title";</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B23),".","_"),"=""", 'Fenêtre spécifique'!B23,""";"),"")</f>
         <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TEXT="window.specific.information.panel.text";</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
         <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B24),".","_"),"=""", 'Fenêtre spécifique'!B24,""";"),"")</f>
         <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TITLE="window.specific.warning.panel.title";</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
         <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B25),".","_"),"=""", 'Fenêtre spécifique'!B25,""";"),"")</f>
         <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TEXT="window.specific.warning.panel.text";</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B26),".","_"),"=""", 'Fenêtre spécifique'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B27),".","_"),"=""", 'Fenêtre spécifique'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B28),".","_"),"=""", 'Fenêtre spécifique'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B29),".","_"),"=""", 'Fenêtre spécifique'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B30),".","_"),"=""", 'Fenêtre spécifique'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B31),".","_"),"=""", 'Fenêtre spécifique'!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B32),".","_"),"=""", 'Fenêtre spécifique'!B32,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B33),".","_"),"=""", 'Fenêtre spécifique'!B33,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B34),".","_"),"=""", 'Fenêtre spécifique'!B34,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B35),".","_"),"=""", 'Fenêtre spécifique'!B35,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
-        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B36),".","_"),"=""", 'Fenêtre spécifique'!B36,""";"),"")</f>
+        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B26),".","_"),"=""", 'Fenêtre spécifique'!B26,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
-        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B37),".","_"),"=""", 'Fenêtre spécifique'!B37,""";"),"")</f>
+        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B27),".","_"),"=""", 'Fenêtre spécifique'!B27,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
-        <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B2),".","_"),"=""", 'Fenêtre Chargement document'!B2,""";"),"")</f>
+        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B28),".","_"),"=""", 'Fenêtre spécifique'!B28,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
+        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B29),".","_"),"=""", 'Fenêtre spécifique'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B30),".","_"),"=""", 'Fenêtre spécifique'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B31),".","_"),"=""", 'Fenêtre spécifique'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B32),".","_"),"=""", 'Fenêtre spécifique'!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B33),".","_"),"=""", 'Fenêtre spécifique'!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B34),".","_"),"=""", 'Fenêtre spécifique'!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B35),".","_"),"=""", 'Fenêtre spécifique'!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B36),".","_"),"=""", 'Fenêtre spécifique'!B36,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B37),".","_"),"=""", 'Fenêtre spécifique'!B37,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B2),".","_"),"=""", 'Fenêtre Chargement document'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
         <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B3),".","_"),"=""", 'Fenêtre Chargement document'!B3,""";"),"")</f>
         <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC="window.type.configuration.DIDACTIC";</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
         <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B4),".","_"),"=""", 'Fenêtre Chargement document'!B4,""";"),"")</f>
         <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC_EXPERT="window.type.configuration.DIDACTIC_EXPERT";</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
         <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B5),".","_"),"=""", 'Fenêtre Chargement document'!B5,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_TITLE="window.load.texts.title";</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
         <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B6),".","_"),"=""", 'Fenêtre Chargement document'!B6,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_PANEL_TITLE="window.load.texts.type.configuration.panel.title";</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
         <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B7),".","_"),"=""", 'Fenêtre Chargement document'!B7,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_LABEL="window.load.texts.type.configuration.label";</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
         <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B8),".","_"),"=""", 'Fenêtre Chargement document'!B8,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_EXPERT_LABEL="window.load.texts.type.configuration.expert.label";</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
         <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B9),".","_"),"=""", 'Fenêtre Chargement document'!B9,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_PANEL_TITLE="window.load.texts.folder.panel.title";</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B10),".","_"),"=""", 'Fenêtre Chargement document'!B10,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LABEL="window.load.texts.folder.label";</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B11),".","_"),"=""", 'Fenêtre Chargement document'!B11,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_LABEL="window.load.texts.folder.button.label";</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B12),".","_"),"=""", 'Fenêtre Chargement document'!B12,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.button.folder.choose.title";</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B13),".","_"),"=""", 'Fenêtre Chargement document'!B13,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_START_BUTTON_LABEL="window.load.texts.start.button.label";</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B14),".","_"),"=""", 'Fenêtre Chargement document'!B14,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_START_PANEL_TITLE="window.load.texts.start.panel.title";</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B15),".","_"),"=""", 'Fenêtre Chargement document'!B15,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_PANEL_TITLE="window.load.texts.informations.panel.title";</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B16),".","_"),"=""", 'Fenêtre Chargement document'!B16,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE="window.load.texts.informations.message";</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B17),".","_"),"=""", 'Fenêtre Chargement document'!B17,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_WARNING_PANEL_TITLE="window.load.texts.warning.panel.title";</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B18),".","_"),"=""", 'Fenêtre Chargement document'!B18,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_WARNING_MESSAGE="window.load.texts.warning.message";</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
         <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B19),".","_"),"=""", 'Fenêtre Chargement document'!B19,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE_DEFAULT="window.load.texts.informations.message.default";</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
         <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B20),".","_"),"=""", 'Fenêtre Chargement document'!B20,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_PANEL_TITLE="window.load.texts.choose.search.panel.title";</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
         <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B21),".","_"),"=""", 'Fenêtre Chargement document'!B21,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_LABEL="window.load.texts.choose.search.label";</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
         <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B22),".","_"),"=""", 'Fenêtre Chargement document'!B22,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
         <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B23),".","_"),"=""", 'Fenêtre Chargement document'!B23,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
         <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B24),".","_"),"=""", 'Fenêtre Chargement document'!B24,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
         <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B2),".","_"),"=""", 'Choix bibliotheque texte'!B2,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
         <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B3),".","_"),"=""", 'Choix bibliotheque texte'!B3,""";"),"")</f>
         <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LIBRARY_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.library.button.folder.choose.title";</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
-        <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B4),".","_"),"=""", 'Choix bibliotheque texte'!B4,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
-        <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B5),".","_"),"=""", 'Choix bibliotheque texte'!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
-        <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B6),".","_"),"=""", 'Choix bibliotheque texte'!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
-        <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B7),".","_"),"=""", 'Choix bibliotheque texte'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
-        <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B8),".","_"),"=""", 'Choix bibliotheque texte'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
-        <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B9),".","_"),"=""", 'Choix bibliotheque texte'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
-        <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B10),".","_"),"=""", 'Choix bibliotheque texte'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
-        <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B11),".","_"),"=""", 'Choix bibliotheque texte'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
-        <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B12),".","_"),"=""", 'Choix bibliotheque texte'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
-        <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B2),".","_"),"=""", 'Fenetre Corpus'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="str">
+        <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B4),".","_"),"=""", 'Choix bibliotheque texte'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B5),".","_"),"=""", 'Choix bibliotheque texte'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B6),".","_"),"=""", 'Choix bibliotheque texte'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B7),".","_"),"=""", 'Choix bibliotheque texte'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B8),".","_"),"=""", 'Choix bibliotheque texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B9),".","_"),"=""", 'Choix bibliotheque texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B10),".","_"),"=""", 'Choix bibliotheque texte'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B11),".","_"),"=""", 'Choix bibliotheque texte'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B12),".","_"),"=""", 'Choix bibliotheque texte'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B2),".","_"),"=""", 'Fenetre Corpus'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
         <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B3),".","_"),"=""", 'Fenetre Corpus'!B3,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_TITLE="window.create.corpus.title";</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
         <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B4),".","_"),"=""", 'Fenetre Corpus'!B4,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_FILE_PANEL_TITLE="window.create.corpus.file.panel.title";</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
         <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B5),".","_"),"=""", 'Fenetre Corpus'!B5,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_NAME_LABEL="window.create.corpus.name.label";</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
         <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B6),".","_"),"=""", 'Fenetre Corpus'!B6,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_CONTENT_PANEL_TITLE="window.create.corpus.content.panel.title";</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
         <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B7),".","_"),"=""", 'Fenetre Corpus'!B7,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_ACTION_PANEL_TITLE="window.create.corpus.action.panel.title";</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
         <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B8),".","_"),"=""", 'Fenetre Corpus'!B8,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_CORPUS_ACTION_CREATE_TEXT_BUTTON_TITLE="window.create.corpus.action.create.text.button.title";</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
         <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B9),".","_"),"=""", 'Fenetre Corpus'!B9,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_TITLE="window.fixed.error.meta.blank.line.panel.title";</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
         <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B10),".","_"),"=""", 'Fenetre Corpus'!B10,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.quit.button.label";</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
         <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B11),".","_"),"=""", 'Fenetre Corpus'!B11,""";"),"")</f>
         <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.next.button.label";</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
         <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B12),".","_"),"=""", 'Fenetre Corpus'!B12,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_CORPUS_TITLE="window.manage.corpus.title";</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
         <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B13),".","_"),"=""", 'Fenetre Corpus'!B13,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_ADD_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.add.text.action.button.save.and.quit.label";</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
         <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B14),".","_"),"=""", 'Fenetre Corpus'!B14,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
         <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B15),".","_"),"=""", 'Fenetre Corpus'!B15,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
         <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B16),".","_"),"=""", 'Fenetre Corpus'!B16,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
         <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B17),".","_"),"=""", 'Fenetre Corpus'!B17,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
         <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B18),".","_"),"=""", 'Fenetre Corpus'!B18,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
         <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B19),".","_"),"=""", 'Fenetre Corpus'!B19,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
         <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B20),".","_"),"=""", 'Fenetre Corpus'!B20,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
         <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B2),".","_"),"=""", 'Fenetre Creation texte'!B2,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
         <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B3),".","_"),"=""", 'Fenetre Creation texte'!B3,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_TITLE="window.create.text.title";</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
         <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B4),".","_"),"=""", 'Fenetre Creation texte'!B4,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_ACTION_PANEL_TITLE="window.create.text.action.panel.title";</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="str">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
         <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B5),".","_"),"=""", 'Fenetre Creation texte'!B5,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_AND_QUIT_TEXT_BUTTON_TITLE="window.create.text.action.create.and.quit.text.button.title";</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="str">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
         <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B6),".","_"),"=""", 'Fenetre Creation texte'!B6,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_TEXT_AND_ADD_TEXT_BUTTON_TITLE="window.create.text.action.create.text.and.add.text.button.title";</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="str">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
         <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B7),".","_"),"=""", 'Fenetre Creation texte'!B7,""";"),"")</f>
         <v>public static final String WINDOW_CREATE_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.create.text.action.fill.specific.button.title";</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="str">
-        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B8),".","_"),"=""", 'Fenetre Creation texte'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="str">
-        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B9),".","_"),"=""", 'Fenetre Creation texte'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="str">
-        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B10),".","_"),"=""", 'Fenetre Creation texte'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
-        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B11),".","_"),"=""", 'Fenetre Creation texte'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="str">
-        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B12),".","_"),"=""", 'Fenetre Creation texte'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="str">
-        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B13),".","_"),"=""", 'Fenetre Creation texte'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="str">
-        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B14),".","_"),"=""", 'Fenetre Creation texte'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="str">
-        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B15),".","_"),"=""", 'Fenetre Creation texte'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="str">
-        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B16),".","_"),"=""", 'Fenetre Creation texte'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="str">
-        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B17),".","_"),"=""", 'Fenetre Creation texte'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="str">
-        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B18),".","_"),"=""", 'Fenetre Creation texte'!B18,""";"),"")</f>
+        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B8),".","_"),"=""", 'Fenetre Creation texte'!B8,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="str">
-        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B19),".","_"),"=""", 'Fenetre Creation texte'!B19,""";"),"")</f>
+        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B9),".","_"),"=""", 'Fenetre Creation texte'!B9,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="str">
-        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B20),".","_"),"=""", 'Fenetre Creation texte'!B20,""";"),"")</f>
+        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B10),".","_"),"=""", 'Fenetre Creation texte'!B10,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="str">
-        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B21),".","_"),"=""", 'Fenetre Creation texte'!B21,""";"),"")</f>
+        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B11),".","_"),"=""", 'Fenetre Creation texte'!B11,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="str">
-        <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B2),".","_"),"=""", 'Fenetre Gerer les textes'!B2,""";"),"")</f>
+        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B12),".","_"),"=""", 'Fenetre Creation texte'!B12,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="str">
+        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B13),".","_"),"=""", 'Fenetre Creation texte'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B14),".","_"),"=""", 'Fenetre Creation texte'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B15),".","_"),"=""", 'Fenetre Creation texte'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B16),".","_"),"=""", 'Fenetre Creation texte'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B17),".","_"),"=""", 'Fenetre Creation texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B18),".","_"),"=""", 'Fenetre Creation texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B19),".","_"),"=""", 'Fenetre Creation texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B20),".","_"),"=""", 'Fenetre Creation texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B21),".","_"),"=""", 'Fenetre Creation texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B2),".","_"),"=""", 'Fenetre Gerer les textes'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
         <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B3),".","_"),"=""", 'Fenetre Gerer les textes'!B3,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_PANEL_LABEL="window.display.texts.panel.label";</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="str">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
         <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B4),".","_"),"=""", 'Fenetre Gerer les textes'!B4,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_CORPUS_EDIT_BUTTON_LABEL="window.display.corpus.edit.button.label";</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="str">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
         <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B5),".","_"),"=""", 'Fenetre Gerer les textes'!B5,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_EDIT_BUTTON_LABEL="window.display.texts.edit.button.label";</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="str">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
         <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B6),".","_"),"=""", 'Fenetre Gerer les textes'!B6,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_DELETE_BUTTON_LABEL="window.display.texts.delete.button.label";</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="str">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
         <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B7),".","_"),"=""", 'Fenetre Gerer les textes'!B7,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_PREVIOUS_BUTTON_LABEL="window.display.texts.previous.button.label";</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="str">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
         <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B8),".","_"),"=""", 'Fenetre Gerer les textes'!B8,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_NEXT_BUTTON_LABEL="window.display.texts.next.button.label";</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="str">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
         <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B9),".","_"),"=""", 'Fenetre Gerer les textes'!B9,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_CURRENT_POSITION_LABEL="window.display.texts.current.position.label";</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="str">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
         <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B10),".","_"),"=""", 'Fenetre Gerer les textes'!B10,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_NB_TEXTS_BY_PAGE_LABEL="window.display.texts.nb.texts.by.page.label";</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="str">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
         <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B11),".","_"),"=""", 'Fenetre Gerer les textes'!B11,""";"),"")</f>
         <v>public static final String WINDOW_DISPLAY_TEXTS_CORPUS_LABEL="window.display.texts.corpus.label";</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="str">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
         <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B12),".","_"),"=""", 'Fenetre Gerer les textes'!B12,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_TITLE="window.manage.texts.title";</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="str">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
         <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B13),".","_"),"=""", 'Fenetre Gerer les textes'!B13,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_PANEL_TITLE="window.manage.texts.generate.excel.panel.title";</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="str">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
         <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B14),".","_"),"=""", 'Fenetre Gerer les textes'!B14,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_CLASSICAL_BUTTON_LABEL="window.manage.texts.generate.excel.classical.button.label";</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="str">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
         <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B15),".","_"),"=""", 'Fenetre Gerer les textes'!B15,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_SPECIFIC_BUTTON_LABEL="window.manage.texts.generate.excel.specific.button.label";</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="str">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
         <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B16),".","_"),"=""", 'Fenetre Gerer les textes'!B16,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_FILTERS_BUTTON_LABEL="window.manage.texts.filters.button.label";</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="str">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
         <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B17),".","_"),"=""", 'Fenetre Gerer les textes'!B17,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_TITLE="window.manage.texts.information.title";</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="str">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
         <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B18),".","_"),"=""", 'Fenetre Gerer les textes'!B18,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_LABEL="window.manage.texts.information.label";</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="str">
-        <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="str">
-        <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B20),".","_"),"=""", 'Fenetre Gerer les textes'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="str">
-        <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B21),".","_"),"=""", 'Fenetre Gerer les textes'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="str">
-        <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B22),".","_"),"=""", 'Fenetre Gerer les textes'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="str">
-        <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B23),".","_"),"=""", 'Fenetre Gerer les textes'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="str">
-        <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B24),".","_"),"=""", 'Fenetre Gerer les textes'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="str">
-        <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B25),".","_"),"=""", 'Fenetre Gerer les textes'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="str">
-        <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B26),".","_"),"=""", 'Fenetre Gerer les textes'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="str">
-        <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B27),".","_"),"=""", 'Fenetre Gerer les textes'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="str">
-        <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B2),".","_"),"=""", 'Fenetre filtre texte'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
+        <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B20),".","_"),"=""", 'Fenetre Gerer les textes'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B21),".","_"),"=""", 'Fenetre Gerer les textes'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B22),".","_"),"=""", 'Fenetre Gerer les textes'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B23),".","_"),"=""", 'Fenetre Gerer les textes'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B24),".","_"),"=""", 'Fenetre Gerer les textes'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B25),".","_"),"=""", 'Fenetre Gerer les textes'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B26),".","_"),"=""", 'Fenetre Gerer les textes'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B27),".","_"),"=""", 'Fenetre Gerer les textes'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B2),".","_"),"=""", 'Fenetre filtre texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
         <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B3),".","_"),"=""", 'Fenetre filtre texte'!B3,""";"),"")</f>
         <v>public static final String WINDOW_FILTER_TYPE_CONTAINS="window.filter.type.CONTAINS";</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="str">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
         <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B4),".","_"),"=""", 'Fenetre filtre texte'!B4,""";"),"")</f>
         <v>public static final String WINDOW_FILTER_TYPE_EQUAL="window.filter.type.EQUAL";</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="str">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
         <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B5),".","_"),"=""", 'Fenetre filtre texte'!B5,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_GLOBAL_PANEL_TITLE="window.manage.filters.global.panel.title";</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="str">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
         <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B6),".","_"),"=""", 'Fenetre filtre texte'!B6,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_PANEL_TITLE="window.manage.filters.panel.title";</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="str">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
         <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B7),".","_"),"=""", 'Fenetre filtre texte'!B7,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_TYPE_FILTER_LABEL="window.manage.filters.type.filter.label";</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="str">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
         <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B8),".","_"),"=""", 'Fenetre filtre texte'!B8,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_VALUE_FILTER_LABEL="window.manage.filters.value.filter.label";</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="str">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
         <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B9),".","_"),"=""", 'Fenetre filtre texte'!B9,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_ADD_FILTER_BUTTON_LABEL="window.manage.filters.add.filter.button.label";</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
         <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B10),".","_"),"=""", 'Fenetre filtre texte'!B10,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_PANEL_TITLE="window.manage.filters.corpus.panel.title";</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="str">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
         <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B11),".","_"),"=""", 'Fenetre filtre texte'!B11,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_VALUE_LABEL="window.manage.filters.corpus.value.label";</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="str">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
         <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B12),".","_"),"=""", 'Fenetre filtre texte'!B12,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_PANEL_TITLE="window.manage.filters.action.panel.title";</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="str">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
         <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B13),".","_"),"=""", 'Fenetre filtre texte'!B13,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_APPLY_BUTTON_LABEL="window.manage.filters.action.apply.button.label";</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="str">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
         <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B14),".","_"),"=""", 'Fenetre filtre texte'!B14,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_ALL_LABEL="window.manage.filters.corpus.all.label";</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="str">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
         <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B15),".","_"),"=""", 'Fenetre filtre texte'!B15,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_FILTERS_DELETE_FILTER_BUTTON_LABEL="window.manage.filters.delete.filter.button.label";</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="str">
-        <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B16),".","_"),"=""", 'Fenetre filtre texte'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="str">
-        <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B17),".","_"),"=""", 'Fenetre filtre texte'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="str">
-        <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B18),".","_"),"=""", 'Fenetre filtre texte'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="str">
-        <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B19),".","_"),"=""", 'Fenetre filtre texte'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="str">
-        <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B20),".","_"),"=""", 'Fenetre filtre texte'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="str">
-        <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B21),".","_"),"=""", 'Fenetre filtre texte'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="str">
-        <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B22),".","_"),"=""", 'Fenetre filtre texte'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="str">
-        <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B23),".","_"),"=""", 'Fenetre filtre texte'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="str">
-        <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B24),".","_"),"=""", 'Fenetre filtre texte'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="str">
-        <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B25),".","_"),"=""", 'Fenetre filtre texte'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="str">
-        <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B2),".","_"),"=""", 'Exporter Excel Reference'!B2,""";"),"")</f>
+        <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B16),".","_"),"=""", 'Fenetre filtre texte'!B16,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="str">
+        <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B17),".","_"),"=""", 'Fenetre filtre texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B18),".","_"),"=""", 'Fenetre filtre texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B19),".","_"),"=""", 'Fenetre filtre texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B20),".","_"),"=""", 'Fenetre filtre texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B21),".","_"),"=""", 'Fenetre filtre texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B22),".","_"),"=""", 'Fenetre filtre texte'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B23),".","_"),"=""", 'Fenetre filtre texte'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B24),".","_"),"=""", 'Fenetre filtre texte'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B25),".","_"),"=""", 'Fenetre filtre texte'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B2),".","_"),"=""", 'Exporter Excel Reference'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
         <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B3),".","_"),"=""", 'Exporter Excel Reference'!B3,""";"),"")</f>
         <v>public static final String WINDOW_FILE_PICKER_CLASSICAL_PANEL_TITLE="window.file.picker.classical.panel.title";</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="str">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
         <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B4),".","_"),"=""", 'Exporter Excel Reference'!B4,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_PANEL_TITLE="window.save.excel.classical.panel.title";</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="str">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
         <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B5),".","_"),"=""", 'Exporter Excel Reference'!B5,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TITLE="window.save.excel.classical.information.panel.title";</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="str">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
         <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B6),".","_"),"=""", 'Exporter Excel Reference'!B6,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.classical.information.panel.text.nothing";</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="str">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
         <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B7),".","_"),"=""", 'Exporter Excel Reference'!B7,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT="window.save.excel.classical.information.panel.text";</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="str">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
         <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B8),".","_"),"=""", 'Exporter Excel Reference'!B8,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_CHECK_LABEL="window.save.excel.specific.check.label";</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="str">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
         <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B9),".","_"),"=""", 'Exporter Excel Reference'!B9,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_REFERENCE_FILE_LABEL="window.save.excel.reference.file.label";</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="str">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
         <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B10),".","_"),"=""", 'Exporter Excel Reference'!B10,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="str">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
         <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B11),".","_"),"=""", 'Exporter Excel Reference'!B11,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="str">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
         <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B12),".","_"),"=""", 'Exporter Excel Reference'!B12,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_TITLE_PANEL="window.save.excel.options.title.panel";</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="str">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
         <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B13),".","_"),"=""", 'Exporter Excel Reference'!B13,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_HEADER_LABEL="window.save.excel.options.header.label";</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="str">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
         <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B14),".","_"),"=""", 'Exporter Excel Reference'!B14,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="str">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
         <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B15),".","_"),"=""", 'Exporter Excel Reference'!B15,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="str">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
         <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B16),".","_"),"=""", 'Exporter Excel Reference'!B16,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_ACTION_TITLE_PANEL="window.save.excel.action.title.panel";</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="str">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
         <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B17),".","_"),"=""", 'Exporter Excel Reference'!B17,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_ACTION_BUTTON_LABEL="window.save.excel.action.button.label";</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="str">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
         <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B18),".","_"),"=""", 'Exporter Excel Reference'!B18,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="str">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
         <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B19),".","_"),"=""", 'Exporter Excel Reference'!B19,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="str">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
         <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B20),".","_"),"=""", 'Exporter Excel Reference'!B20,""";"),"")</f>
         <v>public static final String WINDOW_FILE_PICKER_PANEL_LABEL="window.file.picker.panel.label";</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="str">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
         <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B21),".","_"),"=""", 'Exporter Excel Reference'!B21,""";"),"")</f>
         <v>public static final String WINDOW_FILE_PICKER_PANEL_BUTTON="window.file.picker.panel.button";</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="str">
-        <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B22),".","_"),"=""", 'Exporter Excel Reference'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="str">
-        <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B23),".","_"),"=""", 'Exporter Excel Reference'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="str">
-        <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B24),".","_"),"=""", 'Exporter Excel Reference'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="str">
-        <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B25),".","_"),"=""", 'Exporter Excel Reference'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="str">
-        <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B26),".","_"),"=""", 'Exporter Excel Reference'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="str">
-        <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B27),".","_"),"=""", 'Exporter Excel Reference'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="str">
-        <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B28),".","_"),"=""", 'Exporter Excel Reference'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="str">
-        <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B29),".","_"),"=""", 'Exporter Excel Reference'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="str">
-        <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B30),".","_"),"=""", 'Exporter Excel Reference'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="str">
-        <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B31),".","_"),"=""", 'Exporter Excel Reference'!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B2),".","_"),"=""", 'Exporter Excel Personnalisé'!B2,""";"),"")</f>
+        <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B22),".","_"),"=""", 'Exporter Excel Reference'!B22,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="str">
+        <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B23),".","_"),"=""", 'Exporter Excel Reference'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B24),".","_"),"=""", 'Exporter Excel Reference'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B25),".","_"),"=""", 'Exporter Excel Reference'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B26),".","_"),"=""", 'Exporter Excel Reference'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B27),".","_"),"=""", 'Exporter Excel Reference'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B28),".","_"),"=""", 'Exporter Excel Reference'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B29),".","_"),"=""", 'Exporter Excel Reference'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B30),".","_"),"=""", 'Exporter Excel Reference'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B31),".","_"),"=""", 'Exporter Excel Reference'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B2),".","_"),"=""", 'Exporter Excel Personnalisé'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
         <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B3),".","_"),"=""", 'Exporter Excel Personnalisé'!B3,""";"),"")</f>
         <v>public static final String WINDOW_FILE_PICKER_SPECIFIC_PANEL_TITLE="window.file.picker.specific.panel.title";</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="str">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
         <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B4),".","_"),"=""", 'Exporter Excel Personnalisé'!B4,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_PANEL_TITLE="window.save.excel.specific.panel.title";</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="str">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
         <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B5),".","_"),"=""", 'Exporter Excel Personnalisé'!B5,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TITLE="window.save.excel.specific.information.panel.title";</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="str">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
         <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B6),".","_"),"=""", 'Exporter Excel Personnalisé'!B6,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.specific.information.panel.text.nothing";</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="str">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
         <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B7),".","_"),"=""", 'Exporter Excel Personnalisé'!B7,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT="window.save.excel.specific.information.panel.text";</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="str">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
         <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B8),".","_"),"=""", 'Exporter Excel Personnalisé'!B8,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_PANEL_TITLE="window.save.excel.specific.list.specific.panel.title";</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="str">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
         <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B9),".","_"),"=""", 'Exporter Excel Personnalisé'!B9,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL="window.save.excel.specific.list.specific.label";</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="str">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
         <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B10),".","_"),"=""", 'Exporter Excel Personnalisé'!B10,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL_NOTHING="window.save.excel.specific.list.specific.label.nothing";</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="str">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
         <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B11),".","_"),"=""", 'Exporter Excel Personnalisé'!B11,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_FIELDS_TITLE_PANEL="window.save.excel.specific.list.fields.title.panel";</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
         <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B12),".","_"),"=""", 'Exporter Excel Personnalisé'!B12,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_FILE_LABEL="window.save.excel.specific.file.label";</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="str">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
         <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B13),".","_"),"=""", 'Exporter Excel Personnalisé'!B13,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_TITLE_PANEL="window.save.excel.specific.action.title.panel";</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="str">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
         <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B14),".","_"),"=""", 'Exporter Excel Personnalisé'!B14,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_SELECT_ALL="window.save.excel.specific.action.select.all";</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="str">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
         <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B15),".","_"),"=""", 'Exporter Excel Personnalisé'!B15,""";"),"")</f>
         <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_DESELECT_ALL="window.save.excel.specific.action.deselect.all";</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B16),".","_"),"=""", 'Exporter Excel Personnalisé'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B17),".","_"),"=""", 'Exporter Excel Personnalisé'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B18),".","_"),"=""", 'Exporter Excel Personnalisé'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B19),".","_"),"=""", 'Exporter Excel Personnalisé'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B20),".","_"),"=""", 'Exporter Excel Personnalisé'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B21),".","_"),"=""", 'Exporter Excel Personnalisé'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B22),".","_"),"=""", 'Exporter Excel Personnalisé'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B23),".","_"),"=""", 'Exporter Excel Personnalisé'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B24),".","_"),"=""", 'Exporter Excel Personnalisé'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B25),".","_"),"=""", 'Exporter Excel Personnalisé'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="str">
-        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B2),".","_"),"=""", Autres!B2,""";"),"")</f>
+        <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B16),".","_"),"=""", 'Exporter Excel Personnalisé'!B16,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B17),".","_"),"=""", 'Exporter Excel Personnalisé'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B18),".","_"),"=""", 'Exporter Excel Personnalisé'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B19),".","_"),"=""", 'Exporter Excel Personnalisé'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B20),".","_"),"=""", 'Exporter Excel Personnalisé'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B21),".","_"),"=""", 'Exporter Excel Personnalisé'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B22),".","_"),"=""", 'Exporter Excel Personnalisé'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B23),".","_"),"=""", 'Exporter Excel Personnalisé'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B24),".","_"),"=""", 'Exporter Excel Personnalisé'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B25),".","_"),"=""", 'Exporter Excel Personnalisé'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B2),".","_"),"=""", Autres!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
         <f>IF(Autres!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B3),".","_"),"=""", Autres!B3,""";"),"")</f>
         <v>public static final String WINDOW_RECOVERY_ERROR_STATE_ANSWER="window.recovery.error.state.answer";</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="str">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
         <f>IF(Autres!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B4),".","_"),"=""", Autres!B4,""";"),"")</f>
         <v>public static final String WINDOW_RECOVERY_ERROR_STATE_TITLE="window.recovery.error.state.title";</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="str">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
         <f>IF(Autres!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B5),".","_"),"=""", Autres!B5,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="str">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
         <f>IF(Autres!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B6),".","_"),"=""", Autres!B6,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="str">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
         <f>IF(Autres!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B7),".","_"),"=""", Autres!B7,""";"),"")</f>
         <v>public static final String WINDOW_INFORMATION_PANEL_LABEL="window.information.panel.label";</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="str">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
         <f>IF(Autres!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B8),".","_"),"=""", Autres!B8,""";"),"")</f>
         <v>public static final String WINDOW_INFORMATION_MESSAGE_PANEL_LABEL="window.information.message.panel.label";</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="str">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
         <f>IF(Autres!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B9),".","_"),"=""", Autres!B9,""";"),"")</f>
         <v>public static final String WINDOW_INFORMATION_ACTION_PANEL_LABEL="window.information.action.panel.label";</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="str">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
         <f>IF(Autres!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B10),".","_"),"=""", Autres!B10,""";"),"")</f>
         <v>public static final String WINDOW_INFORMATION_ACTION_BUTTON_LABEL="window.information.action.button.label";</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="str">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
         <f>IF(Autres!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B11),".","_"),"=""", Autres!B11,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="str">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
         <f>IF(Autres!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B12),".","_"),"=""", Autres!B12,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="str">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
         <f>IF(Autres!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B13),".","_"),"=""", Autres!B13,""";"),"")</f>
         <v>public static final String WINDOW_MESSAGE_ERROR_MOVE_FILE_EXISTS="window.message.error.move.file.exists";</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="str">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
         <f>IF(Autres!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B14),".","_"),"=""", Autres!B14,""";"),"")</f>
         <v>public static final String WINDOW_MESSAGE_RESULT_MOVE_FILE="window.message.result.move.file";</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="str">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
         <f>IF(Autres!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B15),".","_"),"=""", Autres!B15,""";"),"")</f>
         <v>public static final String WINDOW_MESSAGE_UNKNOW_ERROR="window.message.unknow.error";</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="str">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
         <f>IF(Autres!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B16),".","_"),"=""", Autres!B16,""";"),"")</f>
         <v>public static final String WINDOW_MESSAGE_FROM="window.message.from";</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="str">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
         <f>IF(Autres!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B17),".","_"),"=""", Autres!B17,""";"),"")</f>
         <v>public static final String WINDOW_MESSAGE_TO="window.message.to";</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="str">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
         <f>IF(Autres!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B18),".","_"),"=""", Autres!B18,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="str">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
         <f>IF(Autres!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B19),".","_"),"=""", Autres!B19,""";"),"")</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="str">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
         <f>IF(Autres!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B20),".","_"),"=""", Autres!B20,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_TITLE="window.manage.texts.delete.text.action.message.title";</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="str">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
         <f>IF(Autres!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B21),".","_"),"=""", Autres!B21,""";"),"")</f>
         <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_CONTENT="window.manage.texts.delete.text.action.message.content";</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="str">
-        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B22),".","_"),"=""", Autres!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="str">
-        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B23),".","_"),"=""", Autres!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="str">
-        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B24),".","_"),"=""", Autres!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="str">
-        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B25),".","_"),"=""", Autres!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="str">
-        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B26),".","_"),"=""", Autres!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="str">
-        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B27),".","_"),"=""", Autres!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="str">
-        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B28),".","_"),"=""", Autres!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="str">
-        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B29),".","_"),"=""", Autres!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="str">
-        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B30),".","_"),"=""", Autres!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="str">
-        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B31),".","_"),"=""", Autres!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="str">
-        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B32),".","_"),"=""", Autres!B32,""";"),"")</f>
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B22),".","_"),"=""", Autres!B22,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="str">
-        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B33),".","_"),"=""", Autres!B33,""";"),"")</f>
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B23),".","_"),"=""", Autres!B23,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="str">
-        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B34),".","_"),"=""", Autres!B34,""";"),"")</f>
-        <v/>
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B24),".","_"),"=""", Autres!B24,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_PANEL_TITLE="window.wizard.navigation.panel.title";</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="str">
-        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B35),".","_"),"=""", Autres!B35,""";"),"")</f>
-        <v/>
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B25),".","_"),"=""", Autres!B25,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_PREVIOUS_BUTTON_LABEL="window.wizard.navigation.previous.button.label";</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="str">
-        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B2),".","_"),"=""", 'Changer Configuration'!B2,""";"),"")</f>
-        <v/>
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B26),".","_"),"=""", Autres!B26,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_NEXT_BUTTON_LABEL="window.wizard.navigation.next.button.label";</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="str">
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B27),".","_"),"=""", Autres!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B28),".","_"),"=""", Autres!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B29),".","_"),"=""", Autres!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B30),".","_"),"=""", Autres!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B31),".","_"),"=""", Autres!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B32),".","_"),"=""", Autres!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B33),".","_"),"=""", Autres!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B34),".","_"),"=""", Autres!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B35),".","_"),"=""", Autres!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B2),".","_"),"=""", 'Changer Configuration'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
         <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B3),".","_"),"=""", 'Changer Configuration'!B3,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_TITLE="window.change.configuration.title";</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="str">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
         <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B4),".","_"),"=""", 'Changer Configuration'!B4,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_LIST_LABEL="window.change.configuration.list.label";</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="str">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
         <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B5),".","_"),"=""", 'Changer Configuration'!B5,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_PANEL_TITLE="window.change.configuration.panel.title";</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="str">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
         <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B6),".","_"),"=""", 'Changer Configuration'!B6,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_PANEL_TITLE="window.change.configuration.message.panel.title";</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="str">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
         <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B7),".","_"),"=""", 'Changer Configuration'!B7,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_CONTENT="window.change.configuration.message.content";</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="str">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
         <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B8),".","_"),"=""", 'Changer Configuration'!B8,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_APPLY_AND_CLOSE="window.change.configuration.button.apply.and.close";</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="str">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
         <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B9),".","_"),"=""", 'Changer Configuration'!B9,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_CLOSE="window.change.configuration.button.close";</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="str">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
         <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B10),".","_"),"=""", 'Changer Configuration'!B10,""";"),"")</f>
         <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTONS_PANEL_TITLE="window.change.configuration.buttons.panel.title";</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="str">
-        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B11),".","_"),"=""", 'Changer Configuration'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="str">
-        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B12),".","_"),"=""", 'Changer Configuration'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="str">
-        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B13),".","_"),"=""", 'Changer Configuration'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="str">
-        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B14),".","_"),"=""", 'Changer Configuration'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="str">
-        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B15),".","_"),"=""", 'Changer Configuration'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="str">
-        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B16),".","_"),"=""", 'Changer Configuration'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="str">
-        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B17),".","_"),"=""", 'Changer Configuration'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="str">
-        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B18),".","_"),"=""", 'Changer Configuration'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="str">
-        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B19),".","_"),"=""", 'Changer Configuration'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="str">
-        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B20),".","_"),"=""", 'Changer Configuration'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="str">
-        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B21),".","_"),"=""", 'Changer Configuration'!B21,""";"),"")</f>
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B11),".","_"),"=""", 'Changer Configuration'!B11,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="str">
-        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B22),".","_"),"=""", 'Changer Configuration'!B22,""";"),"")</f>
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B12),".","_"),"=""", 'Changer Configuration'!B12,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="str">
-        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B23),".","_"),"=""", 'Changer Configuration'!B23,""";"),"")</f>
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B13),".","_"),"=""", 'Changer Configuration'!B13,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="str">
-        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B2),".","_"),"=""", 'A propos'!B2,""";"),"")</f>
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B14),".","_"),"=""", 'Changer Configuration'!B14,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B15),".","_"),"=""", 'Changer Configuration'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B16),".","_"),"=""", 'Changer Configuration'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B17),".","_"),"=""", 'Changer Configuration'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B18),".","_"),"=""", 'Changer Configuration'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B19),".","_"),"=""", 'Changer Configuration'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B20),".","_"),"=""", 'Changer Configuration'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B21),".","_"),"=""", 'Changer Configuration'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B22),".","_"),"=""", 'Changer Configuration'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B23),".","_"),"=""", 'Changer Configuration'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B2),".","_"),"=""", 'A propos'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
         <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B3),".","_"),"=""", 'A propos'!B3,""";"),"")</f>
         <v>public static final String WINDOW_ABOUT_TITLE="window.about.title";</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="str">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B4),".","_"),"=""", 'A propos'!B4,""";"),"")</f>
         <v>public static final String WINDOW_ABOUT_MESSAGE_CONTENT="window.about.message.content";</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="str">
-        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B5),".","_"),"=""", 'A propos'!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="str">
-        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B6),".","_"),"=""", 'A propos'!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="str">
-        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B7),".","_"),"=""", 'A propos'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="str">
-        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B8),".","_"),"=""", 'A propos'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="str">
-        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B9),".","_"),"=""", 'A propos'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="str">
-        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B10),".","_"),"=""", 'A propos'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="str">
-        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B11),".","_"),"=""", 'A propos'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="str">
-        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B12),".","_"),"=""", 'A propos'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="str">
-        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B13),".","_"),"=""", 'A propos'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="str">
-        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B14),".","_"),"=""", 'A propos'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
-        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B15),".","_"),"=""", 'A propos'!B15,""";"),"")</f>
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B5),".","_"),"=""", 'A propos'!B5,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="str">
-        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B16),".","_"),"=""", 'A propos'!B16,""";"),"")</f>
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B6),".","_"),"=""", 'A propos'!B6,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="str">
-        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B17),".","_"),"=""", 'A propos'!B17,""";"),"")</f>
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B7),".","_"),"=""", 'A propos'!B7,""";"),"")</f>
         <v/>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="str">
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B8),".","_"),"=""", 'A propos'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B9),".","_"),"=""", 'A propos'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B10),".","_"),"=""", 'A propos'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B11),".","_"),"=""", 'A propos'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B12),".","_"),"=""", 'A propos'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B13),".","_"),"=""", 'A propos'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B14),".","_"),"=""", 'A propos'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B15),".","_"),"=""", 'A propos'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B16),".","_"),"=""", 'A propos'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B17),".","_"),"=""", 'A propos'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
         <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B18),".","_"),"=""", 'A propos'!B18,""";"),"")</f>
         <v/>
       </c>
@@ -32469,15 +32831,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77FE015-45ED-4C89-B5D1-EDB5C6B1F7DA}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32554,10 +32917,10 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32641,21 +33004,21 @@
         <v>566</v>
       </c>
       <c r="D12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>578</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>589</v>
+      <c r="C13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D13" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -32666,45 +33029,274 @@
         <v>579</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="D14" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>580</v>
-      </c>
-      <c r="C15" t="s">
-        <v>583</v>
-      </c>
-      <c r="D15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Quelle est la balise correspondante à cette ligne ?&lt;BR/&gt;",
+"Utilisez la liste, pour sélectionner la balise adéquate.&lt;BR/&gt;",
+"Puis cliquez sur suivant.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;Quelle est la balise correspondante à cette ligne ?&lt;BR/&gt;Utilisez la liste, pour sélectionner la balise adéquate.&lt;BR/&gt;Puis cliquez sur suivant.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;",
+"Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;",
+"Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
-      </c>
-      <c r="C16" t="s">
-        <v>597</v>
-      </c>
-      <c r="D16" t="s">
-        <v>598</v>
+        <v>601</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Quel est le contenu de la balise ?&lt;BR/&gt;",
+"Pour sélectionner les données textuelles de la balise, utilisez la souris,&lt;BR/&gt;",
+"sélectionnez la partie correspondante aux données textuelles&lt;BR/&gt;",
+"dans la zone à gauche du bouton 'identifier' et cliquez dessus ce bouton.&lt;BR/&gt;",
+"La zone de texte en dessous a été mise à jour avec le contenu que vous&lt;BR/&gt;",
+"avez sélectionné, ci cela vous convient cliquez sur suivant sinon, recommencez.&lt;BR/&gt;",
+"NB : Si le texte n'est pas complet ou erroné, vous pourrez le modifier&lt;BR/&gt;",
+"à l'étape suivante.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;Quel est le contenu de la balise ?&lt;BR/&gt;Pour sélectionner les données textuelles de la balise, utilisez la souris,&lt;BR/&gt;sélectionnez la partie correspondante aux données textuelles&lt;BR/&gt;dans la zone à gauche du bouton 'identifier' et cliquez dessus ce bouton.&lt;BR/&gt;La zone de texte en dessous a été mise à jour avec le contenu que vous&lt;BR/&gt;avez sélectionné, ci cela vous convient cliquez sur suivant sinon, recommencez.&lt;BR/&gt;NB : Si le texte n'est pas complet ou erroné, vous pourrez le modifier&lt;BR/&gt;à l'étape suivante.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Cuál es el contenido de la etiqueta?&lt;BR/&gt;",
+"Para seleccionar los datos de texto de la etiqueta, utilice el ratón,&lt;BR/&gt;",
+"seleccione la parte correspondiente a los datos de texto&lt;BR/&gt;",
+"en el área a la izquierda del botón 'identificar ' y haga clic en él.&lt;BR/&gt;",
+"El cuadro de texto de abajo se ha actualizado con el contenido que usted&lt;BR/&gt;",
+"ha seleccionado, esto le conviene haga clic en siguiente si no, reinicie.&lt;BR/&gt;",
+"Nota: Si el texto no es completo o erróneo, podrá editarlo&lt;BR/&gt;",
+"en el siguiente paso.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;¿Cuál es el contenido de la etiqueta?&lt;BR/&gt;Para seleccionar los datos de texto de la etiqueta, utilice el ratón,&lt;BR/&gt;seleccione la parte correspondiente a los datos de texto&lt;BR/&gt;en el área a la izquierda del botón 'identificar ' y haga clic en él.&lt;BR/&gt;El cuadro de texto de abajo se ha actualizado con el contenido que usted&lt;BR/&gt;ha seleccionado, esto le conviene haga clic en siguiente si no, reinicie.&lt;BR/&gt;Nota: Si el texto no es completo o erróneo, podrá editarlo&lt;BR/&gt;en el siguiente paso.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>602</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;",
+"Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;",
+"Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;",
+"modifier dans la zone de texte ci-dessous,&lt;BR/&gt;",
+"la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;",
+"Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;",
+"la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;modifier dans la zone de texte ci-dessous,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;",
+"Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;",
+"Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;",
+"modificar en el cuadro de texto siguiente,&lt;BR/&gt;",
+"la línea se actualizará en consecuencia.&lt;BR/&gt;",
+"Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;",
+"la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;modificar en el cuadro de texto siguiente,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>603</v>
+      </c>
+      <c r="C18" t="s">
+        <v>625</v>
+      </c>
+      <c r="D18" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>604</v>
+      </c>
+      <c r="C19" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D20" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>606</v>
+      </c>
+      <c r="C21" t="s">
+        <v>607</v>
+      </c>
+      <c r="D21" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" t="s">
+        <v>613</v>
+      </c>
+      <c r="D23" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>614</v>
+      </c>
+      <c r="C24" t="s">
+        <v>615</v>
+      </c>
+      <c r="D24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>616</v>
+      </c>
+      <c r="C25" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>618</v>
+      </c>
+      <c r="C26" t="s">
+        <v>619</v>
+      </c>
+      <c r="D26" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>620</v>
+      </c>
+      <c r="C27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D27" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>622</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>599</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;",
+"Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;",
+"Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;",
+"Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;",
+"NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;",
+"Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;",
+"En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;",
+"Haga clic en siguiente para comenzar la corrección.&lt;BR/&gt;",
+"NB: En cualquier momento usted puede volver atrás con el botón anterior.&lt;/P&gt;&lt;/HTML&gt;")</f>
+        <v>&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;Haga clic en siguiente para comenzar la corrección.&lt;BR/&gt;NB: En cualquier momento usted puede volver atrás con el botón anterior.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -32969,8 +33561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33587,13 +34179,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -33601,13 +34193,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11410751-9386-4F45-BC76-FB8F5461D708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59721F61-3195-4619-9DE5-1C23342AF663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="631">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -1874,24 +1874,12 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Données de la balise : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Données sélectionnés : </t>
   </si>
   <si>
     <t xml:space="preserve">Contenu complet de la ligne : </t>
   </si>
   <si>
-    <t>window.fixed.error.line.fixed.edit.text.label</t>
-  </si>
-  <si>
-    <t>window.fixed.error.line.fixed.panel.title</t>
-  </si>
-  <si>
-    <t>Edition des données</t>
-  </si>
-  <si>
     <t>window.fixed.error.line.wizard.panel.title</t>
   </si>
   <si>
@@ -1935,12 +1923,6 @@
   </si>
   <si>
     <t>Identificar</t>
-  </si>
-  <si>
-    <t>Datos de la etiqueta :</t>
-  </si>
-  <si>
-    <t>Edición de los datos</t>
   </si>
   <si>
     <t>Asistente de corrección de línea</t>
@@ -23259,8 +23241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D29" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="A1:D29" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{169A2519-20F5-4725-B738-85C952ADEFC7}" name="Tableau2" displayName="Tableau2" ref="A1:D27" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="A1:D27" xr:uid="{849FCDCD-6CD5-4C74-8BCE-20229F959B34}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5D46B975-1F69-4858-84DB-7E13C30C8025}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{9BDFB138-7114-4831-825F-D54624C7F460}" name="Code"/>
@@ -23661,7 +23643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -25580,7 +25562,7 @@
   <dimension ref="A1:A403"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A1:A403"/>
+      <selection activeCell="A81" sqref="A1:A403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26017,7 +25999,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B17,"=", 'Fenêtre erreur ligne'!C17),IF('Fenêtre erreur ligne'!C17&lt;&gt;"",'Fenêtre erreur ligne'!C17,""))</f>
-        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;modifier dans la zone de texte ci-dessous,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez faire&lt;BR/&gt;précédent et effectuer des modifications,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -26047,49 +26029,49 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B22,"=", 'Fenêtre erreur ligne'!C22),IF('Fenêtre erreur ligne'!C22&lt;&gt;"",'Fenêtre erreur ligne'!C22,""))</f>
-        <v xml:space="preserve">window.fixed.error.line.fixed.edit.text.label=Données de la balise : </v>
+        <v>window.fixed.error.line.wizard.panel.title=Assistant de correction de la ligne</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B23,"=", 'Fenêtre erreur ligne'!C23),IF('Fenêtre erreur ligne'!C23&lt;&gt;"",'Fenêtre erreur ligne'!C23,""))</f>
-        <v>window.fixed.error.line.fixed.panel.title=Edition des données</v>
+        <v>window.fixed.error.line.mode.panel.title=Mode de correction</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B24,"=", 'Fenêtre erreur ligne'!C24),IF('Fenêtre erreur ligne'!C24&lt;&gt;"",'Fenêtre erreur ligne'!C24,""))</f>
-        <v>window.fixed.error.line.wizard.panel.title=Assistant de correction de la ligne</v>
+        <v>window.fixed.error.line.mode.wizard.label=Assistant</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B25,"=", 'Fenêtre erreur ligne'!C25),IF('Fenêtre erreur ligne'!C25&lt;&gt;"",'Fenêtre erreur ligne'!C25,""))</f>
-        <v>window.fixed.error.line.mode.panel.title=Mode de correction</v>
+        <v>window.fixed.error.line.mode.expert.label=Expert</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B26,"=", 'Fenêtre erreur ligne'!C26),IF('Fenêtre erreur ligne'!C26&lt;&gt;"",'Fenêtre erreur ligne'!C26,""))</f>
-        <v>window.fixed.error.line.mode.wizard.label=Assistant</v>
+        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Mode Expert : En mode expert vous pouvez modifier la balise corrigé ci-dessus&lt;BR/&gt;Et lorsque tout est bon vous pouvez cliquez sur le bouton de correction et passer au suivant&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B27,"=", 'Fenêtre erreur ligne'!C27),IF('Fenêtre erreur ligne'!C27&lt;&gt;"",'Fenêtre erreur ligne'!C27,""))</f>
-        <v>window.fixed.error.line.mode.expert.label=Expert</v>
+        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B28,"=", 'Fenêtre erreur ligne'!C28),IF('Fenêtre erreur ligne'!C28&lt;&gt;"",'Fenêtre erreur ligne'!C28,""))</f>
-        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Mode Expert : En mode expert vous pouvez modifier la balise corrigé ci-dessus&lt;BR/&gt;Et lorsque tout est bon vous pouvez cliquez sur le bouton de correction et passer au suivant&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B29,"=", 'Fenêtre erreur ligne'!C29),IF('Fenêtre erreur ligne'!C29&lt;&gt;"",'Fenêtre erreur ligne'!C29,""))</f>
-        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -28015,8 +27997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
   <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A1:A401"/>
+    <sheetView showZeros="0" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A1:A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28441,7 +28423,7 @@
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B15,"=", 'Fenêtre erreur ligne'!D15),IF('Fenêtre erreur ligne'!D15&lt;&gt;"",'Fenêtre erreur ligne'!D15,""))</f>
-        <v>window.fixed.error.line.information.message.etape2=&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>window.fixed.error.line.information.message.etape2=&lt;HTML&gt;&lt;P&gt;¿Cuál es la etiqueta correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -28453,7 +28435,7 @@
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B17,"=", 'Fenêtre erreur ligne'!D17),IF('Fenêtre erreur ligne'!D17&lt;&gt;"",'Fenêtre erreur ligne'!D17,""))</f>
-        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;modificar en el cuadro de texto siguiente,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>window.fixed.error.line.information.message.etape4=&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede hacer&lt;BR/&gt;anterior y realizar modificaciones,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -28483,49 +28465,49 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B22,"=", 'Fenêtre erreur ligne'!D22),IF('Fenêtre erreur ligne'!D22&lt;&gt;"",'Fenêtre erreur ligne'!D22,""))</f>
-        <v>window.fixed.error.line.fixed.edit.text.label=Datos de la etiqueta :</v>
+        <v>window.fixed.error.line.wizard.panel.title=Asistente de corrección de línea</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B23,"=", 'Fenêtre erreur ligne'!D23),IF('Fenêtre erreur ligne'!D23&lt;&gt;"",'Fenêtre erreur ligne'!D23,""))</f>
-        <v>window.fixed.error.line.fixed.panel.title=Edición de los datos</v>
+        <v>window.fixed.error.line.mode.panel.title= Modo de corrección</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B24,"=", 'Fenêtre erreur ligne'!D24),IF('Fenêtre erreur ligne'!D24&lt;&gt;"",'Fenêtre erreur ligne'!D24,""))</f>
-        <v>window.fixed.error.line.wizard.panel.title=Asistente de corrección de línea</v>
+        <v>window.fixed.error.line.mode.wizard.label=Asistente</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B25,"=", 'Fenêtre erreur ligne'!D25),IF('Fenêtre erreur ligne'!D25&lt;&gt;"",'Fenêtre erreur ligne'!D25,""))</f>
-        <v>window.fixed.error.line.mode.panel.title= Modo de corrección</v>
+        <v>window.fixed.error.line.mode.expert.label=Experto</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B26,"=", 'Fenêtre erreur ligne'!D26),IF('Fenêtre erreur ligne'!D26&lt;&gt;"",'Fenêtre erreur ligne'!D26,""))</f>
-        <v>window.fixed.error.line.mode.wizard.label=Asistente</v>
+        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Modo experto: En modo experto puede cambiar la etiqueta corregida arriba&lt;BR/&gt;Y cuando todo está bien puede hacer clic en el botón de corrección y pasar al siguiente&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B27,"=", 'Fenêtre erreur ligne'!D27),IF('Fenêtre erreur ligne'!D27&lt;&gt;"",'Fenêtre erreur ligne'!D27,""))</f>
-        <v>window.fixed.error.line.mode.expert.label=Experto</v>
+        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;Haga clic en siguiente para comenzar la corrección.&lt;BR/&gt;NB: En cualquier momento usted puede volver atrás con el botón anterior.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B28,"=", 'Fenêtre erreur ligne'!D28),IF('Fenêtre erreur ligne'!D28&lt;&gt;"",'Fenêtre erreur ligne'!D28,""))</f>
-        <v>window.fixed.error.line.information.message.expert=&lt;HTML&gt;&lt;P&gt;Modo experto: En modo experto puede cambiar la etiqueta corregida arriba&lt;BR/&gt;Y cuando todo está bien puede hacer clic en el botón de corrección y pasar al siguiente&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE('Fenêtre erreur ligne'!B29,"=", 'Fenêtre erreur ligne'!D29),IF('Fenêtre erreur ligne'!D29&lt;&gt;"",'Fenêtre erreur ligne'!D29,""))</f>
-        <v>window.fixed.error.line.information.message.etape1=&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;Haga clic en siguiente para comenzar la corrección.&lt;BR/&gt;NB: En cualquier momento usted puede volver atrás con el botón anterior.&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -28819,7 +28801,7 @@
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE('Fenêtre spécifique'!B23,"=", 'Fenêtre spécifique'!D23),IF('Fenêtre spécifique'!D23&lt;&gt;"",'Fenêtre spécifique'!D23,""))</f>
-        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.specific.information.panel.text=&lt;html&gt;&lt;p&gt;Añadir:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
@@ -30439,8 +30421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A396"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30851,116 +30833,116 @@
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="e">
-        <f>IF('Fenêtre erreur ligne'!#REF!&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!#REF!),".","_"),"=""", 'Fenêtre erreur ligne'!#REF!,""";"),"")</f>
-        <v>#REF!</v>
+      <c r="A68" t="str">
+        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
-        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
-        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
+        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE2="window.fixed.error.line.information.message.etape2";</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE2="window.fixed.error.line.information.message.etape2";</v>
+        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE3="window.fixed.error.line.information.message.etape3";</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE3="window.fixed.error.line.information.message.etape3";</v>
+        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE4="window.fixed.error.line.information.message.etape4";</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE4="window.fixed.error.line.information.message.etape4";</v>
+        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_PANEL_TITLE="window.fixed.error.line.selected.data.panel.title";</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_PANEL_TITLE="window.fixed.error.line.selected.data.panel.title";</v>
+        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_LABEL="window.fixed.error.line.selected.data.select.text.label";</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_LABEL="window.fixed.error.line.selected.data.select.text.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECTED_TEXT_LABEL="window.fixed.error.line.selected.data.selected.text.label";</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECTED_TEXT_LABEL="window.fixed.error.line.selected.data.selected.text.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B21),".","_"),"=""", 'Fenêtre erreur ligne'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_BUTTON_LABEL="window.fixed.error.line.selected.data.select.text.button.label";</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B21),".","_"),"=""", 'Fenêtre erreur ligne'!B21,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_BUTTON_LABEL="window.fixed.error.line.selected.data.select.text.button.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B22),".","_"),"=""", 'Fenêtre erreur ligne'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_WIZARD_PANEL_TITLE="window.fixed.error.line.wizard.panel.title";</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B22),".","_"),"=""", 'Fenêtre erreur ligne'!B22,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_EDIT_TEXT_LABEL="window.fixed.error.line.fixed.edit.text.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B23),".","_"),"=""", 'Fenêtre erreur ligne'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_PANEL_TITLE="window.fixed.error.line.mode.panel.title";</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B23),".","_"),"=""", 'Fenêtre erreur ligne'!B23,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_FIXED_PANEL_TITLE="window.fixed.error.line.fixed.panel.title";</v>
+        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B24),".","_"),"=""", 'Fenêtre erreur ligne'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_WIZARD_LABEL="window.fixed.error.line.mode.wizard.label";</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B24),".","_"),"=""", 'Fenêtre erreur ligne'!B24,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_WIZARD_PANEL_TITLE="window.fixed.error.line.wizard.panel.title";</v>
+        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B25),".","_"),"=""", 'Fenêtre erreur ligne'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_EXPERT_LABEL="window.fixed.error.line.mode.expert.label";</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B25),".","_"),"=""", 'Fenêtre erreur ligne'!B25,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_PANEL_TITLE="window.fixed.error.line.mode.panel.title";</v>
+        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B26),".","_"),"=""", 'Fenêtre erreur ligne'!B26,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_EXPERT="window.fixed.error.line.information.message.expert";</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B26),".","_"),"=""", 'Fenêtre erreur ligne'!B26,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_WIZARD_LABEL="window.fixed.error.line.mode.wizard.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B27),".","_"),"=""", 'Fenêtre erreur ligne'!B27,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE1="window.fixed.error.line.information.message.etape1";</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B27),".","_"),"=""", 'Fenêtre erreur ligne'!B27,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_EXPERT_LABEL="window.fixed.error.line.mode.expert.label";</v>
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_EXPERT="window.fixed.error.line.information.message.expert";</v>
+        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B29),".","_"),"=""", 'Fenêtre erreur ligne'!B29,""";"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B29),".","_"),"=""", 'Fenêtre erreur ligne'!B29,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE1="window.fixed.error.line.information.message.etape1";</v>
+        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B30),".","_"),"=""", 'Fenêtre erreur ligne'!B30,""";"),"")</f>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
-        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B30),".","_"),"=""", 'Fenêtre erreur ligne'!B30,""";"),"")</f>
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
         <v/>
       </c>
     </row>
@@ -32831,10 +32813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77FE015-45ED-4C89-B5D1-EDB5C6B1F7DA}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33032,10 +33014,10 @@
         <v>598</v>
       </c>
       <c r="D14" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -33049,10 +33031,10 @@
         <v>&lt;HTML&gt;&lt;P&gt;Quelle est la balise correspondante à cette ligne ?&lt;BR/&gt;Utilisez la liste, pour sélectionner la balise adéquate.&lt;BR/&gt;Puis cliquez sur suivant.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;",
+        <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Cuál es la etiqueta correspondiente a esta línea?&lt;BR/&gt;",
 "Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;",
 "Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;")</f>
-        <v>&lt;HTML&gt;&lt;P&gt;¿Cuál es la baliza correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>&lt;HTML&gt;&lt;P&gt;¿Cuál es la etiqueta correspondiente a esta línea?&lt;BR/&gt;Utilice la lista para seleccionar la etiqueta adecuada.&lt;BR/&gt;Luego haga clic en siguiente.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="165" x14ac:dyDescent="0.25">
@@ -33095,22 +33077,22 @@
       <c r="C17" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;",
 "Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;",
-"Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;",
-"modifier dans la zone de texte ci-dessous,&lt;BR/&gt;",
+"Si le contenu de la balise ne vous convient pas, vous pouvez faire&lt;BR/&gt;",
+"précédent et effectuer des modifications,&lt;BR/&gt;",
 "la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;",
 "Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;",
 "la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;")</f>
-        <v>&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez les&lt;BR/&gt;modifier dans la zone de texte ci-dessous,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;Nous avons affiché la ligne corrigé dans l'encadré ci-dessus.&lt;BR/&gt;Si le contenu de la balise ne vous convient pas, vous pouvez faire&lt;BR/&gt;précédent et effectuer des modifications,&lt;BR/&gt;la ligne sera alors mise à jour en conséquences.&lt;BR/&gt;Une fois que tout est bon, cliquez sur le bouton de correction de&lt;BR/&gt;la ligne tout en bas de la fenêtre&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
       <c r="D17" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;",
 "Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;",
-"Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;",
-"modificar en el cuadro de texto siguiente,&lt;BR/&gt;",
+"Si el contenido de la etiqueta no es adecuado para usted, puede hacer&lt;BR/&gt;",
+"anterior y realizar modificaciones,&lt;BR/&gt;",
 "la línea se actualizará en consecuencia.&lt;BR/&gt;",
 "Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;",
 "la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;")</f>
-        <v>&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede&lt;BR/&gt;modificar en el cuadro de texto siguiente,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
+        <v>&lt;HTML&gt;&lt;P&gt;¿Está todo bien aquí?&lt;BR/&gt;Hemos publicado la línea corregida en el recuadro anterior.&lt;BR/&gt;Si el contenido de la etiqueta no es adecuado para usted, puede hacer&lt;BR/&gt;anterior y realizar modificaciones,&lt;BR/&gt;la línea se actualizará en consecuencia.&lt;BR/&gt;Una vez que todo está bien, haga clic en el botón de corrección de&lt;BR/&gt;la línea en la parte inferior de la pantalla&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -33121,10 +33103,10 @@
         <v>603</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D18" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -33135,10 +33117,10 @@
         <v>604</v>
       </c>
       <c r="C19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D19" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -33149,10 +33131,10 @@
         <v>605</v>
       </c>
       <c r="C20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -33166,7 +33148,7 @@
         <v>607</v>
       </c>
       <c r="D21" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -33174,13 +33156,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>610</v>
+      </c>
+      <c r="C22" t="s">
         <v>611</v>
       </c>
-      <c r="C22" t="s">
-        <v>608</v>
-      </c>
       <c r="D22" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -33194,7 +33176,7 @@
         <v>613</v>
       </c>
       <c r="D23" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -33208,7 +33190,7 @@
         <v>615</v>
       </c>
       <c r="D24" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -33222,59 +33204,31 @@
         <v>617</v>
       </c>
       <c r="D25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>618</v>
       </c>
-      <c r="C26" t="s">
-        <v>619</v>
-      </c>
-      <c r="D26" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>620</v>
-      </c>
-      <c r="C27" t="s">
-        <v>621</v>
-      </c>
-      <c r="D27" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>622</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
         <v>599</v>
       </c>
-      <c r="C29" s="1" t="str">
+      <c r="C27" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;",
 "Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;",
 "Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;",
@@ -33282,7 +33236,7 @@
 "NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;")</f>
         <v>&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;Suite à l'analyse, des lignes n'ont pas pu être interprété par le système.&lt;BR/&gt;Dans l'encadré ci-dessus, vous pouvez voir les informations en question.&lt;BR/&gt;Cliquez sur suivant pour commencer la correction.&lt;BR/&gt;NB : A tout moment vous pouvez revenir en arriére avec le bouton précédent.&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
-      <c r="D29" s="1" t="str">
+      <c r="D27" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Bienvenido al asistente de corrección de líneas.&lt;BR/&gt;",
 "Como resultado del análisis, las líneas no pudieron ser interpretadas por el sistema.&lt;BR/&gt;",
 "En el recuadro anterior se puede ver la información en cuestión.&lt;BR/&gt;",
@@ -33561,8 +33515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8A0CBF-D1EA-4398-BF25-4CB619502DB4}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33837,8 +33791,8 @@
         <v>&lt;html&gt;&lt;p&gt;Ajouter :&lt;br/&gt;Pour ajouter des nouvelles données, c'est à dire une nouvelle file, il faut remplir toutes les cases vides et cliquer sur Ajouter. Cela va permettre d'effectuer un ajout de nouvelles informations au texte en cours.&lt;br/&gt;Éditer :&lt;br/&gt;Sélectionne exactement l'information de la colonne dans la file qui correspond, de cette manière on modifie l'information de cette case dans la ligne sélectionnée, sans créer une nouvelle file et donc sans doublons.&lt;br/&gt;Supprimer :&lt;br/&gt;fonctionne en sélectionnant la file entière et donc, on doit faire attention car l'on efface une file complète d'informations (la ligne entière), et pas seulement une case spécifique .&lt;/p&gt;&lt;/html&gt;</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;","Editar:&lt;br/&gt;Seleccione ","exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;","Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;")</f>
-        <v>&lt;html&gt;&lt;p&gt;Agregar:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
+        <f>CONCATENATE("&lt;html&gt;&lt;p&gt;Añadir:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;","Editar:&lt;br/&gt;Seleccione ","exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;","Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;")</f>
+        <v>&lt;html&gt;&lt;p&gt;Añadir:&lt;br/&gt;Para agregar nuevos datos, es decir una nueva fila, debe completar todas las casillas vacías y hacer clic en Agregar. Esto permitirá agregar información nueva al texto actual.&lt;br/&gt;Editar:&lt;br/&gt;Seleccione exactamente la casilla de la columna que quiere cambiar en la fila correspondiente, de esta manera modificaremos la información de esta casilla en la línea seleccionada, sin crear una nueva fila y, por lo tanto, sin duplicados.&lt;br/&gt;Eliminar:&lt;br/&gt;funciona seleccionando toda la fila  y por lo tanto, debemos tener cuidado porque elimina una línea completa de información (toda la fila), y no solo una casilla específica.&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59721F61-3195-4619-9DE5-1C23342AF663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB63D5D-1264-4572-B6E5-441D4BEC543A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="15" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="Autres" sheetId="13" r:id="rId13"/>
     <sheet name="Changer Configuration" sheetId="17" r:id="rId14"/>
     <sheet name="A propos" sheetId="19" r:id="rId15"/>
-    <sheet name="FR_Properties" sheetId="14" r:id="rId16"/>
-    <sheet name="ES_Properties" sheetId="16" r:id="rId17"/>
-    <sheet name="Constants" sheetId="18" r:id="rId18"/>
+    <sheet name="Export Document Materiel" sheetId="20" r:id="rId16"/>
+    <sheet name="FR_Properties" sheetId="14" r:id="rId17"/>
+    <sheet name="ES_Properties" sheetId="16" r:id="rId18"/>
+    <sheet name="Constants" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="682">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -1343,12 +1344,6 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
     <t>Acerca de</t>
   </si>
   <si>
@@ -1941,6 +1936,165 @@
   </si>
   <si>
     <t>&lt;HTML&gt;&lt;P&gt;Modo experto: En modo experto puede cambiar la etiqueta corregida arriba&lt;BR/&gt;Y cuando todo está bien puede hacer clic en el botón de corrección y pasar al siguiente&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>window.manage.texts.export.document.text.button.label</t>
+  </si>
+  <si>
+    <t>Exporter Document/Matériel</t>
+  </si>
+  <si>
+    <t>Exportar Documento/Material</t>
+  </si>
+  <si>
+    <t>#Message pour l'export de document et matériel</t>
+  </si>
+  <si>
+    <t>window.export.document.title</t>
+  </si>
+  <si>
+    <t>window.export.document.choose.directory.panel.title</t>
+  </si>
+  <si>
+    <t>window.export.document.choose.directory.label</t>
+  </si>
+  <si>
+    <t>Exporter les documents/matériels</t>
+  </si>
+  <si>
+    <t>Dossier de destination</t>
+  </si>
+  <si>
+    <t>Choix du dossier de destination</t>
+  </si>
+  <si>
+    <t>window.export.document.mode.panel.title</t>
+  </si>
+  <si>
+    <t>Choix des données à exporter</t>
+  </si>
+  <si>
+    <t>window.export.document.mode.document.label</t>
+  </si>
+  <si>
+    <t>Un document</t>
+  </si>
+  <si>
+    <t>window.export.document.mode.all.documents.label</t>
+  </si>
+  <si>
+    <t>Tous les documents</t>
+  </si>
+  <si>
+    <t>window.export.document.mode.result.search.label</t>
+  </si>
+  <si>
+    <t>Le résultat de la recherche</t>
+  </si>
+  <si>
+    <t>window.export.document.choose.document.panel.title</t>
+  </si>
+  <si>
+    <t>window.export.document.choose.document.label</t>
+  </si>
+  <si>
+    <t>Choix du document à exporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document à exporter : </t>
+  </si>
+  <si>
+    <t>window.export.document.choose.file.panel.title</t>
+  </si>
+  <si>
+    <t>Choix du nom du document</t>
+  </si>
+  <si>
+    <t>window.export.document.choose.file.label</t>
+  </si>
+  <si>
+    <t>window.export.document.button.panel.title</t>
+  </si>
+  <si>
+    <t>Export effectué</t>
+  </si>
+  <si>
+    <t>window.export.document.information.message.title</t>
+  </si>
+  <si>
+    <t>window.export.document.information.message</t>
+  </si>
+  <si>
+    <t>Exportar documentos/materiales</t>
+  </si>
+  <si>
+    <t>Elección de la carpeta de destino</t>
+  </si>
+  <si>
+    <t>Carpeta de destino</t>
+  </si>
+  <si>
+    <t>Elección de los datos a exportar</t>
+  </si>
+  <si>
+    <t>Un documento</t>
+  </si>
+  <si>
+    <t>Todos documentos</t>
+  </si>
+  <si>
+    <t>El resultado de la búsqueda</t>
+  </si>
+  <si>
+    <t>Elección del documento a exportar</t>
+  </si>
+  <si>
+    <t>Documento para exportar :</t>
+  </si>
+  <si>
+    <t>Elección del nombre del documento</t>
+  </si>
+  <si>
+    <t>window.export.document.button.export.label</t>
+  </si>
+  <si>
+    <t>window.export.document.button.close.label</t>
+  </si>
+  <si>
+    <t>Exportación completada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom du document pour le resultat de la recherche : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del documento para el resultado de la búsqueda : </t>
+  </si>
+  <si>
+    <t>window.export.document.choose.directory.dialog.title</t>
+  </si>
+  <si>
+    <t>Choisissez le dossier de destination</t>
+  </si>
+  <si>
+    <t>Seleccione la carpeta de destino</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Export réalisé avec succés&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>Exporter et fermer</t>
+  </si>
+  <si>
+    <t>Exportar y cerrar</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -13138,6 +13292,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>246970</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EFD940E-42F3-41DE-873B-C07F1BD2C477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="1019175"/>
+          <a:ext cx="5438095" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -23235,6 +23438,19 @@
     <tableColumn id="2" xr3:uid="{23137A6E-4186-404B-8C24-F3653D56A29E}" name="Code"/>
     <tableColumn id="3" xr3:uid="{AD125158-21C5-4047-A063-80C29885C631}" name="Français"/>
     <tableColumn id="4" xr3:uid="{F3A203CF-2262-4BDF-AA75-7DA21118D925}" name="Español"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{ACF16CE4-3CFE-4EE6-9A66-F2E289DD58BC}" name="Tableau161015" displayName="Tableau161015" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7BE777E6-80D5-4607-B506-C54D0BCAA26D}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{37941F86-4BA1-4EBC-90AD-63A762519C13}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{CA488D13-6ECB-4365-A588-0ADAC244988F}" name="Français"/>
+    <tableColumn id="4" xr3:uid="{BE1263A3-D3DD-44B0-A9A1-949F5F986210}" name="Español"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23643,7 +23859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -23734,10 +23950,10 @@
         <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -23748,10 +23964,10 @@
         <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -23762,10 +23978,10 @@
         <v>359</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -23818,10 +24034,10 @@
         <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -23846,10 +24062,10 @@
         <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -23860,10 +24076,10 @@
         <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -23874,10 +24090,10 @@
         <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -23897,10 +24113,10 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D22" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -24107,10 +24323,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -24121,10 +24337,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -24135,10 +24351,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -24149,10 +24365,10 @@
         <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -24163,10 +24379,10 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D41" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -24205,10 +24421,10 @@
         <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -24219,10 +24435,10 @@
         <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -24250,7 +24466,7 @@
         <v>423</v>
       </c>
       <c r="D47" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -24321,10 +24537,10 @@
         <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24335,10 +24551,10 @@
         <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -24349,10 +24565,10 @@
         <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -24363,10 +24579,10 @@
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -24377,10 +24593,10 @@
         <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -24391,10 +24607,10 @@
         <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D8" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -24419,10 +24635,10 @@
         <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24433,10 +24649,10 @@
         <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24475,10 +24691,10 @@
         <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24549,10 +24765,10 @@
         <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -24591,10 +24807,10 @@
         <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -24635,10 +24851,10 @@
         <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -24657,10 +24873,10 @@
         <v>271</v>
       </c>
       <c r="C12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -24671,10 +24887,10 @@
         <v>272</v>
       </c>
       <c r="C13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -24693,10 +24909,10 @@
         <v>274</v>
       </c>
       <c r="C16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -24729,10 +24945,10 @@
         <v>283</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -24746,7 +24962,7 @@
         <v>285</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -24918,7 +25134,7 @@
         <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -24992,7 +25208,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25033,7 +25249,7 @@
         <v>326</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -25228,18 +25444,18 @@
         <v>347</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D23" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -25247,13 +25463,13 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D24" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -25261,7 +25477,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C25" t="s">
         <v>145</v>
@@ -25275,7 +25491,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C26" t="s">
         <v>147</v>
@@ -25297,7 +25513,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25473,7 +25689,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25515,7 +25731,7 @@
         <v>423</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -25526,10 +25742,10 @@
         <v>426</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>431</v>
+        <v>680</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>432</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -25558,11 +25774,299 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2BF44D-1BCC-419E-8C75-D4A062A89580}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>643</v>
+      </c>
+      <c r="C8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" t="s">
+        <v>646</v>
+      </c>
+      <c r="D9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C10" t="s">
+        <v>649</v>
+      </c>
+      <c r="D10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" t="s">
+        <v>650</v>
+      </c>
+      <c r="D11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>651</v>
+      </c>
+      <c r="C12" t="s">
+        <v>652</v>
+      </c>
+      <c r="D12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>653</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>654</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>656</v>
+      </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
+      <c r="D16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>673</v>
+      </c>
+      <c r="C19" t="s">
+        <v>674</v>
+      </c>
+      <c r="D19" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
-  <dimension ref="A1:A403"/>
+  <dimension ref="A1:A436"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:A403"/>
+    <sheetView showZeros="0" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A418" sqref="A1:A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27001,7 +27505,7 @@
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="str">
         <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B19,"=", 'Fenetre Gerer les textes'!C19),IF('Fenetre Gerer les textes'!C19&lt;&gt;"",'Fenetre Gerer les textes'!C19,""))</f>
-        <v/>
+        <v>window.manage.texts.export.document.text.button.label=Exporter Document/Matériel</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -27865,7 +28369,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!C4),IF('A propos'!C4&lt;&gt;"",'A propos'!C4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -27985,6 +28489,204 @@
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="str">
         <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE('A propos'!B22,"=", 'A propos'!C44),IF('A propos'!C22&lt;&gt;"",'A propos'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>IF('Export Document Materiel'!B2&lt;&gt;"",CONCATENATE('Export Document Materiel'!B2,"=", 'Export Document Materiel'!C2),IF('Export Document Materiel'!C2&lt;&gt;"",'Export Document Materiel'!C2,""))</f>
+        <v>#Message pour l'export de document et matériel</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>IF('Export Document Materiel'!B3&lt;&gt;"",CONCATENATE('Export Document Materiel'!B3,"=", 'Export Document Materiel'!C3),IF('Export Document Materiel'!C3&lt;&gt;"",'Export Document Materiel'!C3,""))</f>
+        <v>window.export.document.title=Exporter les documents/matériels</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>IF('Export Document Materiel'!B4&lt;&gt;"",CONCATENATE('Export Document Materiel'!B4,"=", 'Export Document Materiel'!C4),IF('Export Document Materiel'!C4&lt;&gt;"",'Export Document Materiel'!C4,""))</f>
+        <v>window.export.document.choose.directory.panel.title=Choix du dossier de destination</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f>IF('Export Document Materiel'!B5&lt;&gt;"",CONCATENATE('Export Document Materiel'!B5,"=", 'Export Document Materiel'!C5),IF('Export Document Materiel'!C5&lt;&gt;"",'Export Document Materiel'!C5,""))</f>
+        <v>window.export.document.choose.directory.label=Dossier de destination</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f>IF('Export Document Materiel'!B6&lt;&gt;"",CONCATENATE('Export Document Materiel'!B6,"=", 'Export Document Materiel'!C6),IF('Export Document Materiel'!C6&lt;&gt;"",'Export Document Materiel'!C6,""))</f>
+        <v>window.export.document.mode.panel.title=Choix des données à exporter</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f>IF('Export Document Materiel'!B7&lt;&gt;"",CONCATENATE('Export Document Materiel'!B7,"=", 'Export Document Materiel'!C7),IF('Export Document Materiel'!C7&lt;&gt;"",'Export Document Materiel'!C7,""))</f>
+        <v>window.export.document.mode.document.label=Un document</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f>IF('Export Document Materiel'!B8&lt;&gt;"",CONCATENATE('Export Document Materiel'!B8,"=", 'Export Document Materiel'!C8),IF('Export Document Materiel'!C8&lt;&gt;"",'Export Document Materiel'!C8,""))</f>
+        <v>window.export.document.mode.all.documents.label=Tous les documents</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f>IF('Export Document Materiel'!B9&lt;&gt;"",CONCATENATE('Export Document Materiel'!B9,"=", 'Export Document Materiel'!C9),IF('Export Document Materiel'!C9&lt;&gt;"",'Export Document Materiel'!C9,""))</f>
+        <v>window.export.document.mode.result.search.label=Le résultat de la recherche</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f>IF('Export Document Materiel'!B10&lt;&gt;"",CONCATENATE('Export Document Materiel'!B10,"=", 'Export Document Materiel'!C10),IF('Export Document Materiel'!C10&lt;&gt;"",'Export Document Materiel'!C10,""))</f>
+        <v>window.export.document.choose.document.panel.title=Choix du document à exporter</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f>IF('Export Document Materiel'!B11&lt;&gt;"",CONCATENATE('Export Document Materiel'!B11,"=", 'Export Document Materiel'!C11),IF('Export Document Materiel'!C11&lt;&gt;"",'Export Document Materiel'!C11,""))</f>
+        <v xml:space="preserve">window.export.document.choose.document.label=Document à exporter : </v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f>IF('Export Document Materiel'!B12&lt;&gt;"",CONCATENATE('Export Document Materiel'!B12,"=", 'Export Document Materiel'!C12),IF('Export Document Materiel'!C12&lt;&gt;"",'Export Document Materiel'!C12,""))</f>
+        <v>window.export.document.choose.file.panel.title=Choix du nom du document</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f>IF('Export Document Materiel'!B13&lt;&gt;"",CONCATENATE('Export Document Materiel'!B13,"=", 'Export Document Materiel'!C13),IF('Export Document Materiel'!C13&lt;&gt;"",'Export Document Materiel'!C13,""))</f>
+        <v xml:space="preserve">window.export.document.choose.file.label=Nom du document pour le resultat de la recherche : </v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f>IF('Export Document Materiel'!B14&lt;&gt;"",CONCATENATE('Export Document Materiel'!B14,"=", 'Export Document Materiel'!C14),IF('Export Document Materiel'!C14&lt;&gt;"",'Export Document Materiel'!C14,""))</f>
+        <v>window.export.document.button.panel.title=Actions</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f>IF('Export Document Materiel'!B15&lt;&gt;"",CONCATENATE('Export Document Materiel'!B15,"=", 'Export Document Materiel'!C15),IF('Export Document Materiel'!C15&lt;&gt;"",'Export Document Materiel'!C15,""))</f>
+        <v>window.export.document.button.export.label=Exporter et fermer</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f>IF('Export Document Materiel'!B16&lt;&gt;"",CONCATENATE('Export Document Materiel'!B16,"=", 'Export Document Materiel'!C16),IF('Export Document Materiel'!C16&lt;&gt;"",'Export Document Materiel'!C16,""))</f>
+        <v>window.export.document.information.message.title=Export effectué</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f>IF('Export Document Materiel'!B17&lt;&gt;"",CONCATENATE('Export Document Materiel'!B17,"=", 'Export Document Materiel'!C17),IF('Export Document Materiel'!C17&lt;&gt;"",'Export Document Materiel'!C17,""))</f>
+        <v>window.export.document.information.message=&lt;HTML&gt;&lt;P&gt;Export réalisé avec succés&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f>IF('Export Document Materiel'!B18&lt;&gt;"",CONCATENATE('Export Document Materiel'!B18,"=", 'Export Document Materiel'!C18),IF('Export Document Materiel'!C18&lt;&gt;"",'Export Document Materiel'!C18,""))</f>
+        <v>window.export.document.button.close.label=Fermer</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f>IF('Export Document Materiel'!B19&lt;&gt;"",CONCATENATE('Export Document Materiel'!B19,"=", 'Export Document Materiel'!C19),IF('Export Document Materiel'!C19&lt;&gt;"",'Export Document Materiel'!C19,""))</f>
+        <v>window.export.document.choose.directory.dialog.title=Choisissez le dossier de destination</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE('Export Document Materiel'!B20,"=", 'Export Document Materiel'!C20),IF('Export Document Materiel'!C20&lt;&gt;"",'Export Document Materiel'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f>IF('Export Document Materiel'!B21&lt;&gt;"",CONCATENATE('Export Document Materiel'!B21,"=", 'Export Document Materiel'!C21),IF('Export Document Materiel'!C21&lt;&gt;"",'Export Document Materiel'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f>IF('Export Document Materiel'!B22&lt;&gt;"",CONCATENATE('Export Document Materiel'!B22,"=", 'Export Document Materiel'!C22),IF('Export Document Materiel'!C22&lt;&gt;"",'Export Document Materiel'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f>IF('Export Document Materiel'!B23&lt;&gt;"",CONCATENATE('Export Document Materiel'!B23,"=", 'Export Document Materiel'!C23),IF('Export Document Materiel'!C23&lt;&gt;"",'Export Document Materiel'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f>IF('Export Document Materiel'!B24&lt;&gt;"",CONCATENATE('Export Document Materiel'!B24,"=", 'Export Document Materiel'!C24),IF('Export Document Materiel'!C24&lt;&gt;"",'Export Document Materiel'!C24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f>IF('Export Document Materiel'!B25&lt;&gt;"",CONCATENATE('Export Document Materiel'!B25,"=", 'Export Document Materiel'!C25),IF('Export Document Materiel'!C25&lt;&gt;"",'Export Document Materiel'!C25,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f>IF('Export Document Materiel'!B26&lt;&gt;"",CONCATENATE('Export Document Materiel'!B26,"=", 'Export Document Materiel'!C26),IF('Export Document Materiel'!C26&lt;&gt;"",'Export Document Materiel'!C26,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f>IF('Export Document Materiel'!B27&lt;&gt;"",CONCATENATE('Export Document Materiel'!B27,"=", 'Export Document Materiel'!C27),IF('Export Document Materiel'!C27&lt;&gt;"",'Export Document Materiel'!C27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f>IF('Export Document Materiel'!B28&lt;&gt;"",CONCATENATE('Export Document Materiel'!B28,"=", 'Export Document Materiel'!C28),IF('Export Document Materiel'!C28&lt;&gt;"",'Export Document Materiel'!C28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f>IF('Export Document Materiel'!B29&lt;&gt;"",CONCATENATE('Export Document Materiel'!B29,"=", 'Export Document Materiel'!C29),IF('Export Document Materiel'!C29&lt;&gt;"",'Export Document Materiel'!C29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f>IF('Export Document Materiel'!B30&lt;&gt;"",CONCATENATE('Export Document Materiel'!B30,"=", 'Export Document Materiel'!C30),IF('Export Document Materiel'!C30&lt;&gt;"",'Export Document Materiel'!C30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f>IF('Export Document Materiel'!B31&lt;&gt;"",CONCATENATE('Export Document Materiel'!B31,"=", 'Export Document Materiel'!C31),IF('Export Document Materiel'!C31&lt;&gt;"",'Export Document Materiel'!C31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f>IF('Export Document Materiel'!B32&lt;&gt;"",CONCATENATE('Export Document Materiel'!B32,"=", 'Export Document Materiel'!C32),IF('Export Document Materiel'!C32&lt;&gt;"",'Export Document Materiel'!C32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f>IF('Export Document Materiel'!B33&lt;&gt;"",CONCATENATE('Export Document Materiel'!B33,"=", 'Export Document Materiel'!C33),IF('Export Document Materiel'!C33&lt;&gt;"",'Export Document Materiel'!C33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f>IF('Export Document Materiel'!B34&lt;&gt;"",CONCATENATE('Export Document Materiel'!B34,"=", 'Export Document Materiel'!C34),IF('Export Document Materiel'!C34&lt;&gt;"",'Export Document Materiel'!C34,""))</f>
         <v/>
       </c>
     </row>
@@ -27993,12 +28695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
-  <dimension ref="A1:A401"/>
+  <dimension ref="A1:A434"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A1:A401"/>
+    <sheetView showZeros="0" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A417" sqref="A1:A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29431,7 +30133,7 @@
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="str">
         <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE('Fenetre Gerer les textes'!B19,"=", 'Fenetre Gerer les textes'!D19),IF('Fenetre Gerer les textes'!D19&lt;&gt;"",'Fenetre Gerer les textes'!D19,""))</f>
-        <v/>
+        <v>window.manage.texts.export.document.text.button.label=Exportar Documento/Material</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -30301,7 +31003,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!D4),IF('A propos'!D4&lt;&gt;"",'A propos'!D4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.0.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -30409,6 +31111,204 @@
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="str">
         <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE('A propos'!B20,"=", 'A propos'!D20),IF('A propos'!D20&lt;&gt;"",'A propos'!D20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>IF('Export Document Materiel'!B2&lt;&gt;"",CONCATENATE('Export Document Materiel'!B2,"=", 'Export Document Materiel'!D2),IF('Export Document Materiel'!D2&lt;&gt;"",'Export Document Materiel'!D2,""))</f>
+        <v>#Mensaje para el cambio de configuración</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f>IF('Export Document Materiel'!B3&lt;&gt;"",CONCATENATE('Export Document Materiel'!B3,"=", 'Export Document Materiel'!D3),IF('Export Document Materiel'!D3&lt;&gt;"",'Export Document Materiel'!D3,""))</f>
+        <v>window.export.document.title=Exportar documentos/materiales</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>IF('Export Document Materiel'!B4&lt;&gt;"",CONCATENATE('Export Document Materiel'!B4,"=", 'Export Document Materiel'!D4),IF('Export Document Materiel'!D4&lt;&gt;"",'Export Document Materiel'!D4,""))</f>
+        <v>window.export.document.choose.directory.panel.title=Elección de la carpeta de destino</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>IF('Export Document Materiel'!B5&lt;&gt;"",CONCATENATE('Export Document Materiel'!B5,"=", 'Export Document Materiel'!D5),IF('Export Document Materiel'!D5&lt;&gt;"",'Export Document Materiel'!D5,""))</f>
+        <v>window.export.document.choose.directory.label=Carpeta de destino</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>IF('Export Document Materiel'!B6&lt;&gt;"",CONCATENATE('Export Document Materiel'!B6,"=", 'Export Document Materiel'!D6),IF('Export Document Materiel'!D6&lt;&gt;"",'Export Document Materiel'!D6,""))</f>
+        <v>window.export.document.mode.panel.title=Elección de los datos a exportar</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f>IF('Export Document Materiel'!B7&lt;&gt;"",CONCATENATE('Export Document Materiel'!B7,"=", 'Export Document Materiel'!D7),IF('Export Document Materiel'!D7&lt;&gt;"",'Export Document Materiel'!D7,""))</f>
+        <v>window.export.document.mode.document.label=Un documento</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f>IF('Export Document Materiel'!B8&lt;&gt;"",CONCATENATE('Export Document Materiel'!B8,"=", 'Export Document Materiel'!D8),IF('Export Document Materiel'!D8&lt;&gt;"",'Export Document Materiel'!D8,""))</f>
+        <v>window.export.document.mode.all.documents.label=Todos documentos</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f>IF('Export Document Materiel'!B9&lt;&gt;"",CONCATENATE('Export Document Materiel'!B9,"=", 'Export Document Materiel'!D9),IF('Export Document Materiel'!D9&lt;&gt;"",'Export Document Materiel'!D9,""))</f>
+        <v>window.export.document.mode.result.search.label=El resultado de la búsqueda</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f>IF('Export Document Materiel'!B10&lt;&gt;"",CONCATENATE('Export Document Materiel'!B10,"=", 'Export Document Materiel'!D10),IF('Export Document Materiel'!D10&lt;&gt;"",'Export Document Materiel'!D10,""))</f>
+        <v>window.export.document.choose.document.panel.title=Elección del documento a exportar</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f>IF('Export Document Materiel'!B11&lt;&gt;"",CONCATENATE('Export Document Materiel'!B11,"=", 'Export Document Materiel'!D11),IF('Export Document Materiel'!D11&lt;&gt;"",'Export Document Materiel'!D11,""))</f>
+        <v>window.export.document.choose.document.label=Documento para exportar :</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f>IF('Export Document Materiel'!B12&lt;&gt;"",CONCATENATE('Export Document Materiel'!B12,"=", 'Export Document Materiel'!D12),IF('Export Document Materiel'!D12&lt;&gt;"",'Export Document Materiel'!D12,""))</f>
+        <v>window.export.document.choose.file.panel.title=Elección del nombre del documento</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f>IF('Export Document Materiel'!B13&lt;&gt;"",CONCATENATE('Export Document Materiel'!B13,"=", 'Export Document Materiel'!D13),IF('Export Document Materiel'!D13&lt;&gt;"",'Export Document Materiel'!D13,""))</f>
+        <v xml:space="preserve">window.export.document.choose.file.label=Nombre del documento para el resultado de la búsqueda : </v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f>IF('Export Document Materiel'!B14&lt;&gt;"",CONCATENATE('Export Document Materiel'!B14,"=", 'Export Document Materiel'!D14),IF('Export Document Materiel'!D14&lt;&gt;"",'Export Document Materiel'!D14,""))</f>
+        <v>window.export.document.button.panel.title=Acciones</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f>IF('Export Document Materiel'!B15&lt;&gt;"",CONCATENATE('Export Document Materiel'!B15,"=", 'Export Document Materiel'!D15),IF('Export Document Materiel'!D15&lt;&gt;"",'Export Document Materiel'!D15,""))</f>
+        <v>window.export.document.button.export.label=Exportar y cerrar</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f>IF('Export Document Materiel'!B16&lt;&gt;"",CONCATENATE('Export Document Materiel'!B16,"=", 'Export Document Materiel'!D16),IF('Export Document Materiel'!D16&lt;&gt;"",'Export Document Materiel'!D16,""))</f>
+        <v>window.export.document.information.message.title=Exportación completada</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f>IF('Export Document Materiel'!B17&lt;&gt;"",CONCATENATE('Export Document Materiel'!B17,"=", 'Export Document Materiel'!D17),IF('Export Document Materiel'!D17&lt;&gt;"",'Export Document Materiel'!D17,""))</f>
+        <v>window.export.document.information.message=&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f>IF('Export Document Materiel'!B18&lt;&gt;"",CONCATENATE('Export Document Materiel'!B18,"=", 'Export Document Materiel'!D18),IF('Export Document Materiel'!D18&lt;&gt;"",'Export Document Materiel'!D18,""))</f>
+        <v>window.export.document.button.close.label=Cerrar</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f>IF('Export Document Materiel'!B19&lt;&gt;"",CONCATENATE('Export Document Materiel'!B19,"=", 'Export Document Materiel'!D19),IF('Export Document Materiel'!D19&lt;&gt;"",'Export Document Materiel'!D19,""))</f>
+        <v>window.export.document.choose.directory.dialog.title=Seleccione la carpeta de destino</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE('Export Document Materiel'!B20,"=", 'Export Document Materiel'!D20),IF('Export Document Materiel'!D20&lt;&gt;"",'Export Document Materiel'!D20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f>IF('Export Document Materiel'!B21&lt;&gt;"",CONCATENATE('Export Document Materiel'!B21,"=", 'Export Document Materiel'!D21),IF('Export Document Materiel'!D21&lt;&gt;"",'Export Document Materiel'!D21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f>IF('Export Document Materiel'!B22&lt;&gt;"",CONCATENATE('Export Document Materiel'!B22,"=", 'Export Document Materiel'!D22),IF('Export Document Materiel'!D22&lt;&gt;"",'Export Document Materiel'!D22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f>IF('Export Document Materiel'!B23&lt;&gt;"",CONCATENATE('Export Document Materiel'!B23,"=", 'Export Document Materiel'!D23),IF('Export Document Materiel'!D23&lt;&gt;"",'Export Document Materiel'!D23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f>IF('Export Document Materiel'!B24&lt;&gt;"",CONCATENATE('Export Document Materiel'!B24,"=", 'Export Document Materiel'!D24),IF('Export Document Materiel'!D24&lt;&gt;"",'Export Document Materiel'!D24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f>IF('Export Document Materiel'!B25&lt;&gt;"",CONCATENATE('Export Document Materiel'!B25,"=", 'Export Document Materiel'!D25),IF('Export Document Materiel'!D25&lt;&gt;"",'Export Document Materiel'!D25,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f>IF('Export Document Materiel'!B26&lt;&gt;"",CONCATENATE('Export Document Materiel'!B26,"=", 'Export Document Materiel'!D26),IF('Export Document Materiel'!D26&lt;&gt;"",'Export Document Materiel'!D26,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f>IF('Export Document Materiel'!B27&lt;&gt;"",CONCATENATE('Export Document Materiel'!B27,"=", 'Export Document Materiel'!D27),IF('Export Document Materiel'!D27&lt;&gt;"",'Export Document Materiel'!D27,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f>IF('Export Document Materiel'!B28&lt;&gt;"",CONCATENATE('Export Document Materiel'!B28,"=", 'Export Document Materiel'!D28),IF('Export Document Materiel'!D28&lt;&gt;"",'Export Document Materiel'!D28,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f>IF('Export Document Materiel'!B29&lt;&gt;"",CONCATENATE('Export Document Materiel'!B29,"=", 'Export Document Materiel'!D29),IF('Export Document Materiel'!D29&lt;&gt;"",'Export Document Materiel'!D29,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f>IF('Export Document Materiel'!B30&lt;&gt;"",CONCATENATE('Export Document Materiel'!B30,"=", 'Export Document Materiel'!D30),IF('Export Document Materiel'!D30&lt;&gt;"",'Export Document Materiel'!D30,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f>IF('Export Document Materiel'!B31&lt;&gt;"",CONCATENATE('Export Document Materiel'!B31,"=", 'Export Document Materiel'!D31),IF('Export Document Materiel'!D31&lt;&gt;"",'Export Document Materiel'!D31,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f>IF('Export Document Materiel'!B32&lt;&gt;"",CONCATENATE('Export Document Materiel'!B32,"=", 'Export Document Materiel'!D32),IF('Export Document Materiel'!D32&lt;&gt;"",'Export Document Materiel'!D32,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f>IF('Export Document Materiel'!B33&lt;&gt;"",CONCATENATE('Export Document Materiel'!B33,"=", 'Export Document Materiel'!D33),IF('Export Document Materiel'!D33&lt;&gt;"",'Export Document Materiel'!D33,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f>IF('Export Document Materiel'!B34&lt;&gt;"",CONCATENATE('Export Document Materiel'!B34,"=", 'Export Document Materiel'!D34),IF('Export Document Materiel'!D34&lt;&gt;"",'Export Document Materiel'!D34,""))</f>
         <v/>
       </c>
     </row>
@@ -30417,12 +31317,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
-  <dimension ref="A1:A396"/>
+  <dimension ref="A1:A432"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:A85"/>
+    <sheetView topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31849,7 +32749,7 @@
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="str">
         <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EXPORT_DOCUMENT_TEXT_BUTTON_LABEL="window.manage.texts.export.document.text.button.label";</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
@@ -32803,6 +33703,222 @@
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="str">
         <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B18),".","_"),"=""", 'A propos'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B19),".","_"),"=""", 'A propos'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B20),".","_"),"=""", 'A propos'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B21),".","_"),"=""", 'A propos'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B22),".","_"),"=""", 'A propos'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f>IF('A propos'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B23),".","_"),"=""", 'A propos'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>IF('A propos'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B24),".","_"),"=""", 'A propos'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f>IF('Export Document Materiel'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B2),".","_"),"=""", 'Export Document Materiel'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>IF('Export Document Materiel'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B3),".","_"),"=""", 'Export Document Materiel'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_TITLE="window.export.document.title";</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>IF('Export Document Materiel'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B4),".","_"),"=""", 'Export Document Materiel'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_PANEL_TITLE="window.export.document.choose.directory.panel.title";</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>IF('Export Document Materiel'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B5),".","_"),"=""", 'Export Document Materiel'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_LABEL="window.export.document.choose.directory.label";</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f>IF('Export Document Materiel'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B6),".","_"),"=""", 'Export Document Materiel'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_PANEL_TITLE="window.export.document.mode.panel.title";</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f>IF('Export Document Materiel'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B7),".","_"),"=""", 'Export Document Materiel'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_DOCUMENT_LABEL="window.export.document.mode.document.label";</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f>IF('Export Document Materiel'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B8),".","_"),"=""", 'Export Document Materiel'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_ALL_DOCUMENTS_LABEL="window.export.document.mode.all.documents.label";</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f>IF('Export Document Materiel'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B9),".","_"),"=""", 'Export Document Materiel'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_RESULT_SEARCH_LABEL="window.export.document.mode.result.search.label";</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f>IF('Export Document Materiel'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B10),".","_"),"=""", 'Export Document Materiel'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DOCUMENT_PANEL_TITLE="window.export.document.choose.document.panel.title";</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f>IF('Export Document Materiel'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B11),".","_"),"=""", 'Export Document Materiel'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DOCUMENT_LABEL="window.export.document.choose.document.label";</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f>IF('Export Document Materiel'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B12),".","_"),"=""", 'Export Document Materiel'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_FILE_PANEL_TITLE="window.export.document.choose.file.panel.title";</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f>IF('Export Document Materiel'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B13),".","_"),"=""", 'Export Document Materiel'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_FILE_LABEL="window.export.document.choose.file.label";</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f>IF('Export Document Materiel'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B14),".","_"),"=""", 'Export Document Materiel'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_PANEL_TITLE="window.export.document.button.panel.title";</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f>IF('Export Document Materiel'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B15),".","_"),"=""", 'Export Document Materiel'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_EXPORT_LABEL="window.export.document.button.export.label";</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f>IF('Export Document Materiel'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B16),".","_"),"=""", 'Export Document Materiel'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_MESSAGE_TITLE="window.export.document.information.message.title";</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f>IF('Export Document Materiel'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B17),".","_"),"=""", 'Export Document Materiel'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_MESSAGE="window.export.document.information.message";</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f>IF('Export Document Materiel'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B18),".","_"),"=""", 'Export Document Materiel'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_CLOSE_LABEL="window.export.document.button.close.label";</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f>IF('Export Document Materiel'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B19),".","_"),"=""", 'Export Document Materiel'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_DIALOG_TITLE="window.export.document.choose.directory.dialog.title";</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B20),".","_"),"=""", 'Export Document Materiel'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f>IF('Export Document Materiel'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B21),".","_"),"=""", 'Export Document Materiel'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f>IF('Export Document Materiel'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B22),".","_"),"=""", 'Export Document Materiel'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f>IF('Export Document Materiel'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B23),".","_"),"=""", 'Export Document Materiel'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f>IF('Export Document Materiel'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B24),".","_"),"=""", 'Export Document Materiel'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f>IF('Export Document Materiel'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B25),".","_"),"=""", 'Export Document Materiel'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f>IF('Export Document Materiel'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B26),".","_"),"=""", 'Export Document Materiel'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f>IF('Export Document Materiel'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B27),".","_"),"=""", 'Export Document Materiel'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f>IF('Export Document Materiel'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B28),".","_"),"=""", 'Export Document Materiel'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f>IF('Export Document Materiel'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B29),".","_"),"=""", 'Export Document Materiel'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f>IF('Export Document Materiel'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B30),".","_"),"=""", 'Export Document Materiel'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f>IF('Export Document Materiel'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B31),".","_"),"=""", 'Export Document Materiel'!B31,""";"),"")</f>
         <v/>
       </c>
     </row>
@@ -32857,10 +33973,10 @@
         <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -32888,7 +34004,7 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -32899,10 +34015,10 @@
         <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -32941,10 +34057,10 @@
         <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -32969,10 +34085,10 @@
         <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -32980,13 +34096,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -32994,13 +34110,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33008,13 +34124,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D14" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -33022,7 +34138,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C15" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Quelle est la balise correspondante à cette ligne ?&lt;BR/&gt;",
@@ -33042,7 +34158,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C16" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Quel est le contenu de la balise ?&lt;BR/&gt;",
@@ -33072,7 +34188,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Tout est bon ?&lt;BR/&gt;",
@@ -33100,13 +34216,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C18" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -33114,13 +34230,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -33128,13 +34244,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C20" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -33142,13 +34258,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -33156,13 +34272,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C22" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -33170,13 +34286,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C23" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -33184,13 +34300,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C24" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D24" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -33198,13 +34314,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -33212,13 +34328,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -33226,7 +34342,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>CONCATENATE("&lt;HTML&gt;&lt;P&gt;Bienvenue sur l'assistant de correction des lignes.&lt;BR/&gt;",
@@ -33300,10 +34416,10 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -33328,10 +34444,10 @@
         <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33410,10 +34526,10 @@
         <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -33432,10 +34548,10 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -33446,10 +34562,10 @@
         <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -33463,7 +34579,7 @@
         <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -33485,7 +34601,7 @@
         <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -33585,7 +34701,7 @@
         <v>373</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33636,10 +34752,10 @@
         <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33650,10 +34766,10 @@
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33898,7 +35014,7 @@
         <v>176</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>177</v>
@@ -33926,10 +35042,10 @@
         <v>180</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -33968,10 +35084,10 @@
         <v>185</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -33982,10 +35098,10 @@
         <v>186</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -33996,10 +35112,10 @@
         <v>187</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -34024,10 +35140,10 @@
         <v>190</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -34038,10 +35154,10 @@
         <v>191</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -34049,7 +35165,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>88</v>
@@ -34063,13 +35179,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>566</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -34077,13 +35193,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -34091,13 +35207,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -34105,13 +35221,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -34119,13 +35235,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -34133,13 +35249,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -34147,13 +35263,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -34213,10 +35329,10 @@
         <v>197</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -34303,7 +35419,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
         <v>212</v>
@@ -34359,10 +35475,10 @@
         <v>206</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -34401,10 +35517,10 @@
         <v>369</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -34554,10 +35670,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59160BD-885A-4DEA-9FEE-62F72A09FE0A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34597,10 +35713,10 @@
         <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -34611,10 +35727,10 @@
         <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -34625,10 +35741,10 @@
         <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -34639,10 +35755,10 @@
         <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -34695,10 +35811,10 @@
         <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -34709,10 +35825,10 @@
         <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -34723,10 +35839,10 @@
         <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -34737,10 +35853,10 @@
         <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -34751,10 +35867,10 @@
         <v>235</v>
       </c>
       <c r="C14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" t="s">
         <v>452</v>
-      </c>
-      <c r="D14" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -34765,10 +35881,10 @@
         <v>236</v>
       </c>
       <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" t="s">
         <v>453</v>
-      </c>
-      <c r="D15" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -34779,10 +35895,10 @@
         <v>238</v>
       </c>
       <c r="C16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -34813,6 +35929,20 @@
       <c r="D18" s="1" t="str">
         <f>CONCATENATE("&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,","&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;","Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación","&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;","&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;")</f>
         <v>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Filtrar el contenido:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite crear filtros para realizar búsquedas en la biblioteca en función del contenido de los materiales,&lt;br /&gt;No olvide cerrar la ventana del filtro para poder continuar haciendo otras operaciones&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el documento :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta función le permite hacer una gestión manual del contenido de los materiales de su biblioteca. Al editar un documento, puede añadir material al documento.  &lt;br /&gt;Recuerde guardar los cambios para que el nuevo material textual se escriba físicamente en el documento .txt, &lt;br /&gt;de lo contrario se perderá después de cerrar la aplicación&lt;br /&gt;&lt;b&gt;&lt;u&gt;Consultar/Editar el material :&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Esta opción le permite modificar el texto del material y añadirle una estructura adicional gracias a las informaciones específicas en CSV&lt;br /&gt;&lt;b&gt;&lt;u&gt;Suprimir un material:&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;Después de seleccionar un texto, si desea eliminarlo , el texto podrá ser definitivamente eliminado con este botón (¡ATENCIÓN! no se podrá deshacer la acción)&lt;/p&gt;&lt;/html&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" t="s">
+        <v>630</v>
+      </c>
+      <c r="D19" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB63D5D-1264-4572-B6E5-441D4BEC543A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC27AD-1DC4-4926-8049-3A73DBE9B026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="15" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="18" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="685">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -2095,6 +2095,15 @@
   </si>
   <si>
     <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>window.export.document.information.search.message</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Export réalisé avec succés&lt;BR/&gt;Pour information, le document ne contient aucune données d'en-tête&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;BR/&gt;A título informativo, el documento no contiene datos de cabecera&lt;/P&gt;&lt;/HTML&gt;</t>
   </si>
 </sst>
 </file>
@@ -23444,8 +23453,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{ACF16CE4-3CFE-4EE6-9A66-F2E289DD58BC}" name="Tableau161015" displayName="Tableau161015" ref="A1:D19" totalsRowShown="0">
-  <autoFilter ref="A1:D19" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{ACF16CE4-3CFE-4EE6-9A66-F2E289DD58BC}" name="Tableau161015" displayName="Tableau161015" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7BE777E6-80D5-4607-B506-C54D0BCAA26D}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{37941F86-4BA1-4EBC-90AD-63A762519C13}" name="Code"/>
@@ -25777,8 +25786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2BF44D-1BCC-419E-8C75-D4A062A89580}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26045,6 +26054,20 @@
       </c>
       <c r="D19" t="s">
         <v>675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -26066,7 +26089,7 @@
   <dimension ref="A1:A436"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A418" sqref="A1:A436"/>
+      <selection activeCell="A421" sqref="A1:A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28603,7 +28626,7 @@
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" t="str">
         <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE('Export Document Materiel'!B20,"=", 'Export Document Materiel'!C20),IF('Export Document Materiel'!C20&lt;&gt;"",'Export Document Materiel'!C20,""))</f>
-        <v/>
+        <v>window.export.document.information.search.message=&lt;HTML&gt;&lt;P&gt;Export réalisé avec succés&lt;BR/&gt;Pour information, le document ne contient aucune données d'en-tête&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
@@ -28700,7 +28723,7 @@
   <dimension ref="A1:A434"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A417" sqref="A1:A434"/>
+      <selection activeCell="A416" sqref="A1:A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31225,7 +31248,7 @@
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" t="str">
         <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE('Export Document Materiel'!B20,"=", 'Export Document Materiel'!D20),IF('Export Document Materiel'!D20&lt;&gt;"",'Export Document Materiel'!D20,""))</f>
-        <v/>
+        <v>window.export.document.information.search.message=&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;BR/&gt;A título informativo, el documento no contiene datos de cabecera&lt;/P&gt;&lt;/HTML&gt;</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
@@ -31321,8 +31344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A432"/>
   <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33853,7 +33876,7 @@
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" t="str">
         <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B20),".","_"),"=""", 'Export Document Materiel'!B20,""";"),"")</f>
-        <v/>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_SEARCH_MESSAGE="window.export.document.information.search.message";</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC27AD-1DC4-4926-8049-3A73DBE9B026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5613B-8DC7-47EE-BC7B-2F110349C6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="18" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="14" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -2091,12 +2091,6 @@
     <t>Exportar y cerrar</t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
     <t>window.export.document.information.search.message</t>
   </si>
   <si>
@@ -2104,6 +2098,12 @@
   </si>
   <si>
     <t>&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;BR/&gt;A título informativo, el documento no contiene datos de cabecera&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -25697,8 +25697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A141E-D5BD-46DF-8EEC-B92516C123B1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25751,10 +25751,10 @@
         <v>426</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -26061,13 +26061,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>680</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>682</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -28392,7 +28392,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!C4),IF('A propos'!C4&lt;&gt;"",'A propos'!C4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -31026,7 +31026,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!D4),IF('A propos'!D4&lt;&gt;"",'A propos'!D4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.0&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -31344,7 +31344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
   <dimension ref="A1:A432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+    <sheetView topLeftCell="A398" workbookViewId="0">
       <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>

--- a/Interface_Traduction.xlsx
+++ b/Interface_Traduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git\Caerus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B5613B-8DC7-47EE-BC7B-2F110349C6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63ABEF06-CF00-4319-AE6E-DD5BD5C8E4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="14" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
+    <workbookView xWindow="5385" yWindow="1155" windowWidth="21600" windowHeight="11385" firstSheet="14" activeTab="16" xr2:uid="{8ADA0D1E-DDEC-4467-9DB9-6BA0B7CD7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Fenêtre principal" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="Changer Configuration" sheetId="17" r:id="rId14"/>
     <sheet name="A propos" sheetId="19" r:id="rId15"/>
     <sheet name="Export Document Materiel" sheetId="20" r:id="rId16"/>
-    <sheet name="FR_Properties" sheetId="14" r:id="rId17"/>
-    <sheet name="ES_Properties" sheetId="16" r:id="rId18"/>
-    <sheet name="Constants" sheetId="18" r:id="rId19"/>
+    <sheet name="Erreur incoherence" sheetId="21" r:id="rId17"/>
+    <sheet name="FR_Properties" sheetId="14" r:id="rId18"/>
+    <sheet name="ES_Properties" sheetId="16" r:id="rId19"/>
+    <sheet name="Constants" sheetId="18" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="713">
   <si>
     <t># Fenêtre principale</t>
   </si>
@@ -2100,10 +2101,94 @@
     <t>&lt;HTML&gt;&lt;P&gt;Exportación realizada con éxito&lt;BR/&gt;A título informativo, el documento no contiene datos de cabecera&lt;/P&gt;&lt;/HTML&gt;</t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.2&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.2&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>#Message pour les erreurs d'incohérence</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.title</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.panel.title</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.old.field.label</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.new.field.label</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.number.line.label</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.message.panel.title</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.message</t>
+  </si>
+  <si>
+    <t>Erreurs d'incohérences</t>
+  </si>
+  <si>
+    <t>Liste des incohérences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancienne Balise : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle Balise : </t>
+  </si>
+  <si>
+    <t>Errores de inconsistencia</t>
+  </si>
+  <si>
+    <t>Lista de inconsistencias</t>
+  </si>
+  <si>
+    <t>Etiqueta vieja :</t>
+  </si>
+  <si>
+    <t>Etiqueta nueva :</t>
+  </si>
+  <si>
+    <t>Número de línea :</t>
+  </si>
+  <si>
+    <t>window.main.inconsistency.error.panel.title</t>
+  </si>
+  <si>
+    <t>window.main.inconsistency.error.button.label</t>
+  </si>
+  <si>
+    <t>Erreur d'incohérences</t>
+  </si>
+  <si>
+    <t>Voir les erreurs d'incohérences</t>
+  </si>
+  <si>
+    <t>Error de inconsistencia</t>
+  </si>
+  <si>
+    <t>Ver errores de inconsistencia</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.liste.label</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.buttons.panel.title</t>
+  </si>
+  <si>
+    <t>window.error.inconsistency.buttons.close.button.label</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Se detectaron errores de incoherencia.&lt;BR/&gt;Esto puede causar discrepancias en la información.&lt;BR/&gt;Debe corregir la información manualmente.&lt;/P&gt;&lt;/HTML&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HTML&gt;&lt;P&gt;Des erreurs d'incohérences ont été détecté.&lt;BR/&gt;Celles-ci peuvent causer des décalages d'informations.&lt;BR/&gt;Vous devez corriger manuellement les informations.&lt;/P&gt;&lt;/HTML&gt;</t>
   </si>
 </sst>
 </file>
@@ -23362,8 +23447,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="36">
-  <autoFilter ref="A1:D49" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08B73F6F-6897-453A-A261-1E8F78D02F2C}" name="Tableau1" displayName="Tableau1" ref="A1:D53" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A1:D53" xr:uid="{5A1C5E6C-13F0-43D6-93E5-7F1D2D7A93ED}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{581AA08F-F8B9-4EB9-9270-F690B4699028}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{86F9FD87-A94B-4F9B-BA16-3BEE622BE071}" name="Code"/>
@@ -23460,6 +23545,19 @@
     <tableColumn id="2" xr3:uid="{37941F86-4BA1-4EBC-90AD-63A762519C13}" name="Code"/>
     <tableColumn id="3" xr3:uid="{CA488D13-6ECB-4365-A588-0ADAC244988F}" name="Français"/>
     <tableColumn id="4" xr3:uid="{BE1263A3-D3DD-44B0-A9A1-949F5F986210}" name="Español"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{FE38CA9E-C909-4C7C-8353-45B931CAD8B7}" name="Tableau16101518" displayName="Tableau16101518" ref="A1:D21" totalsRowShown="0">
+  <autoFilter ref="A1:D21" xr:uid="{E7BA9EFA-948C-419C-8E1F-326C4CE3B620}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5F1F8B7F-9C98-41C4-84F2-7E61F1D8C8C2}" name="Numero"/>
+    <tableColumn id="2" xr3:uid="{51E67173-6CD1-4B99-B896-238936FB03F6}" name="Code"/>
+    <tableColumn id="3" xr3:uid="{45BDB7E1-9650-4720-82F1-E397F2878DCD}" name="Français"/>
+    <tableColumn id="4" xr3:uid="{50185964-020E-4FD4-B748-2D1E90592778}" name="Español"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23866,10 +23964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF59B93E-40E9-44D6-98FA-7D0A802C1DCE}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24490,6 +24588,34 @@
       </c>
       <c r="D48" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>702</v>
+      </c>
+      <c r="C49" t="s">
+        <v>704</v>
+      </c>
+      <c r="D49" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" t="s">
+        <v>705</v>
+      </c>
+      <c r="D50" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -25697,8 +25823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357A141E-D5BD-46DF-8EEC-B92516C123B1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26085,11 +26211,219 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15032655-58F9-4FEF-8B6C-67D258FE3726}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="4" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>686</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C4" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" t="s">
+        <v>695</v>
+      </c>
+      <c r="D5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>692</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>710</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D12" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4904B2FA-CBC2-495A-A197-D0CDD47EB1AE}">
-  <dimension ref="A1:A436"/>
+  <dimension ref="A1:A462"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A421" sqref="A1:A436"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26382,13 +26716,13 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF('Fenêtre principal'!B49&lt;&gt;"",CONCATENATE('Fenêtre principal'!B49,"=", 'Fenêtre principal'!C49),IF('Fenêtre principal'!C49&lt;&gt;"",'Fenêtre principal'!C49,""))</f>
-        <v/>
+        <v>window.main.inconsistency.error.panel.title=Erreur d'incohérences</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('Fenêtre principal'!B50&lt;&gt;"",CONCATENATE('Fenêtre principal'!B50,"=", 'Fenêtre principal'!C50),IF('Fenêtre principal'!C50&lt;&gt;"",'Fenêtre principal'!C50,""))</f>
-        <v/>
+        <v>window.main.inconsistency.error.button.label=Voir les erreurs d'incohérences</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -28392,7 +28726,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!C4),IF('A propos'!C4&lt;&gt;"",'A propos'!C4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;A propos de l'application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nom de l'application : &lt;/u&gt; Caerus&lt;br /&gt;&lt;u&gt;Version : &lt;/u&gt; 1.1.2&lt;br /&gt;&lt;u&gt;Editeur : &lt;/u&gt; Jeremy, Leda&lt;br /&gt;&lt;u&gt;Site web : &lt;/u&gt;https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -28710,6 +29044,162 @@
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="str">
         <f>IF('Export Document Materiel'!B34&lt;&gt;"",CONCATENATE('Export Document Materiel'!B34,"=", 'Export Document Materiel'!C34),IF('Export Document Materiel'!C34&lt;&gt;"",'Export Document Materiel'!C34,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f>IF('Erreur incoherence'!B2&lt;&gt;"",CONCATENATE('Erreur incoherence'!B2,"=", 'Erreur incoherence'!C2),IF('Erreur incoherence'!C2&lt;&gt;"",'Erreur incoherence'!C2,""))</f>
+        <v>#Message pour les erreurs d'incohérence</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f>IF('Erreur incoherence'!B3&lt;&gt;"",CONCATENATE('Erreur incoherence'!B3,"=", 'Erreur incoherence'!C3),IF('Erreur incoherence'!C3&lt;&gt;"",'Erreur incoherence'!C3,""))</f>
+        <v>window.error.inconsistency.title=Erreurs d'incohérences</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f>IF('Erreur incoherence'!B4&lt;&gt;"",CONCATENATE('Erreur incoherence'!B4,"=", 'Erreur incoherence'!C4),IF('Erreur incoherence'!C4&lt;&gt;"",'Erreur incoherence'!C4,""))</f>
+        <v>window.error.inconsistency.panel.title=Liste des incohérences</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f>IF('Erreur incoherence'!B5&lt;&gt;"",CONCATENATE('Erreur incoherence'!B5,"=", 'Erreur incoherence'!C5),IF('Erreur incoherence'!C5&lt;&gt;"",'Erreur incoherence'!C5,""))</f>
+        <v xml:space="preserve">window.error.inconsistency.old.field.label=Ancienne Balise : </v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f>IF('Erreur incoherence'!B6&lt;&gt;"",CONCATENATE('Erreur incoherence'!B6,"=", 'Erreur incoherence'!C6),IF('Erreur incoherence'!C6&lt;&gt;"",'Erreur incoherence'!C6,""))</f>
+        <v xml:space="preserve">window.error.inconsistency.new.field.label=Nouvelle Balise : </v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f>IF('Erreur incoherence'!B7&lt;&gt;"",CONCATENATE('Erreur incoherence'!B7,"=", 'Erreur incoherence'!C7),IF('Erreur incoherence'!C7&lt;&gt;"",'Erreur incoherence'!C7,""))</f>
+        <v xml:space="preserve">window.error.inconsistency.number.line.label=Numéro de la ligne : </v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f>IF('Erreur incoherence'!B8&lt;&gt;"",CONCATENATE('Erreur incoherence'!B8,"=", 'Erreur incoherence'!C8),IF('Erreur incoherence'!C8&lt;&gt;"",'Erreur incoherence'!C8,""))</f>
+        <v>window.error.inconsistency.message.panel.title=Message d'information</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f>IF('Erreur incoherence'!B9&lt;&gt;"",CONCATENATE('Erreur incoherence'!B9,"=", 'Erreur incoherence'!C9),IF('Erreur incoherence'!C9&lt;&gt;"",'Erreur incoherence'!C9,""))</f>
+        <v>window.error.inconsistency.message=&lt;HTML&gt;&lt;P&gt;Des erreurs d'incohérences ont été détecté.&lt;BR/&gt;Celles-ci peuvent causer des décalages d'informations.&lt;BR/&gt;Vous devez corriger manuellement les informations.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f>IF('Erreur incoherence'!B10&lt;&gt;"",CONCATENATE('Erreur incoherence'!B10,"=", 'Erreur incoherence'!C10),IF('Erreur incoherence'!C10&lt;&gt;"",'Erreur incoherence'!C10,""))</f>
+        <v>window.error.inconsistency.buttons.panel.title=Actions</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f>IF('Erreur incoherence'!B11&lt;&gt;"",CONCATENATE('Erreur incoherence'!B11,"=", 'Erreur incoherence'!C11),IF('Erreur incoherence'!C11&lt;&gt;"",'Erreur incoherence'!C11,""))</f>
+        <v>window.error.inconsistency.buttons.close.button.label=Fermer</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f>IF('Erreur incoherence'!B12&lt;&gt;"",CONCATENATE('Erreur incoherence'!B12,"=", 'Erreur incoherence'!C12),IF('Erreur incoherence'!C12&lt;&gt;"",'Erreur incoherence'!C12,""))</f>
+        <v>window.error.inconsistency.liste.label=Liste des incohérences</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f>IF('Erreur incoherence'!B13&lt;&gt;"",CONCATENATE('Erreur incoherence'!B13,"=", 'Erreur incoherence'!C13),IF('Erreur incoherence'!C13&lt;&gt;"",'Erreur incoherence'!C13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f>IF('Erreur incoherence'!B14&lt;&gt;"",CONCATENATE('Erreur incoherence'!B14,"=", 'Erreur incoherence'!C14),IF('Erreur incoherence'!C14&lt;&gt;"",'Erreur incoherence'!C14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f>IF('Erreur incoherence'!B15&lt;&gt;"",CONCATENATE('Erreur incoherence'!B15,"=", 'Erreur incoherence'!C15),IF('Erreur incoherence'!C15&lt;&gt;"",'Erreur incoherence'!C15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f>IF('Erreur incoherence'!B16&lt;&gt;"",CONCATENATE('Erreur incoherence'!B16,"=", 'Erreur incoherence'!C16),IF('Erreur incoherence'!C16&lt;&gt;"",'Erreur incoherence'!C16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f>IF('Erreur incoherence'!B17&lt;&gt;"",CONCATENATE('Erreur incoherence'!B17,"=", 'Erreur incoherence'!C17),IF('Erreur incoherence'!C17&lt;&gt;"",'Erreur incoherence'!C17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f>IF('Erreur incoherence'!B18&lt;&gt;"",CONCATENATE('Erreur incoherence'!B18,"=", 'Erreur incoherence'!C18),IF('Erreur incoherence'!C18&lt;&gt;"",'Erreur incoherence'!C18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f>IF('Erreur incoherence'!B19&lt;&gt;"",CONCATENATE('Erreur incoherence'!B19,"=", 'Erreur incoherence'!C19),IF('Erreur incoherence'!C19&lt;&gt;"",'Erreur incoherence'!C19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f>IF('Erreur incoherence'!B20&lt;&gt;"",CONCATENATE('Erreur incoherence'!B20,"=", 'Erreur incoherence'!C20),IF('Erreur incoherence'!C20&lt;&gt;"",'Erreur incoherence'!C20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f>IF('Erreur incoherence'!B21&lt;&gt;"",CONCATENATE('Erreur incoherence'!B21,"=", 'Erreur incoherence'!C21),IF('Erreur incoherence'!C21&lt;&gt;"",'Erreur incoherence'!C21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f>IF('Erreur incoherence'!B22&lt;&gt;"",CONCATENATE('Erreur incoherence'!B22,"=", 'Erreur incoherence'!C22),IF('Erreur incoherence'!C22&lt;&gt;"",'Erreur incoherence'!C22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f>IF('Erreur incoherence'!B23&lt;&gt;"",CONCATENATE('Erreur incoherence'!B23,"=", 'Erreur incoherence'!C23),IF('Erreur incoherence'!C23&lt;&gt;"",'Erreur incoherence'!C23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f>IF('Erreur incoherence'!B24&lt;&gt;"",CONCATENATE('Erreur incoherence'!B24,"=", 'Erreur incoherence'!C24),IF('Erreur incoherence'!C24&lt;&gt;"",'Erreur incoherence'!C24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f>IF('Erreur incoherence'!B25&lt;&gt;"",CONCATENATE('Erreur incoherence'!B25,"=", 'Erreur incoherence'!C25),IF('Erreur incoherence'!C25&lt;&gt;"",'Erreur incoherence'!C25,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f>IF('Erreur incoherence'!B26&lt;&gt;"",CONCATENATE('Erreur incoherence'!B26,"=", 'Erreur incoherence'!C26),IF('Erreur incoherence'!C26&lt;&gt;"",'Erreur incoherence'!C26,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f>IF('Erreur incoherence'!B27&lt;&gt;"",CONCATENATE('Erreur incoherence'!B27,"=", 'Erreur incoherence'!C27),IF('Erreur incoherence'!C27&lt;&gt;"",'Erreur incoherence'!C27,""))</f>
         <v/>
       </c>
     </row>
@@ -28718,12 +29208,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD3DB96-F87F-4364-85D4-FC661FEC0D14}">
-  <dimension ref="A1:A434"/>
+  <dimension ref="A1:A460"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A416" sqref="A1:A434"/>
+    <sheetView showZeros="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:A460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29016,13 +29506,13 @@
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>IF('Fenêtre principal'!B49&lt;&gt;"",CONCATENATE('Fenêtre principal'!B49,"=", 'Fenêtre principal'!D49),IF('Fenêtre principal'!D49&lt;&gt;"",'Fenêtre principal'!D49,""))</f>
-        <v/>
+        <v>window.main.inconsistency.error.panel.title=Error de inconsistencia</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>IF('Fenêtre principal'!B50&lt;&gt;"",CONCATENATE('Fenêtre principal'!B50,"=", 'Fenêtre principal'!D50),IF('Fenêtre principal'!D50&lt;&gt;"",'Fenêtre principal'!D50,""))</f>
-        <v/>
+        <v>window.main.inconsistency.error.button.label=Ver errores de inconsistencia</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -31026,7 +31516,7 @@
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="str">
         <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE('A propos'!B4,"=", 'A propos'!D4),IF('A propos'!D4&lt;&gt;"",'A propos'!D4,""))</f>
-        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.1&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
+        <v>window.about.message.content=&lt;html&gt;&lt;p&gt;&lt;b&gt;&lt;u&gt;Acerca de la application&lt;/b&gt;&lt;/u&gt;&lt;br /&gt;&lt;br /&gt;&lt;u&gt;Nombre de la application :&lt;/u&gt; Caerus&lt;BR /&gt;&lt;u&gt;Versión :&lt;/u&gt; 1.1.2&lt;br /&gt;&lt;u&gt;Editor :&lt;/u&gt; Jeremy, Leda&lt;br/&gt;&lt;u&gt;Sitio web :&lt;/u&gt; https://github.com/Jeremy-Leda/Caerus&lt;/p&gt;&lt;/html&gt;</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -31335,2613 +31825,159 @@
         <v/>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
-  <dimension ref="A1:A432"/>
-  <sheetViews>
-    <sheetView topLeftCell="A398" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="96" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="str">
-        <f>IF('Fenêtre principal'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B2),".","_"),"=""", 'Fenêtre principal'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
-        <f>IF('Fenêtre principal'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B3),".","_"),"=""", 'Fenêtre principal'!B3,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>IF('Fenêtre principal'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B4),".","_"),"=""", 'Fenêtre principal'!B4,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>IF('Fenêtre principal'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B5),".","_"),"=""", 'Fenêtre principal'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_PRINCIPAL_TITLE="window.principal.title";</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>IF('Fenêtre principal'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B6),".","_"),"=""", 'Fenêtre principal'!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>IF('Fenêtre principal'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B7),".","_"),"=""", 'Fenêtre principal'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>IF('Fenêtre principal'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B8),".","_"),"=""", 'Fenêtre principal'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL1_TITLE="window.menu.level1.title";</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>IF('Fenêtre principal'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B9),".","_"),"=""", 'Fenêtre principal'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL1_TITLE="window.menu.level1.sublevel1.title";</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>IF('Fenêtre principal'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B10),".","_"),"=""", 'Fenêtre principal'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL2_TITLE="window.menu.level1.sublevel2.title";</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>IF('Fenêtre principal'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B11),".","_"),"=""", 'Fenêtre principal'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL3_TITLE="window.menu.level1.sublevel3.title";</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>IF('Fenêtre principal'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B12),".","_"),"=""", 'Fenêtre principal'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL4_TITLE="window.menu.level1.sublevel4.title";</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>IF('Fenêtre principal'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B13),".","_"),"=""", 'Fenêtre principal'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL2_TITLE="window.menu.level2.title";</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>IF('Fenêtre principal'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B14),".","_"),"=""", 'Fenêtre principal'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL3_TITLE="window.menu.level3.title";</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B15),".","_"),"=""", 'Fenêtre principal'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL3_SUBLEVEL1_TITLE="window.menu.level3.sublevel1.title";</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>IF('Fenêtre principal'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B16),".","_"),"=""", 'Fenêtre principal'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL5_TITLE="window.menu.level5.title";</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>IF('Fenêtre principal'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B17),".","_"),"=""", 'Fenêtre principal'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL1_TITLE="window.menu.level5.sublevel1.title";</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B18),".","_"),"=""", 'Fenêtre principal'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL2_TITLE="window.menu.level5.sublevel2.title";</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B19),".","_"),"=""", 'Fenêtre principal'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL3_TITLE="window.menu.level5.sublevel3.title";</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>IF('Fenêtre principal'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B20),".","_"),"=""", 'Fenêtre principal'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>IF('Fenêtre principal'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B21),".","_"),"=""", 'Fenêtre principal'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B22),".","_"),"=""", 'Fenêtre principal'!B22,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_CONFIGURATION_LIBRARY_PANEL_STATE_LABEL="window.main.configuration.library.panel.state.label";</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>IF('Fenêtre principal'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B23),".","_"),"=""", 'Fenêtre principal'!B23,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_TITLE="window.main.analyze.panel.title";</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>IF('Fenêtre principal'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B24),".","_"),"=""", 'Fenêtre principal'!B24,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LABEL="window.main.analyze.panel.state.label";</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>IF('Fenêtre principal'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B25),".","_"),"=""", 'Fenêtre principal'!B25,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_NONE="window.main.analyze.panel.state.value.none";</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>IF('Fenêtre principal'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B26),".","_"),"=""", 'Fenêtre principal'!B26,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_SUCCESS="window.main.analyze.panel.state.value.success";</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>IF('Fenêtre principal'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B27),".","_"),"=""", 'Fenêtre principal'!B27,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_FOLDER_LABEL="window.main.analyze.panel.state.folder.label";</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>IF('Fenêtre principal'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B28),".","_"),"=""", 'Fenêtre principal'!B28,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CONFIGURATION_LABEL="window.main.analyze.panel.state.configuration.label";</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>IF('Fenêtre principal'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B29),".","_"),"=""", 'Fenêtre principal'!B29,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LOAD_BUTTON="window.main.analyze.panel.state.load.button";</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>IF('Fenêtre principal'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B30),".","_"),"=""", 'Fenêtre principal'!B30,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_NB_TEXT_LOADED_LABEL="window.main.analyze.panel.state.nb.text.loaded.label";</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>IF('Fenêtre principal'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B31),".","_"),"=""", 'Fenêtre principal'!B31,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_LINE_ERROR_PANEL_TITLE="window.main.line.error.panel.title";</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>IF('Fenêtre principal'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B32),".","_"),"=""", 'Fenêtre principal'!B32,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_LINE_ERROR_NB_LABEL="window.main.line.error.nb.label";</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>IF('Fenêtre principal'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B33),".","_"),"=""", 'Fenêtre principal'!B33,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.line.error.fixed.button.label";</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>IF('Fenêtre principal'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B34),".","_"),"=""", 'Fenêtre principal'!B34,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_TEXT_ERROR_PANEL_TITLE="window.main.text.error.panel.title";</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>IF('Fenêtre principal'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B35),".","_"),"=""", 'Fenêtre principal'!B35,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_TEXT_ERROR_NB_LABEL="window.main.text.error.nb.label";</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>IF('Fenêtre principal'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B36),".","_"),"=""", 'Fenêtre principal'!B36,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_TEXT_ERROR_FIXED_BUTTON_LABEL="window.main.text.error.fixed.button.label";</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>IF('Fenêtre principal'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B37),".","_"),"=""", 'Fenêtre principal'!B37,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_PANEL_TITLE="window.main.blank.line.error.panel.title";</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>IF('Fenêtre principal'!B38&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B38),".","_"),"=""", 'Fenêtre principal'!B38,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_NB_LABEL="window.main.blank.line.error.nb.label";</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B39),".","_"),"=""", 'Fenêtre principal'!B39,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.blank.line.error.fixed.button.label";</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B40),".","_"),"=""", 'Fenêtre principal'!B40,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_LABEL="window.main.meta.blank.line.error.label";</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B41),".","_"),"=""", 'Fenêtre principal'!B41,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.meta.blank.line.error.fixed.button.label";</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>IF('Fenêtre principal'!B42&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B42),".","_"),"=""", 'Fenêtre principal'!B42,""";"),"")</f>
-        <v>public static final String WINDOW_YES_LABEL="window.yes.label";</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>IF('Fenêtre principal'!B43&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B43),".","_"),"=""", 'Fenêtre principal'!B43,""";"),"")</f>
-        <v>public static final String WINDOW_NO_LABEL="window.no.label";</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>IF('Fenêtre principal'!B44&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B44),".","_"),"=""", 'Fenêtre principal'!B44,""";"),"")</f>
-        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_PANEL_LABEL="window.move.file.library.panel.label";</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B45),".","_"),"=""", 'Fenêtre principal'!B45,""";"),"")</f>
-        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_BUTTON_LABEL="window.move.file.library.button.label";</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>IF('Fenêtre principal'!B46&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B46),".","_"),"=""", 'Fenêtre principal'!B46,""";"),"")</f>
-        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CURRENT_CONFIGURATION_LABEL="window.main.analyze.panel.state.current.configuration.label";</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B47),".","_"),"=""", 'Fenêtre principal'!B47,""";"),"")</f>
-        <v>public static final String MENU_ABOUT="menu.about";</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B48),".","_"),"=""", 'Fenêtre principal'!B48,""";"),"")</f>
-        <v>public static final String MENU_ABOUT_OPEN="menu.about.open";</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>IF('Fenêtre principal'!B49&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B49),".","_"),"=""", 'Fenêtre principal'!B49,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>IF('Fenêtre principal'!B50&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B50),".","_"),"=""", 'Fenêtre principal'!B50,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>IF('Fenêtre principal'!B51&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B51),".","_"),"=""", 'Fenêtre principal'!B51,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>IF('Fenêtre principal'!B52&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B52),".","_"),"=""", 'Fenêtre principal'!B52,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>IF('Fenêtre principal'!B53&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B53),".","_"),"=""", 'Fenêtre principal'!B53,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>IF('Fenêtre principal'!B54&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B54),".","_"),"=""", 'Fenêtre principal'!B54,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>IF('Fenêtre principal'!B55&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B55),".","_"),"=""", 'Fenêtre principal'!B55,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>IF('Fenêtre principal'!B56&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B56),".","_"),"=""", 'Fenêtre principal'!B56,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f>IF('Fenêtre principal'!B57&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B57),".","_"),"=""", 'Fenêtre principal'!B57,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f>IF('Fenêtre erreur ligne'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B2),".","_"),"=""", 'Fenêtre erreur ligne'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>IF('Fenêtre erreur ligne'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B3),".","_"),"=""", 'Fenêtre erreur ligne'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_TITLE="window.fixed.error.line.title";</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f>IF('Fenêtre erreur ligne'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B4),".","_"),"=""", 'Fenêtre erreur ligne'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_TITLE="window.fixed.error.line.content.panel.title";</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f>IF('Fenêtre erreur ligne'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B5),".","_"),"=""", 'Fenêtre erreur ligne'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_ERROR_LABEL="window.fixed.error.line.content.panel.line.error.label";</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B6),".","_"),"=""", 'Fenêtre erreur ligne'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FIXED_LABEL="window.fixed.error.line.content.panel.line.fixed.label";</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f>IF('Fenêtre erreur ligne'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B7),".","_"),"=""", 'Fenêtre erreur ligne'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_TITLE="window.fixed.error.line.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>IF('Fenêtre erreur ligne'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B8),".","_"),"=""", 'Fenêtre erreur ligne'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.next.button.label";</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f>IF('Fenêtre erreur ligne'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B9),".","_"),"=""", 'Fenêtre erreur ligne'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.quit.button.label";</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f>IF('Fenêtre erreur ligne'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B10),".","_"),"=""", 'Fenêtre erreur ligne'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_NUMBER_LABEL="window.fixed.error.line.content.panel.line.number.label";</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B11),".","_"),"=""", 'Fenêtre erreur ligne'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FILE_LABEL="window.fixed.error.line.content.panel.line.file.label";</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B12),".","_"),"=""", 'Fenêtre erreur ligne'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_PANEL_TITLE="window.fixed.error.line.information.panel.title";</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE2="window.fixed.error.line.information.message.etape2";</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE3="window.fixed.error.line.information.message.etape3";</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE4="window.fixed.error.line.information.message.etape4";</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_PANEL_TITLE="window.fixed.error.line.selected.data.panel.title";</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_LABEL="window.fixed.error.line.selected.data.select.text.label";</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" t="str">
-        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECTED_TEXT_LABEL="window.fixed.error.line.selected.data.selected.text.label";</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" t="str">
-        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B21),".","_"),"=""", 'Fenêtre erreur ligne'!B21,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_BUTTON_LABEL="window.fixed.error.line.selected.data.select.text.button.label";</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" t="str">
-        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B22),".","_"),"=""", 'Fenêtre erreur ligne'!B22,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_WIZARD_PANEL_TITLE="window.fixed.error.line.wizard.panel.title";</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" t="str">
-        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B23),".","_"),"=""", 'Fenêtre erreur ligne'!B23,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_PANEL_TITLE="window.fixed.error.line.mode.panel.title";</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="str">
-        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B24),".","_"),"=""", 'Fenêtre erreur ligne'!B24,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_WIZARD_LABEL="window.fixed.error.line.mode.wizard.label";</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" t="str">
-        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B25),".","_"),"=""", 'Fenêtre erreur ligne'!B25,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_EXPERT_LABEL="window.fixed.error.line.mode.expert.label";</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" t="str">
-        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B26),".","_"),"=""", 'Fenêtre erreur ligne'!B26,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_EXPERT="window.fixed.error.line.information.message.expert";</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" t="str">
-        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B27),".","_"),"=""", 'Fenêtre erreur ligne'!B27,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE1="window.fixed.error.line.information.message.etape1";</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" t="str">
-        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" t="str">
-        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B29),".","_"),"=""", 'Fenêtre erreur ligne'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" t="str">
-        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B30),".","_"),"=""", 'Fenêtre erreur ligne'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" t="str">
-        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" t="str">
-        <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B3),".","_"),"=""", 'Correction Edit texte'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_TEXT_TITLE="window.fixed.text.title";</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="str">
-        <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B4),".","_"),"=""", 'Correction Edit texte'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_TEXT_ACTION_PANEL_TITLE="window.fixed.text.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="str">
-        <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B5),".","_"),"=""", 'Correction Edit texte'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.fixed.text.action.fill.specific.button.title";</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" t="str">
-        <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B6),".","_"),"=""", 'Correction Edit texte'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_BUTTON_TITLE="window.fixed.text.action.next.button.title";</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" t="str">
-        <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B7),".","_"),"=""", 'Correction Edit texte'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_AND_SAVE_BUTTON_TITLE="window.fixed.text.action.next.and.save.button.title";</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" t="str">
-        <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B8),".","_"),"=""", 'Correction Edit texte'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" t="str">
-        <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B9),".","_"),"=""", 'Correction Edit texte'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" t="str">
-        <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B10),".","_"),"=""", 'Correction Edit texte'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_CONTENT_PANEL_TITLE="window.create.text.content.panel.title";</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" t="str">
-        <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B11),".","_"),"=""", 'Correction Edit texte'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_FILE_PANEL_TITLE="window.create.text.file.panel.title";</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" t="str">
-        <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B12),".","_"),"=""", 'Correction Edit texte'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_NAME_LABEL="window.create.text.name.label";</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" t="str">
-        <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B13),".","_"),"=""", 'Correction Edit texte'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="str">
-        <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B14),".","_"),"=""", 'Correction Edit texte'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="str">
-        <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B15),".","_"),"=""", 'Correction Edit texte'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_PANEL_TITLE="window.manage.texts.edit.text.panel.title";</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="str">
-        <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B16),".","_"),"=""", 'Correction Edit texte'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_PANEL_TITLE="window.manage.texts.edit.text.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" t="str">
-        <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B17),".","_"),"=""", 'Correction Edit texte'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.manage.texts.edit.text.action.fill.specific.button.title";</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" t="str">
-        <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B18),".","_"),"=""", 'Correction Edit texte'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" t="str">
-        <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B19),".","_"),"=""", 'Correction Edit texte'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" t="str">
-        <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B20),".","_"),"=""", 'Correction Edit texte'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.edit.text.action.button.save.and.quit.label";</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" t="str">
-        <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B21),".","_"),"=""", 'Correction Edit texte'!B21,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_QUIT_LABEL="window.manage.texts.edit.text.action.button.quit.label";</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" t="str">
-        <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B22),".","_"),"=""", 'Correction Edit texte'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" t="str">
-        <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B23),".","_"),"=""", 'Correction Edit texte'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" t="str">
-        <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B24),".","_"),"=""", 'Correction Edit texte'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" t="str">
-        <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B25),".","_"),"=""", 'Correction Edit texte'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" t="str">
-        <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B26),".","_"),"=""", 'Correction Edit texte'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" t="str">
-        <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B2),".","_"),"=""", 'Fenêtre spécifique'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" t="str">
-        <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B3),".","_"),"=""", 'Fenêtre spécifique'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_SPECIFIC_TITLE="window.fixed.specific.title";</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" t="str">
-        <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B4),".","_"),"=""", 'Fenêtre spécifique'!B4,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" t="str">
-        <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B5),".","_"),"=""", 'Fenêtre spécifique'!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" t="str">
-        <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B6),".","_"),"=""", 'Fenêtre spécifique'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_EDIT_SPECIFIC_TITLE="window.edit.specific.title";</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" t="str">
-        <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B7),".","_"),"=""", 'Fenêtre spécifique'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" t="str">
-        <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B8),".","_"),"=""", 'Fenêtre spécifique'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" t="str">
-        <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B9),".","_"),"=""", 'Fenêtre spécifique'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_TITLE="window.create.specific.title";</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="str">
-        <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B10),".","_"),"=""", 'Fenêtre spécifique'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_TITLE="window.create.specific.context.panel.title";</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="str">
-        <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B11),".","_"),"=""", 'Fenêtre spécifique'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_FILE_LABEL="window.create.specific.context.panel.file.label";</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="str">
-        <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B12),".","_"),"=""", 'Fenêtre spécifique'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_DETAILS_PANEL_TITLE="window.create.specific.details.panel.title";</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="str">
-        <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B13),".","_"),"=""", 'Fenêtre spécifique'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_PREVIOUS_LABEL="window.create.specific.action.panel.button.previous.label";</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="str">
-        <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B14),".","_"),"=""", 'Fenêtre spécifique'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_NEXT_LABEL="window.create.specific.action.panel.button.next.label";</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" t="str">
-        <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B15),".","_"),"=""", 'Fenêtre spécifique'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_TITLE="window.create.specific.create.panel.title";</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" t="str">
-        <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B16),".","_"),"=""", 'Fenêtre spécifique'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_MODIFY_LABEL="window.create.specific.create.panel.action.modify.label";</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" t="str">
-        <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B17),".","_"),"=""", 'Fenêtre spécifique'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_ADD_LABEL="window.create.specific.create.panel.action.add.label";</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" t="str">
-        <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B18),".","_"),"=""", 'Fenêtre spécifique'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_DELETE_LABEL="window.create.specific.create.panel.action.delete.label";</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" t="str">
-        <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B19),".","_"),"=""", 'Fenêtre spécifique'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_FINISH_LABEL="window.create.specific.action.panel.button.finish.label";</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" t="str">
-        <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B20),".","_"),"=""", 'Fenêtre spécifique'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" t="str">
-        <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B21),".","_"),"=""", 'Fenêtre spécifique'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" t="str">
-        <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B22),".","_"),"=""", 'Fenêtre spécifique'!B22,""";"),"")</f>
-        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TITLE="window.specific.information.panel.title";</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" t="str">
-        <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B23),".","_"),"=""", 'Fenêtre spécifique'!B23,""";"),"")</f>
-        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TEXT="window.specific.information.panel.text";</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" t="str">
-        <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B24),".","_"),"=""", 'Fenêtre spécifique'!B24,""";"),"")</f>
-        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TITLE="window.specific.warning.panel.title";</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" t="str">
-        <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B25),".","_"),"=""", 'Fenêtre spécifique'!B25,""";"),"")</f>
-        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TEXT="window.specific.warning.panel.text";</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" t="str">
-        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B26),".","_"),"=""", 'Fenêtre spécifique'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" t="str">
-        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B27),".","_"),"=""", 'Fenêtre spécifique'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" t="str">
-        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B28),".","_"),"=""", 'Fenêtre spécifique'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" t="str">
-        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B29),".","_"),"=""", 'Fenêtre spécifique'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" t="str">
-        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B30),".","_"),"=""", 'Fenêtre spécifique'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" t="str">
-        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B31),".","_"),"=""", 'Fenêtre spécifique'!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" t="str">
-        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B32),".","_"),"=""", 'Fenêtre spécifique'!B32,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="str">
-        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B33),".","_"),"=""", 'Fenêtre spécifique'!B33,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" t="str">
-        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B34),".","_"),"=""", 'Fenêtre spécifique'!B34,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" t="str">
-        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B35),".","_"),"=""", 'Fenêtre spécifique'!B35,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="str">
-        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B36),".","_"),"=""", 'Fenêtre spécifique'!B36,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="str">
-        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B37),".","_"),"=""", 'Fenêtre spécifique'!B37,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="str">
-        <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B2),".","_"),"=""", 'Fenêtre Chargement document'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="str">
-        <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B3),".","_"),"=""", 'Fenêtre Chargement document'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC="window.type.configuration.DIDACTIC";</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="str">
-        <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B4),".","_"),"=""", 'Fenêtre Chargement document'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC_EXPERT="window.type.configuration.DIDACTIC_EXPERT";</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="str">
-        <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B5),".","_"),"=""", 'Fenêtre Chargement document'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_TITLE="window.load.texts.title";</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="str">
-        <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B6),".","_"),"=""", 'Fenêtre Chargement document'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_PANEL_TITLE="window.load.texts.type.configuration.panel.title";</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="str">
-        <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B7),".","_"),"=""", 'Fenêtre Chargement document'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_LABEL="window.load.texts.type.configuration.label";</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="str">
-        <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B8),".","_"),"=""", 'Fenêtre Chargement document'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_EXPERT_LABEL="window.load.texts.type.configuration.expert.label";</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="str">
-        <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B9),".","_"),"=""", 'Fenêtre Chargement document'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_PANEL_TITLE="window.load.texts.folder.panel.title";</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="str">
-        <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B10),".","_"),"=""", 'Fenêtre Chargement document'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LABEL="window.load.texts.folder.label";</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" t="str">
-        <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B11),".","_"),"=""", 'Fenêtre Chargement document'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_LABEL="window.load.texts.folder.button.label";</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="str">
-        <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B12),".","_"),"=""", 'Fenêtre Chargement document'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.button.folder.choose.title";</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="str">
-        <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B13),".","_"),"=""", 'Fenêtre Chargement document'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_START_BUTTON_LABEL="window.load.texts.start.button.label";</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="str">
-        <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B14),".","_"),"=""", 'Fenêtre Chargement document'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_START_PANEL_TITLE="window.load.texts.start.panel.title";</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" t="str">
-        <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B15),".","_"),"=""", 'Fenêtre Chargement document'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_PANEL_TITLE="window.load.texts.informations.panel.title";</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" t="str">
-        <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B16),".","_"),"=""", 'Fenêtre Chargement document'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE="window.load.texts.informations.message";</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" t="str">
-        <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B17),".","_"),"=""", 'Fenêtre Chargement document'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_PANEL_TITLE="window.load.texts.warning.panel.title";</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" t="str">
-        <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B18),".","_"),"=""", 'Fenêtre Chargement document'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_MESSAGE="window.load.texts.warning.message";</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" t="str">
-        <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B19),".","_"),"=""", 'Fenêtre Chargement document'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE_DEFAULT="window.load.texts.informations.message.default";</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" t="str">
-        <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B20),".","_"),"=""", 'Fenêtre Chargement document'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_PANEL_TITLE="window.load.texts.choose.search.panel.title";</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" t="str">
-        <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B21),".","_"),"=""", 'Fenêtre Chargement document'!B21,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_LABEL="window.load.texts.choose.search.label";</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="str">
-        <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B22),".","_"),"=""", 'Fenêtre Chargement document'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" t="str">
-        <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B23),".","_"),"=""", 'Fenêtre Chargement document'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" t="str">
-        <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B24),".","_"),"=""", 'Fenêtre Chargement document'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" t="str">
-        <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B2),".","_"),"=""", 'Choix bibliotheque texte'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" t="str">
-        <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B3),".","_"),"=""", 'Choix bibliotheque texte'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LIBRARY_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.library.button.folder.choose.title";</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" t="str">
-        <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B4),".","_"),"=""", 'Choix bibliotheque texte'!B4,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" t="str">
-        <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B5),".","_"),"=""", 'Choix bibliotheque texte'!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" t="str">
-        <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B6),".","_"),"=""", 'Choix bibliotheque texte'!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" t="str">
-        <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B7),".","_"),"=""", 'Choix bibliotheque texte'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" t="str">
-        <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B8),".","_"),"=""", 'Choix bibliotheque texte'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="str">
-        <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B9),".","_"),"=""", 'Choix bibliotheque texte'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" t="str">
-        <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B10),".","_"),"=""", 'Choix bibliotheque texte'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" t="str">
-        <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B11),".","_"),"=""", 'Choix bibliotheque texte'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" t="str">
-        <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B12),".","_"),"=""", 'Choix bibliotheque texte'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" t="str">
-        <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B2),".","_"),"=""", 'Fenetre Corpus'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="str">
-        <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B3),".","_"),"=""", 'Fenetre Corpus'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_TITLE="window.create.corpus.title";</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="str">
-        <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B4),".","_"),"=""", 'Fenetre Corpus'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_FILE_PANEL_TITLE="window.create.corpus.file.panel.title";</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" t="str">
-        <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B5),".","_"),"=""", 'Fenetre Corpus'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_NAME_LABEL="window.create.corpus.name.label";</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" t="str">
-        <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B6),".","_"),"=""", 'Fenetre Corpus'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_CONTENT_PANEL_TITLE="window.create.corpus.content.panel.title";</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" t="str">
-        <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B7),".","_"),"=""", 'Fenetre Corpus'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_PANEL_TITLE="window.create.corpus.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" t="str">
-        <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B8),".","_"),"=""", 'Fenetre Corpus'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_CREATE_TEXT_BUTTON_TITLE="window.create.corpus.action.create.text.button.title";</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" t="str">
-        <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B9),".","_"),"=""", 'Fenetre Corpus'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_TITLE="window.fixed.error.meta.blank.line.panel.title";</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" t="str">
-        <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B10),".","_"),"=""", 'Fenetre Corpus'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.quit.button.label";</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" t="str">
-        <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B11),".","_"),"=""", 'Fenetre Corpus'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.next.button.label";</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" t="str">
-        <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B12),".","_"),"=""", 'Fenetre Corpus'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_CORPUS_TITLE="window.manage.corpus.title";</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" t="str">
-        <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B13),".","_"),"=""", 'Fenetre Corpus'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_ADD_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.add.text.action.button.save.and.quit.label";</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" t="str">
-        <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B14),".","_"),"=""", 'Fenetre Corpus'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" t="str">
-        <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B15),".","_"),"=""", 'Fenetre Corpus'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" t="str">
-        <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B16),".","_"),"=""", 'Fenetre Corpus'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" t="str">
-        <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B17),".","_"),"=""", 'Fenetre Corpus'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" t="str">
-        <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B18),".","_"),"=""", 'Fenetre Corpus'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" t="str">
-        <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B19),".","_"),"=""", 'Fenetre Corpus'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" t="str">
-        <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B20),".","_"),"=""", 'Fenetre Corpus'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" t="str">
-        <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B2),".","_"),"=""", 'Fenetre Creation texte'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" t="str">
-        <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B3),".","_"),"=""", 'Fenetre Creation texte'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_TITLE="window.create.text.title";</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" t="str">
-        <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B4),".","_"),"=""", 'Fenetre Creation texte'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_ACTION_PANEL_TITLE="window.create.text.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" t="str">
-        <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B5),".","_"),"=""", 'Fenetre Creation texte'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_AND_QUIT_TEXT_BUTTON_TITLE="window.create.text.action.create.and.quit.text.button.title";</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" t="str">
-        <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B6),".","_"),"=""", 'Fenetre Creation texte'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_TEXT_AND_ADD_TEXT_BUTTON_TITLE="window.create.text.action.create.text.and.add.text.button.title";</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" t="str">
-        <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B7),".","_"),"=""", 'Fenetre Creation texte'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_CREATE_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.create.text.action.fill.specific.button.title";</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" t="str">
-        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B8),".","_"),"=""", 'Fenetre Creation texte'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" t="str">
-        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B9),".","_"),"=""", 'Fenetre Creation texte'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" t="str">
-        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B10),".","_"),"=""", 'Fenetre Creation texte'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" t="str">
-        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B11),".","_"),"=""", 'Fenetre Creation texte'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" t="str">
-        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B12),".","_"),"=""", 'Fenetre Creation texte'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" t="str">
-        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B13),".","_"),"=""", 'Fenetre Creation texte'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="str">
-        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B14),".","_"),"=""", 'Fenetre Creation texte'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" t="str">
-        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B15),".","_"),"=""", 'Fenetre Creation texte'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" t="str">
-        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B16),".","_"),"=""", 'Fenetre Creation texte'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" t="str">
-        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B17),".","_"),"=""", 'Fenetre Creation texte'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" t="str">
-        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B18),".","_"),"=""", 'Fenetre Creation texte'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" t="str">
-        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B19),".","_"),"=""", 'Fenetre Creation texte'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" t="str">
-        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B20),".","_"),"=""", 'Fenetre Creation texte'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" t="str">
-        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B21),".","_"),"=""", 'Fenetre Creation texte'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" t="str">
-        <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B2),".","_"),"=""", 'Fenetre Gerer les textes'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" t="str">
-        <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B3),".","_"),"=""", 'Fenetre Gerer les textes'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_PANEL_LABEL="window.display.texts.panel.label";</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" t="str">
-        <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B4),".","_"),"=""", 'Fenetre Gerer les textes'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_CORPUS_EDIT_BUTTON_LABEL="window.display.corpus.edit.button.label";</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" t="str">
-        <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B5),".","_"),"=""", 'Fenetre Gerer les textes'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_EDIT_BUTTON_LABEL="window.display.texts.edit.button.label";</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" t="str">
-        <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B6),".","_"),"=""", 'Fenetre Gerer les textes'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_DELETE_BUTTON_LABEL="window.display.texts.delete.button.label";</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" t="str">
-        <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B7),".","_"),"=""", 'Fenetre Gerer les textes'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_PREVIOUS_BUTTON_LABEL="window.display.texts.previous.button.label";</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" t="str">
-        <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B8),".","_"),"=""", 'Fenetre Gerer les textes'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_NEXT_BUTTON_LABEL="window.display.texts.next.button.label";</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" t="str">
-        <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B9),".","_"),"=""", 'Fenetre Gerer les textes'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_CURRENT_POSITION_LABEL="window.display.texts.current.position.label";</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" t="str">
-        <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B10),".","_"),"=""", 'Fenetre Gerer les textes'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_NB_TEXTS_BY_PAGE_LABEL="window.display.texts.nb.texts.by.page.label";</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" t="str">
-        <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B11),".","_"),"=""", 'Fenetre Gerer les textes'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_DISPLAY_TEXTS_CORPUS_LABEL="window.display.texts.corpus.label";</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" t="str">
-        <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B12),".","_"),"=""", 'Fenetre Gerer les textes'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_TITLE="window.manage.texts.title";</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" t="str">
-        <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B13),".","_"),"=""", 'Fenetre Gerer les textes'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_PANEL_TITLE="window.manage.texts.generate.excel.panel.title";</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" t="str">
-        <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B14),".","_"),"=""", 'Fenetre Gerer les textes'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_CLASSICAL_BUTTON_LABEL="window.manage.texts.generate.excel.classical.button.label";</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" t="str">
-        <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B15),".","_"),"=""", 'Fenetre Gerer les textes'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_SPECIFIC_BUTTON_LABEL="window.manage.texts.generate.excel.specific.button.label";</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" t="str">
-        <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B16),".","_"),"=""", 'Fenetre Gerer les textes'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_FILTERS_BUTTON_LABEL="window.manage.texts.filters.button.label";</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" t="str">
-        <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B17),".","_"),"=""", 'Fenetre Gerer les textes'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_TITLE="window.manage.texts.information.title";</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" t="str">
-        <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B18),".","_"),"=""", 'Fenetre Gerer les textes'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_LABEL="window.manage.texts.information.label";</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" t="str">
-        <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_EXPORT_DOCUMENT_TEXT_BUTTON_LABEL="window.manage.texts.export.document.text.button.label";</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" t="str">
-        <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B20),".","_"),"=""", 'Fenetre Gerer les textes'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" t="str">
-        <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B21),".","_"),"=""", 'Fenetre Gerer les textes'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" t="str">
-        <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B22),".","_"),"=""", 'Fenetre Gerer les textes'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" t="str">
-        <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B23),".","_"),"=""", 'Fenetre Gerer les textes'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" t="str">
-        <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B24),".","_"),"=""", 'Fenetre Gerer les textes'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="str">
-        <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B25),".","_"),"=""", 'Fenetre Gerer les textes'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" t="str">
-        <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B26),".","_"),"=""", 'Fenetre Gerer les textes'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" t="str">
-        <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B27),".","_"),"=""", 'Fenetre Gerer les textes'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" t="str">
-        <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B2),".","_"),"=""", 'Fenetre filtre texte'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" t="str">
-        <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B3),".","_"),"=""", 'Fenetre filtre texte'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FILTER_TYPE_CONTAINS="window.filter.type.CONTAINS";</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" t="str">
-        <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B4),".","_"),"=""", 'Fenetre filtre texte'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_FILTER_TYPE_EQUAL="window.filter.type.EQUAL";</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" t="str">
-        <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B5),".","_"),"=""", 'Fenetre filtre texte'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_GLOBAL_PANEL_TITLE="window.manage.filters.global.panel.title";</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" t="str">
-        <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B6),".","_"),"=""", 'Fenetre filtre texte'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_PANEL_TITLE="window.manage.filters.panel.title";</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" t="str">
-        <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B7),".","_"),"=""", 'Fenetre filtre texte'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_TYPE_FILTER_LABEL="window.manage.filters.type.filter.label";</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" t="str">
-        <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B8),".","_"),"=""", 'Fenetre filtre texte'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_VALUE_FILTER_LABEL="window.manage.filters.value.filter.label";</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" t="str">
-        <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B9),".","_"),"=""", 'Fenetre filtre texte'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_ADD_FILTER_BUTTON_LABEL="window.manage.filters.add.filter.button.label";</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" t="str">
-        <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B10),".","_"),"=""", 'Fenetre filtre texte'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_PANEL_TITLE="window.manage.filters.corpus.panel.title";</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" t="str">
-        <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B11),".","_"),"=""", 'Fenetre filtre texte'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_VALUE_LABEL="window.manage.filters.corpus.value.label";</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" t="str">
-        <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B12),".","_"),"=""", 'Fenetre filtre texte'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_PANEL_TITLE="window.manage.filters.action.panel.title";</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" t="str">
-        <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B13),".","_"),"=""", 'Fenetre filtre texte'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_APPLY_BUTTON_LABEL="window.manage.filters.action.apply.button.label";</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" t="str">
-        <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B14),".","_"),"=""", 'Fenetre filtre texte'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_ALL_LABEL="window.manage.filters.corpus.all.label";</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" t="str">
-        <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B15),".","_"),"=""", 'Fenetre filtre texte'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_FILTERS_DELETE_FILTER_BUTTON_LABEL="window.manage.filters.delete.filter.button.label";</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" t="str">
-        <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B16),".","_"),"=""", 'Fenetre filtre texte'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" t="str">
-        <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B17),".","_"),"=""", 'Fenetre filtre texte'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" t="str">
-        <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B18),".","_"),"=""", 'Fenetre filtre texte'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" t="str">
-        <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B19),".","_"),"=""", 'Fenetre filtre texte'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" t="str">
-        <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B20),".","_"),"=""", 'Fenetre filtre texte'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" t="str">
-        <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B21),".","_"),"=""", 'Fenetre filtre texte'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" t="str">
-        <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B22),".","_"),"=""", 'Fenetre filtre texte'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" t="str">
-        <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B23),".","_"),"=""", 'Fenetre filtre texte'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" t="str">
-        <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B24),".","_"),"=""", 'Fenetre filtre texte'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" t="str">
-        <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B25),".","_"),"=""", 'Fenetre filtre texte'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" t="str">
-        <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B2),".","_"),"=""", 'Exporter Excel Reference'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" t="str">
-        <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B3),".","_"),"=""", 'Exporter Excel Reference'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FILE_PICKER_CLASSICAL_PANEL_TITLE="window.file.picker.classical.panel.title";</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" t="str">
-        <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B4),".","_"),"=""", 'Exporter Excel Reference'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_PANEL_TITLE="window.save.excel.classical.panel.title";</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" t="str">
-        <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B5),".","_"),"=""", 'Exporter Excel Reference'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TITLE="window.save.excel.classical.information.panel.title";</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" t="str">
-        <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B6),".","_"),"=""", 'Exporter Excel Reference'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.classical.information.panel.text.nothing";</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" t="str">
-        <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B7),".","_"),"=""", 'Exporter Excel Reference'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT="window.save.excel.classical.information.panel.text";</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" t="str">
-        <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B8),".","_"),"=""", 'Exporter Excel Reference'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_CHECK_LABEL="window.save.excel.specific.check.label";</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" t="str">
-        <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B9),".","_"),"=""", 'Exporter Excel Reference'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_REFERENCE_FILE_LABEL="window.save.excel.reference.file.label";</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" t="str">
-        <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B10),".","_"),"=""", 'Exporter Excel Reference'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" t="str">
-        <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B11),".","_"),"=""", 'Exporter Excel Reference'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" t="str">
-        <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B12),".","_"),"=""", 'Exporter Excel Reference'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_TITLE_PANEL="window.save.excel.options.title.panel";</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" t="str">
-        <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B13),".","_"),"=""", 'Exporter Excel Reference'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_HEADER_LABEL="window.save.excel.options.header.label";</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" t="str">
-        <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B14),".","_"),"=""", 'Exporter Excel Reference'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" t="str">
-        <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B15),".","_"),"=""", 'Exporter Excel Reference'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" t="str">
-        <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B16),".","_"),"=""", 'Exporter Excel Reference'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_TITLE_PANEL="window.save.excel.action.title.panel";</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" t="str">
-        <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B17),".","_"),"=""", 'Exporter Excel Reference'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_BUTTON_LABEL="window.save.excel.action.button.label";</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" t="str">
-        <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B18),".","_"),"=""", 'Exporter Excel Reference'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" t="str">
-        <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B19),".","_"),"=""", 'Exporter Excel Reference'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" t="str">
-        <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B20),".","_"),"=""", 'Exporter Excel Reference'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_FILE_PICKER_PANEL_LABEL="window.file.picker.panel.label";</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" t="str">
-        <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B21),".","_"),"=""", 'Exporter Excel Reference'!B21,""";"),"")</f>
-        <v>public static final String WINDOW_FILE_PICKER_PANEL_BUTTON="window.file.picker.panel.button";</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" t="str">
-        <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B22),".","_"),"=""", 'Exporter Excel Reference'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" t="str">
-        <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B23),".","_"),"=""", 'Exporter Excel Reference'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" t="str">
-        <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B24),".","_"),"=""", 'Exporter Excel Reference'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" t="str">
-        <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B25),".","_"),"=""", 'Exporter Excel Reference'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" t="str">
-        <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B26),".","_"),"=""", 'Exporter Excel Reference'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" t="str">
-        <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B27),".","_"),"=""", 'Exporter Excel Reference'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" t="str">
-        <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B28),".","_"),"=""", 'Exporter Excel Reference'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" t="str">
-        <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B29),".","_"),"=""", 'Exporter Excel Reference'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" t="str">
-        <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B30),".","_"),"=""", 'Exporter Excel Reference'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" t="str">
-        <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B31),".","_"),"=""", 'Exporter Excel Reference'!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B2),".","_"),"=""", 'Exporter Excel Personnalisé'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B3),".","_"),"=""", 'Exporter Excel Personnalisé'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_FILE_PICKER_SPECIFIC_PANEL_TITLE="window.file.picker.specific.panel.title";</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B4),".","_"),"=""", 'Exporter Excel Personnalisé'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_PANEL_TITLE="window.save.excel.specific.panel.title";</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B5),".","_"),"=""", 'Exporter Excel Personnalisé'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TITLE="window.save.excel.specific.information.panel.title";</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B6),".","_"),"=""", 'Exporter Excel Personnalisé'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.specific.information.panel.text.nothing";</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B7),".","_"),"=""", 'Exporter Excel Personnalisé'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT="window.save.excel.specific.information.panel.text";</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B8),".","_"),"=""", 'Exporter Excel Personnalisé'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_PANEL_TITLE="window.save.excel.specific.list.specific.panel.title";</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B9),".","_"),"=""", 'Exporter Excel Personnalisé'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL="window.save.excel.specific.list.specific.label";</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B10),".","_"),"=""", 'Exporter Excel Personnalisé'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL_NOTHING="window.save.excel.specific.list.specific.label.nothing";</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B11),".","_"),"=""", 'Exporter Excel Personnalisé'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_FIELDS_TITLE_PANEL="window.save.excel.specific.list.fields.title.panel";</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B12),".","_"),"=""", 'Exporter Excel Personnalisé'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_FILE_LABEL="window.save.excel.specific.file.label";</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B13),".","_"),"=""", 'Exporter Excel Personnalisé'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_TITLE_PANEL="window.save.excel.specific.action.title.panel";</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B14),".","_"),"=""", 'Exporter Excel Personnalisé'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_SELECT_ALL="window.save.excel.specific.action.select.all";</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B15),".","_"),"=""", 'Exporter Excel Personnalisé'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_DESELECT_ALL="window.save.excel.specific.action.deselect.all";</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B16),".","_"),"=""", 'Exporter Excel Personnalisé'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B17),".","_"),"=""", 'Exporter Excel Personnalisé'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B18),".","_"),"=""", 'Exporter Excel Personnalisé'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B19),".","_"),"=""", 'Exporter Excel Personnalisé'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B20),".","_"),"=""", 'Exporter Excel Personnalisé'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B21),".","_"),"=""", 'Exporter Excel Personnalisé'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B22),".","_"),"=""", 'Exporter Excel Personnalisé'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B23),".","_"),"=""", 'Exporter Excel Personnalisé'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B24),".","_"),"=""", 'Exporter Excel Personnalisé'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" t="str">
-        <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B25),".","_"),"=""", 'Exporter Excel Personnalisé'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" t="str">
-        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B2),".","_"),"=""", Autres!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" t="str">
-        <f>IF(Autres!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B3),".","_"),"=""", Autres!B3,""";"),"")</f>
-        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_ANSWER="window.recovery.error.state.answer";</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" t="str">
-        <f>IF(Autres!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B4),".","_"),"=""", Autres!B4,""";"),"")</f>
-        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_TITLE="window.recovery.error.state.title";</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" t="str">
-        <f>IF(Autres!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B5),".","_"),"=""", Autres!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" t="str">
-        <f>IF(Autres!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B6),".","_"),"=""", Autres!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" t="str">
-        <f>IF(Autres!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B7),".","_"),"=""", Autres!B7,""";"),"")</f>
-        <v>public static final String WINDOW_INFORMATION_PANEL_LABEL="window.information.panel.label";</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" t="str">
-        <f>IF(Autres!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B8),".","_"),"=""", Autres!B8,""";"),"")</f>
-        <v>public static final String WINDOW_INFORMATION_MESSAGE_PANEL_LABEL="window.information.message.panel.label";</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" t="str">
-        <f>IF(Autres!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B9),".","_"),"=""", Autres!B9,""";"),"")</f>
-        <v>public static final String WINDOW_INFORMATION_ACTION_PANEL_LABEL="window.information.action.panel.label";</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" t="str">
-        <f>IF(Autres!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B10),".","_"),"=""", Autres!B10,""";"),"")</f>
-        <v>public static final String WINDOW_INFORMATION_ACTION_BUTTON_LABEL="window.information.action.button.label";</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" t="str">
-        <f>IF(Autres!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B11),".","_"),"=""", Autres!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" t="str">
-        <f>IF(Autres!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B12),".","_"),"=""", Autres!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" t="str">
-        <f>IF(Autres!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B13),".","_"),"=""", Autres!B13,""";"),"")</f>
-        <v>public static final String WINDOW_MESSAGE_ERROR_MOVE_FILE_EXISTS="window.message.error.move.file.exists";</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" t="str">
-        <f>IF(Autres!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B14),".","_"),"=""", Autres!B14,""";"),"")</f>
-        <v>public static final String WINDOW_MESSAGE_RESULT_MOVE_FILE="window.message.result.move.file";</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" t="str">
-        <f>IF(Autres!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B15),".","_"),"=""", Autres!B15,""";"),"")</f>
-        <v>public static final String WINDOW_MESSAGE_UNKNOW_ERROR="window.message.unknow.error";</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" t="str">
-        <f>IF(Autres!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B16),".","_"),"=""", Autres!B16,""";"),"")</f>
-        <v>public static final String WINDOW_MESSAGE_FROM="window.message.from";</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" t="str">
-        <f>IF(Autres!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B17),".","_"),"=""", Autres!B17,""";"),"")</f>
-        <v>public static final String WINDOW_MESSAGE_TO="window.message.to";</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" t="str">
-        <f>IF(Autres!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B18),".","_"),"=""", Autres!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" t="str">
-        <f>IF(Autres!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B19),".","_"),"=""", Autres!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" t="str">
-        <f>IF(Autres!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B20),".","_"),"=""", Autres!B20,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_TITLE="window.manage.texts.delete.text.action.message.title";</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" t="str">
-        <f>IF(Autres!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B21),".","_"),"=""", Autres!B21,""";"),"")</f>
-        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_CONTENT="window.manage.texts.delete.text.action.message.content";</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" t="str">
-        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B22),".","_"),"=""", Autres!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" t="str">
-        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B23),".","_"),"=""", Autres!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" t="str">
-        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B24),".","_"),"=""", Autres!B24,""";"),"")</f>
-        <v>public static final String WINDOW_WIZARD_NAVIGATION_PANEL_TITLE="window.wizard.navigation.panel.title";</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" t="str">
-        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B25),".","_"),"=""", Autres!B25,""";"),"")</f>
-        <v>public static final String WINDOW_WIZARD_NAVIGATION_PREVIOUS_BUTTON_LABEL="window.wizard.navigation.previous.button.label";</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" t="str">
-        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B26),".","_"),"=""", Autres!B26,""";"),"")</f>
-        <v>public static final String WINDOW_WIZARD_NAVIGATION_NEXT_BUTTON_LABEL="window.wizard.navigation.next.button.label";</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" t="str">
-        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B27),".","_"),"=""", Autres!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" t="str">
-        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B28),".","_"),"=""", Autres!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" t="str">
-        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B29),".","_"),"=""", Autres!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" t="str">
-        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B30),".","_"),"=""", Autres!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" t="str">
-        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B31),".","_"),"=""", Autres!B31,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" t="str">
-        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B32),".","_"),"=""", Autres!B32,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" t="str">
-        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B33),".","_"),"=""", Autres!B33,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" t="str">
-        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B34),".","_"),"=""", Autres!B34,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" t="str">
-        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B35),".","_"),"=""", Autres!B35,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" t="str">
-        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B2),".","_"),"=""", 'Changer Configuration'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" t="str">
-        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B3),".","_"),"=""", 'Changer Configuration'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_TITLE="window.change.configuration.title";</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" t="str">
-        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B4),".","_"),"=""", 'Changer Configuration'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_LIST_LABEL="window.change.configuration.list.label";</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" t="str">
-        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B5),".","_"),"=""", 'Changer Configuration'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_PANEL_TITLE="window.change.configuration.panel.title";</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" t="str">
-        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B6),".","_"),"=""", 'Changer Configuration'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_PANEL_TITLE="window.change.configuration.message.panel.title";</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" t="str">
-        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B7),".","_"),"=""", 'Changer Configuration'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_CONTENT="window.change.configuration.message.content";</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" t="str">
-        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B8),".","_"),"=""", 'Changer Configuration'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_APPLY_AND_CLOSE="window.change.configuration.button.apply.and.close";</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" t="str">
-        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B9),".","_"),"=""", 'Changer Configuration'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_CLOSE="window.change.configuration.button.close";</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" t="str">
-        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B10),".","_"),"=""", 'Changer Configuration'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTONS_PANEL_TITLE="window.change.configuration.buttons.panel.title";</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" t="str">
-        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B11),".","_"),"=""", 'Changer Configuration'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" t="str">
-        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B12),".","_"),"=""", 'Changer Configuration'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" t="str">
-        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B13),".","_"),"=""", 'Changer Configuration'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" t="str">
-        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B14),".","_"),"=""", 'Changer Configuration'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" t="str">
-        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B15),".","_"),"=""", 'Changer Configuration'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" t="str">
-        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B16),".","_"),"=""", 'Changer Configuration'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" t="str">
-        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B17),".","_"),"=""", 'Changer Configuration'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" t="str">
-        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B18),".","_"),"=""", 'Changer Configuration'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" t="str">
-        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B19),".","_"),"=""", 'Changer Configuration'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" t="str">
-        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B20),".","_"),"=""", 'Changer Configuration'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" t="str">
-        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B21),".","_"),"=""", 'Changer Configuration'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" t="str">
-        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B22),".","_"),"=""", 'Changer Configuration'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" t="str">
-        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B23),".","_"),"=""", 'Changer Configuration'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" t="str">
-        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B2),".","_"),"=""", 'A propos'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" t="str">
-        <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B3),".","_"),"=""", 'A propos'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_ABOUT_TITLE="window.about.title";</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" t="str">
-        <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B4),".","_"),"=""", 'A propos'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_ABOUT_MESSAGE_CONTENT="window.about.message.content";</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" t="str">
-        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B5),".","_"),"=""", 'A propos'!B5,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" t="str">
-        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B6),".","_"),"=""", 'A propos'!B6,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" t="str">
-        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B7),".","_"),"=""", 'A propos'!B7,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" t="str">
-        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B8),".","_"),"=""", 'A propos'!B8,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" t="str">
-        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B9),".","_"),"=""", 'A propos'!B9,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" t="str">
-        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B10),".","_"),"=""", 'A propos'!B10,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" t="str">
-        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B11),".","_"),"=""", 'A propos'!B11,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" t="str">
-        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B12),".","_"),"=""", 'A propos'!B12,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" t="str">
-        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B13),".","_"),"=""", 'A propos'!B13,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" t="str">
-        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B14),".","_"),"=""", 'A propos'!B14,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" t="str">
-        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B15),".","_"),"=""", 'A propos'!B15,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" t="str">
-        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B16),".","_"),"=""", 'A propos'!B16,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" t="str">
-        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B17),".","_"),"=""", 'A propos'!B17,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" t="str">
-        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B18),".","_"),"=""", 'A propos'!B18,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" t="str">
-        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B19),".","_"),"=""", 'A propos'!B19,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" t="str">
-        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B20),".","_"),"=""", 'A propos'!B20,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" t="str">
-        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B21),".","_"),"=""", 'A propos'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" t="str">
-        <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B22),".","_"),"=""", 'A propos'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" t="str">
-        <f>IF('A propos'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B23),".","_"),"=""", 'A propos'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" t="str">
-        <f>IF('A propos'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B24),".","_"),"=""", 'A propos'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" t="str">
-        <f>IF('Export Document Materiel'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B2),".","_"),"=""", 'Export Document Materiel'!B2,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" t="str">
-        <f>IF('Export Document Materiel'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B3),".","_"),"=""", 'Export Document Materiel'!B3,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_TITLE="window.export.document.title";</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" t="str">
-        <f>IF('Export Document Materiel'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B4),".","_"),"=""", 'Export Document Materiel'!B4,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_PANEL_TITLE="window.export.document.choose.directory.panel.title";</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" t="str">
-        <f>IF('Export Document Materiel'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B5),".","_"),"=""", 'Export Document Materiel'!B5,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_LABEL="window.export.document.choose.directory.label";</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" t="str">
-        <f>IF('Export Document Materiel'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B6),".","_"),"=""", 'Export Document Materiel'!B6,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_PANEL_TITLE="window.export.document.mode.panel.title";</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" t="str">
-        <f>IF('Export Document Materiel'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B7),".","_"),"=""", 'Export Document Materiel'!B7,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_DOCUMENT_LABEL="window.export.document.mode.document.label";</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" t="str">
-        <f>IF('Export Document Materiel'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B8),".","_"),"=""", 'Export Document Materiel'!B8,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_ALL_DOCUMENTS_LABEL="window.export.document.mode.all.documents.label";</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" t="str">
-        <f>IF('Export Document Materiel'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B9),".","_"),"=""", 'Export Document Materiel'!B9,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_MODE_RESULT_SEARCH_LABEL="window.export.document.mode.result.search.label";</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" t="str">
-        <f>IF('Export Document Materiel'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B10),".","_"),"=""", 'Export Document Materiel'!B10,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DOCUMENT_PANEL_TITLE="window.export.document.choose.document.panel.title";</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" t="str">
-        <f>IF('Export Document Materiel'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B11),".","_"),"=""", 'Export Document Materiel'!B11,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DOCUMENT_LABEL="window.export.document.choose.document.label";</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" t="str">
-        <f>IF('Export Document Materiel'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B12),".","_"),"=""", 'Export Document Materiel'!B12,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_FILE_PANEL_TITLE="window.export.document.choose.file.panel.title";</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" t="str">
-        <f>IF('Export Document Materiel'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B13),".","_"),"=""", 'Export Document Materiel'!B13,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_FILE_LABEL="window.export.document.choose.file.label";</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" t="str">
-        <f>IF('Export Document Materiel'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B14),".","_"),"=""", 'Export Document Materiel'!B14,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_PANEL_TITLE="window.export.document.button.panel.title";</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" t="str">
-        <f>IF('Export Document Materiel'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B15),".","_"),"=""", 'Export Document Materiel'!B15,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_EXPORT_LABEL="window.export.document.button.export.label";</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" t="str">
-        <f>IF('Export Document Materiel'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B16),".","_"),"=""", 'Export Document Materiel'!B16,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_MESSAGE_TITLE="window.export.document.information.message.title";</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" t="str">
-        <f>IF('Export Document Materiel'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B17),".","_"),"=""", 'Export Document Materiel'!B17,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_MESSAGE="window.export.document.information.message";</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" t="str">
-        <f>IF('Export Document Materiel'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B18),".","_"),"=""", 'Export Document Materiel'!B18,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_BUTTON_CLOSE_LABEL="window.export.document.button.close.label";</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" t="str">
-        <f>IF('Export Document Materiel'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B19),".","_"),"=""", 'Export Document Materiel'!B19,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_DIALOG_TITLE="window.export.document.choose.directory.dialog.title";</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" t="str">
-        <f>IF('Export Document Materiel'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B20),".","_"),"=""", 'Export Document Materiel'!B20,""";"),"")</f>
-        <v>public static final String WINDOW_EXPORT_DOCUMENT_INFORMATION_SEARCH_MESSAGE="window.export.document.information.search.message";</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" t="str">
-        <f>IF('Export Document Materiel'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B21),".","_"),"=""", 'Export Document Materiel'!B21,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" t="str">
-        <f>IF('Export Document Materiel'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B22),".","_"),"=""", 'Export Document Materiel'!B22,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" t="str">
-        <f>IF('Export Document Materiel'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B23),".","_"),"=""", 'Export Document Materiel'!B23,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" t="str">
-        <f>IF('Export Document Materiel'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B24),".","_"),"=""", 'Export Document Materiel'!B24,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" t="str">
-        <f>IF('Export Document Materiel'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B25),".","_"),"=""", 'Export Document Materiel'!B25,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" t="str">
-        <f>IF('Export Document Materiel'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B26),".","_"),"=""", 'Export Document Materiel'!B26,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" t="str">
-        <f>IF('Export Document Materiel'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B27),".","_"),"=""", 'Export Document Materiel'!B27,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" t="str">
-        <f>IF('Export Document Materiel'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B28),".","_"),"=""", 'Export Document Materiel'!B28,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" t="str">
-        <f>IF('Export Document Materiel'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B29),".","_"),"=""", 'Export Document Materiel'!B29,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" t="str">
-        <f>IF('Export Document Materiel'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B30),".","_"),"=""", 'Export Document Materiel'!B30,""";"),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" t="str">
-        <f>IF('Export Document Materiel'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B31),".","_"),"=""", 'Export Document Materiel'!B31,""";"),"")</f>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f>IF('Erreur incoherence'!B2&lt;&gt;"",CONCATENATE('Erreur incoherence'!B2,"=", 'Erreur incoherence'!D2),IF('Erreur incoherence'!D2&lt;&gt;"",'Erreur incoherence'!D2,""))</f>
+        <v>#Mensaje para el cambio de configuración</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f>IF('Erreur incoherence'!B3&lt;&gt;"",CONCATENATE('Erreur incoherence'!B3,"=", 'Erreur incoherence'!D3),IF('Erreur incoherence'!D3&lt;&gt;"",'Erreur incoherence'!D3,""))</f>
+        <v>window.error.inconsistency.title=Errores de inconsistencia</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f>IF('Erreur incoherence'!B4&lt;&gt;"",CONCATENATE('Erreur incoherence'!B4,"=", 'Erreur incoherence'!D4),IF('Erreur incoherence'!D4&lt;&gt;"",'Erreur incoherence'!D4,""))</f>
+        <v>window.error.inconsistency.panel.title=Lista de inconsistencias</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f>IF('Erreur incoherence'!B5&lt;&gt;"",CONCATENATE('Erreur incoherence'!B5,"=", 'Erreur incoherence'!D5),IF('Erreur incoherence'!D5&lt;&gt;"",'Erreur incoherence'!D5,""))</f>
+        <v>window.error.inconsistency.old.field.label=Etiqueta vieja :</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f>IF('Erreur incoherence'!B6&lt;&gt;"",CONCATENATE('Erreur incoherence'!B6,"=", 'Erreur incoherence'!D6),IF('Erreur incoherence'!D6&lt;&gt;"",'Erreur incoherence'!D6,""))</f>
+        <v>window.error.inconsistency.new.field.label=Etiqueta nueva :</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f>IF('Erreur incoherence'!B7&lt;&gt;"",CONCATENATE('Erreur incoherence'!B7,"=", 'Erreur incoherence'!D7),IF('Erreur incoherence'!D7&lt;&gt;"",'Erreur incoherence'!D7,""))</f>
+        <v>window.error.inconsistency.number.line.label=Número de línea :</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f>IF('Erreur incoherence'!B8&lt;&gt;"",CONCATENATE('Erreur incoherence'!B8,"=", 'Erreur incoherence'!D8),IF('Erreur incoherence'!D8&lt;&gt;"",'Erreur incoherence'!D8,""))</f>
+        <v>window.error.inconsistency.message.panel.title=Mensaje informativo</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f>IF('Erreur incoherence'!B9&lt;&gt;"",CONCATENATE('Erreur incoherence'!B9,"=", 'Erreur incoherence'!D9),IF('Erreur incoherence'!D9&lt;&gt;"",'Erreur incoherence'!D9,""))</f>
+        <v>window.error.inconsistency.message=&lt;HTML&gt;&lt;P&gt;Se detectaron errores de incoherencia.&lt;BR/&gt;Esto puede causar discrepancias en la información.&lt;BR/&gt;Debe corregir la información manualmente.&lt;/P&gt;&lt;/HTML&gt;</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f>IF('Erreur incoherence'!B10&lt;&gt;"",CONCATENATE('Erreur incoherence'!B10,"=", 'Erreur incoherence'!D10),IF('Erreur incoherence'!D10&lt;&gt;"",'Erreur incoherence'!D10,""))</f>
+        <v>window.error.inconsistency.buttons.panel.title=Acciones</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f>IF('Erreur incoherence'!B11&lt;&gt;"",CONCATENATE('Erreur incoherence'!B11,"=", 'Erreur incoherence'!D11),IF('Erreur incoherence'!D11&lt;&gt;"",'Erreur incoherence'!D11,""))</f>
+        <v>window.error.inconsistency.buttons.close.button.label=Cerrar</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f>IF('Erreur incoherence'!B12&lt;&gt;"",CONCATENATE('Erreur incoherence'!B12,"=", 'Erreur incoherence'!D12),IF('Erreur incoherence'!D12&lt;&gt;"",'Erreur incoherence'!D12,""))</f>
+        <v>window.error.inconsistency.liste.label=Lista de inconsistencias</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f>IF('Erreur incoherence'!B13&lt;&gt;"",CONCATENATE('Erreur incoherence'!B13,"=", 'Erreur incoherence'!D13),IF('Erreur incoherence'!D13&lt;&gt;"",'Erreur incoherence'!D13,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f>IF('Erreur incoherence'!B14&lt;&gt;"",CONCATENATE('Erreur incoherence'!B14,"=", 'Erreur incoherence'!D14),IF('Erreur incoherence'!D14&lt;&gt;"",'Erreur incoherence'!D14,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f>IF('Erreur incoherence'!B15&lt;&gt;"",CONCATENATE('Erreur incoherence'!B15,"=", 'Erreur incoherence'!D15),IF('Erreur incoherence'!D15&lt;&gt;"",'Erreur incoherence'!D15,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f>IF('Erreur incoherence'!B16&lt;&gt;"",CONCATENATE('Erreur incoherence'!B16,"=", 'Erreur incoherence'!D16),IF('Erreur incoherence'!D16&lt;&gt;"",'Erreur incoherence'!D16,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f>IF('Erreur incoherence'!B17&lt;&gt;"",CONCATENATE('Erreur incoherence'!B17,"=", 'Erreur incoherence'!D17),IF('Erreur incoherence'!D17&lt;&gt;"",'Erreur incoherence'!D17,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f>IF('Erreur incoherence'!B18&lt;&gt;"",CONCATENATE('Erreur incoherence'!B18,"=", 'Erreur incoherence'!D18),IF('Erreur incoherence'!D18&lt;&gt;"",'Erreur incoherence'!D18,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f>IF('Erreur incoherence'!B19&lt;&gt;"",CONCATENATE('Erreur incoherence'!B19,"=", 'Erreur incoherence'!D19),IF('Erreur incoherence'!D19&lt;&gt;"",'Erreur incoherence'!D19,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f>IF('Erreur incoherence'!B20&lt;&gt;"",CONCATENATE('Erreur incoherence'!B20,"=", 'Erreur incoherence'!D20),IF('Erreur incoherence'!D20&lt;&gt;"",'Erreur incoherence'!D20,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f>IF('Erreur incoherence'!B21&lt;&gt;"",CONCATENATE('Erreur incoherence'!B21,"=", 'Erreur incoherence'!D21),IF('Erreur incoherence'!D21&lt;&gt;"",'Erreur incoherence'!D21,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f>IF('Erreur incoherence'!B22&lt;&gt;"",CONCATENATE('Erreur incoherence'!B22,"=", 'Erreur incoherence'!D22),IF('Erreur incoherence'!D22&lt;&gt;"",'Erreur incoherence'!D22,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f>IF('Erreur incoherence'!B23&lt;&gt;"",CONCATENATE('Erreur incoherence'!B23,"=", 'Erreur incoherence'!D23),IF('Erreur incoherence'!D23&lt;&gt;"",'Erreur incoherence'!D23,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f>IF('Erreur incoherence'!B24&lt;&gt;"",CONCATENATE('Erreur incoherence'!B24,"=", 'Erreur incoherence'!D24),IF('Erreur incoherence'!D24&lt;&gt;"",'Erreur incoherence'!D24,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f>IF('Erreur incoherence'!B25&lt;&gt;"",CONCATENATE('Erreur incoherence'!B25,"=", 'Erreur incoherence'!D25),IF('Erreur incoherence'!D25&lt;&gt;"",'Erreur incoherence'!D25,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f>IF('Erreur incoherence'!B26&lt;&gt;"",CONCATENATE('Erreur incoherence'!B26,"=", 'Erreur incoherence'!D26),IF('Erreur incoherence'!D26&lt;&gt;"",'Erreur incoherence'!D26,""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f>IF('Erreur incoherence'!B27&lt;&gt;"",CONCATENATE('Erreur incoherence'!B27,"=", 'Erreur incoherence'!D27),IF('Erreur incoherence'!D27&lt;&gt;"",'Erreur incoherence'!D27,""))</f>
         <v/>
       </c>
     </row>
@@ -34391,6 +32427,2766 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D328A7A9-8E5F-4F10-88B1-0A63B886F3D8}">
+  <dimension ref="A1:A457"/>
+  <sheetViews>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A434" sqref="A434:A442"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>IF('Fenêtre principal'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B2),".","_"),"=""", 'Fenêtre principal'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f>IF('Fenêtre principal'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B3),".","_"),"=""", 'Fenêtre principal'!B3,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>IF('Fenêtre principal'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B4),".","_"),"=""", 'Fenêtre principal'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>IF('Fenêtre principal'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B5),".","_"),"=""", 'Fenêtre principal'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_PRINCIPAL_TITLE="window.principal.title";</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>IF('Fenêtre principal'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B6),".","_"),"=""", 'Fenêtre principal'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>IF('Fenêtre principal'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B7),".","_"),"=""", 'Fenêtre principal'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>IF('Fenêtre principal'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B8),".","_"),"=""", 'Fenêtre principal'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_TITLE="window.menu.level1.title";</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>IF('Fenêtre principal'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B9),".","_"),"=""", 'Fenêtre principal'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL1_TITLE="window.menu.level1.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>IF('Fenêtre principal'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B10),".","_"),"=""", 'Fenêtre principal'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL2_TITLE="window.menu.level1.sublevel2.title";</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>IF('Fenêtre principal'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B11),".","_"),"=""", 'Fenêtre principal'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL3_TITLE="window.menu.level1.sublevel3.title";</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>IF('Fenêtre principal'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B12),".","_"),"=""", 'Fenêtre principal'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL1_SUBLEVEL4_TITLE="window.menu.level1.sublevel4.title";</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>IF('Fenêtre principal'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B13),".","_"),"=""", 'Fenêtre principal'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL2_TITLE="window.menu.level2.title";</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>IF('Fenêtre principal'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B14),".","_"),"=""", 'Fenêtre principal'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL3_TITLE="window.menu.level3.title";</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>IF('Fenêtre principal'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B15),".","_"),"=""", 'Fenêtre principal'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL3_SUBLEVEL1_TITLE="window.menu.level3.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>IF('Fenêtre principal'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B16),".","_"),"=""", 'Fenêtre principal'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_TITLE="window.menu.level5.title";</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>IF('Fenêtre principal'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B17),".","_"),"=""", 'Fenêtre principal'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL1_TITLE="window.menu.level5.sublevel1.title";</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>IF('Fenêtre principal'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B18),".","_"),"=""", 'Fenêtre principal'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL2_TITLE="window.menu.level5.sublevel2.title";</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>IF('Fenêtre principal'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B19),".","_"),"=""", 'Fenêtre principal'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_MENU_LEVEL5_SUBLEVEL3_TITLE="window.menu.level5.sublevel3.title";</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>IF('Fenêtre principal'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B20),".","_"),"=""", 'Fenêtre principal'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>IF('Fenêtre principal'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B21),".","_"),"=""", 'Fenêtre principal'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>IF('Fenêtre principal'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B22),".","_"),"=""", 'Fenêtre principal'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_CONFIGURATION_LIBRARY_PANEL_STATE_LABEL="window.main.configuration.library.panel.state.label";</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>IF('Fenêtre principal'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B23),".","_"),"=""", 'Fenêtre principal'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_TITLE="window.main.analyze.panel.title";</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>IF('Fenêtre principal'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B24),".","_"),"=""", 'Fenêtre principal'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LABEL="window.main.analyze.panel.state.label";</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>IF('Fenêtre principal'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B25),".","_"),"=""", 'Fenêtre principal'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_NONE="window.main.analyze.panel.state.value.none";</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>IF('Fenêtre principal'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B26),".","_"),"=""", 'Fenêtre principal'!B26,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_VALUE_SUCCESS="window.main.analyze.panel.state.value.success";</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>IF('Fenêtre principal'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B27),".","_"),"=""", 'Fenêtre principal'!B27,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_FOLDER_LABEL="window.main.analyze.panel.state.folder.label";</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>IF('Fenêtre principal'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B28),".","_"),"=""", 'Fenêtre principal'!B28,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CONFIGURATION_LABEL="window.main.analyze.panel.state.configuration.label";</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>IF('Fenêtre principal'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B29),".","_"),"=""", 'Fenêtre principal'!B29,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_LOAD_BUTTON="window.main.analyze.panel.state.load.button";</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>IF('Fenêtre principal'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B30),".","_"),"=""", 'Fenêtre principal'!B30,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_NB_TEXT_LOADED_LABEL="window.main.analyze.panel.state.nb.text.loaded.label";</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>IF('Fenêtre principal'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B31),".","_"),"=""", 'Fenêtre principal'!B31,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_PANEL_TITLE="window.main.line.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>IF('Fenêtre principal'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B32),".","_"),"=""", 'Fenêtre principal'!B32,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_NB_LABEL="window.main.line.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>IF('Fenêtre principal'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B33),".","_"),"=""", 'Fenêtre principal'!B33,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>IF('Fenêtre principal'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B34),".","_"),"=""", 'Fenêtre principal'!B34,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_PANEL_TITLE="window.main.text.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>IF('Fenêtre principal'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B35),".","_"),"=""", 'Fenêtre principal'!B35,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_NB_LABEL="window.main.text.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>IF('Fenêtre principal'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B36),".","_"),"=""", 'Fenêtre principal'!B36,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_TEXT_ERROR_FIXED_BUTTON_LABEL="window.main.text.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>IF('Fenêtre principal'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B37),".","_"),"=""", 'Fenêtre principal'!B37,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_PANEL_TITLE="window.main.blank.line.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>IF('Fenêtre principal'!B38&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B38),".","_"),"=""", 'Fenêtre principal'!B38,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_NB_LABEL="window.main.blank.line.error.nb.label";</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>IF('Fenêtre principal'!B39&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B39),".","_"),"=""", 'Fenêtre principal'!B39,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.blank.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>IF('Fenêtre principal'!B40&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B40),".","_"),"=""", 'Fenêtre principal'!B40,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_LABEL="window.main.meta.blank.line.error.label";</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>IF('Fenêtre principal'!B41&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B41),".","_"),"=""", 'Fenêtre principal'!B41,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_META_BLANK_LINE_ERROR_FIXED_BUTTON_LABEL="window.main.meta.blank.line.error.fixed.button.label";</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>IF('Fenêtre principal'!B42&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B42),".","_"),"=""", 'Fenêtre principal'!B42,""";"),"")</f>
+        <v>public static final String WINDOW_YES_LABEL="window.yes.label";</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>IF('Fenêtre principal'!B43&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B43),".","_"),"=""", 'Fenêtre principal'!B43,""";"),"")</f>
+        <v>public static final String WINDOW_NO_LABEL="window.no.label";</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>IF('Fenêtre principal'!B44&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B44),".","_"),"=""", 'Fenêtre principal'!B44,""";"),"")</f>
+        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_PANEL_LABEL="window.move.file.library.panel.label";</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>IF('Fenêtre principal'!B45&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B45),".","_"),"=""", 'Fenêtre principal'!B45,""";"),"")</f>
+        <v>public static final String WINDOW_MOVE_FILE_LIBRARY_BUTTON_LABEL="window.move.file.library.button.label";</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>IF('Fenêtre principal'!B46&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B46),".","_"),"=""", 'Fenêtre principal'!B46,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_ANALYZE_PANEL_STATE_CURRENT_CONFIGURATION_LABEL="window.main.analyze.panel.state.current.configuration.label";</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>IF('Fenêtre principal'!B47&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B47),".","_"),"=""", 'Fenêtre principal'!B47,""";"),"")</f>
+        <v>public static final String MENU_ABOUT="menu.about";</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>IF('Fenêtre principal'!B48&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B48),".","_"),"=""", 'Fenêtre principal'!B48,""";"),"")</f>
+        <v>public static final String MENU_ABOUT_OPEN="menu.about.open";</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>IF('Fenêtre principal'!B49&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B49),".","_"),"=""", 'Fenêtre principal'!B49,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_INCONSISTENCY_ERROR_PANEL_TITLE="window.main.inconsistency.error.panel.title";</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>IF('Fenêtre principal'!B50&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B50),".","_"),"=""", 'Fenêtre principal'!B50,""";"),"")</f>
+        <v>public static final String WINDOW_MAIN_INCONSISTENCY_ERROR_BUTTON_LABEL="window.main.inconsistency.error.button.label";</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>IF('Fenêtre principal'!B51&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B51),".","_"),"=""", 'Fenêtre principal'!B51,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>IF('Fenêtre principal'!B52&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B52),".","_"),"=""", 'Fenêtre principal'!B52,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>IF('Fenêtre principal'!B53&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B53),".","_"),"=""", 'Fenêtre principal'!B53,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>IF('Fenêtre principal'!B54&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B54),".","_"),"=""", 'Fenêtre principal'!B54,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>IF('Fenêtre principal'!B55&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B55),".","_"),"=""", 'Fenêtre principal'!B55,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>IF('Fenêtre principal'!B56&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B56),".","_"),"=""", 'Fenêtre principal'!B56,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>IF('Fenêtre principal'!B57&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre principal'!B57),".","_"),"=""", 'Fenêtre principal'!B57,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>IF('Fenêtre erreur ligne'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B2),".","_"),"=""", 'Fenêtre erreur ligne'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>IF('Fenêtre erreur ligne'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B3),".","_"),"=""", 'Fenêtre erreur ligne'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_TITLE="window.fixed.error.line.title";</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>IF('Fenêtre erreur ligne'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B4),".","_"),"=""", 'Fenêtre erreur ligne'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_TITLE="window.fixed.error.line.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>IF('Fenêtre erreur ligne'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B5),".","_"),"=""", 'Fenêtre erreur ligne'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_ERROR_LABEL="window.fixed.error.line.content.panel.line.error.label";</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>IF('Fenêtre erreur ligne'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B6),".","_"),"=""", 'Fenêtre erreur ligne'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FIXED_LABEL="window.fixed.error.line.content.panel.line.fixed.label";</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>IF('Fenêtre erreur ligne'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B7),".","_"),"=""", 'Fenêtre erreur ligne'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_TITLE="window.fixed.error.line.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>IF('Fenêtre erreur ligne'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B8),".","_"),"=""", 'Fenêtre erreur ligne'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.next.button.label";</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>IF('Fenêtre erreur ligne'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B9),".","_"),"=""", 'Fenêtre erreur ligne'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_ACTION_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.line.action.panel.save.quit.button.label";</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>IF('Fenêtre erreur ligne'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B10),".","_"),"=""", 'Fenêtre erreur ligne'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_NUMBER_LABEL="window.fixed.error.line.content.panel.line.number.label";</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>IF('Fenêtre erreur ligne'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B11),".","_"),"=""", 'Fenêtre erreur ligne'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_CONTENT_PANEL_LINE_FILE_LABEL="window.fixed.error.line.content.panel.line.file.label";</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>IF('Fenêtre erreur ligne'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B12),".","_"),"=""", 'Fenêtre erreur ligne'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_PANEL_TITLE="window.fixed.error.line.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>IF('Fenêtre erreur ligne'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B13),".","_"),"=""", 'Fenêtre erreur ligne'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_LABEL="window.fixed.error.line.list.field.label";</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f>IF('Fenêtre erreur ligne'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B14),".","_"),"=""", 'Fenêtre erreur ligne'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_LIST_FIELD_PANEL_TITLE="window.fixed.error.line.list.field.panel.title";</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f>IF('Fenêtre erreur ligne'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B15),".","_"),"=""", 'Fenêtre erreur ligne'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE2="window.fixed.error.line.information.message.etape2";</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>IF('Fenêtre erreur ligne'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B16),".","_"),"=""", 'Fenêtre erreur ligne'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE3="window.fixed.error.line.information.message.etape3";</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>IF('Fenêtre erreur ligne'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B17),".","_"),"=""", 'Fenêtre erreur ligne'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE4="window.fixed.error.line.information.message.etape4";</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>IF('Fenêtre erreur ligne'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B18),".","_"),"=""", 'Fenêtre erreur ligne'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_PANEL_TITLE="window.fixed.error.line.selected.data.panel.title";</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>IF('Fenêtre erreur ligne'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B19),".","_"),"=""", 'Fenêtre erreur ligne'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_LABEL="window.fixed.error.line.selected.data.select.text.label";</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>IF('Fenêtre erreur ligne'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B20),".","_"),"=""", 'Fenêtre erreur ligne'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECTED_TEXT_LABEL="window.fixed.error.line.selected.data.selected.text.label";</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>IF('Fenêtre erreur ligne'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B21),".","_"),"=""", 'Fenêtre erreur ligne'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_SELECTED_DATA_SELECT_TEXT_BUTTON_LABEL="window.fixed.error.line.selected.data.select.text.button.label";</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>IF('Fenêtre erreur ligne'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B22),".","_"),"=""", 'Fenêtre erreur ligne'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_WIZARD_PANEL_TITLE="window.fixed.error.line.wizard.panel.title";</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>IF('Fenêtre erreur ligne'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B23),".","_"),"=""", 'Fenêtre erreur ligne'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_PANEL_TITLE="window.fixed.error.line.mode.panel.title";</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>IF('Fenêtre erreur ligne'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B24),".","_"),"=""", 'Fenêtre erreur ligne'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_WIZARD_LABEL="window.fixed.error.line.mode.wizard.label";</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>IF('Fenêtre erreur ligne'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B25),".","_"),"=""", 'Fenêtre erreur ligne'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_MODE_EXPERT_LABEL="window.fixed.error.line.mode.expert.label";</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>IF('Fenêtre erreur ligne'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B26),".","_"),"=""", 'Fenêtre erreur ligne'!B26,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_EXPERT="window.fixed.error.line.information.message.expert";</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>IF('Fenêtre erreur ligne'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B27),".","_"),"=""", 'Fenêtre erreur ligne'!B27,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_LINE_INFORMATION_MESSAGE_ETAPE1="window.fixed.error.line.information.message.etape1";</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>IF('Fenêtre erreur ligne'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B29),".","_"),"=""", 'Fenêtre erreur ligne'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>IF('Fenêtre erreur ligne'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B30),".","_"),"=""", 'Fenêtre erreur ligne'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>IF('Fenêtre erreur ligne'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre erreur ligne'!B28),".","_"),"=""", 'Fenêtre erreur ligne'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>IF('Correction Edit texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B3),".","_"),"=""", 'Correction Edit texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_TITLE="window.fixed.text.title";</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>IF('Correction Edit texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B4),".","_"),"=""", 'Correction Edit texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_PANEL_TITLE="window.fixed.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>IF('Correction Edit texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B5),".","_"),"=""", 'Correction Edit texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.fixed.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>IF('Correction Edit texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B6),".","_"),"=""", 'Correction Edit texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_BUTTON_TITLE="window.fixed.text.action.next.button.title";</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>IF('Correction Edit texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B7),".","_"),"=""", 'Correction Edit texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_TEXT_ACTION_NEXT_AND_SAVE_BUTTON_TITLE="window.fixed.text.action.next.and.save.button.title";</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>IF('Correction Edit texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B8),".","_"),"=""", 'Correction Edit texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>IF('Correction Edit texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B9),".","_"),"=""", 'Correction Edit texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>IF('Correction Edit texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B10),".","_"),"=""", 'Correction Edit texte'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_CONTENT_PANEL_TITLE="window.create.text.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>IF('Correction Edit texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B11),".","_"),"=""", 'Correction Edit texte'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_FILE_PANEL_TITLE="window.create.text.file.panel.title";</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>IF('Correction Edit texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B12),".","_"),"=""", 'Correction Edit texte'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_NAME_LABEL="window.create.text.name.label";</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>IF('Correction Edit texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B13),".","_"),"=""", 'Correction Edit texte'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>IF('Correction Edit texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B14),".","_"),"=""", 'Correction Edit texte'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>IF('Correction Edit texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B15),".","_"),"=""", 'Correction Edit texte'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_PANEL_TITLE="window.manage.texts.edit.text.panel.title";</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>IF('Correction Edit texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B16),".","_"),"=""", 'Correction Edit texte'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_PANEL_TITLE="window.manage.texts.edit.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>IF('Correction Edit texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B17),".","_"),"=""", 'Correction Edit texte'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.manage.texts.edit.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>IF('Correction Edit texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B18),".","_"),"=""", 'Correction Edit texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f>IF('Correction Edit texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B19),".","_"),"=""", 'Correction Edit texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f>IF('Correction Edit texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B20),".","_"),"=""", 'Correction Edit texte'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.edit.text.action.button.save.and.quit.label";</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f>IF('Correction Edit texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B21),".","_"),"=""", 'Correction Edit texte'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EDIT_TEXT_ACTION_BUTTON_QUIT_LABEL="window.manage.texts.edit.text.action.button.quit.label";</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f>IF('Correction Edit texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B22),".","_"),"=""", 'Correction Edit texte'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f>IF('Correction Edit texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B23),".","_"),"=""", 'Correction Edit texte'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f>IF('Correction Edit texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B24),".","_"),"=""", 'Correction Edit texte'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f>IF('Correction Edit texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B25),".","_"),"=""", 'Correction Edit texte'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f>IF('Correction Edit texte'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Correction Edit texte'!B26),".","_"),"=""", 'Correction Edit texte'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f>IF('Fenêtre spécifique'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B2),".","_"),"=""", 'Fenêtre spécifique'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f>IF('Fenêtre spécifique'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B3),".","_"),"=""", 'Fenêtre spécifique'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_SPECIFIC_TITLE="window.fixed.specific.title";</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f>IF('Fenêtre spécifique'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B4),".","_"),"=""", 'Fenêtre spécifique'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f>IF('Fenêtre spécifique'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B5),".","_"),"=""", 'Fenêtre spécifique'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f>IF('Fenêtre spécifique'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B6),".","_"),"=""", 'Fenêtre spécifique'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_EDIT_SPECIFIC_TITLE="window.edit.specific.title";</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f>IF('Fenêtre spécifique'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B7),".","_"),"=""", 'Fenêtre spécifique'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f>IF('Fenêtre spécifique'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B8),".","_"),"=""", 'Fenêtre spécifique'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f>IF('Fenêtre spécifique'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B9),".","_"),"=""", 'Fenêtre spécifique'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_TITLE="window.create.specific.title";</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f>IF('Fenêtre spécifique'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B10),".","_"),"=""", 'Fenêtre spécifique'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_TITLE="window.create.specific.context.panel.title";</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f>IF('Fenêtre spécifique'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B11),".","_"),"=""", 'Fenêtre spécifique'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CONTEXT_PANEL_FILE_LABEL="window.create.specific.context.panel.file.label";</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f>IF('Fenêtre spécifique'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B12),".","_"),"=""", 'Fenêtre spécifique'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_DETAILS_PANEL_TITLE="window.create.specific.details.panel.title";</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f>IF('Fenêtre spécifique'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B13),".","_"),"=""", 'Fenêtre spécifique'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_PREVIOUS_LABEL="window.create.specific.action.panel.button.previous.label";</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f>IF('Fenêtre spécifique'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B14),".","_"),"=""", 'Fenêtre spécifique'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_NEXT_LABEL="window.create.specific.action.panel.button.next.label";</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f>IF('Fenêtre spécifique'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B15),".","_"),"=""", 'Fenêtre spécifique'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_TITLE="window.create.specific.create.panel.title";</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f>IF('Fenêtre spécifique'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B16),".","_"),"=""", 'Fenêtre spécifique'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_MODIFY_LABEL="window.create.specific.create.panel.action.modify.label";</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f>IF('Fenêtre spécifique'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B17),".","_"),"=""", 'Fenêtre spécifique'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_ADD_LABEL="window.create.specific.create.panel.action.add.label";</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f>IF('Fenêtre spécifique'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B18),".","_"),"=""", 'Fenêtre spécifique'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_CREATE_PANEL_ACTION_DELETE_LABEL="window.create.specific.create.panel.action.delete.label";</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f>IF('Fenêtre spécifique'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B19),".","_"),"=""", 'Fenêtre spécifique'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_SPECIFIC_ACTION_PANEL_BUTTON_FINISH_LABEL="window.create.specific.action.panel.button.finish.label";</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f>IF('Fenêtre spécifique'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B20),".","_"),"=""", 'Fenêtre spécifique'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f>IF('Fenêtre spécifique'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B21),".","_"),"=""", 'Fenêtre spécifique'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f>IF('Fenêtre spécifique'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B22),".","_"),"=""", 'Fenêtre spécifique'!B22,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TITLE="window.specific.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f>IF('Fenêtre spécifique'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B23),".","_"),"=""", 'Fenêtre spécifique'!B23,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_INFORMATION_PANEL_TEXT="window.specific.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f>IF('Fenêtre spécifique'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B24),".","_"),"=""", 'Fenêtre spécifique'!B24,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TITLE="window.specific.warning.panel.title";</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f>IF('Fenêtre spécifique'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B25),".","_"),"=""", 'Fenêtre spécifique'!B25,""";"),"")</f>
+        <v>public static final String WINDOW_SPECIFIC_WARNING_PANEL_TEXT="window.specific.warning.panel.text";</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f>IF('Fenêtre spécifique'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B26),".","_"),"=""", 'Fenêtre spécifique'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f>IF('Fenêtre spécifique'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B27),".","_"),"=""", 'Fenêtre spécifique'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f>IF('Fenêtre spécifique'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B28),".","_"),"=""", 'Fenêtre spécifique'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f>IF('Fenêtre spécifique'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B29),".","_"),"=""", 'Fenêtre spécifique'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f>IF('Fenêtre spécifique'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B30),".","_"),"=""", 'Fenêtre spécifique'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f>IF('Fenêtre spécifique'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B31),".","_"),"=""", 'Fenêtre spécifique'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f>IF('Fenêtre spécifique'!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B32),".","_"),"=""", 'Fenêtre spécifique'!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f>IF('Fenêtre spécifique'!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B33),".","_"),"=""", 'Fenêtre spécifique'!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f>IF('Fenêtre spécifique'!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B34),".","_"),"=""", 'Fenêtre spécifique'!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f>IF('Fenêtre spécifique'!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B35),".","_"),"=""", 'Fenêtre spécifique'!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f>IF('Fenêtre spécifique'!B36&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B36),".","_"),"=""", 'Fenêtre spécifique'!B36,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f>IF('Fenêtre spécifique'!B37&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre spécifique'!B37),".","_"),"=""", 'Fenêtre spécifique'!B37,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f>IF('Fenêtre Chargement document'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B2),".","_"),"=""", 'Fenêtre Chargement document'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f>IF('Fenêtre Chargement document'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B3),".","_"),"=""", 'Fenêtre Chargement document'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC="window.type.configuration.DIDACTIC";</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f>IF('Fenêtre Chargement document'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B4),".","_"),"=""", 'Fenêtre Chargement document'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_TYPE_CONFIGURATION_DIDACTIC_EXPERT="window.type.configuration.DIDACTIC_EXPERT";</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f>IF('Fenêtre Chargement document'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B5),".","_"),"=""", 'Fenêtre Chargement document'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TITLE="window.load.texts.title";</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f>IF('Fenêtre Chargement document'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B6),".","_"),"=""", 'Fenêtre Chargement document'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_PANEL_TITLE="window.load.texts.type.configuration.panel.title";</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f>IF('Fenêtre Chargement document'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B7),".","_"),"=""", 'Fenêtre Chargement document'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_LABEL="window.load.texts.type.configuration.label";</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f>IF('Fenêtre Chargement document'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B8),".","_"),"=""", 'Fenêtre Chargement document'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_TYPE_CONFIGURATION_EXPERT_LABEL="window.load.texts.type.configuration.expert.label";</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f>IF('Fenêtre Chargement document'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B9),".","_"),"=""", 'Fenêtre Chargement document'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_PANEL_TITLE="window.load.texts.folder.panel.title";</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
+        <f>IF('Fenêtre Chargement document'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B10),".","_"),"=""", 'Fenêtre Chargement document'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LABEL="window.load.texts.folder.label";</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
+        <f>IF('Fenêtre Chargement document'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B11),".","_"),"=""", 'Fenêtre Chargement document'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_LABEL="window.load.texts.folder.button.label";</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
+        <f>IF('Fenêtre Chargement document'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B12),".","_"),"=""", 'Fenêtre Chargement document'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.button.folder.choose.title";</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
+        <f>IF('Fenêtre Chargement document'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B13),".","_"),"=""", 'Fenêtre Chargement document'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_START_BUTTON_LABEL="window.load.texts.start.button.label";</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
+        <f>IF('Fenêtre Chargement document'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B14),".","_"),"=""", 'Fenêtre Chargement document'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_START_PANEL_TITLE="window.load.texts.start.panel.title";</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
+        <f>IF('Fenêtre Chargement document'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B15),".","_"),"=""", 'Fenêtre Chargement document'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_PANEL_TITLE="window.load.texts.informations.panel.title";</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
+        <f>IF('Fenêtre Chargement document'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B16),".","_"),"=""", 'Fenêtre Chargement document'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE="window.load.texts.informations.message";</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
+        <f>IF('Fenêtre Chargement document'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B17),".","_"),"=""", 'Fenêtre Chargement document'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_PANEL_TITLE="window.load.texts.warning.panel.title";</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
+        <f>IF('Fenêtre Chargement document'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B18),".","_"),"=""", 'Fenêtre Chargement document'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_WARNING_MESSAGE="window.load.texts.warning.message";</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
+        <f>IF('Fenêtre Chargement document'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B19),".","_"),"=""", 'Fenêtre Chargement document'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_INFORMATIONS_MESSAGE_DEFAULT="window.load.texts.informations.message.default";</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
+        <f>IF('Fenêtre Chargement document'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B20),".","_"),"=""", 'Fenêtre Chargement document'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_PANEL_TITLE="window.load.texts.choose.search.panel.title";</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
+        <f>IF('Fenêtre Chargement document'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B21),".","_"),"=""", 'Fenêtre Chargement document'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_CHOOSE_SEARCH_LABEL="window.load.texts.choose.search.label";</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
+        <f>IF('Fenêtre Chargement document'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B22),".","_"),"=""", 'Fenêtre Chargement document'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
+        <f>IF('Fenêtre Chargement document'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B23),".","_"),"=""", 'Fenêtre Chargement document'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
+        <f>IF('Fenêtre Chargement document'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenêtre Chargement document'!B24),".","_"),"=""", 'Fenêtre Chargement document'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
+        <f>IF('Choix bibliotheque texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B2),".","_"),"=""", 'Choix bibliotheque texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
+        <f>IF('Choix bibliotheque texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B3),".","_"),"=""", 'Choix bibliotheque texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_LOAD_TEXTS_FOLDER_LIBRARY_BUTTON_FOLDER_CHOOSE_TITLE="window.load.texts.folder.library.button.folder.choose.title";</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
+        <f>IF('Choix bibliotheque texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B4),".","_"),"=""", 'Choix bibliotheque texte'!B4,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
+        <f>IF('Choix bibliotheque texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B5),".","_"),"=""", 'Choix bibliotheque texte'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
+        <f>IF('Choix bibliotheque texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B6),".","_"),"=""", 'Choix bibliotheque texte'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
+        <f>IF('Choix bibliotheque texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B7),".","_"),"=""", 'Choix bibliotheque texte'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
+        <f>IF('Choix bibliotheque texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B8),".","_"),"=""", 'Choix bibliotheque texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
+        <f>IF('Choix bibliotheque texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B9),".","_"),"=""", 'Choix bibliotheque texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
+        <f>IF('Choix bibliotheque texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B10),".","_"),"=""", 'Choix bibliotheque texte'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
+        <f>IF('Choix bibliotheque texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B11),".","_"),"=""", 'Choix bibliotheque texte'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
+        <f>IF('Choix bibliotheque texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Choix bibliotheque texte'!B12),".","_"),"=""", 'Choix bibliotheque texte'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
+        <f>IF('Fenetre Corpus'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B2),".","_"),"=""", 'Fenetre Corpus'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
+        <f>IF('Fenetre Corpus'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B3),".","_"),"=""", 'Fenetre Corpus'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_TITLE="window.create.corpus.title";</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
+        <f>IF('Fenetre Corpus'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B4),".","_"),"=""", 'Fenetre Corpus'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_FILE_PANEL_TITLE="window.create.corpus.file.panel.title";</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
+        <f>IF('Fenetre Corpus'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B5),".","_"),"=""", 'Fenetre Corpus'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_NAME_LABEL="window.create.corpus.name.label";</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
+        <f>IF('Fenetre Corpus'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B6),".","_"),"=""", 'Fenetre Corpus'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_CONTENT_PANEL_TITLE="window.create.corpus.content.panel.title";</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
+        <f>IF('Fenetre Corpus'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B7),".","_"),"=""", 'Fenetre Corpus'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_PANEL_TITLE="window.create.corpus.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
+        <f>IF('Fenetre Corpus'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B8),".","_"),"=""", 'Fenetre Corpus'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_CORPUS_ACTION_CREATE_TEXT_BUTTON_TITLE="window.create.corpus.action.create.text.button.title";</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
+        <f>IF('Fenetre Corpus'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B9),".","_"),"=""", 'Fenetre Corpus'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_TITLE="window.fixed.error.meta.blank.line.panel.title";</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
+        <f>IF('Fenetre Corpus'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B10),".","_"),"=""", 'Fenetre Corpus'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_QUIT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.quit.button.label";</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
+        <f>IF('Fenetre Corpus'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B11),".","_"),"=""", 'Fenetre Corpus'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_FIXED_ERROR_META_BLANK_LINE_PANEL_SAVE_NEXT_BUTTON_LABEL="window.fixed.error.meta.blank.line.panel.save.next.button.label";</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
+        <f>IF('Fenetre Corpus'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B12),".","_"),"=""", 'Fenetre Corpus'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_CORPUS_TITLE="window.manage.corpus.title";</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
+        <f>IF('Fenetre Corpus'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B13),".","_"),"=""", 'Fenetre Corpus'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_ADD_TEXT_ACTION_BUTTON_SAVE_AND_QUIT_LABEL="window.manage.texts.add.text.action.button.save.and.quit.label";</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
+        <f>IF('Fenetre Corpus'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B14),".","_"),"=""", 'Fenetre Corpus'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f>IF('Fenetre Corpus'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B15),".","_"),"=""", 'Fenetre Corpus'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f>IF('Fenetre Corpus'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B16),".","_"),"=""", 'Fenetre Corpus'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f>IF('Fenetre Corpus'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B17),".","_"),"=""", 'Fenetre Corpus'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f>IF('Fenetre Corpus'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B18),".","_"),"=""", 'Fenetre Corpus'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f>IF('Fenetre Corpus'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B19),".","_"),"=""", 'Fenetre Corpus'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f>IF('Fenetre Corpus'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Corpus'!B20),".","_"),"=""", 'Fenetre Corpus'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f>IF('Fenetre Creation texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B2),".","_"),"=""", 'Fenetre Creation texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f>IF('Fenetre Creation texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B3),".","_"),"=""", 'Fenetre Creation texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_TITLE="window.create.text.title";</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f>IF('Fenetre Creation texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B4),".","_"),"=""", 'Fenetre Creation texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_PANEL_TITLE="window.create.text.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f>IF('Fenetre Creation texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B5),".","_"),"=""", 'Fenetre Creation texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_AND_QUIT_TEXT_BUTTON_TITLE="window.create.text.action.create.and.quit.text.button.title";</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f>IF('Fenetre Creation texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B6),".","_"),"=""", 'Fenetre Creation texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_CREATE_TEXT_AND_ADD_TEXT_BUTTON_TITLE="window.create.text.action.create.text.and.add.text.button.title";</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f>IF('Fenetre Creation texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B7),".","_"),"=""", 'Fenetre Creation texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CREATE_TEXT_ACTION_FILL_SPECIFIC_BUTTON_TITLE="window.create.text.action.fill.specific.button.title";</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f>IF('Fenetre Creation texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B8),".","_"),"=""", 'Fenetre Creation texte'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f>IF('Fenetre Creation texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B9),".","_"),"=""", 'Fenetre Creation texte'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f>IF('Fenetre Creation texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B10),".","_"),"=""", 'Fenetre Creation texte'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f>IF('Fenetre Creation texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B11),".","_"),"=""", 'Fenetre Creation texte'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f>IF('Fenetre Creation texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B12),".","_"),"=""", 'Fenetre Creation texte'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f>IF('Fenetre Creation texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B13),".","_"),"=""", 'Fenetre Creation texte'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f>IF('Fenetre Creation texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B14),".","_"),"=""", 'Fenetre Creation texte'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f>IF('Fenetre Creation texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B15),".","_"),"=""", 'Fenetre Creation texte'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f>IF('Fenetre Creation texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B16),".","_"),"=""", 'Fenetre Creation texte'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f>IF('Fenetre Creation texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B17),".","_"),"=""", 'Fenetre Creation texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f>IF('Fenetre Creation texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B18),".","_"),"=""", 'Fenetre Creation texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f>IF('Fenetre Creation texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B19),".","_"),"=""", 'Fenetre Creation texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f>IF('Fenetre Creation texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B20),".","_"),"=""", 'Fenetre Creation texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f>IF('Fenetre Creation texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Creation texte'!B21),".","_"),"=""", 'Fenetre Creation texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f>IF('Fenetre Gerer les textes'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B2),".","_"),"=""", 'Fenetre Gerer les textes'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
+        <f>IF('Fenetre Gerer les textes'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B3),".","_"),"=""", 'Fenetre Gerer les textes'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_PANEL_LABEL="window.display.texts.panel.label";</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f>IF('Fenetre Gerer les textes'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B4),".","_"),"=""", 'Fenetre Gerer les textes'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_CORPUS_EDIT_BUTTON_LABEL="window.display.corpus.edit.button.label";</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f>IF('Fenetre Gerer les textes'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B5),".","_"),"=""", 'Fenetre Gerer les textes'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_EDIT_BUTTON_LABEL="window.display.texts.edit.button.label";</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f>IF('Fenetre Gerer les textes'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B6),".","_"),"=""", 'Fenetre Gerer les textes'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_DELETE_BUTTON_LABEL="window.display.texts.delete.button.label";</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f>IF('Fenetre Gerer les textes'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B7),".","_"),"=""", 'Fenetre Gerer les textes'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_PREVIOUS_BUTTON_LABEL="window.display.texts.previous.button.label";</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f>IF('Fenetre Gerer les textes'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B8),".","_"),"=""", 'Fenetre Gerer les textes'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_NEXT_BUTTON_LABEL="window.display.texts.next.button.label";</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f>IF('Fenetre Gerer les textes'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B9),".","_"),"=""", 'Fenetre Gerer les textes'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_CURRENT_POSITION_LABEL="window.display.texts.current.position.label";</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f>IF('Fenetre Gerer les textes'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B10),".","_"),"=""", 'Fenetre Gerer les textes'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_NB_TEXTS_BY_PAGE_LABEL="window.display.texts.nb.texts.by.page.label";</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f>IF('Fenetre Gerer les textes'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B11),".","_"),"=""", 'Fenetre Gerer les textes'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_DISPLAY_TEXTS_CORPUS_LABEL="window.display.texts.corpus.label";</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f>IF('Fenetre Gerer les textes'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B12),".","_"),"=""", 'Fenetre Gerer les textes'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_TITLE="window.manage.texts.title";</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f>IF('Fenetre Gerer les textes'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B13),".","_"),"=""", 'Fenetre Gerer les textes'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_PANEL_TITLE="window.manage.texts.generate.excel.panel.title";</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f>IF('Fenetre Gerer les textes'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B14),".","_"),"=""", 'Fenetre Gerer les textes'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_CLASSICAL_BUTTON_LABEL="window.manage.texts.generate.excel.classical.button.label";</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f>IF('Fenetre Gerer les textes'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B15),".","_"),"=""", 'Fenetre Gerer les textes'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_GENERATE_EXCEL_SPECIFIC_BUTTON_LABEL="window.manage.texts.generate.excel.specific.button.label";</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
+        <f>IF('Fenetre Gerer les textes'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B16),".","_"),"=""", 'Fenetre Gerer les textes'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_FILTERS_BUTTON_LABEL="window.manage.texts.filters.button.label";</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
+        <f>IF('Fenetre Gerer les textes'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B17),".","_"),"=""", 'Fenetre Gerer les textes'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_TITLE="window.manage.texts.information.title";</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
+        <f>IF('Fenetre Gerer les textes'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B18),".","_"),"=""", 'Fenetre Gerer les textes'!B18,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_INFORMATION_LABEL="window.manage.texts.information.label";</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
+        <f>IF('Fenetre Gerer les textes'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B19),".","_"),"=""", 'Fenetre Gerer les textes'!B19,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_EXPORT_DOCUMENT_TEXT_BUTTON_LABEL="window.manage.texts.export.document.text.button.label";</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
+        <f>IF('Fenetre Gerer les textes'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B20),".","_"),"=""", 'Fenetre Gerer les textes'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
+        <f>IF('Fenetre Gerer les textes'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B21),".","_"),"=""", 'Fenetre Gerer les textes'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
+        <f>IF('Fenetre Gerer les textes'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B22),".","_"),"=""", 'Fenetre Gerer les textes'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
+        <f>IF('Fenetre Gerer les textes'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B23),".","_"),"=""", 'Fenetre Gerer les textes'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f>IF('Fenetre Gerer les textes'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B24),".","_"),"=""", 'Fenetre Gerer les textes'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f>IF('Fenetre Gerer les textes'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B25),".","_"),"=""", 'Fenetre Gerer les textes'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>IF('Fenetre Gerer les textes'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B26),".","_"),"=""", 'Fenetre Gerer les textes'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f>IF('Fenetre Gerer les textes'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre Gerer les textes'!B27),".","_"),"=""", 'Fenetre Gerer les textes'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f>IF('Fenetre filtre texte'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B2),".","_"),"=""", 'Fenetre filtre texte'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f>IF('Fenetre filtre texte'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B3),".","_"),"=""", 'Fenetre filtre texte'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILTER_TYPE_CONTAINS="window.filter.type.CONTAINS";</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f>IF('Fenetre filtre texte'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B4),".","_"),"=""", 'Fenetre filtre texte'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_FILTER_TYPE_EQUAL="window.filter.type.EQUAL";</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f>IF('Fenetre filtre texte'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B5),".","_"),"=""", 'Fenetre filtre texte'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_GLOBAL_PANEL_TITLE="window.manage.filters.global.panel.title";</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f>IF('Fenetre filtre texte'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B6),".","_"),"=""", 'Fenetre filtre texte'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_PANEL_TITLE="window.manage.filters.panel.title";</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f>IF('Fenetre filtre texte'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B7),".","_"),"=""", 'Fenetre filtre texte'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_TYPE_FILTER_LABEL="window.manage.filters.type.filter.label";</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f>IF('Fenetre filtre texte'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B8),".","_"),"=""", 'Fenetre filtre texte'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_VALUE_FILTER_LABEL="window.manage.filters.value.filter.label";</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f>IF('Fenetre filtre texte'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B9),".","_"),"=""", 'Fenetre filtre texte'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ADD_FILTER_BUTTON_LABEL="window.manage.filters.add.filter.button.label";</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f>IF('Fenetre filtre texte'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B10),".","_"),"=""", 'Fenetre filtre texte'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_PANEL_TITLE="window.manage.filters.corpus.panel.title";</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f>IF('Fenetre filtre texte'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B11),".","_"),"=""", 'Fenetre filtre texte'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_VALUE_LABEL="window.manage.filters.corpus.value.label";</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f>IF('Fenetre filtre texte'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B12),".","_"),"=""", 'Fenetre filtre texte'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_PANEL_TITLE="window.manage.filters.action.panel.title";</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f>IF('Fenetre filtre texte'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B13),".","_"),"=""", 'Fenetre filtre texte'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_ACTION_APPLY_BUTTON_LABEL="window.manage.filters.action.apply.button.label";</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f>IF('Fenetre filtre texte'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B14),".","_"),"=""", 'Fenetre filtre texte'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_CORPUS_ALL_LABEL="window.manage.filters.corpus.all.label";</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f>IF('Fenetre filtre texte'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B15),".","_"),"=""", 'Fenetre filtre texte'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_FILTERS_DELETE_FILTER_BUTTON_LABEL="window.manage.filters.delete.filter.button.label";</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f>IF('Fenetre filtre texte'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B16),".","_"),"=""", 'Fenetre filtre texte'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f>IF('Fenetre filtre texte'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B17),".","_"),"=""", 'Fenetre filtre texte'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f>IF('Fenetre filtre texte'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B18),".","_"),"=""", 'Fenetre filtre texte'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f>IF('Fenetre filtre texte'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B19),".","_"),"=""", 'Fenetre filtre texte'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f>IF('Fenetre filtre texte'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B20),".","_"),"=""", 'Fenetre filtre texte'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f>IF('Fenetre filtre texte'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B21),".","_"),"=""", 'Fenetre filtre texte'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f>IF('Fenetre filtre texte'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B22),".","_"),"=""", 'Fenetre filtre texte'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f>IF('Fenetre filtre texte'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B23),".","_"),"=""", 'Fenetre filtre texte'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f>IF('Fenetre filtre texte'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B24),".","_"),"=""", 'Fenetre filtre texte'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f>IF('Fenetre filtre texte'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Fenetre filtre texte'!B25),".","_"),"=""", 'Fenetre filtre texte'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f>IF('Exporter Excel Reference'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B2),".","_"),"=""", 'Exporter Excel Reference'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f>IF('Exporter Excel Reference'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B3),".","_"),"=""", 'Exporter Excel Reference'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_CLASSICAL_PANEL_TITLE="window.file.picker.classical.panel.title";</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f>IF('Exporter Excel Reference'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B4),".","_"),"=""", 'Exporter Excel Reference'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_PANEL_TITLE="window.save.excel.classical.panel.title";</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f>IF('Exporter Excel Reference'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B5),".","_"),"=""", 'Exporter Excel Reference'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TITLE="window.save.excel.classical.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f>IF('Exporter Excel Reference'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B6),".","_"),"=""", 'Exporter Excel Reference'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.classical.information.panel.text.nothing";</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f>IF('Exporter Excel Reference'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B7),".","_"),"=""", 'Exporter Excel Reference'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_CLASSICAL_INFORMATION_PANEL_TEXT="window.save.excel.classical.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f>IF('Exporter Excel Reference'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B8),".","_"),"=""", 'Exporter Excel Reference'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_CHECK_LABEL="window.save.excel.specific.check.label";</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f>IF('Exporter Excel Reference'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B9),".","_"),"=""", 'Exporter Excel Reference'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_REFERENCE_FILE_LABEL="window.save.excel.reference.file.label";</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f>IF('Exporter Excel Reference'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B10),".","_"),"=""", 'Exporter Excel Reference'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f>IF('Exporter Excel Reference'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B11),".","_"),"=""", 'Exporter Excel Reference'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f>IF('Exporter Excel Reference'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B12),".","_"),"=""", 'Exporter Excel Reference'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_TITLE_PANEL="window.save.excel.options.title.panel";</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f>IF('Exporter Excel Reference'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B13),".","_"),"=""", 'Exporter Excel Reference'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_OPTIONS_HEADER_LABEL="window.save.excel.options.header.label";</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f>IF('Exporter Excel Reference'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B14),".","_"),"=""", 'Exporter Excel Reference'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f>IF('Exporter Excel Reference'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B15),".","_"),"=""", 'Exporter Excel Reference'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f>IF('Exporter Excel Reference'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B16),".","_"),"=""", 'Exporter Excel Reference'!B16,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_TITLE_PANEL="window.save.excel.action.title.panel";</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f>IF('Exporter Excel Reference'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B17),".","_"),"=""", 'Exporter Excel Reference'!B17,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_ACTION_BUTTON_LABEL="window.save.excel.action.button.label";</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f>IF('Exporter Excel Reference'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B18),".","_"),"=""", 'Exporter Excel Reference'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f>IF('Exporter Excel Reference'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B19),".","_"),"=""", 'Exporter Excel Reference'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f>IF('Exporter Excel Reference'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B20),".","_"),"=""", 'Exporter Excel Reference'!B20,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_PANEL_LABEL="window.file.picker.panel.label";</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f>IF('Exporter Excel Reference'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B21),".","_"),"=""", 'Exporter Excel Reference'!B21,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_PANEL_BUTTON="window.file.picker.panel.button";</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f>IF('Exporter Excel Reference'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B22),".","_"),"=""", 'Exporter Excel Reference'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f>IF('Exporter Excel Reference'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B23),".","_"),"=""", 'Exporter Excel Reference'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f>IF('Exporter Excel Reference'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B24),".","_"),"=""", 'Exporter Excel Reference'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f>IF('Exporter Excel Reference'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B25),".","_"),"=""", 'Exporter Excel Reference'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f>IF('Exporter Excel Reference'!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B26),".","_"),"=""", 'Exporter Excel Reference'!B26,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f>IF('Exporter Excel Reference'!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B27),".","_"),"=""", 'Exporter Excel Reference'!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f>IF('Exporter Excel Reference'!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B28),".","_"),"=""", 'Exporter Excel Reference'!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f>IF('Exporter Excel Reference'!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B29),".","_"),"=""", 'Exporter Excel Reference'!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f>IF('Exporter Excel Reference'!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B30),".","_"),"=""", 'Exporter Excel Reference'!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f>IF('Exporter Excel Reference'!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Reference'!B31),".","_"),"=""", 'Exporter Excel Reference'!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B2),".","_"),"=""", 'Exporter Excel Personnalisé'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B3),".","_"),"=""", 'Exporter Excel Personnalisé'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_FILE_PICKER_SPECIFIC_PANEL_TITLE="window.file.picker.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B4),".","_"),"=""", 'Exporter Excel Personnalisé'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_PANEL_TITLE="window.save.excel.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B5),".","_"),"=""", 'Exporter Excel Personnalisé'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TITLE="window.save.excel.specific.information.panel.title";</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B6),".","_"),"=""", 'Exporter Excel Personnalisé'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT_NOTHING="window.save.excel.specific.information.panel.text.nothing";</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B7),".","_"),"=""", 'Exporter Excel Personnalisé'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_INFORMATION_PANEL_TEXT="window.save.excel.specific.information.panel.text";</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B8),".","_"),"=""", 'Exporter Excel Personnalisé'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_PANEL_TITLE="window.save.excel.specific.list.specific.panel.title";</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B9),".","_"),"=""", 'Exporter Excel Personnalisé'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL="window.save.excel.specific.list.specific.label";</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B10),".","_"),"=""", 'Exporter Excel Personnalisé'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_SPECIFIC_LABEL_NOTHING="window.save.excel.specific.list.specific.label.nothing";</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B11),".","_"),"=""", 'Exporter Excel Personnalisé'!B11,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_LIST_FIELDS_TITLE_PANEL="window.save.excel.specific.list.fields.title.panel";</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B12),".","_"),"=""", 'Exporter Excel Personnalisé'!B12,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_FILE_LABEL="window.save.excel.specific.file.label";</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B13),".","_"),"=""", 'Exporter Excel Personnalisé'!B13,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_TITLE_PANEL="window.save.excel.specific.action.title.panel";</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B14),".","_"),"=""", 'Exporter Excel Personnalisé'!B14,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_SELECT_ALL="window.save.excel.specific.action.select.all";</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B15),".","_"),"=""", 'Exporter Excel Personnalisé'!B15,""";"),"")</f>
+        <v>public static final String WINDOW_SAVE_EXCEL_SPECIFIC_ACTION_DESELECT_ALL="window.save.excel.specific.action.deselect.all";</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B16),".","_"),"=""", 'Exporter Excel Personnalisé'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B17),".","_"),"=""", 'Exporter Excel Personnalisé'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B18),".","_"),"=""", 'Exporter Excel Personnalisé'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B19),".","_"),"=""", 'Exporter Excel Personnalisé'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B20),".","_"),"=""", 'Exporter Excel Personnalisé'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B21),".","_"),"=""", 'Exporter Excel Personnalisé'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B22),".","_"),"=""", 'Exporter Excel Personnalisé'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B23),".","_"),"=""", 'Exporter Excel Personnalisé'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B24),".","_"),"=""", 'Exporter Excel Personnalisé'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f>IF('Exporter Excel Personnalisé'!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Exporter Excel Personnalisé'!B25),".","_"),"=""", 'Exporter Excel Personnalisé'!B25,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f>IF(Autres!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B2),".","_"),"=""", Autres!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f>IF(Autres!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B3),".","_"),"=""", Autres!B3,""";"),"")</f>
+        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_ANSWER="window.recovery.error.state.answer";</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f>IF(Autres!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B4),".","_"),"=""", Autres!B4,""";"),"")</f>
+        <v>public static final String WINDOW_RECOVERY_ERROR_STATE_TITLE="window.recovery.error.state.title";</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f>IF(Autres!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B5),".","_"),"=""", Autres!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f>IF(Autres!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B6),".","_"),"=""", Autres!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f>IF(Autres!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B7),".","_"),"=""", Autres!B7,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_PANEL_LABEL="window.information.panel.label";</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f>IF(Autres!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B8),".","_"),"=""", Autres!B8,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_MESSAGE_PANEL_LABEL="window.information.message.panel.label";</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f>IF(Autres!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B9),".","_"),"=""", Autres!B9,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_ACTION_PANEL_LABEL="window.information.action.panel.label";</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f>IF(Autres!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B10),".","_"),"=""", Autres!B10,""";"),"")</f>
+        <v>public static final String WINDOW_INFORMATION_ACTION_BUTTON_LABEL="window.information.action.button.label";</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f>IF(Autres!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B11),".","_"),"=""", Autres!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f>IF(Autres!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B12),".","_"),"=""", Autres!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f>IF(Autres!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B13),".","_"),"=""", Autres!B13,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_ERROR_MOVE_FILE_EXISTS="window.message.error.move.file.exists";</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f>IF(Autres!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B14),".","_"),"=""", Autres!B14,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_RESULT_MOVE_FILE="window.message.result.move.file";</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f>IF(Autres!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B15),".","_"),"=""", Autres!B15,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_UNKNOW_ERROR="window.message.unknow.error";</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f>IF(Autres!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B16),".","_"),"=""", Autres!B16,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_FROM="window.message.from";</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f>IF(Autres!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B17),".","_"),"=""", Autres!B17,""";"),"")</f>
+        <v>public static final String WINDOW_MESSAGE_TO="window.message.to";</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f>IF(Autres!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B18),".","_"),"=""", Autres!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f>IF(Autres!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B19),".","_"),"=""", Autres!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f>IF(Autres!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B20),".","_"),"=""", Autres!B20,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_TITLE="window.manage.texts.delete.text.action.message.title";</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f>IF(Autres!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B21),".","_"),"=""", Autres!B21,""";"),"")</f>
+        <v>public static final String WINDOW_MANAGE_TEXTS_DELETE_TEXT_ACTION_MESSAGE_CONTENT="window.manage.texts.delete.text.action.message.content";</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f>IF(Autres!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B22),".","_"),"=""", Autres!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f>IF(Autres!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B23),".","_"),"=""", Autres!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f>IF(Autres!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B24),".","_"),"=""", Autres!B24,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_PANEL_TITLE="window.wizard.navigation.panel.title";</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f>IF(Autres!B25&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B25),".","_"),"=""", Autres!B25,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_PREVIOUS_BUTTON_LABEL="window.wizard.navigation.previous.button.label";</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f>IF(Autres!B26&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B26),".","_"),"=""", Autres!B26,""";"),"")</f>
+        <v>public static final String WINDOW_WIZARD_NAVIGATION_NEXT_BUTTON_LABEL="window.wizard.navigation.next.button.label";</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f>IF(Autres!B27&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B27),".","_"),"=""", Autres!B27,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f>IF(Autres!B28&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B28),".","_"),"=""", Autres!B28,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f>IF(Autres!B29&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B29),".","_"),"=""", Autres!B29,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f>IF(Autres!B30&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B30),".","_"),"=""", Autres!B30,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f>IF(Autres!B31&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B31),".","_"),"=""", Autres!B31,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f>IF(Autres!B32&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B32),".","_"),"=""", Autres!B32,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f>IF(Autres!B33&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B33),".","_"),"=""", Autres!B33,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f>IF(Autres!B34&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B34),".","_"),"=""", Autres!B34,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f>IF(Autres!B35&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER(Autres!B35),".","_"),"=""", Autres!B35,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f>IF('Changer Configuration'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B2),".","_"),"=""", 'Changer Configuration'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f>IF('Changer Configuration'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B3),".","_"),"=""", 'Changer Configuration'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_TITLE="window.change.configuration.title";</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f>IF('Changer Configuration'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B4),".","_"),"=""", 'Changer Configuration'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_LIST_LABEL="window.change.configuration.list.label";</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f>IF('Changer Configuration'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B5),".","_"),"=""", 'Changer Configuration'!B5,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_PANEL_TITLE="window.change.configuration.panel.title";</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f>IF('Changer Configuration'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B6),".","_"),"=""", 'Changer Configuration'!B6,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_PANEL_TITLE="window.change.configuration.message.panel.title";</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f>IF('Changer Configuration'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B7),".","_"),"=""", 'Changer Configuration'!B7,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_MESSAGE_CONTENT="window.change.configuration.message.content";</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f>IF('Changer Configuration'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B8),".","_"),"=""", 'Changer Configuration'!B8,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_APPLY_AND_CLOSE="window.change.configuration.button.apply.and.close";</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f>IF('Changer Configuration'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B9),".","_"),"=""", 'Changer Configuration'!B9,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTON_CLOSE="window.change.configuration.button.close";</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f>IF('Changer Configuration'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B10),".","_"),"=""", 'Changer Configuration'!B10,""";"),"")</f>
+        <v>public static final String WINDOW_CHANGE_CONFIGURATION_BUTTONS_PANEL_TITLE="window.change.configuration.buttons.panel.title";</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f>IF('Changer Configuration'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B11),".","_"),"=""", 'Changer Configuration'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f>IF('Changer Configuration'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B12),".","_"),"=""", 'Changer Configuration'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f>IF('Changer Configuration'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B13),".","_"),"=""", 'Changer Configuration'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f>IF('Changer Configuration'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B14),".","_"),"=""", 'Changer Configuration'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f>IF('Changer Configuration'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B15),".","_"),"=""", 'Changer Configuration'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f>IF('Changer Configuration'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B16),".","_"),"=""", 'Changer Configuration'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f>IF('Changer Configuration'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B17),".","_"),"=""", 'Changer Configuration'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f>IF('Changer Configuration'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B18),".","_"),"=""", 'Changer Configuration'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f>IF('Changer Configuration'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B19),".","_"),"=""", 'Changer Configuration'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f>IF('Changer Configuration'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B20),".","_"),"=""", 'Changer Configuration'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f>IF('Changer Configuration'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B21),".","_"),"=""", 'Changer Configuration'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f>IF('Changer Configuration'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B22),".","_"),"=""", 'Changer Configuration'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f>IF('Changer Configuration'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Changer Configuration'!B23),".","_"),"=""", 'Changer Configuration'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f>IF('A propos'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B2),".","_"),"=""", 'A propos'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f>IF('A propos'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B3),".","_"),"=""", 'A propos'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_ABOUT_TITLE="window.about.title";</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f>IF('A propos'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B4),".","_"),"=""", 'A propos'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_ABOUT_MESSAGE_CONTENT="window.about.message.content";</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f>IF('A propos'!B5&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B5),".","_"),"=""", 'A propos'!B5,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f>IF('A propos'!B6&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B6),".","_"),"=""", 'A propos'!B6,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f>IF('A propos'!B7&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B7),".","_"),"=""", 'A propos'!B7,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f>IF('A propos'!B8&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B8),".","_"),"=""", 'A propos'!B8,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f>IF('A propos'!B9&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B9),".","_"),"=""", 'A propos'!B9,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f>IF('A propos'!B10&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B10),".","_"),"=""", 'A propos'!B10,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f>IF('A propos'!B11&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B11),".","_"),"=""", 'A propos'!B11,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f>IF('A propos'!B12&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B12),".","_"),"=""", 'A propos'!B12,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f>IF('A propos'!B13&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B13),".","_"),"=""", 'A propos'!B13,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f>IF('A propos'!B14&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B14),".","_"),"=""", 'A propos'!B14,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f>IF('A propos'!B15&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B15),".","_"),"=""", 'A propos'!B15,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f>IF('A propos'!B16&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B16),".","_"),"=""", 'A propos'!B16,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f>IF('A propos'!B17&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B17),".","_"),"=""", 'A propos'!B17,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f>IF('A propos'!B18&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B18),".","_"),"=""", 'A propos'!B18,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f>IF('A propos'!B19&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B19),".","_"),"=""", 'A propos'!B19,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f>IF('A propos'!B20&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B20),".","_"),"=""", 'A propos'!B20,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f>IF('A propos'!B21&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B21),".","_"),"=""", 'A propos'!B21,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f>IF('A propos'!B22&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B22),".","_"),"=""", 'A propos'!B22,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f>IF('A propos'!B23&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B23),".","_"),"=""", 'A propos'!B23,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f>IF('A propos'!B24&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('A propos'!B24),".","_"),"=""", 'A propos'!B24,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f>IF('Export Document Materiel'!B2&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B2),".","_"),"=""", 'Export Document Materiel'!B2,""";"),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f>IF('Export Document Materiel'!B3&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B3),".","_"),"=""", 'Export Document Materiel'!B3,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_TITLE="window.export.document.title";</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f>IF('Export Document Materiel'!B4&lt;&gt;"",CONCATENATE("public static final String ",SUBSTITUTE(UPPER('Export Document Materiel'!B4),".","_"),"=""", 'Export Document Materiel'!B4,""";"),"")</f>
+        <v>public static final String WINDOW_EXPORT_DOCUMENT_CHOOSE_DIRECTORY_PANEL_TITLE="window.export.document.choose.directory.panel.title";</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f>IF('E